--- a/data/tiezi.xlsx
+++ b/data/tiezi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="6930"/>
+    <workbookView windowWidth="13950" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1539,7 +1539,7 @@
 </t>
   </si>
   <si>
-    <t>四川小自考适合公务员的专业有哪些？学费大概多少？</t>
+    <t>四川公务员招聘哪个专业比较多？小自考学历可以考公务员吗？</t>
   </si>
   <si>
     <t xml:space="preserve">四川小自考毕业证书可以考公务员吗？哪些专业适合考公务员？
@@ -1568,7 +1568,7 @@
 </t>
   </si>
   <si>
-    <t>四川小自考建筑经济管理专业难不难？统考多少科？</t>
+    <t>小自考专升本工程类专业 建筑经济管理只需统考6科</t>
   </si>
   <si>
     <t xml:space="preserve">四川小自考建筑经济管理专业考试科目有多少科？多久毕业？
@@ -1591,7 +1591,7 @@
 </t>
   </si>
   <si>
-    <t>国家开放大学的学习形式是什么？在哪里报名？</t>
+    <t>四川国家开放大学学历毕业企业认可吗？学信网可查？</t>
   </si>
   <si>
     <t>四川电大学历找工作有用吗？国家开放大学就是电大吗？
@@ -1604,7 +1604,7 @@
 电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川师范大学自考在哪里报名比较靠谱？报名地址？</t>
+    <t>四川师范大学小自考报名注册中 学费多少 报名地址</t>
   </si>
   <si>
     <t>学校简介：
@@ -1622,7 +1622,10 @@
 电话：199 8120 3720（微信同号）      QQ：1916 3720 47</t>
   </si>
   <si>
-    <t>中央电大的一年制成人中专学费多少？官网可以查询学籍吗？</t>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>报考二建专业或者学历不符合可以选择报成人中专 快速毕业</t>
   </si>
   <si>
     <t>中央广播电视中等专业学校是什么学校？学校是正规的吗？
@@ -1634,12 +1637,12 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考多久报名？一年有几次报名机会？</t>
-  </si>
-  <si>
-    <t>2019年四川小自考秋季报名时间多久开始？报名多久截至？
-自考一年有几次注册时间？2019年秋季注册是什么时候开始？
-四川自学考试每年有四次注册时间，球季注册是现在正在报名，现在报名可参加10月统考！可以选择报考2-4科，可以早半年毕业！现在距离10月考试还有60多天，今年考试时间是在10月19-20号，要报考的学员可安排好时间准备考试了哦~
+    <t>2020年四川小自考多久报名？现在报名多久考试？</t>
+  </si>
+  <si>
+    <t>2020年四川小自考报名时间多久开始？报名多久截至？
+自考一年有几次注册时间？
+四川自学考试每年有四次注册时间，球季注册是现在正在报名，现在报名可参加4月统考！可以选择报考2-4科，可以早半年毕业！要报考的学员可安排好时间准备考试了哦~
 自考多久能毕业？学费多少？报考院校有哪些呢？
 自考的学历形式比较特殊，没有具体的学制要求，学员全部科目考试通过即可申请毕业，一年四次考试机会，较快1年可考完全部科目，1.5年毕业！普遍学员的毕业时间是两年左右，小自考可报考专业齐全，只需统考3-6科，其他9-12科都是过程性校考，学员的学习重心只需要放在统考科目上即可！
 可报考院校：
@@ -1649,7 +1652,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川师范大学面向社会招收成人自考专本科学员 报考专业齐全</t>
+    <t>四川师范大学自考难度高吗？可以自己报名吗？</t>
   </si>
   <si>
     <t>学校简介：
@@ -1665,7 +1668,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>成都理工大学小自考学费较低多少？报名地址？</t>
+    <t>成都理工大学自考学费标准是多少？必须一次性交清吗？</t>
   </si>
   <si>
     <t>学校简介：
@@ -1687,7 +1690,7 @@
 电话：199 8120 3720（微信同号）        QQ:1916 3720 47</t>
   </si>
   <si>
-    <t>2020年四川师范大学小自考多久报名？要统考几科？</t>
+    <t>四川小自考在哪里报名？2020年多久开始注册？</t>
   </si>
   <si>
     <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47
@@ -1711,7 +1714,7 @@
 电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
   </si>
   <si>
-    <t>找工作学历不够怎么办？四川成人学历专本科招生报名中</t>
+    <t>四川成人学历提升报名入口 形式多种 选择适合你的方式</t>
   </si>
   <si>
     <t>四川找工作没有学历怎么办？成人学历可以升职加薪吗？想要入职好工作，学历不够怎么办？
@@ -2487,9 +2490,6 @@
 报名地址：成都市成华区建设路成功银玺国际２８１０号　　　　　　　　　　　　　　　　详情咨询李老师～　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　电话：１９９　８１２０　３７２０（微信同号）　　　扣：１９１６　３７２０　４７</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>成都理工大学小自考每年多久报名？学费按几年交？</t>
   </si>
   <si>
@@ -2774,10 +2774,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -2829,6 +2829,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2836,7 +2843,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2845,6 +2874,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2874,20 +2926,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2905,21 +2943,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2934,21 +2958,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -2956,19 +2965,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3005,7 +3005,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,49 +3065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3071,103 +3077,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3185,7 +3107,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3196,6 +3196,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3213,8 +3222,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3222,8 +3261,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3243,15 +3282,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3266,36 +3296,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3304,10 +3304,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3316,133 +3316,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3857,8 +3857,8 @@
   <sheetPr/>
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52:D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="59.1" customHeight="1" outlineLevelCol="3"/>
@@ -4623,99 +4623,99 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:4">
       <c r="A55" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C58" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:4">
       <c r="A59" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:4">
       <c r="A60" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:4">
       <c r="A61" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>6</v>
@@ -4726,10 +4726,10 @@
     </row>
     <row r="62" customHeight="1" spans="1:4">
       <c r="A62" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>6</v>
@@ -4740,10 +4740,10 @@
     </row>
     <row r="63" customHeight="1" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>6</v>
@@ -4754,10 +4754,10 @@
     </row>
     <row r="64" customHeight="1" spans="1:4">
       <c r="A64" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B64" s="19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>6</v>
@@ -4768,10 +4768,10 @@
     </row>
     <row r="65" customHeight="1" spans="1:4">
       <c r="A65" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>6</v>
@@ -4782,10 +4782,10 @@
     </row>
     <row r="66" customHeight="1" spans="1:4">
       <c r="A66" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>6</v>
@@ -4796,10 +4796,10 @@
     </row>
     <row r="67" customHeight="1" spans="1:4">
       <c r="A67" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>6</v>
@@ -4810,10 +4810,10 @@
     </row>
     <row r="68" customHeight="1" spans="1:4">
       <c r="A68" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>6</v>
@@ -4824,10 +4824,10 @@
     </row>
     <row r="69" customHeight="1" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>6</v>
@@ -4838,10 +4838,10 @@
     </row>
     <row r="70" customHeight="1" spans="1:4">
       <c r="A70" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>6</v>
@@ -4852,10 +4852,10 @@
     </row>
     <row r="71" customHeight="1" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>6</v>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="72" customHeight="1" spans="1:4">
       <c r="A72" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>6</v>
@@ -4880,10 +4880,10 @@
     </row>
     <row r="73" customHeight="1" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>6</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="74" customHeight="1" spans="1:4">
       <c r="A74" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>6</v>
@@ -4908,10 +4908,10 @@
     </row>
     <row r="75" customHeight="1" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>6</v>
@@ -4922,10 +4922,10 @@
     </row>
     <row r="76" customHeight="1" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>6</v>
@@ -4936,10 +4936,10 @@
     </row>
     <row r="77" customHeight="1" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C77" s="10" t="s">
         <v>6</v>
@@ -4950,10 +4950,10 @@
     </row>
     <row r="78" customHeight="1" spans="1:4">
       <c r="A78" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>6</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="79" customHeight="1" spans="1:4">
       <c r="A79" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>6</v>
@@ -4978,10 +4978,10 @@
     </row>
     <row r="80" customHeight="1" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>6</v>
@@ -4992,10 +4992,10 @@
     </row>
     <row r="81" customHeight="1" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>6</v>
@@ -5006,10 +5006,10 @@
     </row>
     <row r="82" customHeight="1" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>6</v>
@@ -5020,10 +5020,10 @@
     </row>
     <row r="83" customHeight="1" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>6</v>
@@ -5034,10 +5034,10 @@
     </row>
     <row r="84" customHeight="1" spans="1:4">
       <c r="A84" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>6</v>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="85" customHeight="1" spans="1:4">
       <c r="A85" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>6</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="86" customHeight="1" spans="1:4">
       <c r="A86" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>6</v>
@@ -5076,10 +5076,10 @@
     </row>
     <row r="87" customHeight="1" spans="1:4">
       <c r="A87" s="12" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>6</v>
@@ -5090,10 +5090,10 @@
     </row>
     <row r="88" customHeight="1" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>6</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="89" customHeight="1" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>6</v>
@@ -5118,10 +5118,10 @@
     </row>
     <row r="90" customHeight="1" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>6</v>
@@ -5132,10 +5132,10 @@
     </row>
     <row r="91" customHeight="1" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>6</v>
@@ -5146,10 +5146,10 @@
     </row>
     <row r="92" customHeight="1" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>6</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="93" customHeight="1" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>6</v>
@@ -5174,10 +5174,10 @@
     </row>
     <row r="94" customHeight="1" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>6</v>
@@ -5188,10 +5188,10 @@
     </row>
     <row r="95" customHeight="1" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>6</v>
@@ -5202,16 +5202,16 @@
     </row>
     <row r="96" customHeight="1" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
@@ -5225,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
@@ -5239,7 +5239,7 @@
         <v>6</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
@@ -5253,7 +5253,7 @@
         <v>6</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
@@ -5267,7 +5267,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:4">

--- a/data/tiezi.xlsx
+++ b/data/tiezi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13950" windowHeight="10800"/>
+    <workbookView windowWidth="18880" windowHeight="9870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$158</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="308">
   <si>
     <t>Title(长度30个字)</t>
   </si>
@@ -256,10 +256,10 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考艺术类专业考不考专业知识？没有基础可以报考吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川自考艺术类专业是不是学费比较贵？统考几科？
+    <t>四川自考艺术类专业有哪些学校在招生 学费贵吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师    电话：199 8120 3720（微信同号）扣：1916 3720 47                               四川小自考艺术类专业难度高吗？只需统考4科？
 所有专业中，艺术类专业跟医学类专业学费都要比普通专业相对高一些哦，也是因为艺术类专业相对来说比普通专业的统考科目要少一些，难度要低一些，学员可以更快时间通过考试申请毕业！
 那么想要报考艺术类专业的同学，想要知道哪些专业是艺术类的专业？考试科目有几科？考试难度？
 李老师给大家总结一下，
@@ -279,7 +279,7 @@
 </t>
   </si>
   <si>
-    <t>四川成人学历有哪些形式？学历学信网可查吗？</t>
+    <t>四川社会人士可以报考哪些学历形式 可以读本科吗</t>
   </si>
   <si>
     <t xml:space="preserve">四川成人学历有哪些是正规学历？学信网可查的？
@@ -300,7 +300,7 @@
 </t>
   </si>
   <si>
-    <t>四川自考怎么报名？报名流程？现在报名多久毕业？</t>
+    <t>四川小自考报名注册时间在多久 报名就要交学费吗</t>
   </si>
   <si>
     <r>
@@ -359,7 +359,7 @@
     </r>
   </si>
   <si>
-    <t>四川小自考有学制要求吗？必须两年考完吗？</t>
+    <t>四川小自考可以考几年 有时间限制吗</t>
   </si>
   <si>
     <r>
@@ -416,7 +416,7 @@
     </r>
   </si>
   <si>
-    <t>川师小自考在哪里可以报名？报考时怎么选择专业？</t>
+    <t>四川师范大学自考的考试都在学校考吗？川师在哪里报名？</t>
   </si>
   <si>
     <t>四川师范大学小自考怎么报名？报名时怎么选择专业？
@@ -437,7 +437,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考会计专业的通过率如何？统考几科？在哪里报名？</t>
+    <t>成都小自考会计专业有哪些学校可以报名 学费一般多少钱</t>
   </si>
   <si>
     <t>专业介绍：
@@ -453,7 +453,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考行政管理专业统考几科？是不是比大自考统考科目少？</t>
+    <t>想报川师大小自考 学费大概多少钱 报考专业有哪些</t>
   </si>
   <si>
     <r>
@@ -555,7 +555,7 @@
     </r>
   </si>
   <si>
-    <t>四川小自考报考流程 报考注意事项</t>
+    <t>2020年四川小自考报名流程 报考注意事项</t>
   </si>
   <si>
     <r>
@@ -613,7 +613,7 @@
     </r>
   </si>
   <si>
-    <t>四川报了大自考太难了考不过怎么办？可以换简单点的吗？</t>
+    <t>四川大自考可以转小自考吗 是不是毕业要快些</t>
   </si>
   <si>
     <t>四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
@@ -646,7 +646,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川专本套读难不难？在哪里报考？</t>
+    <t>四川没有专科毕业证可以报本科吗？套读难吗？几年毕业？</t>
   </si>
   <si>
     <r>
@@ -694,7 +694,7 @@
     </r>
   </si>
   <si>
-    <t>四川自考有计算机专业吗？通过率高吗？</t>
+    <t>四川小自考有哪些计算机专业？要统考几科？</t>
   </si>
   <si>
     <t>西华师范大学/成都理工大学现招收小自考计算机专业，it行业现在对从业人员的学历要求越来越高，所以从事计算机行业的同学们赶快报考成人学历提升自己的学历，让自己不要因为学历原因应聘不上自己想去的公司。
@@ -708,7 +708,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川电大学历含金量是不是不高？学信网能查吗？</t>
+    <t>成都报国家开放大学在哪里报名？报名时间？</t>
   </si>
   <si>
     <r>
@@ -760,7 +760,7 @@
     </r>
   </si>
   <si>
-    <t>小自考工程造价报考哪个学校比较好？考试难度？</t>
+    <t>四川小自考工程造价专业学费贵吗？没有基础可以报名吗？</t>
   </si>
   <si>
     <t>小自考工程造价专业火热招生中！
@@ -775,7 +775,7 @@
 电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考汉语言文学专业可以报哪个学校？成都报名点在哪儿？</t>
+    <t>小自考汉语言文学专业毕业好找工作吗？学费多少？</t>
   </si>
   <si>
     <t>四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
@@ -800,7 +800,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>小自考只有四川才有吗？国家认可小自考学历吗？</t>
+    <t>四川成人学历提升报名入口 省内重点大学招生 名额有限</t>
   </si>
   <si>
     <t>自考是成人学历的其中一种形式，
@@ -833,10 +833,10 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考小学教育统考几科？学费多少？</t>
-  </si>
-  <si>
-    <t>想要自考小学教育专业的学员看过来，
+    <t>想报小学教育专业什么学历形式含金量高？考试难度如何？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">想要自考小学教育专业的学员看过来，
 李老师为你解答你的疑问，
 首先自考小学教育专业到底难不难？
 小学教育专业是文科类专业，
@@ -869,14 +869,13 @@
 正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（四川师范大学自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考美术教育是不是统考科目较少的专业 多久毕业？</t>
-  </si>
-  <si>
-    <t>美术教育专业：
+</t>
+  </si>
+  <si>
+    <t>四川小自考美术教育专业 仅需统考3科 快速考完毕业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美术教育专业：
 美术教育专业以培养德、智、体、美全面发展，较系统地掌握美术基本理论、基本知识和美术教师必备的职业道德，职业技能，能够较好地适应民族教育改革发展，胜任小学美术教育教学工作为宗旨，兼顾培养从事与美术专业相关工作的实用性、应用性人才。
 西华师范大学、四川师范大学现招收美术教育专业本科自考学员，名额有限，需要报名的学员要抓紧时间报名！
 统考较少只参加两门！
@@ -891,11 +890,10 @@
 报名时间：正在火热报名中(名额有限，赶快抓紧时间报名哦）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>电大一年制中专在哪里报名  报考专业  学费</t>
+</t>
+  </si>
+  <si>
+    <t>四川二建报名条件 必须要工程类专业的学历才行吗？</t>
   </si>
   <si>
     <r>
@@ -931,7 +929,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>毕业证！
+      <t xml:space="preserve">毕业证！
 中专学历有什么用：
 可用于报考二级建造师，九大员，安全工程师等考试，
 可用于参军，就业，
@@ -943,18 +941,17 @@
 毕业由中央广播电视中等学校验印的成人中等毕业证书！国家承认！
 报考一年制中专毕业后可以考二建吗？答案是肯定的，成人中专是中央电大特别为考证的学员设置的班型，是正规学历，注册后一个月可在学校网站查询考籍，正规学历当然是可以正常报考二建等证书的！
 学费：1480元（全部学费） 需要提升学历的咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
 每月滚动注册，学员交资料报名即可注册！
 报名地址：川师自考教学点（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考汉语言文学专业通过率高吗？这个专业是不是比较简单？</t>
-  </si>
-  <si>
-    <t>四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+</t>
+    </r>
+  </si>
+  <si>
+    <t>四川报汉语言文学报哪个学校比较好 自考在校外报名靠谱吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 首先汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上。
 汉语言文学专业统考科目分别是：00537 中国现代文学史、00529 中国古代文学史（一）、00539 中国古代文学史（二）、00540 外国文学史、00541 语言学概论、00547 马列文论选读
@@ -965,13 +962,13 @@
 学费低至3400元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，毕业获颁由学校和自考办联合颁发的毕业证书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考工程造价专业统考哪几科？大概要花多少钱？</t>
-  </si>
-  <si>
-    <t>四川小自考工程造价统考几科？每个学校考试科目都一样吗？
+</t>
+  </si>
+  <si>
+    <t>四川小自考工程造价专业统考哪几科？校考严格吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考工程造价统考几科？每个学校考试科目都一样吗？
 小自考工程造价专业火热招生中！
 小自考工程造价可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南交通大学等省内重点大学，现在报考可参加12月底校考，本次注册是今年最后一次注册机会，可早半年毕业！
 统考考试科目： 建筑工程定额预算、建设工程工程量清单计价实务、建设工程合同条款、工程项目管理、工程造价确定与控制、房屋建筑工程概论，统考6科，需要看书学习的就是这6科！
@@ -981,10 +978,10 @@
 学费低至2000+/年（学费按两年收取），现在报名可申请助学金200-600元，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询：李老师
-电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考人力资源管理专业就业前景如何？在哪里报名？</t>
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考人力资源管理专业统考哪些科目？学费？</t>
   </si>
   <si>
     <t xml:space="preserve">成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
@@ -1002,14 +999,13 @@
 报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）        QQ:1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川小自考在哪里机构报名比较靠谱？有没有报过的人推荐一下？</t>
-  </si>
-  <si>
-    <t>四川小自考报考机构哪一个比较负责？选择适合自己的专业？
+    <t>四川小自考报名哪家机构靠谱？报名后全靠自己学习吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考报考机构哪一个比较负责？选择适合自己的专业？
 很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
 校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
 本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
@@ -1017,10 +1013,10 @@
 可报考专业齐全，详情可加李老师咨询，很多考生报考时不知道选择专业的话，可以选择报考热门专业，列如汉语言文学、法学、行政管理、工商管理、小学教育等专业都是每年报考的热门专业，也是通过率较高比较好考的专业，对于很多对专业没有要求的考生来说，报考以上专业可以较快时间考完毕业！
 报名地址：成都市成华区建设路银玺国际2810号
 更多咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>小自考在哪里报名？报名时间？报名资料？</t>
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考报名流程 报名地址 报考院校有哪些？</t>
   </si>
   <si>
     <r>
@@ -1051,7 +1047,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>是多少？在哪里报名？报名需要提供哪些资料？
+      <t xml:space="preserve">是多少？在哪里报名？报名需要提供哪些资料？
 李老师来为大家慢慢的解答~
 首先四川小自考（应用型）报名
 主要是准备六门左右的统考，其余9-12科为校考科目，校考过程性考试，学员只需到场配合学校处理，小自考有资料、辅导，统考科目也少，在通过率上有优势。费用的话学校不同学费也有所不同，学费低至2000+元/年（学费按两年收取），学员可根据自身情况选择报考学校跟专业。
@@ -1074,11 +1070,11 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号，报名即跟学员签订保障学员权益的协议，学员可放心报考！
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>小自考工商管理专业就业前景 学费大概多少？</t>
+</t>
+    </r>
+  </si>
+  <si>
+    <t>四川小自考工商管理专升本报考院校 学费怎么交？</t>
   </si>
   <si>
     <t>四川小自考工商管理专业统考几科？这个专业好考吗？
@@ -1105,7 +1101,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川成人学历在哪里报名？有哪些学校？</t>
+    <t>四川成人学历报名就要交学费吗？报名条件？</t>
   </si>
   <si>
     <t xml:space="preserve">四川成人学历是正规学历吗？有哪些学校可以报考？四川成人学历提升报名怎么报？在哪儿报名？学费多少？
@@ -1124,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t>四川小自考报考流程 报名方式 注册时间</t>
+    <t>四川小自考在机构报名跟在学校报名一样吗？会不会注册不上？</t>
   </si>
   <si>
     <t>很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
@@ -1140,7 +1136,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
   </si>
   <si>
-    <t>四川小自考报名需要本人现场报名吗？成都报名点在哪里？</t>
+    <t>四川小自考报名条件？学历要求是什么？学费大概多少？</t>
   </si>
   <si>
     <t>很多想要报考小自考的学员，都想了解小自考报名的学费是多少？在哪里报名？报名需要提供哪些资料？
@@ -1169,7 +1165,7 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
   </si>
   <si>
-    <t>学历低 川内重点大学成人学历专本科招生中 轻松毕业</t>
+    <t>四川成人学历报名可以选择什么形式？学费贵吗？现在还可以报吗？</t>
   </si>
   <si>
     <t>很多已经毕业的小伙伴，想要提升学历，不了解该怎么报考？
@@ -1189,11 +1185,11 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川成人学历报名入口 名校招生 轻松拿名校学历</t>
-  </si>
-  <si>
-    <t>成人学历中什么形式可以较快拿到毕业证书？
-找李老师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到毕业证书的，自考只需要全部科目考试通过就可以申请毕业，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取毕业证书！
+    <t>四川小自考较快多久毕业？多久拿毕业证？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成人学历中什么形式可以较快拿到毕业证书？
+                                               找李老师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到毕业证书的，自考只需要全部科目考试通过就可以申请毕业，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取毕业证书！
 且自毕业证书含金量高，企业认可度高！
 考试科目：
 统考：6科 校考：12-14科（由学校组织，过程性考试）
@@ -1209,14 +1205,13 @@
 报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>成都理工大学有小自考吗？较快多久毕业？</t>
-  </si>
-  <si>
-    <t>学校简介：
-成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
+</t>
+  </si>
+  <si>
+    <t>2020年成都理工大学小自考有哪些专业可以报名？考试难度？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
 专业介绍：
 艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
 成都理工大学现招收小自考艺术设计类专业学员，现在报名可申请200-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
@@ -1227,10 +1222,10 @@
 学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可申请200-600元助学补贴，名额有限
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考学历含金量高吗？找工作公司认可吗？</t>
+</t>
+  </si>
+  <si>
+    <t>四川小自考现在可以报名吗？学校跟专业怎么选择？</t>
   </si>
   <si>
     <r>
@@ -1240,7 +1235,7 @@
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>1.自考是成人学历中含金量较高的，所以难度也是相对</t>
+      <t xml:space="preserve">  1.自考是成人学历中含金量较高的，所以难度也是相对</t>
     </r>
     <r>
       <rPr>
@@ -1258,7 +1253,7 @@
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
+      <t xml:space="preserve">较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
 2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
 大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
 3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
@@ -1267,14 +1262,14 @@
 四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考怎么上课？学校会开课吗？学费怎么缴纳？</t>
-  </si>
-  <si>
-    <t>四川小自考报考后该怎么学习？统考难不难？
+</t>
+    </r>
+  </si>
+  <si>
+    <t>小自考小学教育专业报考哪个学校比较好？学费贵吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                            四川小自考报考后该怎么学习？统考难不难？
 想要自考小学教育专业的学员看过来，
 李老师为你解答你的疑问，
 首先自考小学教育专业到底难不难？
@@ -1308,10 +1303,10 @@
 正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（四川师范大学自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>成都小自考有哪些学校在招生？通过率比较高的专业有哪些？</t>
+</t>
+  </si>
+  <si>
+    <t>四川小自考好考的专业推荐一下 没有基础可以报考吗</t>
   </si>
   <si>
     <r>
@@ -1321,7 +1316,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>四川小自考热门专业推荐?怎么报名?多久毕业?
+      <t xml:space="preserve">                  四川小自考热门专业推荐?怎么报名?多久毕业?
 自</t>
     </r>
     <r>
@@ -1340,7 +1335,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>考是成人学历的其中一种形式，
+      <t xml:space="preserve">考是成人学历的其中一种形式，
 它的含金量也是非常高的，
 考验了学员的自学能力，
 很多学员就认为那自考应该是很难的，
@@ -1367,14 +1362,14 @@
 四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 现在报名科申请200元-600元助学补贴，名额有限，学费低，通过率高！想要报名的学员抓紧时间联系李老师咨询详情~
-电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考一年考几次？报名到毕业的流程是什么？</t>
-  </si>
-  <si>
-    <t>四川小自考是什么学历形式？一年考几次？考试难吗？
+</t>
+    </r>
+  </si>
+  <si>
+    <t>四川小自考报名后需要参加几次考试才能毕业？含金量高吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                四川小自考是什么学历形式？一年考几次？考试难吗？
 自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请毕业，自考的是学费低、教考分离、毕业生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予毕业（60分既合格）颁发毕业证，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
 那么很多学员都会思考一个问题，学历提升有什么好处呢？我为什么要提升学历呢？
 1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考毕业时间灵活，一年考四次，较快可1年考完全部科目，1.5年毕业！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
@@ -1393,13 +1388,13 @@
 （校考）由我处组织，都是在成都市区各大中小学考场
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>中央电大成人一年制中专报名入口  7-10个月拿毕业证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中央电大一年制中专真的可以半年毕业吗？靠谱吗？
+</t>
+  </si>
+  <si>
+    <t>四川二建多久开始报名 学历不符合怎么办</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                 中央电大一年制中专真的可以半年毕业吗？靠谱吗？
 很多学员为了考证书会选择报考成人中专，中央电大现开设成人一年制中专报名，报考专业齐全，是学校正规开设的学历形式，学制为1年，但是实际毕业时间为7-10个月，方便学员参加资格证书考试，在学校官网可查学籍，也可在线验证，学员可放心报考！
 如何查询学籍？在哪里查询？
 入学后学籍查询网址：
@@ -1428,14 +1423,13 @@
 学费：1480元（全包，学员只管拿证）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川学历低该如何提升学历？成人如何报考学历?</t>
-  </si>
-  <si>
-    <t>工作后学历低找不到好工作怎么办？四川成人学历报名入口：
+    <t>四川成人学历专本科报名入口 早报早毕业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   工作后学历低找不到好工作怎么办？四川成人学历报名入口：
 很多同学早早开始工作，工作后怎么提升学历呢？其实成人是可以提升学历的，适合各种学历人群，无论你是初高中毕业或者是专科毕业，都是可以通过自己努力拿到本科学历的，且成人学历都是国家认可，学信网可查的正规学历！
 初高中毕业的同学怎么拿本科学历呢？
 李老师推荐可以选择专本套读的学历形式，
@@ -1452,13 +1446,14 @@
 报自考学员报名后就有教材+资料+在线题库+面授课程+专业的教务班主任服务，学员轻松学习，轻松毕业。是包含在学费内的哦~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>川师小自考通过率如何？现在还能报名吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">川师小自考在哪里报名？专业有哪些？有老师上课吗？
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考在学校报名有老师上课吗？专业有哪些？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    
+川师小自考在哪里报名？专业有哪些？有老师上课吗？
 学校简介：
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学现可报名专业：
@@ -1467,16 +1462,15 @@
 考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
 考试时间：统考在每年的4月、10月，校考在每年的7月、12月
 学费最低低至3000+/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加10月统考！
+报名即可签订协议保障学员权益！现在报名可参加4月统考！
 以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！
 报名时间：正在报名注册中
 报名地址：四川师范大学自考教学点（成都市成华区建设路银玺国际2810号）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川大自考跟小自考到底有没有区别？认可度是一样的吗？</t>
+    <t>小自考与大自考有什么区别？毕业证书真的一样吗？</t>
   </si>
   <si>
     <r>
@@ -1486,7 +1480,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>四川毕业证怎么区分大小自考？小自考会不会单位不认可？
+      <t xml:space="preserve">                    四川毕业证怎么区分大小自考？小自考会不会单位不认可？
 1.自考是成人学历中含金量较高的，所以难度也是相对</t>
     </r>
     <r>
@@ -1505,7 +1499,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
+      <t xml:space="preserve">较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
 2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
 大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
 3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
@@ -1514,11 +1508,11 @@
 四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川师范大学的小自考在哪里可以报名？现在还能报名吗？</t>
+</t>
+    </r>
+  </si>
+  <si>
+    <t>四川师范大学有小自考吗？怎么报名？</t>
   </si>
   <si>
     <t xml:space="preserve">四川师范大学小自考只针对校内招生吗？在职人员可以报考吗？
@@ -1532,14 +1526,13 @@
 考试科目：
 统考：6科        校考：9-12科（由学校组织，过程性考试）
 自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
+学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
 报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川公务员招聘哪个专业比较多？小自考学历可以考公务员吗？</t>
+    <t>四川要考公务员报哪个专业比较好？自考学历有用吗？</t>
   </si>
   <si>
     <t xml:space="preserve">四川小自考毕业证书可以考公务员吗？哪些专业适合考公务员？
@@ -1564,11 +1557,10 @@
 学费低至2800元/年（按两年收取）包含全套教材资料，视频课件，面授课程，更有班主任全程一对一带班！现在报名可申请400-600元的助学补贴，名额有限，详情速速咨询李老师
 报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916372047
 </t>
   </si>
   <si>
-    <t>小自考专升本工程类专业 建筑经济管理只需统考6科</t>
+    <t>四川小自考建筑经济管理专业考哪些科目？学费贵吗？</t>
   </si>
   <si>
     <t xml:space="preserve">四川小自考建筑经济管理专业考试科目有多少科？多久毕业？
@@ -1586,28 +1578,26 @@
 报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
 学校授权的教学点，报名即签订保障学员权益的协议书，学员可放心报考！
 详情咨询李老师~
-电话：199 8120 3720（微信同号）
-扣：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川国家开放大学学历毕业企业认可吗？学信网可查？</t>
-  </si>
-  <si>
-    <t>四川电大学历找工作有用吗？国家开放大学就是电大吗？
+    <t>2020年国家开放大学春季报名注册中 专业齐全 四川报名入口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川电大学历找工作有用吗？国家开放大学就是电大吗？
 学校简介：
 国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
 国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
 毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考报名注册中 学费多少 报名地址</t>
-  </si>
-  <si>
-    <t>学校简介：
+</t>
+  </si>
+  <si>
+    <t>想报川师大自考 在哪里报名比较便宜 学费大概多少？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
 四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 可报考专业：
 专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
@@ -1616,16 +1606,13 @@
 考试科目：
 统考：6科        校考：9-12科（由学校组织，过程性考试）
 自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
+学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
 报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>报考二建专业或者学历不符合可以选择报成人中专 快速毕业</t>
+</t>
+  </si>
+  <si>
+    <t>四川二建报名条件不够怎么办？成人中专多少钱？</t>
   </si>
   <si>
     <t>中央广播电视中等专业学校是什么学校？学校是正规的吗？
@@ -1634,13 +1621,13 @@
 学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，毕业可在线验证学历真实性，学制1年，实际毕业时间为7-10个月，学员毕业后可用于考幼师，二建，当兵等，现在执业资格证书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避免考试通过后拿不到证书的风险！
 中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取毕业证书！学费低至1480元，全包，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>2020年四川小自考多久报名？现在报名多久考试？</t>
-  </si>
-  <si>
-    <t>2020年四川小自考报名时间多久开始？报名多久截至？
+详情咨询李老师~</t>
+  </si>
+  <si>
+    <t>四川小自考报名多久截止 一年几次报名机会？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年四川小自考报名时间多久开始？报名多久截至？
 自考一年有几次注册时间？
 四川自学考试每年有四次注册时间，球季注册是现在正在报名，现在报名可参加4月统考！可以选择报考2-4科，可以早半年毕业！要报考的学员可安排好时间准备考试了哦~
 自考多久能毕业？学费多少？报考院校有哪些呢？
@@ -1649,13 +1636,13 @@
 四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学，学费地址2700/年（按两年收取），学费包含教材资料，大专业学校还会开设视频课程，也会有押题资料，帮助学员顺利通过考试，想要报考的学员要抓紧时间联系李老师咨询哦~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学自考难度高吗？可以自己报名吗？</t>
-  </si>
-  <si>
-    <t>学校简介：
+</t>
+  </si>
+  <si>
+    <t>四川师范大学成人可以报吗？学费贵吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
 四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 高中毕业工作后想要拿大学毕业证书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请毕业，毕业后由四川师范大学颁发正规合法的毕业证书，学信网可查，社会认可度高！
 现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
@@ -1665,13 +1652,32 @@
 自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年毕业！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>成都理工大学自考学费标准是多少？必须一次性交清吗？</t>
-  </si>
-  <si>
-    <t>学校简介：
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020年成都理工大学小自考报名入口 报考专业齐全</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
 成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
 专业介绍：
 人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
@@ -1687,13 +1693,13 @@
 报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）        QQ:1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考在哪里报名？2020年多久开始注册？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考专业表 现在还可以报名吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
 四川师范学院现招收自考专本科学员，名校招生，名额有限，自考报名时间在9月底截止，需要报名的学员要抓紧时间报名哦！
 可报考专业：
@@ -1711,13 +1717,13 @@
 毕业证申请时间每年的6月和12月
 报名地址:成都市成华区建设路银玺国际2810号
 详情可咨询李老师~
-电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历提升报名入口 形式多种 选择适合你的方式</t>
-  </si>
-  <si>
-    <t>四川找工作没有学历怎么办？成人学历可以升职加薪吗？想要入职好工作，学历不够怎么办？
+</t>
+  </si>
+  <si>
+    <t>四川成人学历报名入口 省内重点大学开放端口注册</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川找工作没有学历怎么办？成人学历可以升职加薪吗？想要入职好工作，学历不够怎么办？
 很多找工作的小伙伴应该能了解，现在企事业单位对学历的要求都是越来越高了，连链家的销售竟然都要求本科学历了，国企就更不用说了，至少本科学历，那么学历不高但是想找个好工作该怎么办呢？
 下面李老师就跟大家讲解一下成人获得学历的几种方式，成人学历分为自考，成教，网教，电大四大类型；其中含金量较高的是自考，依次为成交，网教，电大。
 1，自考，就是通过学员自己学习然后参加考试，考试科目为16-18科，考过即可申请毕业（60分即合格），没有时间限制，没有年龄限制，含金量高，但是需要学员花一定时间学习。
@@ -1731,13 +1737,13 @@
 报名时间：
 现自考/成教正在火热报名中，名额有限，错过需等明年才能报名，想要报名费学员抓紧时间联系李老师咨询~
 地址：成都市成华区建设路成功银玺国际2810号
-电话：199 8120 3720（微信同号） QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>小自考考几次毕业？一般多久能拿证？</t>
-  </si>
-  <si>
-    <t>四川小自考一年考几次？考试难不难？学费贵吗？什么是自考?过程怎么样? 
+</t>
+  </si>
+  <si>
+    <t>四川小自考报名后多久能毕业？学费多少？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考一年考几次？考试难不难？学费贵吗？什么是自考?过程怎么样? 
 自考属于成人学历中含??金量较高的,学信网终身可以查询,社会认可度较高的学历。相比成教,网教,电大等学历,它的考试周期短,考试安排灵活,考完即可毕业。自考包含统考和校考,统考一般3-6门左右,由国家统一组织考试,校考则是学校组织的过程性考试。每年4、10为统考,12月、6月为校考，学员较快1年可考完全部科目，1.5年毕业！
 1、问:两年期满,有的课程仍未合格怎么办?? 
 答:两年期满对于那些仍未考试合格的考生,可继续参加相应课程的考试,在所有课程考试合格后申请自学考试本科毕业证书。 
@@ -1759,17 +1765,30 @@
 电话:199 8120 3720（微信同号）      QQ:1916 3720 47</t>
   </si>
   <si>
-    <t>四川师范大学成人学历有哪些形式？考试难度高吗？</t>
-  </si>
-  <si>
-    <t>四川小自考报名地址在哪儿？学费标准？</t>
-  </si>
-  <si>
-    <t>四川在哪里报名小自考？小自考现在报名多久考试呢？
+    <t>成人想要报考四川师范大学该怎么报考？大概要花多少钱？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+高中毕业工作后想要拿大学毕业证书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请毕业，毕业后由四川师范大学颁发正规合法的毕业证书，学信网可查，社会认可度高！
+现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
+报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
+学费：
+成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
+自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年毕业！
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年四川小自考春季招生中 报名即参加4月考试</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川在哪里报名小自考？小自考现在报名多久考试呢？
 在四川的同学们，在报考自考时，都会疑惑四川小自考在哪里报名呢？成都报名点在哪里？现在报名多久考试呢？
 下面李老师为大家讲解下，报考自考的流程以及注意事项：
 首先小自考是学校开设的正规学历，比大自考简单一些，只需要统考3-6科，其他的9-12科都是过程性校考，校考是学校组织监考的过程性考试，学员只需把学习重心放在统考科目上即可，统考科目大专业学校会开始视频课程，学员可登陆app个人学习，考前集中刷题，帮助学员顺利通过考试！
-小自考一年有两次注册机会，分别是上半年3-5月，下半年9-11月，学校招生名额招满截止，现在报考的同学们都是参加12月的校考，小自考一年有四次考试机会，最快1年可考完全部科目，1.5年毕业！学员普遍毕业时间是是2年左右！对于很多想要快速拿到学历证书的学员，小自考是可以最快时间毕业的学历形式！
+小自考一年有两次注册机会，分别是上半年3-5月，下半年9-11月，学校招生名额招满截止，现在报考的同学们都是参加4月统考，小自考一年有四次考试机会，最快1年可考完全部科目，1.5年毕业！学员普遍毕业时间是是2年左右！对于很多想要快速拿到学历证书的学员，小自考是可以最快时间毕业的学历形式！
 四川小自考在哪里报名呢？怎么报考呢？学员可以自己报考吗？
 小自考是学校开设的学历形式，学员是不能够自己注册的，是需要交资料给老师，老师给学员注册的，注册考籍后学员可根据班主任老师的通知进行报考，然后参加考试，现在报名可参加12月底的校考，可早半年毕业！
 本处为小自考报名点，可报考学校有四川师范大学，成都理工大学，西南石油大学，西南财经大学等名校，学费低至2700元/年（学费按两年收取）现在可报考专业齐全，详情可加李老师咨询~
@@ -1778,7 +1797,7 @@
 电话：199 8120 3720 （微信同号）     扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川成人学历报名入口 报考专业齐全 大概学费</t>
+    <t>四川成人学历报考条件是什么？有年龄限制吗？</t>
   </si>
   <si>
     <r>
@@ -1788,7 +1807,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>我国现行成人学历有哪些形式：统招、自考、成教、</t>
+      <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                                我国现行成人学历有哪些形式：统招、自考、成教、</t>
     </r>
     <r>
       <rPr>
@@ -1838,33 +1857,23 @@
     </r>
   </si>
   <si>
-    <t>四川电大成人中专在哪里报名？学费多少？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校简介：
-中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
-中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
-一、招生专业
-建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
-以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿毕业证书！
-二、招生对象
-应往届初中毕业生、高中毕业生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！
-三、招生时间
-每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
-四、学习方式
-线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
-学历证书可在中央广播电视中等专业学校的官网上查询并验证，如有需要可以生成学历证书在线验证报告。
-学费：1480元（全包）
-报名地址：成都市成华区建设路银玺国际2810-2811号
-详情咨询李老师~
-电话：199 8120 3720 （微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川报小自考大概要准备多少钱？学费怎么缴纳？</t>
-  </si>
-  <si>
-    <t>四川小自考学费大概多少？报考学校有没有区别？
+    <t>中央广播电视大学有开设成人中专吗？学历是正规的吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+中央广播电视大学有哪些中专专业？多久毕业？
+中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
+学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，毕业可在线验证学历真实性，学制1年，实际毕业时间为7-10个月，学员毕业后可用于考幼师，二建，当兵等，现在执业资格证书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避**试通过后拿不到证书的风险！
+中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取毕业证书！
+学费低至1480元，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考学校不同含金量一样吗？考试科目也是一样吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考学费大概多少？报考学校有没有区别？
 四川小自考的学费大致在5000-8000元左右不等，不同学校的收费标准是不同的，学员可以根据自身情况来选择报考的院校及专业，现在可报考专业齐全，详情可加李老师咨询~
 川内现在可报考院校：
 四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，早半年毕业！四川2019年报考自考的学员已经突破25万，同学们，想要获得自己想要的生活是需要通过自己努力的，趁年轻多提升自己，现在报考还可申请200-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
@@ -1874,10 +1883,10 @@
 电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川成人自考学历有学位证书吗？四六级证书可免考学位英语</t>
-  </si>
-  <si>
-    <t>四川小自考毕业有学位证书吗？申请学士学位有哪些条件？
+    <t>四川自考学历申请学位证书怎么怎么申请？怎么走流程？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考毕业有学位证书吗？申请学士学位有哪些条件？
 四川小自考毕业后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
 一、基本要求：
 ①本科毕业生均应在获得本科毕业生证书后两年内提出申请，未通过者不再补授学士学位；毕业两年内必须申请，超过两年就不能再申请了。
@@ -1889,15 +1898,15 @@
 2、本科毕业证书原件、复印件及本科学历证书电子注册备案表。
 具体申报时需要提供的资料班主任会单独通知，学员只需配合班主任准备资料即可！
 四川小自考现在可报考的院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询~
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加4月统考，可报考2-4科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号
 电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
   </si>
   <si>
-    <t>大自考太难考不过怎么办？四川小自考报名 统考科目少</t>
-  </si>
-  <si>
-    <t>四川应用型自考跟社会性自考有什么区别？含金量一样吗？
+    <t>四川小自考难度高吗？考过的多吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                              四川应用型自考跟社会性自考有什么区别？含金量一样吗？
 区别：
 （1）应用型自考就是小自考，是学校开放对外招收的，只需统考3-6科，其他的9-12科都是过程性校考，学员把学习的重心放在统考科目上就行了，校考科目不需要学员花时间看书学习，一年考四次，较快可1年考完全部科目，1年9个月毕业！社会型自考也就是大自考，是全部科目12-14科都参加全国统考，一年两次考试机会，全靠学员自学通过考试！考试通过才能申请毕业，通过率低，能毕业的学员基本都需要3-5年！
 （2）参加应用行自考的学生必须参加主考院校的助学才可以报考，学生在全面系统的教学辅导下循序渐进，通过率得到保证，通过系统学习又能真正掌握知识，因此以通过率高、毕业时间短、文凭含金量高等特点受到社会、用人单位和考生的广泛好评，保证了毕业生质量。全程有班主任代班，不会出现学员报考后没有老师管理的情况，社会性大自考学员可自行到官网注册考籍，然后自己报考即可！
@@ -1910,10 +1919,10 @@
 电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
   </si>
   <si>
-    <t>没有标题</t>
-  </si>
-  <si>
-    <t>四川成人学历有什么作用？成人学历是学校正规招收的学历吗？
+    <t>四川成人学历是正规学历吗？学信网可查吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川成人学历有什么作用？成人学历是学校正规招收的学历吗？
 很多考生对于成人学历有误区，认为成人学历不是正规学历企业不会认可？成人学历到底是主要针对哪些学员开设的呢？
 首先成人学历是学校坚持继续教育以安全稳定为前提、规范办学为基础、服务学生为根本“三位一体”的发展思路，继续教育各类在籍学生总体规模稳步增长。50多年来为社会共输送成人高等学历教育毕业生数十万人，为社会各界输送自考毕业生近六万人。历经半个多世纪的不断发展、创新，在专业建设、培养模式、教学计划、教学管理、学生管理、办学条件、校外站点监管等方面均形成了自身的特色并取得了一定的成绩。主要是针对社会在职人员需要提升学历的情况，提高全民教育水平。
 所以成人学历是学校正规招收的学历，毕业学信网可查学籍，考生可以放心报考！  
@@ -1929,15 +1938,15 @@
 电话：199 8120 3720（微信同号）          扣：1916 3720 47</t>
   </si>
   <si>
-    <t>川师小自考报名时间？报名地址？报考专业？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学自考学历是什么性质？跟统招学历有什么区别？
+    <t>四川师范大学自考学费贵吗？有哪些专业？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川师范大学自考学历是什么性质？跟统招学历有什么区别？
 四川师范大学开设的自考学历，主要针对学校需要专升本以及校外在职人员提升学历，学历分为统招全日制以及成人学历，自考学历成人学历里面含金量最高的，性质是业余，通过业余时间学习，自考是学历形式里面除了统招学历以外含金量最高的学历形式！现在可报考专业齐全，招收高起专，专升本学员！
 四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 可报考专业：
 专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
 四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦~
 考试科目：
 统考：3-6科        校考：9-12科（由学校组织，过程性考试）
@@ -1949,10 +1958,10 @@
 </t>
   </si>
   <si>
-    <t>四川哪个学校有小自考艺术类专业 学费是不是很贵？</t>
-  </si>
-  <si>
-    <t>四川小自考艺术类专业有哪些学校可以报考？考试难吗？
+    <t>四川小自考艺术类专业对专业知识要求高吗？通过率如何？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考艺术类专业有哪些学校可以报考？考试难吗？
 成都理工大学现开放对外招收小自考艺术类专业，自考学历含金量高，且艺术类专业统考科目较少，只需统考4科，考试难度较低，很多想要快速毕业的学员可以考虑选择报考小自考艺术类专业！
 成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
 专业介绍：
@@ -1967,10 +1976,10 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川大自考可以转小自考吗？学费可以少些吗？</t>
-  </si>
-  <si>
-    <t>四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
+    <t>四川大自考难度太高可以转小自考吗？还需要交学费？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
 很多报名参加大自考的学员，考试没通过，但是又想拿毕业证怎么办？
 大自考是需要全部科目16-18科全部参加国家统考，考试难度高，并且一年只有两次考试机会，毕业时间较长，这时候想报小自考行不行呢？
 大自考考不过的学员是可以报小自考的，大自考考过的科目可转免kao，小自考只需统考6科，个别科目只需统考三科，其他均为校考（校考是学校自己组织，过程性考试）并且统考科目会有视频课件给学员日常学习，考前还会安排面授，也会有押题资料。小自考大大降低了考试难度，并且小自考与大自考的毕业证书含金量是完全一样的，毕业证也不区分大小自考。小自考考试时间比大自考增加了两次，一年有四次考试机会，较快1年考完全部科目，1.5年那毕业证书！大大缩短了学员毕业时间！想要快速毕业拿证的学员可选择报考自考！
@@ -1983,10 +1992,10 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考报考时选择哪个机构比较靠谱？有哪些学校可以报考？</t>
-  </si>
-  <si>
-    <t>很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
+    <t>四川小自考报名在哪个机构比较好？学费性价比高？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
 首先，小自考报名是可以在学校报也可以选在在校外的机构报名，但是首先要甄别校外机构是否是学校签约授权的教学点，如果是学校授权招生的教学点，那么就可以放心报考。
 很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
 校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
@@ -1997,10 +2006,10 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
   </si>
   <si>
-    <t>四川小自考的学习形式是什么？考试难度怎么样？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考报考后该怎么学习？统考难不难？
+    <t>小自考报名后怎么学习？需要在校上课吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                              四川小自考报考后该怎么学习？统考难不难？
 想要自考小学教育专业的学员看过来，李老师为你解答你的疑问，首先自考小学教育专业到底难不难？
 小学教育专业是文科类专业，主要靠记忆，考试科目难度都不高！统考6科，校考10科；
 统考考试科目为：
@@ -2018,18 +2027,17 @@
 </t>
   </si>
   <si>
-    <t>四川一年制成人中专是正规学历吗？报考专业？</t>
-  </si>
-  <si>
-    <t>学校简介：
+    <t>一年制成人中专报名注册中，改革后1年才能毕业哦</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47      
 中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
 中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
 一、招生专业
 建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
 以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿毕业证书！
 二、招生对象
-应往届初中毕业生、高中毕业生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！
-三、招生时间
+应往届初中毕业生、高中毕业生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！三、招生时间
 每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
 四、学习方式
 线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
@@ -2040,10 +2048,10 @@
 电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川要拿学士学位是不是要参加学位英语？学位英语考试难度如何？</t>
-  </si>
-  <si>
-    <t>四川自考的学位英语考试难不难？考过就可以拿学位证书？
+    <t>四川自考学历可以申请学位证书吗？满足哪些条件？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47      四川自考的学位英语考试难不难？考过就可以拿学位证书？
 四川自考申请学位证书必须满足以下三个条件：
 四川小自考毕业后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
 一、基本要求：
@@ -2058,10 +2066,10 @@
 电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
   </si>
   <si>
-    <t>川师自考报名时间？学费多少？在哪里报名？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学有小自考吗？小自考学历是不是只有四川才认可？
+    <t>四川师范大学小自考学历跟大自考含金量一样吗？在哪里报名？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川师范大学有小自考吗？小自考学历是不是只有四川才认可？
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学现可报名专业：
 专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
@@ -2078,10 +2086,10 @@
 </t>
   </si>
   <si>
-    <t>2019年四川小自考报名时间？报名后多久考试？</t>
-  </si>
-  <si>
-    <t>2019年四川小自考报名时间是多久？1.5年真的能毕业吗？
+    <t>2020年小自考是多久报名？报名后多久毕业？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47      2020年四川小自考报名时间是多久？1.5年真的能毕业吗？
 四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在秋季招生，现在报名的学生可参加12月底的校考，校考可以参加4-6科的考试，想要报名的学员可以抓紧时间咨询相关信息~
 小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿毕业证书，是所有学历形式里面能最快毕业的学历，且自考含金量高，含金量仅次于统招全日制学历，毕业时间灵活，所有考试科目通过即可申请毕业！
 小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
@@ -2092,10 +2100,10 @@
 电话：199 8120 3720（微信同号）         扣：1916 3720 47</t>
   </si>
   <si>
-    <t>电大一年制中专较快多久可以毕业？学费多少？</t>
-  </si>
-  <si>
-    <t>学校介绍：
+    <t>四川二建报名条件 学历不符合怎么办？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    
 中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格证书教育和岗位培训提供教学服务。
 中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿毕业证书，对于很多想要考证的学员来说，一年制中专都是很好的选择！
 现在可报考专业：
@@ -2112,10 +2120,10 @@
 咨询人：李老师  电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考需要到学校本部报名吗？学费大概多少？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学小自考有哪些专业？现在还可以报名考试吗？
+    <t>四川师范大学小自考校考简单吗？真的不用看书？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川师范大学小自考有哪些专业？现在还可以报名考试吗？
 很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年毕业，自考毕业时间灵活，现在四川师范大学小自考正在秋季报名注册中，现在报考可参加12月的校考，想要报名的同学们可咨询李老师~
 四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 可报考专业：
@@ -2125,17 +2133,17 @@
 考试科目：
 统考：3-6科        校考：9-12科（由学校组织，过程性考试）
 自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
+学费：3600元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
 报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
 详情咨询李老师~
 电话：199 8120 3720（微信同号）      QQ：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川大自考转小自考需要满足什么条件？考过的成绩有效吗？</t>
-  </si>
-  <si>
-    <t>大自考可以转小自考吗？小自考只有四川才有吗？
+    <t>考过大自考可以换小自考吗？成都大自考怎么转小自考</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    大自考可以转小自考吗？小自考只有四川才有吗？
 2019年四川自考报考考生突破250000+，创历年新高，为什么这么多同学要报自考呢？自考这种学历形式到底难不难？多久能毕业呢？
 李老师为大家分析解答一下：
 高等教育自学考试（Self-taught higher education examinations），简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。是通过自学然后参加考试，考试通过即可申请毕业，对学员的自学能力以及自觉性有较高的要求！
@@ -2149,17 +2157,17 @@
 电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考教育类专业有哪些院校可以报考？学费多少？</t>
-  </si>
-  <si>
-    <t>四川师范大学教育类小自考专本科招生中 报名参加12月校考
+    <t>四川小自考教育类专业报名注册中 较快2年毕业</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川师范大学教育类小自考专本科招生中 报名参加12月校考
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学现可报名专业：
 专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
 本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
 考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
 考试时间：统考在每年的4月、10月，校考在每年的7月、12月
-学费最低低至3400/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+学费最低低至3600/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 报名即可签订协议保障学员权益！现在报名可参加12月过程性校考！
 以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！四川师范大学作为省内最好的师范类院校，每年报考该校的教育类专业的考生特别多，其中小学教育，学前教育，美术教育都是每年报考的热门专业，在四川的考生想要报考教育类专业首选四川师范大学！
 报名时间：正在报名注册中，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
@@ -2168,12 +2176,12 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考1年毕业是真的吗？没有学制要求吗？</t>
-  </si>
-  <si>
-    <t>四川小自考较快多久毕业？现在报名参加几月份考试？
+    <t>四川小自考都是2月报名吗？报名后参加校考吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考较快多久毕业？现在报名参加几月份考试？
 小自考也就是应用型自考，是学校开设招生的学历形式，自考顾名思义就是通过自学，把所有考试科目通过，自考的学历形式比较特殊，他毕业时间比较灵活，什么时候考试科目通过什么时候就可以申请毕业，较快可以1年考完全部科目，1.5年毕业，那么自考到底难不难呢？要考多少科呢？
-小自考只需要统考3-6科，统考科目是需要看书学习的，其他的9-12科校考为学校组织的过程性考试，学院只需到场配合学校处理，学员把学习重心放在统考科目上即可，其他的只需根据班主任通知配合走流程，很多报考小自考的学员会有个迷思，觉得小自考是不是可以包过的，这里李老师回复大家，小自考不是包过的，统考科目都是需要学员看书硬考的，试问全国统考如果都可以包过的话，这种学历形式含金量会高吗？自考本身就是含金量仅次于统招全日制学历，所以其含金量高，必然会有一些考试科目需要统考！所以千万不要再问李老师自考是不是包过，但是报考的同学们也不用担心自考会太难，统考科目都是考的基础，学员但凡花了时间看书学习都是能通过的，现在报考可参加12月的校考，可报考专业齐全，更多专业详情可加李老师咨询~
+小自考只需要统考3-6科，统考科目是需要看书学习的，其他的9-12科校考为学校组织的过程性考试，学院只需到场配合学校处理，学员把学习重心放在统考科目上即可，其他的只需根据班主任通知配合走流程，很多报考小自考的学员会有个迷思，觉得小自考是不是可以包过的，这里李老师回复大家，小自考不是包过的，统考科目都是需要学员看书硬考的，试问全国统考如果都可以包过的话，这种学历形式含金量会高吗？自考本身就是含金量仅次于统招全日制学历，所以其含金量高，必然会有一些考试科目需要统考！所以千万不要再问李老师自考是不是包过，但是报考的同学们也不用担心自考会太难，统考科目都是考的基础，学员但凡花了时间看书学习都是能通过的，现在报考可参加4月统考，可报考专业齐全，更多专业详情可加李老师咨询~
 现在可报考院校：
 四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，学费低至2800元/年，学费按两年收取，学费包含教材资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号
@@ -2181,10 +2189,10 @@
 电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
   </si>
   <si>
-    <t>国家开放大学是不是电大？学历含金量高不高？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校简介：
+    <t>四川电大成人专本科报名注册中 学信网可查 国家认可</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    
 国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
 国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
 毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
@@ -2194,7 +2202,7 @@
 </t>
   </si>
   <si>
-    <t>四川小自考报哪个专业比较简单？通过率比较高？</t>
+    <t>四川小自考什么专业通过率高 大概多久毕业</t>
   </si>
   <si>
     <r>
@@ -2204,7 +2212,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>四川小自考不知道报考哪个专业？简单易过的专业有哪些？
+      <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考不知道报考哪个专业？简单易过的专业有哪些？
 自</t>
     </r>
     <r>
@@ -2232,7 +2240,7 @@
 D，建筑工程类：建筑工程/工程造价等
 这四类专业中通过率高使用范围广的专业有汉语言文学，法学，行政管理，人力资源管理和教育类专业，其中美术教育可以只参加三科统考，其他均是校考，通过率非常高！
 3，自考报名怎么报名？在哪儿报名？多久报名？
-报名时间：正在报名注册中，现在报名可参加12月底过程性校考！
+报名时间：正在报名注册中
 可报考院校：
 四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
 报名地址：成都市成华区建设路银玺国际2810号
@@ -2242,10 +2250,10 @@
     </r>
   </si>
   <si>
-    <t>川师是不是教育类专业最好？在哪里报名？</t>
-  </si>
-  <si>
-    <t>四川小自考教育类专业最好的是不是四川师范大学？怎么报考？
+    <t>四川小自考教育类专业是不是只能报川师大 学费贵吗</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考教育类专业最好的是不是四川师范大学？怎么报考？
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学是四川省内教育类专业最好的学校，想要报考的学员现在可以尽快交资料报名了哦，现在正在秋季报名注册中，现在报名可参加12月底的过程性校考！过程性校考考试简单，学员只需到场配合处理！
 考试科目：6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
@@ -2257,10 +2265,10 @@
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>成都理工大学小自考环境设计专业在哪里报名？学费多少？</t>
-  </si>
-  <si>
-    <t>四川小自考设计类专业是只有成都理工大学可以报考吗？学费？
+    <t>成都理工大学有环境设计专业吗？统考几科？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考设计类专业是只有成都理工大学可以报考吗？学费？
 成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
 学校现在正在招收小自考环境设计，产品设计两个专业，设计类专业只需要统考4科，其他的科目都是过程性校考，设计类专业统考科目少，通过率高，想要报考的学员可加李老师详细咨询~
 专业介绍：
@@ -2269,18 +2277,18 @@
 统考：4科 校考：9-14科（校考过程性考试）
 自考毕业时间灵活，较快1年考完全部科目，1.5年拿毕业证书！毕业获颁由自考办和成都理工大学联合颁发的毕业证书！
 学历国家认可学信网终身可查！
-学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可参加12月底的校考，且还可申请助学补贴，补贴名额有限，想要报考的学员抓紧时间联系李老师~
+学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可申请助学补贴，补贴名额有限，想要报考的学员抓紧时间联系李老师~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
 电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考现在报名多久查学籍？自考学历多久上学信网？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考在哪里可以查询学籍？学信网可查吗？
+    <t>小自考报名后在哪里查询报考信息？必须交学费才注册吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考在哪里可以查询学籍？学信网可查吗？
 自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请毕业，自考的是学费低、教考分离、毕业生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予毕业（60分既合格）颁发毕业证，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
-所有自考学历都是只有在毕业后才可以在学信网查学籍，因为每个考生的毕业时间是不一样的，所以都是考试通过后申请毕业才能在学信网验证学籍，报考后都是在省考试院查询考籍，考籍包含学员报考学校跟专业，现在报考的同学们，十月中旬即可在省考书院官网查询报考信息了，然后参加12月底的校考！
+所有自考学历都是只有在毕业后才可以在学信网查学籍，因为每个考生的毕业时间是不一样的，所以都是考试通过后申请毕业才能在学信网验证学籍，报考后都是在省考试院查询考籍，考籍包含学员报考学校跟专业，现在报考的同学们，在3月即可查询报考信息
 那么很多学员都会思考一个问题，学历提升有什么好处呢？我为什么要提升学历呢？
 1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考毕业时间灵活，一年考四次，较快可1年考完全部科目，1.5年毕业！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
 2、为自己就业时提供进门的机会。现在许多大型企业，尤其是教师、公务员、司法方面的考试都需要本科 学 历，自考是受国家承认的，无论你是要考公务员或者应聘公司岗位，都是认可的，同学们可趁年轻多努力为自己创造更好的未来！
@@ -2341,10 +2349,10 @@
 </t>
   </si>
   <si>
-    <t>四川小自考工商管理专业考哪些科目？要考数学吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考工商管理专业报考哪个学校比较好？大概学费？
+    <t>四川小自考工商管理专业学费贵吗？现在报名多久考试？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师    电话：199 8120 3720（vx同号）   扣：1916 3720 47                                                                                            四川小自考工商管理专业报考哪个学校比较好？大概学费？
 想要报考小自考工商管理专业的学员，李老师给大家说一下报考工商管理专业的情况：
 首先我们先先介绍下工商管理专业：
 工商企业管理，是对企业的生产经营活动进行计划、组织、领导、人员配备、指挥、协调和控制等一系列职能的总称。工商企业管理专业是自学考试学科调整后产生的新专业。这一专业的设置是为了培养在社会主义市场经济条件下从事工商业及其他各类企业管理方面工作的专门人才。经过专业学习，成绩合格者应系统地掌握现代管理理论、有广泛的知识。熟悉各类管理的基本技能和科学方法，能够胜任企业管理工作。 工商管理是研究工商企业经济管理基本理论和一般方法的学科，主要包括企业的经营战略制定和内部行为管理两个方面。工商管理专业是每年自考报名的热门专业，也是比较简单好考的专业，通过率较高！
@@ -2360,88 +2368,51 @@
 统考6科（需要同学们根据老师的课程以及整理好的押题资料进行学习，是全国统考）
 校考9-12科（过程性考试）
 学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿毕业证书，同学们普遍的毕业时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，毕业后学信网终身可查！是由学校跟自考办联合颁发的正规毕业证书！
-可报考院校：
-四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
+可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询！
-报名时间：正在报名注册中，现在报名可参加12月校考，可早半年毕业！
+报名时间：正在报名注册中，现在报名可参加4月统考，可早半年毕业！
 报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
+详情咨询李老师    电话：199 8120 3720（微信同号）    扣：1916 3720 47
 </t>
   </si>
   <si>
-    <t>川师大汉语言文学专业比较好吗？通过率高吗？</t>
-  </si>
-  <si>
-    <t>川师小自考汉语言文学专业就业前景如何？简单易过通过率高？
-四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+    <t>川师有小自考汉语言专业吗？是不是川师的通过率比较高？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师    电话：199 8120 3720（vx同号）    扣：1916 3720 47                                                                                                          川师小自考汉语言文学专业就业前景如何？简单易过通过率高？四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上。
 汉语言文学专业统考科目分别是：00537 中国现代文学史、00529 中国古代文学史（一）、00539 中国古代文学史（二）、00540 外国文学史、00541 语言学概论、00547 马列文论选读
 汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年毕业！
-该汉语言文学专业就业前景：
-汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
+该汉语言文学专业就业前景：汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
 现四川师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
-学费低至3400元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，毕业获颁由学校和自考办联合颁发的毕业证书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
+学费低至3600元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，毕业获颁由学校和自考办联合颁发的毕业证书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
 报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考学历毕业可以考各种资格证书吗？学费贵吗？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考学历可以考资格证书吗？在哪里报考呢？
+详情咨询李老师    电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>小自考毕业证可考资格证书吗？国家认可吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师   电话：199 8120 3720（微信同号）   扣：1916 3720 47                                                                                          四川小自考学历可以考资格证书吗？在哪里报考呢？
 小自考学历是国家认可的学信网可查的正规学历，且自考已经是成人学历中含金量zui高的学历形式了，只要是国家认可学信网可查的正规学历要参加国家组织的资格证书考试都是完全没问题的，所以想要报考的学生完全不用担心，自考学历不论是考证书还是考公务员或者是教师公招都是没问题的！
 自考的优势以及特点：
-1.自考是成人学历中含金量较高的，所以难度也是相对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
+1.自考是成人学历中含金量较高的，所以难度也是相对‌‌较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
 2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
 大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
 3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
-现在可报考院校：
-四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
+现在可报考院校：四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
 四川小自考现在正在注册报名中，现在报考可参加12月底的校考，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川大自考与小自考的区别？毕业证是一样的吗？</t>
-  </si>
-  <si>
-    <t>四川大小自考的区别？选择适合自己学历提升的方式？
+详情咨询李老师   电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川报大自考跟报小自考有什么区别？哪一个更好？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师    电话：199 8120 3720（微信同号）   扣：1916 3720 47四川大小自考的区别？选择适合自己学历提升的方式？
 现在社会针对所有职场人员来说，高学历已经是一种趋势了，也成为了绝大多数行业的敲门砖，那么，对于学历低的人员来说，想要提升学历怎么办？去学校读书已经不再现实了，在职人员能选择提升学历的形式就是成人继续教育！
-自考（高等教育自学考试）：
-自考是对自学者进行的以学历考试为主的高等教育国家考试，是个人自学、社会助学和国家考试相结合的高等教育形式。简单的来说就是：自考是一种自己学习，然后参加自考统一考试的一种模式，有社会性及应用型之分，也就是大家常说的大自考，小自考。
+自考（高等教育自学考试）：自考是对自学者进行的以学历考试为主的高等教育国家考试，是个人自学、社会助学和国家考试相结合的高等教育形式。简单的来说就是：自考是一种自己学习，然后参加自考统一考试的一种模式，有社会性及应用型之分，也就是大家常说的大自考，小自考。
 那么大自考和小自考的区别是什么？考生报考时该如何选择？
 相同点：
 1、考试费都是35元一科，准考证、考试方式、考试地点都一样，毕业证书都在学信网查询。
@@ -2457,14 +2428,13 @@
 报名时间：小自考一年四次注册时间，报名时间不一样，参考时间不一样，早报名，早考试，早毕业。目前正在秋季报名注册，现在报名可以参加12月底校考，详情可加号咨询，现在报名有优惠哦~
 考试科目：统考3-6科【发教材、资料、提供辅导】     校考9-12科【过程性考试，学员的学习重心放在统考科目上即可】
 报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）              扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考在哪里报名学费比较便宜？靠谱机构哪里找？</t>
-  </si>
-  <si>
-    <t>四川小自考在哪里报名？专升本大概花费多少钱？
+详情咨询李老师     电话：199 8120 3720（微信同号）              扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川报小自考大概要花多少钱？除了学费以外还有什么费用？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师    电话：199 8120 3720（vx同号）    扣：1916 3720 47                                                                                          四川小自考在哪里报名？专升本大概花费多少钱？
 想要报考四川小自考的同学，在选择学校跟专业的时候会有很多不太清楚的地方，下面李老师给大家解答下关于报考小自考的一些疑惑？
 首先报考前我们要明确什么是小自考，小自考是什么样的学历形式？
 高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可毕业！
@@ -2487,7 +2457,7 @@
 现在自考跟网教专本科都在秋季报名注册中，可报考专业齐全，相关学习以及专业详情可加李老师咨询～
 现在可报考院校：四川师范大学、成都理工大学、西南石油大学、西南财经大学、国家开放大学等，现在报名可申请２００－６００元助学补贴，名额有限，同学们抓紧时间报名哦～
 成人学历是面向成人开设的学历提升的方式，主要目的是国家为了提高全名教育水平，所以报名条件至少１７岁，只要你年龄够，就可以报考，拿正规名牌大学毕业证书！
-报名地址：成都市成华区建设路成功银玺国际２８１０号　　　　　　　　　　　　　　　　详情咨询李老师～　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　电话：１９９　８１２０　３７２０（微信同号）　　　扣：１９１６　３７２０　４７</t>
+报名地址：成都市成华区建设路成功银玺国际２８１０号　　　　　　　　　　　　　　　　                                                                                                 详情咨询李老师    电话：199 8120 3720（vx同号）    扣：1916 3720 47　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
   </si>
   <si>
     <t>成都理工大学小自考每年多久报名？学费按几年交？</t>
@@ -2664,7 +2634,7 @@
     </r>
   </si>
   <si>
-    <t>四川的小自考毕业证跟大自考毕业证一样吗？认可度不一样？</t>
+    <t>四川大自考毕业证书跟小自考有什么不一样 含金量要高些</t>
   </si>
   <si>
     <r>
@@ -2717,7 +2687,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>加考试，是成人学历中含金量较高的学历。
+      <t xml:space="preserve">加考试，是成人学历中含金量较高的学历。
 1、自考因其含金量高，所以难度也是比较大，大自考与小自考较大区别就是考试难度以及通过率，大自考是国家统一安排考试（16-18科），需学员自学且全部考过，考试难度高。小自考一般只统考6科，个别科目如美术教育专业只需统考3科，考前有老师上课，还有资料，其他9-14科都是由学校组织，考试灵活度高，降低了难度，提高了通过率！
 2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的毕业时间，让学员能快速拿到毕业证！较快1年考完全部科目，1.5年拿到毕业证书！
 大自考与小自考的毕业证书是完全一样的！含金量也是一样的！
@@ -2726,11 +2696,11 @@
 学费低至2800元/年（按两年收取），学费包含教材资料现视频课程，现在报名还可申请助学补助400-600元，名额有限，想要报名的学员抓紧时间联系李老师咨询相关详情~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情可联系李老师~
-电话：199 8120 3720（微信同号）                           扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川想提升学历 有哪些学历形式可以报考？怎么选择？</t>
+</t>
+    </r>
+  </si>
+  <si>
+    <t>四川成人提升学历有哪些好处 毕业后有什么作用</t>
   </si>
   <si>
     <t xml:space="preserve">多学员都存在一些选择困难的问题，比如不清楚自己到底应该报自考、成教还是网教！
@@ -2744,11 +2714,10 @@
 有提升学历想法的同学注意了哦，现四川师范大学正在招收自考、成教、网教专科、本科学员！专业齐全，毕业由学校颁发学信网可查国家认可的正规毕业证书！
 报名地址：成都市成华区建设路成功银玺国际2810号
 想要报名的学员要抓紧时间联系李老师报名哦~
-电话：199 8120 3720（微信手机同号） QQ：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川国家开放大学成人学历专本科报名注册中 轻松毕业</t>
+    <t>四川电大有本科学历吗 毕业证书是国家开放大学吗</t>
   </si>
   <si>
     <t xml:space="preserve">四川的小伙伴，平时工作忙想提升学历怎么办？
@@ -2765,8 +2734,1356 @@
 现在报名可申请200元-600元助学补助，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信手机同号） QQ：1916 3720 47
 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四川小自考什么时候报名 多久截止</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+四川师范大学小自考报名需要准备哪些资料？学费多少？ 
+四川师范大学（SICHUAN N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‌‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ORMAL UNIVERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家中西部高校基础能力建设工程重点建设大学，入选“卓越教师培养计划”、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+其中教育类专业等文科专业都比较好考，也是四川师范大学的优势热门专业！
+四川师范大学现招收自考专本科学员，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试科目：统考：6科 校考：9-14科（由学校组织，过程性考试）
+学费：3600元/年（按两年收取）包含教材资料，网上课件，面授，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+毕业由自考办和四川师范大学联合颁发的国家认可的毕业证书，学信网可查！
+现在报名还可申请200元-600元助学补贴，名额有限，详情联系李老师咨询~
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四川小自考可以考几年 报名在哪里报</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 学费多少</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+四川自考大概需要考几年才能毕业?四川在哪里报考? 自考多久能毕业？
+多久毕业这个问题对于每个人的概</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‌‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">念都是不一样的
+因为考试是学员本人在考，结果还是要看自己
+如果你从来不看书不复习不做题，想全部裸考毕业
+李老师告诉你：几乎是不可能的！
+除非你原本的基础就很好，且拥有非常深厚的专业知识
+李老师提醒：
+只要你认真看看书，多做做我们的发给你的真题
+哪怕是考前一个月临时抱佛脚，你都会看到收获哦！
+下面我就按照常规的普遍的情况为大家总结下大多数学生的毕业时间：
+如果你按照老师指导的学习方式学习后，2年左右可以毕业
+更努力或者基础好点的学生一年半就可以考完所有的科目申请毕业
+学习时间较少的学生，一般在2年至3年毕业
+现自考正在招生院校：
+四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等。
+学费低至2700元/年,招生名额有限,想要报名的学员抓紧时间联系李老师咨询~
+详情咨询李老师   </t>
+    </r>
+  </si>
+  <si>
+    <t>中央电大一年制成人中专改革了吗 现在学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川电大中专学历怎么查学籍？毕业真的可以考证吗？
+电大中专：
+入学后学籍查询网址：
+http://crtvsvs.ouchn.edu.cn/stu_query.jsp
+毕业证书查询网址：
+http://crtvsvs.ouchn.edu.cn/graduate_query.jsp
+在线验证报告查询网址：
+http://zzx.ouchn.edu.cn/edu/index.php/index/login/index.html
+成都广播电视大学现特设一年制中专，8-10个月就可拿毕业证，没有入学考试，没有平时作业！完全不耽误学员时间！
+中专通知：
+每个月都可以报，但是早报早毕业，后期会严格规范前置学历（高中）和毕业学制年限（至少一年），所以抓紧现有机会联系李老师！
+我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考证需要学历、生活需要学历.....
+可以考二建
+可以考九大员
+可以考执业药师、执业助理医师
+可以考幼师资格证、幼儿园园长证
+可以考各种资格证：银行从业资格证、基金从业证、证券从业资格证、期货从业资格证考试
+可以用于提干、加薪、评职称、作为报专科的前置学历 . . .
+我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，毕业证带二维码辨别真伪！ 
+全国认可，轻松简单，适用范围广！学制一年（快半年拿证），毕业即颁发中央广播电视学校毕业证书，全国承认学历（电子注册，网上可查）
+可读专业：
+建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销
+报名时间：常年招生，每月滚动注册
+学费：1680元（全包，学员只管拿证）
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情可咨询李老师  
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>自考专升本学前教育专业考试科目 报名时间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 怎么报名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+四川小自考学前教育专业有哪些学校可以报考？考试科目 成都小自考学前教育哪些学校可以报考？
+答：四</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‌‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">川师范大学、成都大学、西华师范大学
+我们为我处为 四川师范大学、成都大学、西华师范大学 正规教学站每年报考上千人 专业齐全 服务体系完善 全省报考全省考试 考试咨询 复习资料 毕业办理全省跟踪服务
+考试科目：中国近现代史纲要、马克思主义基本原理概论、学前卫生学、幼儿园课程、学前教育原理、学前教育心理学、学前教育研究方法、儿童发展理论、儿童发展理论、幼儿园组织与管理 、学前比较教育、学前教育史、低幼儿童文学名著导读、低学前儿童心理健康与辅导、学前儿童发展评估、家长工作与家园沟通、幼儿园班级管理、幼儿教师教研指导、毕业考核
+考试时间：统考每年4月、10月 校考每年7月、12月 
+统考6门 校考9-12门（过程性软过）
+学费情况：
+学费低至2900元/年（学费按两年收取），学费包含教材资料，视频课件，现在报名还可申请助学金200-600元，名额有限，想要报名的学员速速联系李老师咨询~
+1、两年学费（如两年内未考完，可继续考，不在收取额外学费）
+2、含教材“自 考”培 训资料
+3、含在线题库
+4、含考前重考点答题技巧面授
+5、多年自考经验的老师上课课件
+报名资料：
+身份证扫描件电子版，两寸标准蓝底照片电子版
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西南石油大学有自考法学专业 考哪几科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 怎么报名</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南石油大学小自考法学专业通过率高吗？毕业就业广  
+西南石油大学，简称“西油”，坐落于历史文化名城成都，是一所由四川省人民政府与中石油、中石化、中海油、成都市人民政府共建高校，入选首批国家世界学科建设高校、“中西部高校基础能力建设工程”、“海外高层次人才引进计划”、“国家建设高水平大学公派研究生项目”、 中国政府奖学金来华留学生接收院校、“111计划”，已发展成一所油气工业学科群（油气、能源及海洋机电装备、地科、化工、能源材料、石油计算技术、工程管理 ）为主，多学科协调发展的大学。
+法律专业就业范围广，考试相对简单，过关率较高！想要自考提升学历的赶紧报名，报名时间紧迫，现在正火热报名中！
+二、招生对象和报考条件：只要你年满18岁都可报考！
+统考科目：劳动法、知识产权法、税法、国际私法、公证律师制度、法律文书写作
+校考科目：中国近现代史纲要、马克思主义基本原理概论、公司法、环境与资源保护法学、合同法、国际经济法概论、外国法制史、中国法律思想史、婚姻家庭法、行政法与行政诉讼法、罪犯劳动改造学、专利法
+学习形式：6门统考+9-11门校考
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至2000+/年，包含资料视频+教材+面授课程+重点复习资料
+现在报名即可申请最高800助学金，名额有限，想要报名的学员速速联系李老师咨询~凡是在我处报名的学员签订协议保障学员权益，学员可放心报名！
+报名时间：正在报名注册中
+报名地址：成都市成华区建设路成功银玺国际
+咨询方式：李老师
+</t>
+  </si>
+  <si>
+    <t>四川小自考管理专业有哪些 哪个比较好考</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+四川自考管理类专业难不难？怎么报名？学费多少？
+自考中管理类专业是相对比较好考的专业，其中工商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‌‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">管理专业是每年报考的热门专业，该专业只需统考6科，其他9-12科都是校考，校考过程性考试，考前一周发资料，学员的重心只需放在统考科目上，统考科目有老师专门录制好的视频课件，以及考前的面授突击，以帮助学员能最快的时间通过考试，从而领取毕业证书，自考一年4次考试机会，两次校考，两次统考，学员最快可1年考完全部科目，1.5年毕业！
+自考也是学员能最快拿到毕业证书的一种学习方式。
+现在可报考院校：
+四川师范大学、成都理工大学、西华师范大学、西南石油大学等。
+自考是所有科目考完即可申请毕业，毕业获颁由学校和自考办联合颁发的毕业证书，毕业证书学信网终身可查，社会认可度高！
+学费低至2000+/年，按两年收取，学费包含教材资料/视频课件/面授课程，还有班主任全程带班，帮助学员顺利通过考试！
+名额有限，想要报名的学员速速联系李老师咨询~
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020年成都理工大学小自考专业有哪些 报名多久截止</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">报名地址：成都市成华区建设北路三段成功银玺国际2810号
+成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！
+成都理工现可报专业：
+专科可报专业：会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理
+本科可报专业：现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价
+学习形式：6门统考+9-11门校考
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至2000+/年，包含资料视频+教材+面授课程+重点复习资料
+现在报名即可签订协议保障学员权益！
+报名时间：正在火热报名中
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询方式：李老师     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考较快可以一年拿毕业证吗 学费多少 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+四川成人学历中什么形式可以较快拿到毕业证书？
+找李老</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‌‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到毕业证书的，自考只需要全部科目考试通过就可以申请毕业，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取毕业证书！且自毕业证书含金量高，企业认可度高！
+考试科目：
+统考：3-6科 校考：9-12科（由学校组织，过程性考试）
+学费低至2700元/年（按两年收取）费用包含教材资料，收费课件，考前资料！
+报名时间：正在报名注册中（现在报名可申请200-600元助学补贴，名额有限，欲报从速）
+考试时间：统考每年的4、10月 校考每年的7、12月
+现在可报名学校：
+四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等名牌大学。
+自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的名校毕业证书(学信网终身可查）。
+报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四川成人学历大概要花多少钱 怎么报名</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 报名地址</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+四川成人学历提升报名怎么报？在哪儿报名？学费多少？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">‌‌
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">成人学历分为自考，成教，网教，电大四大类型，
+现在李老师就跟大家主要讲解一下正在报名的自考，网教以及电大。
+自考是成人学历里面含金量较高的，所以难度也是相对高一些的，自考需要统考6科，个别科目如美式教育专业只需统考3科，其他考试科目均为校考，校考是由学校自己组织，只需学员配合学校处理（即参加考试）考前也不会有资料，
+报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，收费在线课件给到学员，也会在考试前安排统一面授，提高学员考试通过率，自考只要全部考试科目考过即可申请毕业，较快1.5年考完全部科目，一年九个月领取毕业证书！
+学费低至2700元/年，学费包含教材资料+视频课程+教即资料
+网络远程教育，每年3月跟9月报名，现在省内还可以注册国家开放大学，免试入学，轻松毕业，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可毕业！
+学费：3400元（按两年收取）
+电大（成都电大）现特设一年制中专，7-10个月即可领取毕业证书，毕业可当兵，考取二建，幼师，执业药师等资格证书！还可作为报考大专的前置学历，面试入学，没有平时作业以及期末考试，
+轻松毕业！
+学费：14680元（全包）
+现在可报名学校:四川师范大学，西华师范大学，西南石油大学，西南财经大学，国家开放大学，成都理工大学，成都广播电视大学等。
+一经毕业获得由学校颁发的国家认可学信网终身可查的正规毕业证书！现报名名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设北路成功银玺国际2810号
+详情咨询李老师    </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小自考计算机专业通过率高吗 考几科</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+专升本小自考信息管理与信息系统专业考哪几科？哪里报名？
+小自考信息管理与信息系统专业，专业代码Y071602，属于计算机相关专业，多余很多it行业从业人员需要专升本，可以选择报考该专业，该专业只需统考6科，其他9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可，校考只需学员配合处理！
+统考科目：信息资源建设、信息政策与法规、信息系统设计与分析、windos及应用、计算机信息检索、信息咨询，学员需要花时间学习的就是以上6科，以上6科会提供押题资料给学员，帮助考生顺利通过考试！自考一年考四次，较快一年考完全部科目，一年九个月毕业！
+可报考院校：成都理工大学、西南石油大学，学费低至2700元/年（学费按两年收取），学费包含教材+资料+考前押题，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：现在正在报名注册中，现在报名可参加4月统考，同学们可为统考做考试准备！
+报名地址：成都市成华区建设北路三段银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考毕业证跟大自考一样吗 怎么报名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+小自考是只有四川才有吗？除了四川其他省认可吗？
+很多学员都会疑惑，小自考减少了统考科目，降低了考试</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‌‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>难度，会不会小自考的毕业证书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
+自考简称自学考试，顾名思义就是主要通过自己学习并参</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>‌‌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">加考试，是成人学历中含金量较高的学历。
+1、自考因其含金量高，所以难度也是比较大，大自考与小自考较大区别就是考试难度以及通过率，大自考是国家统一安排考试（16-18科），需学员自学且全部考过，考试难度高。小自考一般只统考6科，个别科目如美术教育专业只需统考3科，考前有老师上课，还有资料，其他9-14科都是由学校组织，考试灵活度高，降低了难度，提高了通过率！
+2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的毕业时间，让学员能快速拿到毕业证！较快1年考完全部科目，1.5年拿到毕业证书！
+大自考与小自考的毕业证书是完全一样的！含金量也是一样的！毕业学信网终身可查！全国认可！
+3、大自考费用低，小自考需要向学校交学费，这也是他能降低难度的原因。学信网是不会区分大小自考的，考生们可以放心报考！
+四川现在自考正在报名院校：四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学等。
+学费低至2800元/年（按两年收取），学费包含教材资料现视频课程，现在报名还可申请助学补助400-600元，名额有限，想要报名的学员抓紧时间联系李老师咨询相关详情~
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情可联系李老师 </t>
+    </r>
+  </si>
+  <si>
+    <t>小自考会计专业在哪个学校报名 报名要交什么资料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小自考会计学专业统考几科 考试科目 报名资料
+小自考为应用型自考，会计专业只需统考6科，其余科目均为过程性校考，学员需要看书学习的就是统考科目，校考学员只需配合到场参加，那么，小自考会计专业要统考哪几科呢？
+统考科目：市场营销学、国际贸易理论与实务、金融理论与实务、高级财务会计、审计学、财务报表分析（一）
+校考科目：中国近现代史纲要、管理系统中计算机应用、资产评估、会计制度设计、概率论与数理统计（经管类）、线性代数、税务会计、会计电算化基础、社会经济统计学原理、国家税收、社会保障概论
+报考的同学可以从考试科目看出，小自考把专业性较强，难度较高的科目都放到了校考科目中，增加各位考生通过率，统考科目中大部分为理论基础知识，所以相对来说降低了很多难度！
+现在可报考院校：四川师范大学、西南财经大学、西华师范大学、西南石油大学、成都理工大学等神内重点大学都可报考，现在报名可参加4月统考，各位同学可提前做考试准备！
+报名资料：只需年满17岁都可报考，需提供身份证正反面扫描件、二寸浅蓝底证件照
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+自考学历含金量高，较快可1年考完全部科目，1年9个月毕业，毕业颁发由学校和自考办联合颁发的学信网可查国家认可的正规毕业证书！
+详情咨询李老师 
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四川小自考是什么学历形式 含金量高吗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 怎么报名</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+首先报考前我们要明确什么是小自考，小自考是什么样的学历形式？
+高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可毕业！
+其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，毕业时间灵活，全部科目考试通过即可申请毕业，较快可1年时间考完全部科目，1年9个月毕业！对于很多觉得大自考比较难，毕业时间长的考生来说，小自考就是个很好的选择，而且自考毕业证书是不会区分大小自考的，所以证书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
+四川省内现在可报考的学较多，可报考专业也比较齐全，现在报考的同学们可以参加12月底的校考，同学们好集中精力备考明年4月的统考，费用在五六千左右，学校跟专业不同，收费也略微有些不同，很多考生也会问，除了学费外，还有些什么费用呢？
+报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科毕业证工本费150元，本科毕业证工本费+毕业答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生毕业为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
+本处可报考四川师范大学/成都理工大学/西南财经大学/西南石油大学等省内重点大学，专业及详情可加李老师咨询~
+报名地址：成都市成华区建设路北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020年四川电大春季报名注册中 专业齐全 轻松毕业</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川国家开放大学限制户籍吗？多久毕业？学费多少？
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
+专科：药学、金融（证券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
+本科：
+金融学、法学、社会工作、小学教育、学前教育（学前教师教育方向）、学前教育（学前教育管理方向）、广告学、英语（教育方向）、汉语言文学、汉语言文学（师范方向）、计算机科学与技术、机械设计制造及其自动化（机电一体化系统方向）、土木工程（建筑工程方向）、土木工程（建筑管理方向）、土木工程（道路桥梁方向）、水利水电工程、工商管理、会计学、物流管理、市场营销、行政管理、护理学、公共事业管理(卫生事业管理)、公共事业管理（教育管理）、
+公共事业管理（教育管理）（学校管理方向）、公共事业管理（社会教育及其应用心理方向）
+广告学、水利水电工程
+毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+报名时间：2020年春季招生正在电子注册中，专科限制比率，想要报名的同学抓紧时间联系李老师报名哦~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 
+</t>
+  </si>
+  <si>
+    <t>四川小自考报名网站 可以自己报吗 学费怎么交</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考报名网站 成都小自考报名流程 四川自考本科有哪些专业
+官网可查 学费低 拿证快 自主组织考试 通过率高
+学费低至：2700/年 统考3-6科，其他均为过程性考试，考试简单，专业齐全 覆盖专业达百分之八十 考前辅导 在线题库保证过关率
+考试时间：每年 4 10月统考 每次最多报4科 7 12月校考
+最快一年半毕业 学信网可查 可报考公务员 事业单位
+关于小自考的介绍
+1、问：什么叫小自考专业？
+答：小自考专业是自学考试开考体制改革试点专业的俗称。
+2、问：参加小自考学习，毕业后待遇如何？
+答：小自考毕业生与大自考毕业生具有同等待遇。
+学员修完本专业规
+定的全部课程，考试全部合格者，可领取由省自考办验印及主考院校署印的大学专科或大学本科毕业证书，并经由教育部统一电子注册。国发1988）
+15号文、国家教育部（2000）30号文中都明文规定：自学考试毕业证书获得者在工资待遇、公务员考试录用、企事业单位聘用、户籍管理和专业技术职务评审等方面享有与普通高等院校同类毕业生（大专或本科）同等的待遇。
+3、问：在哪里报考小自考？
+答：小自考只能在各主考院校或经省自考办和主考院校认可的助学点 办理报名报考手续，各县（市、区）教育局自考办无办理小自考报名
+报考相关事务。
+本机构授权代办小自考相关专业的报名报考及助学工 作。具体报考手续可查阅本中心相关专业的招生简章。
+现在可报考院校：四川师范大学、成都理工大学、西华师范大学、西南财经大学、成都大学等省内重点大学，现在报名可参加4月统考，考生们可提前为考试做靠前准备！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>西南财经大学小自考校考简单吗 报考大概要花多少钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学有小自考吗？需要去学校考试吗？
+四川自考报名已经开始！学生可利用业余时间在网上学习，学校开设了视频课程，学员报名后教务老师会注册学习账号，学员登录学习平台学习即可！可在家看视频资料做真题练习，轻松提升学历！??
+西南财经大学位于天府之国成都市，直属于中华人民共和国教育部，是国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学自考专业设置：会计学、工商管理、财务管理、市场营销、行政管理、人力资源管理
+考试时间：
+统考，每年的4月、10月，网上报名一般提前一个半月左右，在我校报考的学生我们会统一考点，学生尽量报考我校统一考点；
+校考（省考），每年的6/12月，校考由高校组织，周末举行。
+备注：内部资料，轻松考试，学费低，压力小。更多自考院校（西南石油大学 四川师范大学，西华师范大学、西南交通大学等）专业咨询请联系李老师
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>想报西华师范大学小自考必须去南充吗 考试在哪里考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+想报西华师范大学小自考要花多少钱？学费必须一次性交？
+西华师范大学（China West N??ormal University），简称“西华师大”，是四川省人民政府举办的全日制重点师范大学，学校座落在历史文化名城南充，是四川省第一所师范类高等学府和全国批学士、硕士学位授权单位。
+西华师范大学现招收自考专、本科学员。初中毕业的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
+应用型（小自考）考试形式：统考6科（闭卷）+校考9-12科左右（过程性考试）
+自考一共涉及三个费用
+第一：学费（包括教材+辅导资料+教学课程）
+（2800元/年，按两年收取）
+第二：考试费35/科 一般考18科
+第三：本科生涉及论文答辩费 480元（结束再交） 专科生只交毕业证工本费150左右 无答辩
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都
+可以结合教学课程和辅导资料在家自主复习
+考试时间：统考每年的4、10月 校考每年的7、12月
+毕业证申请时间每年的6月和12月
+报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+报名时间：正在报名注册中，名额有限吗，想要报名的学生速速联系李老师咨询
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>2020年小自考报名时间是多久？真的能一年多拿证？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+2020年小自考报名时间是多久？真的能一年多拿证？
+四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在秋季招生，现在报名的学生可参加4月统考，考生们可提前为考试做准备！
+以抓紧时间咨询相关信息小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿毕业证书，是所有学历形式里面能最快毕业的学历，且自考含金量高，含金量仅次于统招全日制学历，毕业时间灵活，所有考试科目通过即可申请毕业！
+小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
+现在可报考院校：四川师范大学、成都理工大学、西南财经大学、西南石油大学等省内重点大学，学费低至2800元/年，学费按两年收取，现在报名可申请助学补贴，名额有限，想要报考的学员速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考校外人员可以报考吗？要交多少学费？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+西南财经大学小自考校外人员可以报考吗？要交多少学费？
+西南财经大学（SWUFE）位于天府之??国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可参加4月统考，考生们可提前为考试做准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：
+统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费）包含教材资料跟视频课程，以及班主任全程代班
+考试时间：
+统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同步） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>电大成人一年制中专报名注册中 报名网站 报名地址</t>
+  </si>
+  <si>
+    <t>欢迎咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+地址：成都市成华区建设北路三段成功银玺国际2810号，报名即签订保障学员权益的协议书，学员可放心报考！
+1、颁发院校：中央广播电视中等专业学校
+2、年龄要求：18岁，不限户籍
+3、注册时间：每月22号截止注册，滚动招生
+4、学制：一年（7-10个月出证）
+5、有学籍，网上可查，可出学历认证报告
+6、不用考试、不用网上学习
+中央广播电视中等专业学校是一所经原国家教委批准、现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
+招生专业：
+建筑工程施工，消防工程师（前置学历必须真实），药剂，中药，会计，计算机应用，酒店服务与管理，农村经济综合管理，西，烹饪（西点方向），中餐烹饪，学前教育，园林技术，建筑设备安装，电气技术应用，机电技术应用，电子商务，市场营销等专业！
+学费低至1480元，vip班没有入学考试，没有平时作业，轻松拿到毕业证书！
+详情咨询李老师 电话：199 8120 3720（微信手机同号） QQ：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考每年多久报名？有几次？2020年要涨学费？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+四川小自考每年多久报名？有几次？2020年要涨学费？
+很多想要报自考的学员，不知道准确的注册时间，自考一年有四次注册机会，现在正在报名注册中，需要报名的学员可联系李老师咨询~
+自考主要是通过学员自己学习，并且参加考试，考试通过就可申请毕业，很多在职的学员因为自考难度太高，而不敢报名，首先，要明确，自考面向成人的考试，考试难度是不会特别大的，并且自考分为大自考跟小自考，大自考是学员自己在网上注册，16-18科全部参加统考，全部自学，没有任何学费，小自考是在学校注册学籍，只需要统考6科，其他9-12科都是校考，校考过程性考试，考前发资料，所以如果怕大自考有难度的学员可以考虑报小自考！
+很多学员会担心，小自考学历会不会不如大自考的含金量高，其实不然，大自考跟小自考学历含金量都是一样高的，毕业证不区分大小自考!学员可以放心报考，并且学校还有专门的班主任负责带班，也会有老师录制好的教学视频给大家学习，大专业也会开设面授课程，从而帮助学员尽快通过考试，早点拿到毕业证书！
+现在可报考院校：四川师范大学/成都理工大学/西华师范大学/西南石油大学/西南财经大学等川内名牌大学！
+学费低至2700元/年（按两年收取）学费包含全套教材资料，视频课件，面授课程，想在报名还可申请助学补贴200-600元，名额有限，想要报名的学员速速联系李老师咨询~
+自考是只要全部科目考试通过就可申请毕业，学习能力较好的学员最快1年就可考完全部科目，1.5年毕业，毕业获颁由学校和自考办联合颁发的国家认可学信网终身可查的正规毕业证书！报名即签订协议，保障学员权益！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 电话：199 8120 3720（微信手机同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考什么专业简单易过？比较好考？学费？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+四川小自考什么专业简单易过？比较好考？学费？四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+首先汉语言文学专业有哪些考试科目？
+首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上，汉语言文学专业统考科目分别是：
+00537 中国现代文学史
+00529 中国古代文学史（一）
+00539 中国古代文学史（二）
+00540 外国文学史
+00541 语言学概论
+00547 马列文论选读
+汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！
+现四川师范大学/西华师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
+学费低至2900年（按两年收取），现在报名可申请助学金200元-600元，名额有限，想要报名的学员速咨询李老师~
+考试时间：4月/10月统考 6月/12月校考
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询方式：李老师 电话：199 8120 3720（微信同手机号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>成都理工大学有自考工程造价专业吗？校考好考吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+成都理工大学也开始对外招生自考本科专业的学生了，成都理工大学，在理工类的专业中，在川内也是比较有名的学校，如果想要报考一个成都理工大学的自考的同学就不要错过了，目前成都理工大学有多个专业对外招生，近期成都理工大学，学费下调，需要的同学要及时咨询报名了。
+以上为该本科专业学历提升的统考科目，其他均为校考，校考为过程性考试，详情咨询李老师~
+自考收费情况：
+学费低至2700元/年（按两年收取）学费包含视频教材资料/视频课程，现在报名可参加4月统考，同学们可提前为考试做准备了！
+今年毕业时间：1年考完，1年半毕业！！
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都
+报名时间：正在火热报名中，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 电话：199 8120 3720（微信手机同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考报名入口 名校招生 专业齐全 毕业快速</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小自考报名地点：成都市成华区建设北路三段成功银玺国际2810号
+可报考的学校有：
+四川师范大学、西南石油大学、成都理工大学、西华师范大学、成都大学、西南财经大学、四川大学、西南科技大学、电子科技大学、西南交通大学
+小自考可报考的专业有：
+会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理、现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价、汉语言文学、小学教育、学前教育、法律事务 汉语言文学、汉语言文学教育、法学、行政管理、英语教育、工商管理、工程造价、计算机信息管理、会计学、旅游管理、人力资源管理、林业及园林高新技术与管理、教育管理、学前教育、小学教育、音乐教育、美术教育、网络工程、新闻学、播音与主持、建筑经济管理等专业。现在可报考专业齐全。
+考试形式：6门统考+11门校考，校考为过程性考试，学员只需把重心放在统考科目上即可！
+学习形式：网络教学视频+复习资料
+自考收费情况：
+1，学费低至2800/年（按两年收取，现在报名可申请助学补贴200元-600元，名额有限，想要报名的学员速速联系李老师咨询~
+2，考试费35元/科
+3，专科毕业证工本费150元，本科毕业论文答辩费+毕业证工本费480元。
+除此以外绝无其他收费，详情咨询李老师~
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都 
+咨询方式：李老师 </t>
+  </si>
+  <si>
+    <t>小自考专升本行政管理专业报哪个学校比较好？学费多少？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考行政管理就业如何？现在有哪些学校可以报？
+行政管理(administration manag??ement)是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展,行政管理的对象日益广泛,包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法,以减少人力、物力、财力和时间的支出和浪费,提高行政管理的效能和效率。
+专业统考科目:社会学概论丶当代中国政治制度丶西方政治制度丶公共政策丶领导科学丶公务员制度
+专业校考科目:中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理(选考课程不低于10学分。不考英语(二)的再另选三门课程,总学分不低于24学分)】毕业考核(或论文综合实践实验实习等)
+行政管理就业方向:
+1. 在县级以上政府的民政职能部门和事业单位就业;
+2. 从事乡镇民政办公室管理工作;
+3. 从事城镇街道民政所管理工作;
+4. 从事县(或市)以上民政部门以及民间组织中介机构管理工作;
+5. 从事婚姻服务中介机构、收养登记服务中介机构管理工作;
+6. 从事婚姻管理、收养登记管理、行政区划管理工作;
+7. 从事地名管理、社团管理工作等。
+8. 可从事事业单位的行政协理员,办公室主任、行政主管、协调层或决策层高级助理,中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职毕业生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作,学校、科研部门的教学或科研工作,大、中型企业和企业集团
+考试科目：统考6科(闭卷)+校考9-12科左右(过程性考试）
+学费低至2800元/年(按两年收取)学费包含教材资料、在线教学、面授,现在报名还可申请200元-600元助学补贴,名额有限,想要报名的学员速速联系李老师咨询~
+考试时间:
+统考每年的4、10月 校考每年的7、12月
+毕业证申请时间每年的6月和12月
+报名资料:身份证扫描件和一张两寸蓝底照片(电子版)
+报名时间:正在报名注册中(名额有限,赶快抓紧时间报名哦)
+报名地址:成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 </t>
+  </si>
+  <si>
+    <t>西南财经大学有小自考市场营销专业吗？考几科？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考市场营销专业毕业从事什么工作？报名怎么报？
+市场营销专业毕业生可以从事市场调研、营销策划、广告策划、市场开发、营销管理、推销服务和教学科研等工作，也可在国内外高校及研究机构中继续深造。还可以在工商、外贸、金融、保险、证券、旅游、房地产等企事业单位从事企业营销管理、客户资源管理、网络营销管理、营销诊断、市场调查和咨询等工作。但是刚踏入社会选择私企的销售工作会比较好找些，一般国企外企虽然待遇和福利会好些，但是招人都只会招有经验的销售人员，对销售人员的聘用要求会很高，也会比较严格些，竞争也更激烈。
+市场营销专业考哪些科目呢？统考几科？考试难度大吗？
+统考：国际市场营销学、国际贸易理论与实务、金融理论与实务、消费经济学、商品流通概论、国际商务谈判
+校考：中国近现代史纲要、管理系统中计算机应用、企业会计学、市场营销策划、概率论与数理统计（经管类）、管理学原理、货币银行学、企业经营战略
+统考6科+校考9科，校考为过程性考试，由我们统一组织监考，学员只需把学习重心放在统考科目上即可！一年四次考试机会，两次校考，两次统考，较快一年考完全部科目，2年左右右！
+可报考院校：成都理工大学、西南财经大学都可以报考，现在报名可参加4月统考，考生们可提前为考试做准备！
+学费低至2700元/年（按两年收取）学费包含全新的教材资料+单独的视频学习平台账号+考前真题，帮助学员顺利通过考试，更多专业及详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号（报名即签订保障学员权益的协议书，学员可放心报考）
+咨询人：李老师
+</t>
+  </si>
+  <si>
+    <t>四川小自考教育管理本科应该报考什么学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考专升本教育管理专业考什么？报哪个学校？
+该专业需要统考6科，校考9科，一年四次考试机会，较快一年即可考完全部科目，2年左右毕业！现在报名可参加4月的统考，可报考2-4科，现在报名的考生可领取教材注册学习账号准备考试！
+统考科目：计算机应用基础、教育学（二）、教育心理学、教育管理原理、教育经济学、教育科学研究方法（二）
+校考科目：中国近现代史纲要、马克思主义基本原理概论、教育评估和督导、教育统计与测量、教育法学、教育管理心理学、中外教育管理史、学前教育管理、中小学教育管理、教育行政学、学校管理学、教育预测与规划
+以上为该专业考试科目，需要看书学习的就是统考6科，其他科目均为过程性考试，学员只需把学习重心放在统考科目上即可！
+教育管理专业可以报考西华师范大学，西华师范大学（China West Normal University），简称“西华师大”，是四川省人民政府举办的全日制省属重点师范大学，学校座落在历史文化名城——南充，是四川省第一所师范类高等学府和全国首批学士、硕士学位。
+学费：2900元/年（学费按两年收取） 现在报名还可申请助学补贴，名额有限，想要报名的同学速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报可以报考哪些专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川师范大学小自考报名截止了吗？每年多久报名？
+四川师范大学（SICHUAN NORMAL UNIVERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家中西部高校基础能力建设工程重点建设大学，入选“卓越教师培养计划”、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+其中教育类专业等文科专业都比较好考，也是四川师范大学的优势热门专业！更多专业及详情可加李老师详细咨询~
+考试科目：统考：6科 校考：9-12科（由学校组织，过程性考试）
+学费：3600元/年（按两年收取）包含教材资料，网上课件，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+毕业由自考办和四川师范大学联合颁发的国家认可的毕业证书，学信网可查！
+详情咨询李老师 
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报名时间是多久 要注意什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2020年四川小自考4月统考什么时候开始报名？大概学费？
+2020年春季四川小自考注册时间大概在2月底左右，但是大家要提前准备和复习，因为4月份就要开始考试，如果从2月份开始复习时间就比较紧张。所以建议大家现在开始领教材资料，注册学习账号开始准备考试！
+1、 四川小自考有哪些学校可以选择？
+四川师范大学、成都理工大学、西南石油大学、西华师范大学、成都大学、西南财经大学、西南医科大学等省内重点大学！现在报名专业齐全，详情咨询李老师~
+2、 考试时间：
+2020年4月11日 9:00-11:30，14:30-17:00
+2020年4月12日 9:00-11:30，14:30-17:00
+3、考试科目也已经公示，需要了解的可以联系李老师了解。
+4、学费：每个学校学费标准都不一样，一般5-7千左右，学费包含教材资料，单独的视频学习账号，帮助学员顺利通过考试！
+特别提醒：现在报名预交800就可以领取教材和复习资料，并开通学习APP（APP包含了历年真题、押题资料、视频课），800是可以抵扣学费的。具体可以联系我详细了解。
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考最全报考资料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考注册时间是多久？小自考通过率高的专业？四川小自考注册时间是多久？小自考通过率高的专业作为一名自考生，你对自考的报名、复习、申请毕业等，这些你都知道吗？今天李老师带大家熟悉一下：
+一、怎么报名、报考？
+现在多数省市都是网上报名，报名网站一般都是本地的自考办网站，自考新生还需要现场报名，想轻松一些的可以选择自考助学机构报名，可以省去报名和报考步骤更省心。
+二、考试时间
+四川省有小自考，每年可以考试4次，分别在4月、6月、10月、12月；现在正在秋季报名注册中，现在报名的考生可参加4月统考，同学们可报名领取教材为4月统考做考试准备
+三、自考毕业需要几年？
+自考毕业需要几年这个问题因人因地而异。如果你选择好考的专业，学习能力又强，一年半全部考完申请毕业也是可行的，一般时间在2年左右，注意！这是指小自考！
+四、自考什么专业比较容易考过？
+一般来说理工科的专业困难一些，要考到数学之类的，文科类的专业相对容易，如行政管理、人力资源、学前教育等，可以根据自己的个人爱好和情况来。
+五、自考报哪个学校比较好？
+在四川省报小自考，选学校其实并没有太多不同，一般学校的名气越大学费就越贵。四川师范大学、成都理工大学、西华师范大学、西南财经大学、成都大学等省内重点大学，现在报考专业齐全，详情可咨询李老师~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考市场营销专业怎么样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学小自考有市场营销专业吗？就业前景如何？
+市场营销专业毕业生可以从事市场调研、营销策划、广告策划、市场开发、营销管理、推销服务和教学科研等工作，也可在国内外高校及研究机构中继续深造。还可以在工商、外贸、金融、保险、证券、旅游、房地产等企事业单位从事企业营销管理、客户资源管理、网络营销管理、营销诊断、市场调查和咨询等工作。但是刚踏入社会选择私企的销售工作会比较好找些，一般国企外企虽然待遇和福利会好些，但是招人都只会招有经验的销售人员，对销售人员的聘用要求会很高，也会比较严格些，竞争也更激烈。
+市场营销专业考哪些科目呢？统考几科？考试难度大吗？
+统考：国际市场营销学、国际贸易理论与实务、金融理论与实务、消费经济学、商品流通概论、国际商务谈判
+校考：中国近现代史纲要、管理系统中计算机应用、企业会计学、市场营销策划、概率论与数理统计（经管类）、管理学原理、货币银行学、企业经营战略
+统考6科+校考9科，校考为过程性考试，由我们统一组织监考，学员只需把学习重心放在统考科目上即可！一年四次考试机会，两次校考，两次统考，较快一年考完全部科目，2年左右右！
+西南财经大学正在招收小自考市场营销专业的学生，名额有限，想要报名的同学可加李老师详细咨询~
+学费低至3700元/年（按两年收取）学费包含全新的教材资料+单独的视频学习平台账号+考前真题，帮助学员顺利通过考试，更多专业及详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号（报名即签订保障学员权益的协议书，学员可放心报考）
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考工程造价专业怎么样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小自考工程造价专业报成都理工大学好吗？考试难度大吗？
+成都理工大学创办于1956年，由国务院批准建立，原名成都地质勘探学院，以重庆大学地质系、西北大学和南京大学地质系的工科部分为基础，同时抽调北京地质学院、东北地质学院部分干部教师组建。
+工程造价专业是理科工程类优势专业，成都理工大学是理科类院校里面较好的，在四川都是排位比较高的学校，想要报考工程造价专业的学生可以选择报考成都理工大学！
+工程造价专业考哪些科目呢？
+统考：建筑工程定额预算、建筑工程工程量清单计价实务、建设工程合同（含fidic）条款、工程项目管理、工程造价确定与控制、房屋建筑工程概要
+以上6科为统考科目，需要同学们看书学习，考前刷题来通过考试，其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+报名时间：正在报名注册中，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>西南财经大学小自考难吗？什么专业通过率高？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学小自考 名校招生 财会类优势专业报名注册中
+西南财经大学（SWUFE）位于天府之??国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可参加4月统考，考生们可提前为考试做准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：
+统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费）包含教材资料跟视频课程，以及班主任全程代班
+考试时间：
+统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师</t>
+  </si>
+  <si>
+    <t>西华师范大学学前教育专业考几科？今年多久考试？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西华师范大学小自考有学前教育专业吗？考几科？
+李老师告诉你，学前教育是由家长及幼师利用各种方法、实物，有系统、有计划而且科学地对孩童的大脑进行各种刺激，使大脑各部位的功能逐渐完善而进行的教育。
+学前教育是学前教育学的重要内容之一，是构成学前教育学的科学体系的一部分。儿童是人生智力发展的基础阶段，又是发展*快的时期，适当、正确的学前教育对幼儿智力及其日后的发展有很大的作用。超常儿童的形成、发展，无一不与适当、正确的学前教育有关，尤其是智力方面的学前教育。学前智育是一个多方面的培养过程。对学前儿童的心理健康关注也不可小觑。这个年龄段的儿童心智发展极不成熟，需要家长及幼师积极的引导。现在的孩子很多都是独生子女，自我意识很强，缺乏对他人的关心，不懂得分享，因此，作为家长和幼师，应积极引导孩子学会关心他人、学会分享、乐于分享。
+学前教育有哪些考试科目？
+统考科目：学前卫生学、幼儿园课程、学前教育原理、学前教育心理学、学前教育研究方法、儿童发展理论
+统考6科，以上6科统考会开设课程，需要学员看书学习通过考试，其他科目均为过程性校考！
+校考科目：幼儿园组织与管理、学前教育史、学前比较教育、低幼儿童文学名著导读、学前儿童心里健康与辅导、学前儿童发展评估、家长工作与家园沟通、幼儿园班级管理、幼儿教师教研指导
+学习形式：6门统考+9-12门校考
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费：2000+/年（学费包含教材资料+单独的视频学习平台账号+考前资料）帮助学员顺利通过考试，更有班主任全程一对一带班！现在报名即可签订协议保障学员权益，学员可放心报考！
+报名时间：正在报名注册中
+报名地址：成华区建设北路三段成功银玺国际2810号
+咨询方式：李老师 </t>
+  </si>
+  <si>
+    <t>西南财经小自考选择那些专业好考 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学位于四川省成都市，直属中华人民共和国教育部，以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学小自考现在可报考专业有哪些呢？
+专科：会计电算化、工商企业管理、市场营销
+本科：会计学、工商管理、金融、市场营销、人力资源管理、行政管理
+以上专业都可以报考，西南财经大学行政管理专业为学校新增专业，想要报考该专业的同学现在可以报考哦，行政管理专业考哪些呢？
+统考：社会学概论、当代中国政治制度、西方政治制度、公共政策、领导科学、公务员制度，以上6科为学员需要参加的统考科目，统考科目学校会开设视频课程，考前也会发重点资料给大家，帮助同学们顺利通过考试，其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+学费低至3700元/年（学费按两年收取，学费包含教材资料+单独的视频学习平台账号+考前资料）想要报名的同学可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 
+</t>
+  </si>
+  <si>
+    <t>四川小自考护理专业可以报哪个学校 考试难度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考护理专业难度高吗？报哪个学校通过率高？
+该专业学生主要学习相关的人文社会的科学知识和基础医学、预防保健的基本理论、基本知识和临床护理技能的培训，具有对服务对象实施整体护理系社区健康服务的基本能力。 毕业后可在护理领域内从事临床护理、预防保健、护理管理、护理教学和护理科研。
+学生就业主要分布在各级各类综合医院、专科医院、急救中心、康复中心、社区医疗服务中心，并且从事临床护理、护理管理工作。 如果国家发展到一定的程度，还可以为每一个家庭和小区配备一个护士，到那个时候护士可以进入家庭和社区，条件是国家有能力给这些人付工资。
+护理专业战队性强，对专业知识有要求，建议有相关工作经验或基础的考生报考，那么护理专业需要考几科呢？
+统考：卫生统计学、护理教育导论、急救护理学、精神障碍护理学、儿科护理学（二）、计算机应用基础，只需统考6科，学员只需把学习重心放在统考科目上即可，其余科目均为过程性校考，小自考一年考四次，较快可一年考完全部科目，2年左右时间毕业！
+成都大学护理专业正在招生报名注册中，学费低至3000元/年（学费按两年收取）现在报名的同学可申请助学补贴，可减免200-600元，想要报名的考生可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号，报名即签订保障学员权益学员的协议书，学员可放心报考！
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考人力资源管理毕业找什么工作 报考院校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考人力资源管理专业报名 报考哪个学校比较简单
+人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
+考试科目有哪些呢？
+统考：管理学原理、公共关系学、管理思想史、劳动关系与劳动法、人员素质测评理论与方法、人力资源开发与管理
+校考：中国近现代史纲要、基础会计学、管理系统中计算机应用、经济学（二）、薪酬管理、工作分析、社会学概论、行政管理学
+该专业只需统考6科，其余科目均为过程性校考，统考科目会开设课程，所有科目均为理论知识，主要靠学员记忆，是比较简单好考的专业，很多学员想要快速毕业可以考虑报考该专业！
+可报考哪些学校呢？
+成都理工大学，西南财经大学都可以报考，考试科目完全相同，含金量也是一样的，考试难度也是一样的，学员可根据自身情况选择适合自己的学校报考！报名详情可加李老师详细咨询！
+报名地址：成都市成华区建设路成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>成都理工大学自考专升本可以报工商管理专业吗 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+成都理工大学小自考工商管理专业如何？怎么报名？
+成都理工大学是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。成都理工大学是理科类专业，其中理科专业均为优势专业，在省内排位都是前几名哦，所以想要报考理科专业的同学可以选择报考成都理工大学！
+工商管理专业的应用性很强，它的目标是依据管理学、经济学的基本理论，通过运用现代管理的方法和手段来进行有效的企业管理和经营决策，保证企业的生存和发展。适应国家和地方各级经济管理部门、行业管理部门、大中型工商企业经营管理、涉外公司经营管理、金融、商贸企业等领域的工作。
+工商管理专业应用范围广，毕业好就业，也可用于考公务员都是完全没问题的，该专业只需统考6科，其他科目均为过程性校考，学员只需把学习重心放在统考科目上即可，小自考一年有四次考试机会，较快学员可一年考完全部科目，2年左右毕业，报名详情可加李老师详细咨询~
+学费低至2700元/年（学费按两年收取，学费包含教材资料+单独的视频学习平台账号+考前资料）早报早毕业，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>020年四川4月份统考多久考试 考哪些科目</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2020年四川小自考4月统考考试安排已出，考试时间为：4月11-12号，同学们可根据考试安排选择科目进行备考了，上午9：00-11:30 下午14：30-17:00，每堂考试时间为两个半小时。
+2020年四川小自考4月统考考试安排已出 考试时间是多久？
+很多同学想要报考小自考，但是不知道怎么报名，怎么学习，考试安排，下面李老师跟大家详细解答一下关于小自考的一些疑问：
+小自考可以选择到报名点报名，只需提交资料注册即可，现在报名的考生都可参加4月统考，现在距离考试只有三个月的时间了，可报名领取教材资料提前为考试做考前准备，增加考生考试通过率！
+自学考试的学习形式，主要还是需要学员自己自学，但是学校为了增加同学们的通过率，也会开设视频课程，发放考前真题资料，从而帮助同学们顺利通过考试，并且报考小自考的同学，全程会有班主任带班，避免学生不知道考试科目，以及考试时间从而延误毕业的状况，尽量做到让学员尽快早毕业！
+报考院校：西南财经大学、西华师范大学、四川师范大学、西南石油大学、成都理工大学、成都大学等省内重点大学，现在可报考专业齐全，想咨询专业详情的可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学专业报名 西华师范这个专业如何</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西华师范大学自考汉语言文学专业统考哪几科？多久报名？
+汉语言文学专业主要培养掌握汉语和中国文学方面的基本知识，受到有关理论、发展历史、研究现状等方面的系统教育和业务能力的基本训练，可在科研机关、高等院校从事研究、教学工作、有的可从事对外汉语教学。可适宜在党政机关，包括报刊宣传、新闻出版、影视文化、互联网、对外交流其他企事业部门从事语言文字工作的专门人才。汉语言文学专业就业范围广，通过率高，西华师范大学2020年春季正在招收自考汉语言文学专业的考生，想要报名的考生可加李老师详细咨询~
+统考：中国现代文学史、中国古代文学史（一）、中国古代文学史（二）、外国文学史、语言学概论、马列文论选读，一共统考6科，均为文科科目，需学员看书记忆！其余科目均为学校组织的过程性考试，学员只需把学习重心放在统考科目上即可！
+报名条件：只需年满17岁都可报名，现在报名可参加4月统考，4月考试安排已出，同学们可根据考试安排选择科目进行考试准备！
+报名资料：身份证正反面照片、两寸蓝底证件照电子档
+报名方式：可直接交资料网上报名也可到本报名处现场报名，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810-2811号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>想要报西南财大的小自考 需要什么条件才能报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学小自考报名条件？报名需要哪些资料？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可为4月统考做考试准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试时间：统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路北路成功银玺国际2810号
+详情可咨询 李老师</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考金融学专业报名注册中 优势专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经小自考金融学专业毕业好就业吗？学费多少？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。西南财经大学正在招收小自考金融学专业，报名即可参加考试，较快1年考完全部科目，2年左右时间毕业！
+统考：管理学原理、财务管理学、国际金融、银行会计学、国际市场营销学、金融风险控制与管理，一共6科统考，统考科目学校会开设视频课程，考前资料，帮助学员顺利通过考试，早点毕业！其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+西南财经大学金融学专业是学校优势专业，西财也是985,211的院校，金融学的主要就业方向：金融行业监管部门、各类银行、信用社、证券/信托/基金机构、保险公司、资产管理公司、上市公司证券部、高校或研究所等各类金融机构从事金融行业工作或教学科研等，就业范围广，想要报考的学员可加李老师详细咨询~
+学费：3700元/年（学费按两年收取）学费包含教材资料+单独的视频学习平台+真题资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>成都理工大学小自考工程造价专业好吗？2020年多久报名？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+成都理工大学小自考工程造价专业好吗？2020年多久报名？
+成都理工大学创办于1956年，由国务院批准建立，原名成都地质勘探学院，以重庆大学地质系、西北大学和南京大学地质系的工科部分为基础，同时抽调北京地质学院、东北地质学院部分干部教师组建。
+工程造价专业是理科工程类优势专业，成都理工大学是理科类院校里面较好的，在四川都是排位比较高的学校，想要报考工程造价专业的学生可以选择报考成都理工大学！
+工程造价专业考哪些科目呢？
+统考：建筑工程定额预算、建筑工程工程量清单计价实务、建设工程合同（含fidic）条款、工程项目管理、工程造价确定与控制、房屋建筑工程概要
+以上6科为统考科目，需要同学们看书学习，考前刷题来通过考试，其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+报名时间：正在报名注册中，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+考试时间为4月11-12号，4月统考考试安排已出，同学们可报名领取教材备考4月统考，可选择1-4科准备，距离考试只有不到3个月的时间了，想要报名的同学可详细咨询李老师~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川小自考专升本小学教育大概需要多少学费？报哪个学校？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+四川小自考专升本小学教育大概需要多少学费？报哪个学校？
+小学教育专业培养德、智、体全面发展的，具有较高教育理论素养和较强教育实际工作能力（语、数、英）小学教师及教育科研、各级教育行政管理人员和其他教育工作者。
+小学教育属于教育类专业，可以选择报考师范类院校，现在四川可报考的院校有四川师范大学跟西华师范大师，这两所学校全部学费在5000-7000不等，不同学校收费标准不同，专业及学费详情可加李老师详细咨询~
+考试科目：计算机应用基础、教育学（二）、中小学教育管理、心理卫生与心理辅导、课程与教学论、教育心理学，只需统考6科，其他科目均为过程性校考，以上统考科目学校会开设视频课程，考前也会发考前资料给大家，帮助同学们顺利通过考试！
+小自考学费只收两年，学费包含教材资料+单独的视频学习平台账号+考前资料，除此以外只有考试费35元/科，本科有毕业证工本费+毕业答辩费480元，其他没有任何费用了，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：一年四次注册机会，现在正在火热报名中，现在报名的考生可参加4月统考！
+同学们可提前为4月考试做考前准备了，考试时间为4月11-12号，可报考1-4科，距离考试只剩不到3个月的时间，想要报名的同学可联系李老师报名，领取教材资料备考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年西财自考有开设人力资源管理专业吗？需要统考几科？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+2020年西财自考有开设人力资源管理专业吗？需要统考几科？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+2020年西南财经大学春季新增人力资源管理专业可以报考，该专业只需统考6科，其他科目均为过程性校考，学员把学习重心放在统考科目上即可，一年四次考试机会，较快1年考完全部科目，2年左右毕业！
+考试科目：管理学原理、公共关系学、管理思想史、劳动关系与劳动法、人员素质测评理论与方法、人力资源开发与管理，统考科目学校会开设视频课程，学员可登陆app学习，考前也会发真题资料，帮助学员顺利通过考试！
+企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作，人力资源管理专业毕业好就业，想要报名的同学可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>小自考专升本会计专业难度 可以报什么学校？</t>
+  </si>
+  <si>
+    <t>小自考专升本会计专业难度 可以报什么学校？
+会计专业可报考院校：四川师范大学、西南财经大学、西华师范大学、成都理工大学、西南石油大学，以上几所学校会计专业都在招生报名中，会计专业对专业知识有一定要求，所以建议有相关学习经历或者工作经验的学员报考！
+考试科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报表分析（一） 统考6科，其他科目均为过程性校考，会计专业6科统考+11科校考，一年四次考试机会，学习情况较好的同学可一年考完全部科目，2年左右毕业！想要报考的同学可根据自身情况选择学校报考，更多专业及学校的详情可加李老师详细咨询~
+自考学历含金量高，社会认可度高，毕业可考证，考公务员都是没问题的，现在正在报名注册中，报名领取教材备考，学费低至2700元/年，学费按两年收取，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>西华师范大学小自考有哪些专业 在哪里可以查专业表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西华师范大学小自考有哪些专业 在哪里可以查专业表
+西华师范大学（China West N??ormal University），简称“西华师大”，是四川省人民政府举办的全日制重点师范大学，学校座落在历史文化名城南充，是四川省第一所师范类高等学府和全国批学士、硕士学位授权单位。
+西华师范大学现招收自考专、本科学员。初中毕业的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
+应用型（小自考）考试形式：统考6科（闭卷）+校考9-12科左右（过程性考试） 
+专科：会计、学前教育、小学教育、法律事务、人力资源管理、汉语言文学 本科：法学、学前教育、小学教育、汉语言文学、工商管理、市场营销、会计学、人力资源管理、行政管理、教育管理、旅游管理、美术教育
+自考一共涉及三个费用：
+第一：学费（包括教材+辅导资料+教学课程）
+（2800元/年，按两年收取）
+第二：考试费35/科 一般考18科
+第三：本科生涉及论文答辩费 480元（结束再交） 专科生只交毕业证工本费150左右 无答辩
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都
+可以结合教学课程和辅导资料在家自主复习
+考试时间：统考每年的4、10月 校考每年的7、12月
+毕业证申请时间每年的6月和12月
+报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+报名时间：正在报名注册中，名额有限吗，想要报名的学生速速联系李老师咨询
+报名地址：成都市成华区建设北路三段成功银玺国际2810号 详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考可以在网上报名吗？学费怎么交？</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考可以在网上报名吗？学费怎么交？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可为4月统考做考试准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试时间：统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份证扫描件和一张两寸蓝底照片（电子版），报名相关详情咨询李老师~
+报名地址：成都市成华区建设路北路成功银玺国际2810号
+详情可咨询 电话：199 8120 3720（vx同号） QQ：1916 3720 47</t>
+  </si>
+  <si>
+    <t>小自考环境设计专业好考吗？成都有哪些学校可以报？</t>
+  </si>
+  <si>
+    <t>小自考环境设计专业好考吗？成都有哪些学校可以报?
+成都理工大学是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。成都理工大学是理科类专业，其中理科专业均为优势专业，在省内排位都是前几名哦，所以想要报考理科专业的同学可以选择报考成都理工大学！
+环境艺术设计是指对于建筑室内外的空间环境，通过艺术设计的方式进行整合设计的一门实用艺术。环境艺术所涉及的学科很广泛，包括建筑学、城市规划学、人类工程学、环境心理学、设计美学、社会学、文学、史学、考古学、宗教学、环境生态学、环境行为学等学科。
+成都理工大学现在招收自考环境设计专业的学生，该专业只需要统考4科，其他均为过程性校考，一年四次考试机会，较快可一年考完全部科目，2年左右毕业！
+考试科目：04026设计美学、04489室内装饰材料、05424现代设计史、08918工程图学基础，以上四科为统考科目，需要学员看书学习，考前会发给大家考前资料，同学们可大量刷题增加通过率，环境设计专业统考科目较少，很多想要快速考完拿证的同学可以选择报考该专业，该专业毕业后可以从事室内外装饰装修设计，就业范围广！
+报名时间：现在正在报名注册中，现在报名学费低至2700元一年（按两年收取），报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报名怎么报？需要到现场报名吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考报名怎么报？需要到现场报名吗？
+四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
+四川师范大学正在招收小自考专本科学员，专业齐全，考试简单，学员较快可1年考完全部科目，2年左右拿毕业证书！
+四川师范大学小自考报名怎么报？需要到现场报名吗？
+川师自考毕业证样板
+专科：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作、市场营销
+本科：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作、公共事业管理等专业，更多专业及详情可加李老师咨询~
+报名方式：小自考一般是在校外报名点报名，学员可根据自身情况选择，可现场咨询报名也可以直接交资料网上报名，由教务老师同意注册考籍，参加考试，后续考试及报考有班主任全程一对一带班，避免同学们因为不知道什么时候报考和不知道报考科目错过考试，延误毕业时间，帮助学员顺利通过考试！
+学费3500元/年（学费按两年收取）学费包含教材资料+单独的视频学习账号+考前资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考工商管理专业 学费多少 怎么报名</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考工商管理专业 学费多少 怎么报名
+成都理工大学现在正在招收小自考专科、本科工商管理专业，工商管理专业商管理涉猎知识面很广， 囊括了经济学（微观经济学、宏观经济学、会计学、统计学、金融学、证券投资学、财务管理、管理学、人力资源管理、运筹学、市场营销等等 ）因此它的就业范围也是很广，可以从事会计、金融（银行和证券公司）、公司管理人员、市场营销人员。毕业好找工作，想要报考的考生可加李老师详细咨询
+专科专业名称为：工商企业管理 本科专业名称为：工商管理
+统考考试科目： 专科：计算机应用基础、基础会计学、企业会计学、市场营销学、中国税制、大学语文
+本科：管理学原理、国际贸易理论与实务、金融理论与实务、企业经营战略、组织行为学、质量管理（一）
+专本科都只需要统考6科，其他的科目均为过程性校考，学员只需把学习重心放在6科统考上即可，一年四次考试机会，两次校考，两次统考，学员报名后只需按班主任通知报考参加考试，会有班主任帮助同学们筛选科目规划考试进度，尽量让同学们可以快点考完毕业，专本科较快都可以1年考完全部科目，专科1.5年毕业，本科有毕业答辩跟毕业论文，2年左右毕业！
+学费标准：2700元/年（按两年收取）学费包含教材资料+视频学习平台账号+考前资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考会计专业 毕业快，考试简单</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考会计专业 毕业快 考试简单
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+西南财经大学现在正在招收小自考会计专业的学生，专科本科都可以报名，会计专业也是西南财经大学的优势专业，每年报考的考生特别多，西财作为985,211的院校，现在开放对社会再收自考专科、本科的学生，名校招生，想要报名的学员速速联系李老师咨询~
+很多想要报考小自考会计专业的学生都不知道会计专业到底考多少科？报名后多久能毕业？考试难度如何等，接来下李老师为大家详细解答一下这几个问题：
+首先小自考会计专业只需要统考6科，其余11科均为过程性校考，统考科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报名分析（一）以上6科为统考科目，这6科是需要同学们跟着老师学习然后刷题才能通过的，小自考一年有四次考试机会，学习情况较好的同学是可以一年考完全部科目，2年左右毕业的！至于剩下的11科校考只需同学们到场配合参加即可！
+自考学历含金量高，社会认可度高，毕业由西南财经大学和自考办联合颁发毕业证书，学信网永久可查！西财学费低至3700元/年（学费按两年收取）学费包含教材资料+视频课程+考前资料，帮助学员顺利通过考试！更有班主任全程一对一带班，避免学生因不知道报考时间以及报考科目等原因错过考试，延误毕业时间！
+报名时间：现在正在报名注册中，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学专业专升本考试科目 可以报哪些学校</t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学专业专升本考试科目 可以报哪些学校
+汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。
+小自考汉语言文学专业现在可报考院校： 四川师范大学、西华师范大学这两所学校都可以报考，汉语言专业是每年报考的热门专业，通过率高，考试简单，只需要统考6科，其余科目均为过程性校考，报考小自考的同学只有统考科目需要看书学习，统考科目学校也会开设视频课程，帮助学员顺利通过考试！
+统考科目：中国现代文学史、中国古代文学史（一）、中国古代文学史（二）、外国文学史、语言学概论、马列文论选读
+校考科目：中国近现代史纲要、马克思主义基本原理概论、美学、中国古代文论选读、新闻采访与写作、影视艺术概论、报告文学研究、散文创作与研究、市场营销学、广告学（一）、广告策划、传播学概论，校考科目为过程性考试，报考的同学只需按班主任通知到场参加考试即可！
+自考学历含金量高，社会认可度高，毕业由学校跟自考办联合颁发正规的学信网可查的毕业证书，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：正在报名注册中，学费在5000多到7000多不等，学校不同学费标准也不同，学费及专业详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
   </si>
 </sst>
 </file>
@@ -2774,9 +4091,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -2829,13 +4146,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2843,7 +4153,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2873,12 +4190,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2886,17 +4204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2907,30 +4224,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2951,7 +4244,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2959,16 +4268,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2999,13 +4316,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399822992645039"/>
+        <fgColor theme="3" tint="0.399792474135563"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3023,25 +4412,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3053,37 +4460,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3095,25 +4472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3125,37 +4490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3167,25 +4502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3202,19 +4519,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3222,23 +4528,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3254,15 +4545,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3296,6 +4578,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3304,10 +4621,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3316,31 +4633,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3349,100 +4666,100 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3855,18 +5172,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52:D53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="59.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.8727272727273" style="2" customWidth="1"/>
     <col min="2" max="2" width="48" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1272727272727" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.87272727272727" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -4109,7 +5426,7 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="9" t="s">
@@ -4123,7 +5440,7 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B19" s="9" t="s">
@@ -4235,7 +5552,7 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="13" t="s">
@@ -4249,7 +5566,7 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B28" s="9" t="s">
@@ -4263,7 +5580,7 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
       <c r="B29" s="9" t="s">
@@ -4277,7 +5594,7 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -4291,7 +5608,7 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="12" t="s">
         <v>55</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -4305,7 +5622,7 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="12" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -4319,10 +5636,10 @@
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -4333,7 +5650,7 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -4434,7 +5751,7 @@
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -4560,7 +5877,7 @@
       <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -4588,7 +5905,7 @@
       <c r="A52" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -4602,7 +5919,7 @@
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -4623,114 +5940,114 @@
         <v>6</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" customHeight="1" spans="1:4">
       <c r="A55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:4">
+      <c r="A56" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C55" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:4">
-      <c r="A56" s="2" t="s">
+      <c r="B56" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="C56" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:4">
+      <c r="A57" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="2" t="s">
+      <c r="B57" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="C57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:4">
+      <c r="A58" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="2" t="s">
+      <c r="B58" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>111</v>
-      </c>
       <c r="C58" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:4">
       <c r="A59" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="C59" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>103</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:4">
       <c r="A60" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="C60" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:4">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C60" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" s="11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="12" t="s">
+      <c r="B61" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="C61" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:4">
+      <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="12" t="s">
+      <c r="B62" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="C62" s="10" t="s">
         <v>6</v>
       </c>
@@ -4739,10 +6056,10 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -4753,7 +6070,7 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B64" s="19" t="s">
@@ -4767,10 +6084,10 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="3" t="s">
         <v>124</v>
       </c>
       <c r="C65" s="10" t="s">
@@ -4781,7 +6098,7 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B66" s="14" t="s">
@@ -4795,10 +6112,10 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C67" s="10" t="s">
@@ -4809,7 +6126,7 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:4">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B68" s="14" t="s">
@@ -4823,10 +6140,10 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:4">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C69" s="10" t="s">
@@ -4837,7 +6154,7 @@
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:4">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B70" s="14" t="s">
@@ -4851,10 +6168,10 @@
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C71" s="10" t="s">
@@ -4865,7 +6182,7 @@
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:4">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B72" s="14" t="s">
@@ -4879,7 +6196,7 @@
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B73" s="14" t="s">
@@ -4893,7 +6210,7 @@
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B74" s="14" t="s">
@@ -4907,7 +6224,7 @@
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B75" s="14" t="s">
@@ -4921,7 +6238,7 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B76" s="14" t="s">
@@ -4935,10 +6252,10 @@
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C77" s="10" t="s">
@@ -4949,7 +6266,7 @@
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:4">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B78" s="14" t="s">
@@ -4963,10 +6280,10 @@
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:4">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C79" s="10" t="s">
@@ -4977,7 +6294,7 @@
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:4">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B80" s="14" t="s">
@@ -4991,7 +6308,7 @@
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B81" s="3" t="s">
@@ -5005,7 +6322,7 @@
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B82" s="14" t="s">
@@ -5019,10 +6336,10 @@
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:4">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C83" s="10" t="s">
@@ -5033,7 +6350,7 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:4">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B84" s="14" t="s">
@@ -5047,7 +6364,7 @@
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:4">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B85" s="14" t="s">
@@ -5061,10 +6378,10 @@
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:4">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C86" s="10" t="s">
@@ -5075,7 +6392,7 @@
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:4">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B87" s="14" t="s">
@@ -5089,10 +6406,10 @@
       </c>
     </row>
     <row r="88" customHeight="1" spans="1:4">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C88" s="10" t="s">
@@ -5309,6 +6626,748 @@
         <v>6</v>
       </c>
       <c r="D103" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:4">
+      <c r="A104" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:4">
+      <c r="A105" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:4">
+      <c r="A106" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:4">
+      <c r="A107" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:4">
+      <c r="A108" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:4">
+      <c r="A109" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:4">
+      <c r="A110" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:4">
+      <c r="A111" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:4">
+      <c r="A112" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:4">
+      <c r="A113" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:4">
+      <c r="A114" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:4">
+      <c r="A115" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:4">
+      <c r="A116" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:4">
+      <c r="A117" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:4">
+      <c r="A118" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:4">
+      <c r="A119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:4">
+      <c r="A120" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:4">
+      <c r="A121" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:4">
+      <c r="A122" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:4">
+      <c r="A123" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:4">
+      <c r="A124" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:4">
+      <c r="A125" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:4">
+      <c r="A126" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:4">
+      <c r="A127" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:4">
+      <c r="A128" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:4">
+      <c r="A129" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:4">
+      <c r="A130" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:4">
+      <c r="A131" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:4">
+      <c r="A132" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:4">
+      <c r="A133" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:4">
+      <c r="A134" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:4">
+      <c r="A135" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:4">
+      <c r="A136" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:4">
+      <c r="A137" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:4">
+      <c r="A138" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:4">
+      <c r="A139" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:4">
+      <c r="A140" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:4">
+      <c r="A141" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:4">
+      <c r="A142" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:4">
+      <c r="A143" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:4">
+      <c r="A144" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:4">
+      <c r="A145" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:4">
+      <c r="A147" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:4">
+      <c r="A148" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:4">
+      <c r="A149" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:4">
+      <c r="A150" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:4">
+      <c r="A151" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:4">
+      <c r="A152" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:4">
+      <c r="A153" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:4">
+      <c r="A154" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:4">
+      <c r="A155" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:4">
+      <c r="A156" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5328,7 +7387,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5345,7 +7404,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5362,7 +7421,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5378,7 +7437,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5394,7 +7453,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/tiezi.xlsx
+++ b/data/tiezi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18880" windowHeight="9870"/>
+    <workbookView windowWidth="30720" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$158</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$190</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="348">
   <si>
     <t>Title(长度30个字)</t>
   </si>
@@ -58,11 +58,11 @@
     <t>不运行</t>
   </si>
   <si>
-    <t>成都理工大学成教怎么报名？报名时间是多久？考试时间？
+    <t xml:space="preserve">成都理工大学成教怎么报名？报名时间是多久？考试时间？
 成都理工大学现开放对外招收成教高起专，专升本学员，只要你年满18岁都可报考！报名只需100元，录取后再交学费，成教报名一年一次机会，报名截止到9月初，需要报名的学员抓紧时间联系李老师咨询报名事宜~
 咨询方式：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
 学校简介：
-成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！在省内理科内院校里面排名靠前，学员只需100元即可报考成都理工大学成人教育专本科学历，成教考试简单，学员可轻松毕业！
+成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！在省内理科内院校里面排名靠前，学员只需100元即可报考成都理工大学成人教育专本科学历，成教考试简单，学员可轻松畢業！
 成都理工现可报专业：
 专科：会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理
 本科：现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价
@@ -72,7 +72,7 @@
 报名即可签订协议保障学员权益！且成教报名只需交100元资料费（包含考试三科教材资料+考试科目视频课程），帮助同学们顺利通过考试，12月网上查录取后再交学费，学员报名可无后顾之忧~
 报名时间：现在正在报名，报名截止9月初，大家千万不要错过一年一次的报名机会哦，不然又要等明年！
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
+</t>
   </si>
   <si>
     <t>zikao.jpg,hanjin.jpg,why.jpg,chuanshi.jpg,rensheng.png,why2.png,way.png</t>
@@ -94,10 +94,9 @@
 学费低至2100元/年（按两年收取），现在可报考专业齐全，想要了解更多专业及详情可加李老师咨询~
 现只需交100元报名费即可报名参加209年成人高考，考试通过后再收取学费！学员报考可无后顾之忧！
 划重点：现只需交100报名费就可参加考试！
-毕业由四川广播电视大学颁发正规合法的毕业证书（学校网可查），社会认可度高！
+畢業由四川广播电视大学颁发正规合法的畢業书（学校网可查），社会认可度高！
 想要报考的学员抓紧时间赶快咨询哦~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 </t>
   </si>
   <si>
@@ -114,7 +113,6 @@
 报名时间：正在火热报名中，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：四川师范大学自考教学点（成都市成华区建设路银玺国际2810号）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 电话：199 8120 3720（微信同号）   扣：1916 3720 47</t>
   </si>
   <si>
@@ -142,7 +140,6 @@
 学费：2100元/年（按两年收取），现在报名可申请助学补贴200-600元，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 </t>
   </si>
   <si>
@@ -151,7 +148,7 @@
 报名地址：四川师范大学自考新概念（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询人：李老师  
 成都工业学院是四川省人民政府举办、省教育厅主管的公办全日制普通本科学校。学校创办于1913年，是辛亥革命后四川省举办的第一所实业学校。学校曾先后12次更名，历经四川省立第一甲种工业学校、四川省立成都高级工业职业学校、成都无线电机械学校、成都电子机械高等专科学校等多个历史发展阶段。新中国成立后长期直属国家电子工业部，1987年起改由四川省人民政府主办、省电子工业厅主管，2000年调整为四川省教育厅主管。陈毅元帅曾于1916-1918在我校染织专业学习。江泽民同志曾视察过我校，并亲笔为学校七十五周年校庆题词：“发扬优良传统，培养优秀人才”。
-成人高考报考对象凡坚持四项基本原则，拥护改革开放，品德良好，遵纪守法，身体健康者均可报名。其中，相当高中毕业文化程度的从业人员或社会青年，普通高中、中等职业学校的应届毕业生可报考高中起点的本、专科专业；国民教育系列高等学校的大学专科或专科以上的毕业生可报考专科起点本科专业或第二专科专业。参加一次入学考试（每年10月份） 后续基本无考试 学制两年半!
+成人高考报考对象凡坚持四项基本原则，拥护改革开放，品德良好，遵纪守法，身体健康者均可报名。其中，相当高中畢業文化程度的从业人员或社会青年，普通高中、中等职业学校的应届畢業生可报考高中起点的本、专科专业；国民教育系列高等学校的大学专科或专科以上的畢業生可报考专科起点本科专业或第二专科专业。参加一次入学考试（每年10月份） 后续基本无考试 学制两年半!
 现成都理工专科可报专业：
 建筑装饰工程技术、工程造价、汽车技术服务与营销、服装设计、会计电算化、经济信息管理、国际经济与贸易、市场营销、电子商务、工商企业管理、旅游管理、酒店管理、行政管理、广告设计与制作、法律事务、汽车运用技术、城市轨道交通工程技术、金属矿产地质与勘查技术、水文与工程地质、石油与天然气地质勘探技术、工程测量技术、建筑装饰工程技术、建筑工程技术、工程造价、机械制造与自动化、数控技术、模具设计与制造、机电一体化技术、汽车检测与维修技术、汽车技术服务与营销、计算机应用技术、软件技术、电子信息工程技术、应用电子技术、通信技术、服装设计、会计电算化、经济信息管理、国际经济与贸易、市场营销、电子商务、工商企业管理、旅游管理、酒店管理、行政管理、广告设计与制作、法律事务
 本科可报专业：
@@ -161,23 +158,22 @@
 报名时间：正在火热报名中
 报名地址：川师自考教学点（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学成教专本科开放对外招生，现在高起专，专升本可报考专业齐全，学制2.5年毕业，报考专业齐全，详细专业参加下面招生专业：
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学成教专本科开放对外招生，现在高起专，专升本可报考专业齐全，学制2.5年畢業，报考专业齐全，详细专业参加下面招生专业：
 招生专业：
-专科：安全技术管理、保险实务、编导、餐饮管理与服务、初等教育、电子商务、法律事务、房地产经营与估价、服装设计、工程造价、广告设计与制作、国际商务、汉语、航空服务、会计、会计电算化、会计与统计核算、机电一体化技术、机械制造自动化、计算机信息管理、计算机应用技术、建筑工程管理、建筑工程技术 、建筑装饰工程技术、金融与证券、经济管理、酒店管理、矿山测量、矿山机电、旅游管理、煤矿开采技术、美术教育、模具设计与制造、烹饪工艺与营养、汽车电子技术、汽车技术服务与营销、汽车检测与维修技术、汽车运用技术、人力资源管理、软件技术、市场营销、数控技术、体育教育、文秘、物流管理、新闻采编与制作、行政管理、学前教育、艺术设计、音乐教育、应用电子技术；
+专科：安全技术管理、保险实务、编导、餐饮管理与服务、初等教育、电子商务、法律事务、房地产经营与估价、服装设计、工程造价、广告设计与制作、国际商务、汉语、航空服务、会计、会计电算化、会计与统计核算、机电一体化技术、机械制造自动化、计算机信息管理、计算机应用技术、建筑工程管理、建筑工程技术 、建筑装饰工程技术、金融与證券、经济管理、酒店管理、矿山测量、矿山机电、旅游管理、煤矿开采技术、美术教育、模具设计与制造、烹饪工艺与营养、汽车电子技术、汽车技术服务与营销、汽车检测与维修技术、汽车运用技术、人力资源管理、软件技术、市场营销、数控技术、体育教育、文秘、物流管理、新闻采编与制作、行政管理、学前教育、艺术设计、音乐教育、应用电子技术；
 本科：汉语言文学 英语 环境设计 安全工程 采矿工程 电气工程及其自动化 工业设计
 计算机科学与技术 数学与应用数学 财务管理 电子商务 工程造价 工商管理 会计学
 酒店管理 旅游管理 人力资源管理 市场营销 心理学 法学 教育技术学 教育学 体育教育
 小学教育 学前教育
 招生对象：
-只要你年满18岁！都可拿到名校毕业证书，正规学历，学信网终身可查！
+只要你年满18岁！都可拿到名校畢業书，正规学历，学信网终身可查！
 学费低至2000+/年（按两年收取）现在报名只需交100元资料费（包含考试科目教材资料，视频课件）12月查录取后再收取学费，成教学制2.5年，入学考试录取分数线低，期末考试均为过程性校考，由我们自己组织以及监考，学员可放心报考！
 咨询地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
+~
 </t>
   </si>
   <si>
@@ -198,11 +194,11 @@
 5、12月录取，交学费
 6、次年3月计算学籍
 录取后有网上在线学习及作业+学制内一共4次期末考试(期末考试过程性考试，学员到场配合处理即可)
-学制2.5年修满毕业！
+学制2.5年修满畢業！
 成人高考招生层次：高起本 专升本
 报考院校：四川师范大学、西南石油大学、成都理工大学、成都广播电视大学、成都医学院等省内重点大学！
-可报考专业齐全，现在报名只需交100元报名费(包含教材资料)考过再交学费，考试简单，录取分数线低，学制2.5年，毕业即可申请领取由学校颁发的学信网可查国家认可的正规毕业证书！
-很多学员初高中辍学，或因为各种原因没有拿到高中或者中专毕业证，想提升学历能不能报考成人高考呢？联系李老师报名，帮你解决你的难题
+可报考专业齐全，现在报名只需交100元报名费(包含教材资料)考过再交学费，考试简单，录取分数线低，学制2.5年，畢業即可申请领取由学校颁发的学信网可查国家认可的正规畢業书！
+很多学员初高中辍学，或因为各种原因没有拿到高中或者中专畢業，想提升学历能不能报考成人高考呢？联系李老师报名，帮你解决你的难题
 报名地址：成都市成华区建设路银玺国际28楼10号(川师自考点)
 详情咨询李老师~
 电话：199 8120 3720（微信同号）        扣：1916 3720 47</t>
@@ -210,11 +206,11 @@
   <si>
     <t>成教学历是不是含金量不高？四川成人高考报名入口？
 成教是什么学历形式？学历国家认可吗？
-成人高等学校招生全国统一考试（Adult university entrance exam）简称成人高考，是我国成人高等学校选拔合格的毕业生以进入更高层次学历教育的入学考试，属于国民教育系列教育，已经列入国家招生计划。成人高考同普通高考一样，是选拔人才的国家考试，只是由于本身的学习特征需要，才在学习形式等环节上有所差别，进行了一定区分。考生需参加教育部组织的全国统一考试，由各省市自治区、直辖市统一组织录取。设立之初，是为解决在岗人员的学历教育和继续教育问题，参加者多为成年人，是国家高等教育重要组成部分。
+成人高等学校招生全国统一考试（Adult university entrance exam）简称成人高考，是我国成人高等学校选拔合格的畢業生以进入更高层次学历教育的入学考试，属于国民教育系列教育，已经列入国家招生计划。成人高考同普通高考一样，是选拔人才的国家考试，只是由于本身的学习特征需要，才在学习形式等环节上有所差别，进行了一定区分。考生需参加教育部组织的全国统一考试，由各省市自治区、直辖市统一组织录取。设立之初，是为解决在岗人员的学历教育和继续教育问题，参加者多为成年人，是国家高等教育重要组成部分。
 成教是需要参加成人高考的，成人高考难不难呢？成人高考的分数线以及考试难度呢？
 很多想要报考成教的同学都会担心成人高考考试的难度，其实成人高考真不难，成人高考是面向成人的考试，考试难度是不大的，且分数线非常低，考三科，总分450分，专科120分左右录取，本科105-150之间录取，还有很多的加分政策，列如考生年龄满25岁都可加分20分，少数名族区域也可加分20分等相应的加分政策，往年报考的学员考试通过率为98%，只要学员不缺考基本上都能通过哦~
 成教每年多久报名？报名后多久考试？
-成教每年注册都是在8月底九月初，一年只有一次报名机会，2019年注册时间是9月4号-11号，考试时间为10月26-27号，考一天半，现在离报名截至还有最后十多天，学员抓紧时间报名哦，报名只需交100元，12月录取后再交学费，现在报名可以开始看视频课程学习了，准备10月份考试！成教只要成人高考通过，后面的考试都是过程性考试，学制2.5年修满毕业~
+成教每年注册都是在8月底九月初，一年只有一次报名机会，2019年注册时间是9月4号-11号，考试时间为10月26-27号，考一天半，现在离报名截至还有最后十多天，学员抓紧时间报名哦，报名只需交100元，12月录取后再交学费，现在报名可以开始看视频课程学习了，准备10月份考试！成教只要成人高考通过，后面的考试都是过程性考试，学制2.5年修满畢業~
 现在可报考院校：
 四川师范大学、成都理工大学、西南石油大学、四川文理学院、成都医学院等省内大学!
 学费低至2100元/年（按两年收取）现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
@@ -223,21 +219,21 @@
 电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
   </si>
   <si>
-    <t>中专学历有什么用?哪里可以报中专?不限户籍不学习不??考试！轻松毕业
+    <t>中专学历有什么用?哪里可以报中专?不限户籍不学习不??考试！轻松畢業
 对于无学历的朋友们来说，是提升学历提高自己的上限，还是随波逐流好？
 并不是说“唯学历是尊”，认为高学历就代表了高能力，但是如果想让自己上步步高升取得更多收获，如果有提升学历的机会，一定牢牢抓住，遗憾的人太多，别让自己成为其中一员！
-★中央广播电视中等专业学校---国家教育部直属中专，全国认可，网可查，毕业证带二维码辨别真伪，学信网验证报告也可查！
-★★毕业快快！免试入学！且不用学习！不用考试！不限制报考的户籍、前置学历、年龄★★ 
+★中央广播电视中等专业学校---国家教育部直属中专，全国认可，网可查，畢業带二维码辨别真伪，学信网验證报告也可查！
+★★畢業快快！免试入学！且不用学习！不用考试！不限制报考的户籍、前置学历、年龄★★ 
 专业齐全、实用性高、含金量高---（详情咨询李老师）
-“中专学历”：好的选择，拿证速度快，毕业轻松无忧，适用范围广：★★求职、升职、加薪、职称评定、留学、落户、考各大资格证书、可用于提升学历、升学前置学历、报考二建、报九大员、政审当兵、报幼师、报执业药师...
-不用学习和考试就能拿到毕业证书！还可提前毕业，8-10个月即可领取毕业证书！以后中专学历报名要求会变严苛，并不能提前毕业！
+“中专学历”：好的选择，拿證速度快，畢業轻松无忧，适用范围广：★★求职、升职、加薪、职称评定、留学、落户、考各大资格證书、可用于提升学历、升学前置学历、报考二建、报九大员、政审当兵、报幼师、报执业药师...
+不用学习和考试就能拿到畢業书！还可提前畢業，8-10个月即可领取畢業书！以后中专学历报名要求会变严苛，并不能提前畢業！
 学费：1480元（全包）
 所以拿起手机咨询/报名：李老师（网上即可提交报名资料报名+注册学籍，详情联系李老师！）
 报名地址：成都市成华区建设路银玺国际2810号
 电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
   </si>
   <si>
-    <t>成教（即成人高等教育），需参加成人高考，成人高考考试简单，考试通过率高。成人高考和普通高考不同，成人高考只需要考三门科目。不限学历！初中毕业，高中毕业都可报考！
+    <t xml:space="preserve">成教（即成人高等教育），需参加成人高考，成人高考考试简单，考试通过率高。成人高考和普通高考不同，成人高考只需要考三门科目。不限学历！初中畢業，高中畢業都可报考！
 考试科目：
 专科：语文、数学、英语3科
 本科：英语、政治、专业相关科目3科
@@ -253,14 +249,14 @@
 划重点：现只需交100报名费就可参加考试，学校录取后再收取学费！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师直属自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川自考艺术类专业有哪些学校在招生 学费贵吗</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师    电话：199 8120 3720（微信同号）扣：1916 3720 47                               四川小自考艺术类专业难度高吗？只需统考4科？
-所有专业中，艺术类专业跟医学类专业学费都要比普通专业相对高一些哦，也是因为艺术类专业相对来说比普通专业的统考科目要少一些，难度要低一些，学员可以更快时间通过考试申请毕业！
+</t>
+  </si>
+  <si>
+    <t>四川小自考艺术类专业好考吗 学费贵吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考艺术类专业难度高吗？只需统考4科？
+所有专业中，艺术类专业跟医学类专业学费都要比普通专业相对高一些哦，也是因为艺术类专业相对来说比普通专业的统考科目要少一些，难度要低一些，学员可以更快时间通过考试申请畢業！
 那么想要报考艺术类专业的同学，想要知道哪些专业是艺术类的专业？考试科目有几科？考试难度？
 李老师给大家总结一下，
 目前艺术类专业正在招收的专业有：
@@ -271,67 +267,37 @@
 艺术类专业是每年报考的热门专业，因其统考科目少，通过率高！所以每年报考的学员很多哦 ~
 四川现在可报考艺术专业的学校：
 四川师范大学、西华师范大学、成都理工大学，其中成都理工大学的艺术类专业跟普通专业学费标准是一样的哦，性价比超高！详情可加李老师咨询~
-自考毕业时间灵活，较快1年考完全部科目，1.5年毕业！毕业获颁由学校和自考办联合颁发的学信网可查国家认可的正规学历！
+自考畢業时间灵活，较快1年考完全部科目，1.5年畢業！畢業获颁由学校和自考办联合颁发的学信网可查国家认可的正规学历！
 学费低至2000+/年（按两年收取），学费包含教材+绝密押题资料，现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询哦~
 报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川社会人士可以报考哪些学历形式 可以读本科吗</t>
+</t>
+  </si>
+  <si>
+    <t>四川成人提升学历怎么报名 报名条件 有哪些学校</t>
   </si>
   <si>
     <t xml:space="preserve">四川成人学历有哪些是正规学历？学信网可查的？
-有很多学员毕业工作后，想提升学历，但又怕成人学历不受企业认可。那么到底哪些是正规的成人学历呢？李老师为大家分析解答一下~
+有很多学员畢業工作后，想提升学历，但又怕成人学历不受企业认可。那么到底哪些是正规的成人学历呢？李老师为大家分析解答一下~
 同学们其实完全不用担心，成人学历都是国家认可学信网终生可查的学历！是国家为了提升全民教育水平开设的针对社会人员的学历形式，学习形式是用同学们闲暇空余时间进行学习，然后提升学历的一种方式，那么成人学历到底有哪些类型呢？
 成人学历分为四类：
 自考、成教、网教、电大，这四种形式，都是学信网可查的正规学历形式，学员们报考时可进行甄别，千万不要报考民办且学信网不能查的学历哦，每年高考落榜的学生很大一部分都会被无良的民办招生老师坑，所以选择学校时请详细咨询清楚~
 成人学历中含金量较高的为自考，依次为成教、网教、电大。
-现在很多企业对职员学历的要求越来越高，大部分企业至少都要求大专学历，很多学员面对自己想要的工作，但是没有满足基本学历的要求而感到很遗憾，成人学历便是面向需要提升学历，但是没有学习时间，就可以选择报考成人学历，不耽误工作时间，较快1.5年就可以拿到毕业证书！普遍毕业时间是2-2.5年！
+现在很多企业对职员学历的要求越来越高，大部分企业至少都要求大专学历，很多学员面对自己想要的工作，但是没有满足基本学历的要求而感到很遗憾，成人学历便是面向需要提升学历，但是没有学习时间，就可以选择报考成人学历，不耽误工作时间，较快1.5年就可以拿到畢業书！普遍畢業时间是2-2.5年！
 学历学信网终身可查！国家认可！
-重点：我们学校正规招生！不限学历，不限年龄，都可以拿到名牌大学毕业证书！
+重点：我们学校正规招生！不限学历，不限年龄，都可以拿到名牌大学畢業书！
 现在可报考院校：
 西南石油大学、四川师范大学、西华师范大学、成都理工大学、西南财经大学等省内名牌大学。
 学费低至2100元（学费按两年收取）现在报名可申请200元-400元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川小自考报名注册时间在多久 报名就要交学费吗</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>很多想要报考小自考的学员，都想了解小自考报名的学费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">是多少？在哪里报名？报名需要提供哪些资料？四川小自考报考流程及注意事项
+</t>
+  </si>
+  <si>
+    <t>四川报考小自考报名网址 报考指南 报名时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多想要报考小自考的学员，都想了解小自考报名的学费‌‌是多少？在哪里报名？报名需要提供哪些资料？四川小自考报考流程及注意事项
 李老师来为大家慢慢的解答~
 首先四川小自考（应用型）报名
 主要是准备3-6门左右的统考，其余9-12科为校考科目，校考过程性考试，学员只需到场配合学校处理，小自考有资料、辅导，大专业还可开始视频课程，统考科目较少，在通过率上有优势。费用的话学校不同学费也有所不同，学费低至2000+元/年（学费按两年收取），学员可根据自身情况选择报考学校跟专业。
@@ -342,9 +308,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询哦~
 二、报名条件： 
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）划重点：只要你年满17岁都可报考哦！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）划重点：只要你年满17岁都可报考哦！
 三、报名资料 ： 
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费： 
 学费低至2000+/年（按两年收取），现在报名可申请助学补贴，名额有限，想要报名的同学赶快联系李老师咨询~
 五、报名流程：
@@ -354,72 +320,40 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号（川师自考教学点）报名即跟学员签订保障学员权益的协议，学员可放心报考！
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考可以考几年 有时间限制吗</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考学制是多久？有年限要求吗？较快多久毕业？
-很多学员不清楚自考到底多久毕业？学制多长？
-其实这个问题对于每个人的概</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">念都是不一样的，因为自考毕业时间是比较灵活的，
-需要所有考试科目全部通过就可以申请毕业，如果你认真看书，那么最快可1.5年毕业，
+</t>
+  </si>
+  <si>
+    <t>四川小自考现在多久能毕业拿证 学制是多长</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考学制是多久？有年限要求吗？较快多久畢業？
+很多学员不清楚自考到底多久畢業？学制多长？
+其实这个问题对于每个人的概‌‌念都是不一样的，因为自考畢業时间是比较灵活的，
+需要所有考试科目全部通过就可以申请畢業，如果你认真看书，那么最快可1.5年畢業，
 主要看同学们个人的学习能力跟学习自觉性，
 因为考试是学员本人在考，结果还是要看自己，
-如果你从来不看书不复习不做题，想全部裸考毕业
+如果你从来不看书不复习不做题，想全部裸考畢業
 李老师告诉你：几乎是不可能的！
 除非你原本的基础就很好，且拥有非常深厚的专业知识，
 小自考只需统考3-6科，其他9-12科都是过程性校考，
 其实小自考统考科目的难度是不大的，只是需要学员花些时间看书，
-都是考的基础知识，所以学员选择报考自考，那么就要下定决心，争取早点考完拿到毕业证书！
+都是考的基础知识，所以学员选择报考自考，那么就要下定决心，争取早点考完拿到畢業书！
 注意事项：
 只要你认真看看书，多做做我们的发给你的真题！
 哪怕是考前一个月临时抱佛脚，你都会看到收获哦！
 学校规定自考按两年收费，但是自考原则上是到学员考过为止，学员可放心报考！
-已经报考的学员普遍毕业时间是2-3年，较快可1年9个月拿毕业证书！
+已经报考的学员普遍畢業时间是2-3年，较快可1年9个月拿畢業书！
 现自考正在招生院校：
 四川师范大学、西南石油大学、西华师范大学、成都理工大学，西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取）学费包含教材资料跟视频课程，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成化区建设路银玺国际2810号（川师自考教学点）
-电话：199 8120 3720（微信同号）     扣：1916 3720 47
-</t>
-    </r>
-  </si>
-  <si>
-    <t>四川师范大学自考的考试都在学校考吗？川师在哪里报名？</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考怎么报名？报名时怎么选择专业？
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考注册时间 考试时间 毕业时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考怎么报名？报名时怎么选择专业？
 学校简介：
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学现可报名专业：
@@ -428,109 +362,41 @@
 考试科目：6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
 考试时间：统考在每年的4月、10月，校考在每年的7月、12月
 很多学员报名时会不知道自己该选择什么专业，李老师为大家推荐一下，四川师范大学作为省内文科院校，他的文科专业是优势专业，且文科专业也是自考里面通过率较高的专业，如果学员没有专业上的要求，可选择简单通过率高的专业，列如汉语言文学，小学教育，学前教育，行政管理，工商管理等文科专业，只需要统考6科，统考科目还会开设视频课程，也会有绝密押题资料，帮助学员顺利通过考试！
-学费3400元/年（按两年收取），包含资料视频+教材+视频课程+重点复习资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加10月统考！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面较高的！单位认可度高，对毕业证含金量有要求的可以选择报考小自考，且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考哦！
-报名时间：正在报名注册中，现在报名可参加10月统考！早半年毕业！
+学费3600元/年（按两年收取），包含资料视频+教材+视频课程+重点复习资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名即可签订协议保障学员权益！现在报名可参加4月统考！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面较高的！单位认可度高，对畢業含金量有要求的可以选择报考小自考，且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考哦！
+报名时间：正在报名注册中，现在报名可参加10月统考！早半年畢業！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>成都小自考会计专业有哪些学校可以报名 学费一般多少钱</t>
-  </si>
-  <si>
-    <t>专业介绍：
+</t>
+  </si>
+  <si>
+    <t>四川小自考会计专业通过率高吗 科目难度如何</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专业介绍：
 会计学专业属工商管理学科，是一个应用性较强的专业。该专业设有企业会计、国际会计、注册会计师等三个专业方向。专业以企业会计为主，兼顾计算机与财务管理。在教学方法上强调理论与实践相结合的教学模式，提倡启发式与案例教学，多方位培养学生处理会计业务与管理财务的操作能力和创新能力。
 会计学专业自考还是有一定难度，但是只需要统考6科，100分满分60分及格即可，配合老师的授课以及押题资料，只要统考科目花些时间看书，难度还是不大的，其他9-14科的校考，只要学员配合学校处理，过程性考试，学员只需要把重心放在6科统考上。
 现在可报考会计学的学校：
 西南石油大学、四川师范大学、西南财经大学、西华师范大学、成都理工大学等。
-报名时间：现在正在报名中（现在报名，可参加6月校考，早半年毕业）
+报名时间：现在正在报名中（现在报名，可参加6月校考，早半年畢業）
 学费低至2700元一年，现在报名可申请领取200-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 本处为学校授权的校外教学点，学校网站可查，学员可放心报考！报名即签订保障学员权益的协议书，学员无后顾之忧！
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>想报川师大小自考 学费大概多少钱 报考专业有哪些</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介：
-四川师范大学（SICHUAN NOR​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAL UNI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家 中西部高校基础能力建设工程 重点建设大学，入选“卓越教师培养计划 ” 、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考有行政管理专业吗 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+四川师范大学（SICHUAN NOR​‌‌MAL UNI‌‌‌‌VERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家 中西部高校基础能力建设工程 重点建设大学，入选“卓越教师培养计划 ” 、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
 专业介绍：
-行政管理（administration manag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ement）是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展，行政管理的对象日益广泛，包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法，以减少人力、物力、财力和时间的支出和浪费，提高行政管理的效能和效率。
+行政管理（administration manag‌‌ement）是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展，行政管理的对象日益广泛，包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法，以减少人力、物力、财力和时间的支出和浪费，提高行政管理的效能和效率。
 考试科目：
 专业统考科目：社会学概论丶当代中国政治制度丶西方政治制度丶公共政策丶领导科学丶公务员制度
-专业校考科目：中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理（选考课程不低于10学分。不考英语（二）的再另选三门课程，总学分不低于24学分）】毕业考核（或论文综合实践实验实习等）
+专业校考科目：中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理（选考课程不低于10学分。不考英语（二）的再另选三门课程，总学分不低于24学分）】畢業考核（或论文综合实践实验实习等）
 行政管理就业方向:
 1. 在县级以上政府的民政职能部门和事业单位就业；
 2. 从事乡镇民政办公室管理工作；
@@ -539,54 +405,25 @@
 5. 从事婚姻服务中介机构、收养登记服务中介机构管理工作；
 6. 从事婚姻管理、收养登记管理、行政区划管理工作；
 7. 从事地名管理、社团管理工作等。
-8. 可从事事业单位的行政协理员，办公室主任、行政主管、协调层或决策层高级助理，中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职毕业生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作，学校、科研部门的教学或科研工作，大、中型企业和企业集团
+8. 可从事事业单位的行政协理员，办公室主任、行政主管、协调层或决策层高级助理，中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职畢業生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作，学校、科研部门的教学或科研工作，大、中型企业和企业集团
 统考6科（闭卷）+校考9-12科左右（过程性考试）
 现四川师范大学招收自考行政管理专业专科、本科学员，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 学费：3400元/年（按两年收取）
 学费包含教材资料、在线教学、面授，现在报名还可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名时间：正在火热报名中，现在报名即可参加6月校考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>2020年四川小自考报名流程 报考注意事项</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>很多想要报考小自考的学员，都想了解小自考报名的学费​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是多少？在哪里报名？报名需要提供哪些资料？
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考报名时间是多久 报小自考要花多少钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多想要报考小自考的学员，都想了解小自考报名的学费​‌‌是多少？在哪里报名？报名需要提供哪些资料？
 李老师来为大家慢慢的解答~
 首先四川小自考（应用型）报名
 主要是准备六门左右的统考，其余9-12科为校考科目，校考过程性考试，学员只需到场配合学校处理，小自考有资料、辅导，统考科目也少，在通过率上有优势。费用的话学校不同学费也有所不同，学费低至2000+元/年（学费按两年收取），学员可根据自身情况选择报考学校跟专业。
@@ -597,9 +434,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询~
 二、报名条件： 
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）只要你年满17岁都可报考！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）只要你年满17岁都可报考！
 三、报名资料 ： 
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费： 
 学费包含教材资料，视频课件，面授课程！
 五、报名流程：
@@ -609,20 +446,19 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号（川师自考教学点）本处为学校直属教学站点，报名即跟学员签订保障学员权益的协议，学员可放心报考！
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川大自考可以转小自考吗 是不是毕业要快些</t>
-  </si>
-  <si>
-    <t>四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
+</t>
+  </si>
+  <si>
+    <t>四川报过大自考可以换小自考吗 要交多少钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
 很多报名参加大自考的学员，
 考试没通过，
-但是又想拿毕业证怎么办？
+但是又想拿畢業怎么办？
 大自考是需要全部科目16-18科全部参加国家统考，
 考试难度高，并且一年只有两次考试机会，
-毕业时间较长，
+畢業时间较长，
 这时候想报小自考行不行呢？
 大自考考不过的学员是可以报小自考的，
 大自考考过的科目可转免kao
@@ -632,117 +468,60 @@
 并且统考科目会有视频课件给学员日常学习，
 考前还会安排面授，也会有押题资料。
 小自考大大降低了考试难度，
-并且小自考与大自考的毕业证书含金量是完全一样的，
-毕业证也不区分大小自考。
+并且小自考与大自考的畢業书含金量是完全一样的，
+畢業也不区分大小自考。
 小自考考试时间比大自考增加了两次，一年有四次考试机会
-较快1年考完全部科目，1.5年那毕业证书！
-大大缩短了学员毕业时间！
-想要快速毕业拿证的学员可选择报考自考！
+较快1年考完全部科目，1.5年那畢業书！
+大大缩短了学员畢業时间！
+想要快速畢業拿證的学员可选择报考自考！
 现在可报考学校：
 四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取），现可报考专业齐全，现在报名还可申请领取200元-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川没有专科毕业证可以报本科吗？套读难吗？几年毕业？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>李老师推荐什么是专本套读？适合什么样的人群选择？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">‌
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川成人报考本科有哪些条件？高中毕业可以报本科吗？
+</t>
+  </si>
+  <si>
+    <t>四川专本套读怎么报名 报名条件 多久毕业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李老师推荐什么是专本套读？适合什么样的人群选择？‌
+四川成人报考本科有哪些条件？高中畢業可以报本科吗？
 相信大家可能听说过高起专，专升本等等考试，那么专本套读是什么意思呢，适合什么样的人群选择呢？接下来李老师就为大家解释一下~
-专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，利用周末的时间完成本科段的学习，学制为两年半。这样专科毕业的同时能获得一个自考本科文凭。简单一点就是在专科学制内报读自考本科，在专科学制内完成本科段的考试科目，然后专科毕业后就可以申请本科毕业证，专本套读是较快能拿到本科学历的形式~
+专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，利用周末的时间完成本科段的学习，学制为两年半。这样专科畢業的同时能获得一个自考本科文凭。简单一点就是在专科学制内报读自考本科，在专科学制内完成本科段的考试科目，然后专科畢業后就可以申请本科畢業，专本套读是较快能拿到本科学历的形式~
 为什么会有专本套读呢？
-因为只有自考专升本在报考时不需要出示前置学历，只要在本科申请毕业时出示前置学历即可，所以专本套读的的本科只能选择自考哦，其他形式的学历是在报考时必须提供前置学历的
+因为只有自考专升本在报考时不需要出示前置学历，只要在本科申请畢業时出示前置学历即可，所以专本套读的的本科只能选择自考哦，其他形式的学历是在报考时必须提供前置学历的
 适合什么样的人群去选择呢？
 其实专本套读这种形式较适合的就是只有初高中学历的人，想要国家承认的本科学历，那么就可以选择专本套读，专科可选择简单一点的成教或网教，学制2.5年，本科选择自考，这样学员可以把重心放在自考本科的考试科目上，对于很多在职人员来说也是比较好的选择！同学们可以根据自身情况来选择报考形式！
-现在社会上对于学历越来越重视，高的学历可以使你得到更好的发展平台，更好的施展自己的才华，如果仅仅只有高中学历，在社会上的竞争力是不够的，更何况如果你还要考各类资格证书，那么学历都是硬性要求，不管曾经是因为什么而错失了上大学的机会，现在有专本套读这个机会可以帮助你完成上大学的梦想！机会只给有准备的人，我相信同学们也不甘心碌碌无为的过一辈子！所以抓紧时间联系李老师咨询~
+现在社会上对于学历越来越重视，高的学历可以使你得到更好的发展平台，更好的施展自己的才华，如果仅仅只有高中学历，在社会上的竞争力是不够的，更何况如果你还要考各类资格證书，那么学历都是硬性要求，不管曾经是因为什么而错失了上大学的机会，现在有专本套读这个机会可以帮助你完成上大学的梦想！机会只给有准备的人，我相信同学们也不甘心碌碌无为的过一辈子！所以抓紧时间联系李老师咨询~
 我校为成都理工大学、四川师范大学、西南石油大学等学校的校外自考站，学历均学信网终身可查，国家认可，专业齐全，学费低至2100元/年（按两年收取），现在报名还可申请助学补贴200-600元，名额有限，想要报名的学员速速联系里李老师咨询~
 报名后有专门的班主任全程带班，避免了学员学习无规划，考试没报考的现象，报名即跟学员签订保障同学们权益的协议，同学们可以放心报考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考有哪些计算机专业？要统考几科？</t>
-  </si>
-  <si>
-    <t>西华师范大学/成都理工大学现招收小自考计算机专业，it行业现在对从业人员的学历要求越来越高，所以从事计算机行业的同学们赶快报考成人学历提升自己的学历，让自己不要因为学历原因应聘不上自己想去的公司。
-计算机专业统考6科，校考9-14科，校考由学校组织，过程性考试，学员只需把重心放在6科统考上，统考科目会有往年的真题资料以及学习重点给到每个学员，一年四次考试机会，较快1年考完全部科目，1.5年毕业！学员普遍的毕业时间为两年左右，
-毕业获颁由自考办和学校联合颁发的毕业证书，自考毕业证书含金量高，社会认可度高，学信网终身可查！
+</t>
+  </si>
+  <si>
+    <t>四川小自考计算机专业报哪个学校比较好过 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西华师范大学/成都理工大学现招收小自考计算机专业，it行业现在对从业人员的学历要求越来越高，所以从事计算机行业的同学们赶快报考成人学历提升自己的学历，让自己不要因为学历原因应聘不上自己想去的公司。
+计算机专业统考6科，校考9-14科，校考由学校组织，过程性考试，学员只需把重心放在6科统考上，统考科目会有往年的真题资料以及学习重点给到每个学员，一年四次考试机会，较快1年考完全部科目，1.5年畢業！学员普遍的畢業时间为两年左右，
+畢業获颁由自考办和学校联合颁发的畢業书，自考畢業书含金量高，社会认可度高，学信网终身可查！
 报名时间：正在火热报名中，现在报名可申请助学补贴200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 收费情况：2700元/年（按两年收取）包含全套教材资料、视频课件、面授，现在报名即可参加4月统考，报名及签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>成都报国家开放大学在哪里报名？报名时间？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介
-国家开放大学，是中华人民共和国教育部直​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>属的，以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合
+~
+</t>
+  </si>
+  <si>
+    <t>国家开放大学多久报名 报名费多少</t>
+  </si>
+  <si>
+    <t>学校简介
+国家开放大学，是中华人民共和国教育部直​‌‌属的，以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合
 一、国家开放大学靠谱吗？
-答案肯定是靠谱的，因为国家开放大学的学历是国家直属，直属于教育局，是实体大学，可以直接用来考证、评职称、考公务员等。
+答案肯定是靠谱的，因为国家开放大学的学历是国家直属，直属于教育局，是实体大学，可以直接用来考證、评职称、考公务员等。
 二、国家开放大学有哪些优势？ 
 1、适合在职人员，业余时间可学习，时间灵活
 2、考试难度相对较低，校本部出题，难度不大，没入学考试
@@ -754,13 +533,12 @@
 1．本科（专科起点）专业
 土木工程、护理学、行政管理、市场营销、工商管理、计算机科学与技术、学前教育（幼儿园管理方向）、学前教育（学前教师教育方向）、法学、金融学、公共事业管理（社会教育及应用心理方向）、公共事业管理（学校管理方向）、公共事业管理（卫生事业管理方向）、物流管理、会计学、水利水电工程、机械设计制造及其自动化、汉语言文学（师范方向）、汉语言文学、英语（师资培养方向）、广告学、小学教育、社会工作、汽车专业
 2．专科专业
-老年服务与管理、药品经营与管理、城市轨道交通运营管理、室内艺术设计、机械制造与自动化（机电方向）、社会工作（老年方向）、社会工作、物业管理、公共事务管理、机电一体化技术、园艺技术（都市园艺方向）、信息系统开发与维护、广告设计与制作、传播与策划、文秘、汉语言文学、英语（经济贸易方向）、英语（教师培养方向）、建设工程管理、建设工程技术、工商企业管理、护理、法律事务、市场营销（行业营销方向）、市场营销（营销与策划方向）、市场营销（市场开发与营销方向）人力资源管理、酒店管理、旅游管理、行政管理、物流管理、电子商务、会计、药学、水利水电工程管理、工程造价、计算机网络技术(网络管理方向)、汽车营销与服务、汽车运用与维修技术、学前教育、小学教育、保险、投资与理财、金融管理、证券与期货
+老年服务与管理、药品经营与管理、城市轨道交通运营管理、室内艺术设计、机械制造与自动化（机电方向）、社会工作（老年方向）、社会工作、物业管理、公共事务管理、机电一体化技术、园艺技术（都市园艺方向）、信息系统开发与维护、广告设计与制作、传播与策划、文秘、汉语言文学、英语（经济贸易方向）、英语（教师培养方向）、建设工程管理、建设工程技术、工商企业管理、护理、法律事务、市场营销（行业营销方向）、市场营销（营销与策划方向）、市场营销（市场开发与营销方向）人力资源管理、酒店管理、旅游管理、行政管理、物流管理、电子商务、会计、药学、水利水电工程管理、工程造价、计算机网络技术(网络管理方向)、汽车营销与服务、汽车运用与维修技术、学前教育、小学教育、保险、投资与理财、金融管理、證券与期货
 学历提升相关咨询，可联系李老师咨询~
 电话：199 8120 3720（微信同号）   扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考工程造价专业学费贵吗？没有基础可以报名吗？</t>
+  </si>
+  <si>
+    <t>四川小自考工程造价专业难不难 多久开始报名</t>
   </si>
   <si>
     <t>小自考工程造价专业火热招生中！
@@ -775,10 +553,10 @@
 电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
   </si>
   <si>
-    <t>小自考汉语言文学专业毕业好找工作吗？学费多少？</t>
-  </si>
-  <si>
-    <t>四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+    <t>四川小自考汉语言文学专业考试科目多吗 通过率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 首先汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上，汉语言文学专业统考科目分别是：
 00537 中国现代文学史
@@ -789,7 +567,7 @@
 00547 马列文论选读
 汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！
 该汉语言文学专业就业前景：
-汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
+汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格證成为教师。
 现四川师范大学/西华师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
 学费低至2500元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，想要报名的学员速速咨询李老师~
 考试时间：
@@ -797,13 +575,13 @@
 4月/10月统考 6月/12月校考
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点，本处为学校直属站点，学校可查，学员可放心报考）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历提升报名入口 省内重点大学招生 名额有限</t>
-  </si>
-  <si>
-    <t>自考是成人学历的其中一种形式，
+</t>
+  </si>
+  <si>
+    <t>四川自考学历可以考公务员吗 含金量高吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自考是成人学历的其中一种形式，
 它的含金量也是非常高的，
 考验了学员的自学能力，
 很多学员就认为那自考应该是很难的，
@@ -816,7 +594,7 @@
 只需要学员配合学校完成考试，
 考前会有资料，
 学员的重心可以都放在6门统考上，
-一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到毕业证书！
+一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到畢業书！
 2·选择自考的形式后，该选择哪些专业呢？
 自考热门专业可分为四大类：
 A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
@@ -830,10 +608,10 @@
 四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 名校招生，名额有限，学费低，通过率高！想要报名的学员抓紧时间联系李老师咨询详情~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>想报小学教育专业什么学历形式含金量高？考试难度如何？</t>
+</t>
+  </si>
+  <si>
+    <t>四川小自考小学教育专业报名 四川师范大学报名注册中</t>
   </si>
   <si>
     <t xml:space="preserve">想要自考小学教育专业的学员看过来，
@@ -853,17 +631,17 @@
 统考科目考试前会安排面授，
 也有相应的押题资料，
 帮助学员能尽快通过考试，
-能顺利领取毕业证书！
-其次是自考小学教育专业多久能拿到毕业证书？
-自考是所有考试科目考完即可申请毕业，
-毕业时间灵活，
+能顺利领取畢業书！
+其次是自考小学教育专业多久能拿到畢業书？
+自考是所有考试科目考完即可申请畢業，
+畢業时间灵活，
 每年有4次考试机会，
 两次校考，两次统考，
 校考一次较多报4-6科，统考2-4科，
 学员较快可1.5年考完全部考试科目，
-一年九个月领取毕业证书！
-毕业证书是由自考办和学校联合颁发的国家认可学信网可查的正规毕业证书！
-自考毕业证书也是成人学历里面含金量较高的！可以考教师资格证，也可以参加教师公招！
+一年九个月领取畢業书！
+畢業书是由自考办和学校联合颁发的国家认可学信网可查的正规畢業书！
+自考畢業书也是成人学历里面含金量较高的！可以考教师资格證，也可以参加教师公招！
 怎么报名？
 现四川师范大学，西华师范大学
 正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
@@ -872,64 +650,36 @@
 </t>
   </si>
   <si>
-    <t>四川小自考美术教育专业 仅需统考3科 快速考完毕业</t>
+    <t>四川小自考美术教育专业报名注册中 统考少 毕业快</t>
   </si>
   <si>
     <t xml:space="preserve">美术教育专业：
 美术教育专业以培养德、智、体、美全面发展，较系统地掌握美术基本理论、基本知识和美术教师必备的职业道德，职业技能，能够较好地适应民族教育改革发展，胜任小学美术教育教学工作为宗旨，兼顾培养从事与美术专业相关工作的实用性、应用性人才。
 西华师范大学、四川师范大学现招收美术教育专业本科自考学员，名额有限，需要报名的学员要抓紧时间报名！
 统考较少只参加两门！
-英语2（可用校考替代）、计算机应用基础（全国计算机一、二级证书可
+英语2（可用校考替代）、计算机应用基础（全国计算机一、二级證书可
 考）、教育学、教育心理学。
-统考科目少，大大降低了考试难度，增加了考试通过率！较快有学员1.5年就考完申请毕业！
+统考科目少，大大降低了考试难度，增加了考试通过率！较快有学员1.5年就考完申请畢業！
 学费低至2700元/年（按两年收取），学费包含全套教材资料，以及绝密押题资料！
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名时间：正在火热报名中(名额有限，赶快抓紧时间报名哦）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
 </t>
   </si>
   <si>
-    <t>四川二建报名条件 必须要工程类专业的学历才行吗？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>报名时间：正在火热报名中，每月滚动注册
+    <t>四川报名二建专业不符合怎么办 成人中专要多久毕业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报名时间：正在火热报名中，每月滚动注册
 报名地址：川师自考教学点（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询方式：李老师 
 课程学费：1480元
 成都电大现特设一年制中专，
-7-10个月即可领取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">毕业证！
+7-10个月即可领取‌‌畢業！
 中专学历有什么用：
 可用于报考二级建造师，九大员，安全工程师等考试，
 可用于参军，就业，
@@ -937,40 +687,39 @@
 可用于评定建筑类或者其他类初级职称。
 不用参加考试，
 没有平时作业！
-轻松拿到毕业证书！
-毕业由中央广播电视中等学校验印的成人中等毕业证书！国家承认！
-报考一年制中专毕业后可以考二建吗？答案是肯定的，成人中专是中央电大特别为考证的学员设置的班型，是正规学历，注册后一个月可在学校网站查询考籍，正规学历当然是可以正常报考二建等证书的！
+轻松拿到畢業书！
+畢業由中央广播电视中等学校验印的成人中等畢業书！国家承认！
+报考一年制中专畢業后可以考二建吗？答案是肯定的，成人中专是中央电大特别为考證的学员设置的班型，是正规学历，注册后一个月可在学校网站查询考籍，正规学历当然是可以正常报考二建等證书的！
 学费：1480元（全部学费） 需要提升学历的咨询方式：李老师
 每月滚动注册，学员交资料报名即可注册！
 报名地址：川师自考教学点（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询方式：李老师
 </t>
-    </r>
-  </si>
-  <si>
-    <t>四川报汉语言文学报哪个学校比较好 自考在校外报名靠谱吗？</t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学专业的学员看过来</t>
   </si>
   <si>
     <t xml:space="preserve">四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 首先汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上。
 汉语言文学专业统考科目分别是：00537 中国现代文学史、00529 中国古代文学史（一）、00539 中国古代文学史（二）、00540 外国文学史、00541 语言学概论、00547 马列文论选读
-汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年毕业！
+汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年畢業！
 该汉语言文学专业就业前景：
-汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
+汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格證成为教师。
 现四川师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
-学费低至3400元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，毕业获颁由学校和自考办联合颁发的毕业证书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
+学费低至3400元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，畢業获颁由学校和自考办联合颁发的畢業书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
 </t>
   </si>
   <si>
-    <t>四川小自考工程造价专业统考哪几科？校考严格吗？</t>
+    <t>四川小自考工程造价专业的学员看过来</t>
   </si>
   <si>
     <t xml:space="preserve">四川小自考工程造价统考几科？每个学校考试科目都一样吗？
 小自考工程造价专业火热招生中！
-小自考工程造价可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南交通大学等省内重点大学，现在报考可参加12月底校考，本次注册是今年最后一次注册机会，可早半年毕业！
+小自考工程造价可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南交通大学等省内重点大学，现在报考可参加12月底校考，本次注册是今年最后一次注册机会，可早半年畢業！
 统考考试科目： 建筑工程定额预算、建设工程工程量清单计价实务、建设工程合同条款、工程项目管理、工程造价确定与控制、房屋建筑工程概论，统考6科，需要看书学习的就是这6科！
 校考考试科目：中国近现代史纲要、马克思主义基本原理概论、概率论与数理统计(二）、线性代数、土木工程制图、综合课程设计、工程经济学、工程建设法规、装饰工程定额与预算、安装工程定额与预算，校考为过程性考试，学员只需配合学校处理即可！
 学习形式：6门统考+9-11门校考
@@ -981,7 +730,7 @@
 </t>
   </si>
   <si>
-    <t>成都理工大学小自考人力资源管理专业统考哪些科目？学费？</t>
+    <t>成都理工大学小自考可选择专业有哪些</t>
   </si>
   <si>
     <t xml:space="preserve">成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
@@ -989,65 +738,37 @@
 人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
 成都理工大学现招收自考人力资源管理专、本科学员，名额有限，需要的需要抓紧时间联系李老师报名哦~
 就业前景：
-企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科毕业生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
+企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科畢業生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
 考试科目：
 统考：4-6科        校考：9-12科（由学校组织，过程性考试）
 学费：2700元/年（按两年收取）学费包含教材资料以及视频在线课程！
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
 </t>
   </si>
   <si>
-    <t>四川小自考报名哪家机构靠谱？报名后全靠自己学习吗？</t>
+    <t>四川小自考报考机构哪一个比较负责 怎么选择适合自己的专业</t>
   </si>
   <si>
     <t xml:space="preserve">四川小自考报考机构哪一个比较负责？选择适合自己的专业？
 很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
 校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
 本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
-小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿毕业证，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，考完即可申请毕业~
-可报考专业齐全，详情可加李老师咨询，很多考生报考时不知道选择专业的话，可以选择报考热门专业，列如汉语言文学、法学、行政管理、工商管理、小学教育等专业都是每年报考的热门专业，也是通过率较高比较好考的专业，对于很多对专业没有要求的考生来说，报考以上专业可以较快时间考完毕业！
+小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿畢業，自考是成人学历里面含金量较高的一种学历形式，畢業时间灵活，考完即可申请畢業~
+可报考专业齐全，详情可加李老师咨询，很多考生报考时不知道选择专业的话，可以选择报考热门专业，列如汉语言文学、法学、行政管理、工商管理、小学教育等专业都是每年报考的热门专业，也是通过率较高比较好考的专业，对于很多对专业没有要求的考生来说，报考以上专业可以较快时间考完畢業！
 报名地址：成都市成华区建设路银玺国际2810号
 更多咨询方式：李老师
 </t>
   </si>
   <si>
-    <t>2020年四川小自考报名流程 报名地址 报考院校有哪些？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>很多想要报考小自考的学员，都想了解小自考报名的学费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">是多少？在哪里报名？报名需要提供哪些资料？
+    <t>2020年四川小自考报名流程 学费 专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多想要报考小自考的学员，都想了解小自考报名的学费‌‌是多少？在哪里报名？报名需要提供哪些资料？
 李老师来为大家慢慢的解答~
 首先四川小自考（应用型）报名
 主要是准备六门左右的统考，其余9-12科为校考科目，校考过程性考试，学员只需到场配合学校处理，小自考有资料、辅导，统考科目也少，在通过率上有优势。费用的话学校不同学费也有所不同，学费低至2000+元/年（学费按两年收取），学员可根据自身情况选择报考学校跟专业。
@@ -1058,9 +779,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询~
 二、报名条件： 
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）只要你年满17岁都可报考！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）只要你年满17岁都可报考！
 三、报名资料 ： 
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费： 
 学费包含教材资料，视频课件，面授课程！
 五、报名流程：
@@ -1071,56 +792,55 @@
 成都市成华区建设路银玺国际2810号，报名即跟学员签订保障学员权益的协议，学员可放心报考！
 详情咨询李老师~
 </t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考工商管理专升本报考院校 学费怎么交？</t>
-  </si>
-  <si>
-    <t>四川小自考工商管理专业统考几科？这个专业好考吗？
+  </si>
+  <si>
+    <t>四川小自考工商管理专业的学员看过来</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考工商管理专业统考几科？这个专业好考吗？
 想要报考小自考工商管理专业的学员，李老师给大家说一下报考工商管理专业的情况：
 先介绍下工商管理专业：
 工商企业管理，是对企业的生产经营活动进行计划、组织、领导、人员配备、指挥、协调和控制等一系列职能的总称。工商企业管理专业是自学考试学科调整后产生的新专业。这一专业的设置是为了培养在社会主义市场经济条件下从事工商业及其他各类企业管理方面工作的专门人才。经过专业学习，成绩合格者应系统地掌握现代管理理论、有广泛的知识。熟悉各类管理的基本技能和科学方法，能够胜任企业管理工作。 工商管理是研究工商企业经济管理基本理论和一般方法的学科，主要包括企业的经营战略制定和内部行为管理两个方面。
-那么工商管理专业毕业后可以找什么工作呢？
-该专业毕业后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。从事的岗位如下：
+那么工商管理专业畢業后可以找什么工作呢？
+该专业畢業后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。从事的岗位如下：
 1. 一般传统管理类岗位
 2. 市场营销类岗位
 3. 人力资源管理类岗位
 4. 物流管理类岗位
-工商管理专业毕业后就业范围广，是每年报考的热门专业！
+工商管理专业畢業后就业范围广，是每年报考的热门专业！
 那么小自考工商管理专业一共要考几科呢？
 统考6科（需要同学们根据老师的课程以及整理好的押题资料进行学习，是全国统考）
 校考9-12科（过程性考试）
-学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿毕业证书，同学们普遍的毕业时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，毕业后学信网终身可查！是由学校跟自考办联合颁发的正规毕业证书！
+学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿畢業书，同学们普遍的畢業时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，畢業后学信网终身可查！是由学校跟自考办联合颁发的正规畢業书！
 可报考院校：
 四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询
-报名时间：正在报名注册中，现在报名可参加10月统考，可早半年毕业！
+报名时间：正在报名注册中，现在报名可参加10月统考，可早半年畢業！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历报名就要交学费吗？报名条件？</t>
+</t>
+  </si>
+  <si>
+    <t>四川哪些高校可以报考成人正规学历</t>
   </si>
   <si>
     <t xml:space="preserve">四川成人学历是正规学历吗？有哪些学校可以报考？四川成人学历提升报名怎么报？在哪儿报名？学费多少？
 很多想要报考成人学历的学员面对五花八门的学历形式以及学校，会不知道怎么选择，那么到底哪些是国家认可的正规学历形式呢？下面李老师为大家解答一下关于成人学历的知识：
-成人学历分为自考，成教，网教，电大四大类型，含金量也是按这个顺序排列的，自考第一，然后是成教，网教，电大，这四种学历形式都是国家正规开展的成人学历形式，毕业后学信网终身可查，主要是为了提高全民教育水平的学历形式，是国家为了很多在职人员开设的提升学历的形式，学员可一边工作，一边完成学历的提升，四类学历形式适合不同人群，李老师跟大家详细讲下这几种学历形式的区别~
-自考是成人学历里面含金量较高的，所以难度也是相对高一些的，自考需要统考3-6科，个别科目如美式教育专业只需统考3科，其他考试科目均为校考，校考是由学校自己组织，只需学员配合学校处理（即参加考试）考前也不有资料，报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，在线视频课程，大专业统考科目学校会开设课程，提高学员考试通过率，自考只要全部考试科目考过即可申请毕业，较快1.5年考完全部科目，一年九个月领取毕业证书！
+成人学历分为自考，成教，网教，电大四大类型，含金量也是按这个顺序排列的，自考第一，然后是成教，网教，电大，这四种学历形式都是国家正规开展的成人学历形式，畢業后学信网终身可查，主要是为了提高全民教育水平的学历形式，是国家为了很多在职人员开设的提升学历的形式，学员可一边工作，一边完成学历的提升，四类学历形式适合不同人群，李老师跟大家详细讲下这几种学历形式的区别~
+自考是成人学历里面含金量较高的，所以难度也是相对高一些的，自考需要统考3-6科，个别科目如美式教育专业只需统考3科，其他考试科目均为校考，校考是由学校自己组织，只需学员配合学校处理（即参加考试）考前也不有资料，报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，在线视频课程，大专业统考科目学校会开设课程，提高学员考试通过率，自考只要全部考试科目考过即可申请畢業，较快1.5年考完全部科目，一年九个月领取畢業书！
 成教即成人高等教育，需参加入学考试，即成人高考，成人高考录取分数线低，还有加分政策，学制2.5年，成教性价比高，含金量仅次于自考，成教报名一年只有一次，今年报名9月初截至，可报考专业齐全，想要报考的学员可抓紧时间联系李老师报名~
-网教即网络远程教育，分为春秋两季注册，全是985，211的重点大学，考试简单，轻松毕业，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可毕业！
-电大（成都电大）现特设一年制中专，7-10个月即可领取毕业证书，毕业可当兵，考取二建，幼师，执业药师等资格证书！还可作为报考大专的前置学历，免试入学，没有平时作业以及期末考试，轻松毕业！
+网教即网络远程教育，分为春秋两季注册，全是985，211的重点大学，考试简单，轻松畢業，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可畢業！
+电大（成都电大）现特设一年制中专，7-10个月即可领取畢業书，畢業可当兵，考取二建，幼师，执业药师等资格證书！还可作为报考大专的前置学历，免试入学，没有平时作业以及期末考试，轻松畢業！
 现在可报名学校:
 四川师范大学，西华师范大学，西南石油大学，西南财经大学，国家开放大学，成都理工大学，成都广播电视大学等。
-一经毕业获得由学校颁发的国家认可学信网终身可查的正规毕业证书！秋季注册学员还可额外申请学校200-400员的助学补助！名额有限，想要报名的学员抓紧时间联系李老师咨询~
+一经畢業获得由学校颁发的国家认可学信网终身可查的正规畢業书！秋季注册学员还可额外申请学校200-400员的助学补助！名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-</t>
-  </si>
-  <si>
-    <t>四川小自考在机构报名跟在学校报名一样吗？会不会注册不上？</t>
+~
+</t>
+  </si>
+  <si>
+    <t>四川小自考疑惑解答都在这里</t>
   </si>
   <si>
     <t>很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
@@ -1130,13 +850,13 @@
 很多学员还会想到底校外教学点跟学校是什么关系，学校为什么要把招生交给机构呢？
 校外教学点也就是机构有足够的资质后，学校授权机构对他的自考等成人学历进行招生，也可以组织校考和平常的学习，因为学校本部对成人学历这块的宣传是非常少的，学员基本上很难知道到底怎么报名，有哪些专业可以报名，学校本部主要针对本部专科生进行招生，面对社会在职人员，学校就委托校外教学点进行招生，个别学校在校园网上可以查询到校外教学站点的机构名称，校外站点跟学校是有合同，有协议，就算出了问题学校都会负责，所以学员报考时可以参考这一点，选择正规的机构，不要图一时便宜。
 本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
-小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿毕业证，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，考完即可申请毕业~
+小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿畢業，自考是成人学历里面含金量较高的一种学历形式，畢業时间灵活，考完即可申请畢業~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 更多咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>四川小自考报名条件？学历要求是什么？学费大概多少？</t>
+~</t>
+  </si>
+  <si>
+    <t>四川小自考各大名校专业 报名条件</t>
   </si>
   <si>
     <t>很多想要报考小自考的学员，都想了解小自考报名的学费是多少？在哪里报名？报名需要提供哪些资料？
@@ -1150,9 +870,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询~
 二、报名条件：                                
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）只要你年满17岁都可报考！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）只要你年满17岁都可报考！
 三、报名资料 ：                              
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费：                                  
 学费包含教材资料，视频课件，面授课程！
 五、报名流程：
@@ -1162,35 +882,35 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）本处为学校直属教学站点，报名即跟学员签订保障学员权益的协议，学员可放心报考！
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>四川成人学历报名可以选择什么形式？学费贵吗？现在还可以报吗？</t>
-  </si>
-  <si>
-    <t>很多已经毕业的小伙伴，想要提升学历，不了解该怎么报考？
+~</t>
+  </si>
+  <si>
+    <t>畢業后学历提升可以选择自考 成交 网教</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多已经畢業的小伙伴，想要提升学历，不了解该怎么报考？
 下面李老师为大家总结一下成人学历的形式以及学员报考该如何选择。
 成人学历分为四种形式：
 自考、成教、网教、电大，其含金量也是按这个顺序依次排列的。
-1：自考（即高等自学考试），是学员通过自己学习并参加考试，考试科目在16-18科，分为统考（统考科目一般为6科，个别科目只需统考三科）+校考（校考过程性考试，由学校自行组织，考前发资料）全部考试通过即可毕业，自考的统考科目是必须学员认真学习以及看书然后考试通过的，所以自考比较适合有一定学习能力且有学习时间的学员，想要报考自考的学员本身对学历含金量也是有一定要求的。
+1：自考（即高等自学考试），是学员通过自己学习并参加考试，考试科目在16-18科，分为统考（统考科目一般为6科，个别科目只需统考三科）+校考（校考过程性考试，由学校自行组织，考前发资料）全部考试通过即可畢業，自考的统考科目是必须学员认真学习以及看书然后考试通过的，所以自考比较适合有一定学习能力且有学习时间的学员，想要报考自考的学员本身对学历含金量也是有一定要求的。
 自考现在可报考学校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学、电子科技大学等。
 2：成教（成人高等教育）成教学历是含金量仅次于自考的学历，成教需要参加成人高考，考试通过即被学校录取，学制2.5年，很多学员一听说成人高考，就会误以为考试难度比较大，其实不然，成人高考是面向成人的考试，其考试难度不大，录取分数线非常低，三科总分450分，专科120分即可录取，本科105-155分即被录取，成考还有相应的加分政策，年满20岁还可加分20分，所以成人高考是非常简单的，成教录取后后面的考试都非常简单，多以如果平时工作比较繁忙但是又想学历有含金量的学员可以考虑报考成教。
 成教可报考学校：四川师范大学、西南石油大学、成都理工大学、电子科技大学、川北医学院等。
 3：网教（即网络远程教育）是学员通过网上学习并参加期末考试，学制2.5年，网教学习都是用学员业余时间，不耽误学员平时时间，网教开办学校都是“985，211”的重点大学，对于有名校情结的学员可以选择报考网教。
 网教可报考学校：西南科技大学、中国传媒大学、天津大学、陕西师范大学等。
-4：电大（国家开放大学）可面试入学，后期期末考试都很简单，学制2.5年，国家开放大学还开放招生vip班，没有平时作业，也没有期末考试，只需要学制修满即可毕业，国家开放大学适合不想考试但是只是想把学历层次提升一下的学员。
-以上学历形式取得的毕业证书都是国家认可学信网终身可查的毕业证书！学员可放心报考！
+4：电大（国家开放大学）可面试入学，后期期末考试都很简单，学制2.5年，国家开放大学还开放招生vip班，没有平时作业，也没有期末考试，只需要学制修满即可畢業，国家开放大学适合不想考试但是只是想把学历层次提升一下的学员。
+以上学历形式取得的畢業书都是国家认可学信网终身可查的畢業书！学员可放心报考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考较快多久毕业？多久拿毕业证？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">成人学历中什么形式可以较快拿到毕业证书？
-                                               找李老师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到毕业证书的，自考只需要全部科目考试通过就可以申请毕业，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取毕业证书！
-且自毕业证书含金量高，企业认可度高！
+</t>
+  </si>
+  <si>
+    <t>四川小自考最快1年半即可拿證</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成人学历中什么形式可以较快拿到畢業书？
+                                               找李老师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到畢業书的，自考只需要全部科目考试通过就可以申请畢業，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取畢業书！
+且自畢業书含金量高，企业认可度高！
 考试科目：
 统考：6科 校考：12-14科（由学校组织，过程性考试）
 学费低至2700元/年（按两年收取）
@@ -1201,14 +921,14 @@
 统考每年的4、10月 校考每年的7、12月
 现在可报名学校：
 四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等名牌大学。
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的名校毕业证书(学信网终身可查）。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的名校畢業书(学信网终身可查）。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
 </t>
   </si>
   <si>
-    <t>2020年成都理工大学小自考有哪些专业可以报名？考试难度？</t>
+    <t>成都理工大学小自考艺术设计专业考几科 学费贵吗</t>
   </si>
   <si>
     <t xml:space="preserve">成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
@@ -1217,7 +937,7 @@
 成都理工大学现招收小自考艺术设计类专业学员，现在报名可申请200-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 考试科目：
 统考：4科 校考：9-14科（校考过程性考试）
-自考毕业时间灵活，较快1年考完全部科目，1.5年拿毕业证书！毕业获颁由自考办和成都理工大学联合颁发的毕业证书！
+自考畢業时间灵活，较快1年考完全部科目，1.5年拿畢業书！畢業获颁由自考办和成都理工大学联合颁发的畢業书！
 学历国家认可学信网终身可查！
 学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可申请200-600元助学补贴，名额有限
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
@@ -1225,7 +945,7 @@
 </t>
   </si>
   <si>
-    <t>四川小自考现在可以报名吗？学校跟专业怎么选择？</t>
+    <t>四川小自考含金量高吗 认可度是不是没有大自考高</t>
   </si>
   <si>
     <r>
@@ -1235,7 +955,7 @@
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">  1.自考是成人学历中含金量较高的，所以难度也是相对</t>
+      <t>1.自考是成人学历中含金量较高的，所以难度也是相对</t>
     </r>
     <r>
       <rPr>
@@ -1255,8 +975,8 @@
       </rPr>
       <t xml:space="preserve">较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
 2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
-大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
-3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
+大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请畢業。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员畢業时间。
+3.小自考较快1年就可以考完全部科目，1.5年领取畢業书！普遍学员的畢業时间是两年左右哦~并且自考畢業书不区分大小自考，畢業书都是完全一样的！含金量也是完全一样的！
 现在可报考院校：
 四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
 四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
@@ -1266,10 +986,10 @@
     </r>
   </si>
   <si>
-    <t>小自考小学教育专业报考哪个学校比较好？学费贵吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                            四川小自考报考后该怎么学习？统考难不难？
+    <t>四川小自考学习形式 报名后要到学校上课吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考报考后该怎么学习？统考难不难？
 想要自考小学教育专业的学员看过来，
 李老师为你解答你的疑问，
 首先自考小学教育专业到底难不难？
@@ -1287,17 +1007,17 @@
 统考科目考试前会安排面授，
 也有相应的押题资料，
 帮助学员能尽快通过考试，
-能顺利领取毕业证书！
-其次是自考小学教育专业多久能拿到毕业证书？
-自考是所有考试科目考完即可申请毕业，
-毕业时间灵活，
+能顺利领取畢業书！
+其次是自考小学教育专业多久能拿到畢業书？
+自考是所有考试科目考完即可申请畢業，
+畢業时间灵活，
 每年有4次考试机会，
 两次校考，两次统考，
 校考一次较多报4-6科，统考2-4科，
 学员较快可1.5年考完全部考试科目，
-一年九个月领取毕业证书！
-毕业证书是由自考办和学校联合颁发的国家认可学信网可查的正规毕业证书！
-自考毕业证书也是成人学历里面含金量较高的！可以考教师资格证，也可以参加教师公招！
+一年九个月领取畢業书！
+畢業书是由自考办和学校联合颁发的国家认可学信网可查的正规畢業书！
+自考畢業书也是成人学历里面含金量较高的！可以考教师资格證，也可以参加教师公招！
 怎么报名？
 现四川师范大学，西华师范大学
 正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
@@ -1306,7 +1026,7 @@
 </t>
   </si>
   <si>
-    <t>四川小自考好考的专业推荐一下 没有基础可以报考吗</t>
+    <t>四川小自考报考专业该如何选择 热门专业有哪些</t>
   </si>
   <si>
     <r>
@@ -1316,7 +1036,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                  四川小自考热门专业推荐?怎么报名?多久毕业?
+      <t>四川小自考热门专业推荐?怎么报名?多久畢業?
 自</t>
     </r>
     <r>
@@ -1348,7 +1068,7 @@
 只需要学员配合学校完成考试，
 考前会有资料，
 学员的重心可以都放在6门统考上，
-一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到毕业证书！
+一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到畢業书！
 2·选择自考的形式后，该选择哪些专业呢？
 自考热门专业可分为四大类：
 A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
@@ -1357,7 +1077,7 @@
 D，建筑工程类：建筑工程/工程造价等
 这四类专业中通过率高使用范围广的专业有汉语言文学，法学，行政管理，人力资源管理和教育类专业，其中美术教育可以只参加三科统考，其他均是校考，通过率非常高！
 3，自考报名怎么报名？在哪儿报名？多久报名？
-报名时间：正在报名注册中，现在报名可参加10月统考！
+报名时间：正在报名注册中
 可报考院校：
 四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
@@ -1366,21 +1086,21 @@
     </r>
   </si>
   <si>
-    <t>四川小自考报名后需要参加几次考试才能毕业？含金量高吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                四川小自考是什么学历形式？一年考几次？考试难吗？
-自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请毕业，自考的是学费低、教考分离、毕业生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予毕业（60分既合格）颁发毕业证，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
+    <t>四川小自考是什么学历 报名时间是多久 有哪些学校可以报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考是什么学历形式？一年考几次？考试难吗？
+自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请畢業，自考的是学费低、教考分离、畢業生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予畢業（60分既合格）颁发畢業，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
 那么很多学员都会思考一个问题，学历提升有什么好处呢？我为什么要提升学历呢？
-1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考毕业时间灵活，一年考四次，较快可1年考完全部科目，1.5年毕业！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
+1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考畢業时间灵活，一年考四次，较快可1年考完全部科目，1.5年畢業！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
 2、为自己就业时提供进门的机会。现在许多大型企业，尤其是教师、公务员、司法方面的考试都需要本科 学 历，自考是受国家承认的，无论你是要考公务员或者应聘公司岗位，都是认可的，同学们可趁年轻多努力为自己创造更好的未来！
-3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格证书，都是对学历有要求的！
+3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格證书，都是对学历有要求的！
 自考报考对象
 1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
-2．专科招收应、往届高中毕业生(含职高、中专、技校生)及以上文化程度者；
-3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历毕业证的考生(在校专、本科学生在办理本科毕业证书时必须出具专、本科毕业证书，无专、本科毕业证书不能办理本科毕业证书)。
+2．专科招收应、往届高中畢業生(含职高、中专、技校生)及以上文化程度者；
+3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历畢業的考生(在校专、本科学生在办理本科畢業书时必须出具专、本科畢業书，无专、本科畢業书不能办理本科畢業书)。
 李老师总结一句话：只要年满17岁都可报考！
-自考免试入学，宽进严出，全部科目考过即可申请毕业！毕业即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
+自考免试入学，宽进严出，全部科目考过即可申请畢業！畢業即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
 现在可报考院校：
 四川师范大学、成都理工大学、西南石油大学、西华师范大学、西南财经大学等省内重点大学！
 考试地点：
@@ -1391,65 +1111,65 @@
 </t>
   </si>
   <si>
-    <t>四川二建多久开始报名 学历不符合怎么办</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                 中央电大一年制中专真的可以半年毕业吗？靠谱吗？
-很多学员为了考证书会选择报考成人中专，中央电大现开设成人一年制中专报名，报考专业齐全，是学校正规开设的学历形式，学制为1年，但是实际毕业时间为7-10个月，方便学员参加资格证书考试，在学校官网可查学籍，也可在线验证，学员可放心报考！
+    <t>2020年中央电大一年制成人中专报考专业 毕业时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中央电大一年制中专真的可以半年畢業吗？靠谱吗？
+很多学员为了考證书会选择报考成人中专，中央电大现开设成人一年制中专报名，报考专业齐全，是学校正规开设的学历形式，学制为1年，但是实际畢業时间为7-10个月，方便学员参加资格證书考试，在学校官网可查学籍，也可在线验證，学员可放心报考！
 如何查询学籍？在哪里查询？
 入学后学籍查询网址：
 http://crtvsvs.ouchn.edu.cn/stu_query.jsp
-毕业证书查询网址：
+畢業书查询网址：
 http://crtvsvs.ouchn.edu.cn/graduate_query.jsp
-在线验证报告查询网址：
+在线验證报告查询网址：
 http://zzx.ouchn.edu.cn/edu/index.php/index/login/index.html
 学员报名注册后1-2个月即可登陆学校官网查询学籍！
-成都广播电视大学现特设一年制中专，8-10个月就可拿毕业证，没有入学考试，没有平时作业！完全不耽误学员时间！
+成都广播电视大学现特设一年制中专，8-10个月就可拿畢業，没有入学考试，没有平时作业！完全不耽误学员时间！
 中专通知：
-每月滚动注册，但是早报早毕业，后期会严格规范前置学历（高中）和毕业学制年限（至少一年），所以抓紧现有机会联系李老师！
-我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考证需要学历、生活需要学历.....
+每月滚动注册，但是早报早畢業，后期会严格规范前置学历（高中）和畢業学制年限（至少一年），所以抓紧现有机会联系李老师！
+我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考證需要学历、生活需要学历.....
 中专学历的用处：
 1、可以考二建
 2、可以考九大员
 3、可以考执业药师、执业助理医师
-4、可以考幼师资格证、幼儿园园长证
-5、可以考各种资格证：银行从业资格证、基金从业证、证券从业资格证、期货从业资格证考试
+4、可以考幼师资格證、幼儿园园长證
+5、可以考各种资格證：银行从业资格證、基金从业證、證券从业资格證、期货从业资格證考试
 6、可以用于提干、加薪、评职称、作为报专科的前置学历 . . .
-我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，毕业证带二维码辨别真伪！
-全国认可，轻松简单，适用范围广！学制一年（快半年拿证），毕业即颁发中央广播电视学校毕业证书，全国承认学历（电子注册，网上可查）
+我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，畢業带二维码辨别真伪！
+全国认可，轻松简单，适用范围广！学制一年（快半年拿證），畢業即颁发中央广播电视学校畢業书，全国承认学历（电子注册，网上可查）
 可读专业：
 建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销
 报名时间：每月滚动注册
-学费：1480元（全包，学员只管拿证）
+学费：1480元（全包，学员只管拿證）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 详情咨询李老师~
 </t>
   </si>
   <si>
-    <t>四川成人学历专本科报名入口 早报早毕业</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   工作后学历低找不到好工作怎么办？四川成人学历报名入口：
-很多同学早早开始工作，工作后怎么提升学历呢？其实成人是可以提升学历的，适合各种学历人群，无论你是初高中毕业或者是专科毕业，都是可以通过自己努力拿到本科学历的，且成人学历都是国家认可，学信网可查的正规学历！
-初高中毕业的同学怎么拿本科学历呢？
+    <t>四川成人学历报名中心 工作后也能拿大学学历</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工作后学历低找不到好工作怎么办？四川成人学历报名入口：
+很多同学早早开始工作，工作后怎么提升学历呢？其实成人是可以提升学历的，适合各种学历人群，无论你是初高中畢業或者是专科畢業，都是可以通过自己努力拿到本科学历的，且成人学历都是国家认可，学信网可查的正规学历！
+初高中畢業的同学怎么拿本科学历呢？
 李老师推荐可以选择专本套读的学历形式，
 相信大家可能听说过高起专，专升本等等考试，那么专本套读是什么意思呢，适合什么样的人群选择呢？老师就为大家解释一下。
-专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，专科可选择简单点的成教或网教，本科选择自考，专科学制2.5年，在专科学制内，自考本科的所有科目考试通过即可在专科毕业证拿到后申请本科毕业证书！最快2年9个月拿到专本科毕业证书！
+专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，专科可选择简单点的成教或网教，本科选择自考，专科学制2.5年，在专科学制内，自考本科的所有科目考试通过即可在专科畢業拿到后申请本科畢業书！最快2年9个月拿到专本科畢業书！
 为什么会有专本套读呢？
-因为只有自考专升本在报考时不需要出示大专学历，只要在申请毕业时出示大专学历就可以，所以有了专本套读的可能，其他学历形式的学历报考时就需要提供前置学历！
+因为只有自考专升本在报考时不需要出示大专学历，只要在申请畢業时出示大专学历就可以，所以有了专本套读的可能，其他学历形式的学历报考时就需要提供前置学历！
 适合什么样的人群去选择呢？
-适合初高中毕业，需要拿到本科学历的学员，或者是专科在读，想最快时间拿到本科学历的学员！
+适合初高中畢業，需要拿到本科学历的学员，或者是专科在读，想最快时间拿到本科学历的学员！
 专本套读的形式有哪些？
-专本套读的形式主要有两种，一种是成教大专+自考专升本，另一种是网教大专+自考专升本，学生科根据自身各方面条件进行选择。这样在用大专证去申请自考专升本毕业就可以了，专科本科一起毕业，一举两得。
+专本套读的形式主要有两种，一种是成教大专+自考专升本，另一种是网教大专+自考专升本，学生科根据自身各方面条件进行选择。这样在用大专證去申请自考专升本畢業就可以了，专科本科一起畢業，一举两得。
 现在社会上对于学历越来越重视，高的学历可以使你得到更好的发展平台，更好的施展自己的才华，那么仅仅只有高中学历，不管当初是因为是因为什么而错失了上大学的机会，找李老师报名可圆你上大学的梦想~
 我处为成都理工大学、四川师范大学、西南石油大学等学校的校外自考站，学历均学信网终身可查，国家认可，专业齐全，学费低至2700元/年（按两年收取），现在报名还可申请助学补贴200-600元，名额有限，想要报名的学员速速联系里李老师咨询~
-报自考学员报名后就有教材+资料+在线题库+面授课程+专业的教务班主任服务，学员轻松学习，轻松毕业。是包含在学费内的哦~
+报自考学员报名后就有教材+资料+在线题库+面授课程+专业的教务班主任服务，学员轻松学习，轻松畢業。是包含在学费内的哦~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
 </t>
   </si>
   <si>
-    <t>四川师范大学小自考在学校报名有老师上课吗？专业有哪些？</t>
+    <t xml:space="preserve">四川师范大学小自考有老师讲课吗 学费贵吗 </t>
   </si>
   <si>
     <t xml:space="preserve">    
@@ -1463,14 +1183,673 @@
 考试时间：统考在每年的4月、10月，校考在每年的7月、12月
 学费最低低至3000+/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 报名即可签订协议保障学员权益！现在报名可参加4月统考！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面最高的！单位认可度高，如果是想用畢業来找工作的话建议考小自考，工作竞争优势偏大点！且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考！
 报名时间：正在报名注册中
 报名地址：四川师范大学自考教学点（成都市成华区建设路银玺国际2810号）
 详情咨询李老师~
 </t>
   </si>
   <si>
-    <t>小自考与大自考有什么区别？毕业证书真的一样吗？</t>
+    <t>四川大自考跟小自考有什么区别 小自考为什么要交学费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川畢業怎么区分大小自考？小自考会不会单位不认可？
+1.自考是成人学历中含金量较高的，所以难度也是相对‌‌较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
+2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
+大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请畢業。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员畢業时间。
+3.小自考较快1年就可以考完全部科目，1.5年领取畢業书！普遍学员的畢業时间是两年左右哦~并且自考畢業书不区分大小自考，畢業书都是完全一样的！含金量也是完全一样的！
+现在可报考院校：
+四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
+四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学自考专升本校外人员可以报考吗 有哪些专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考只针对校内招生吗？在职人员可以报考吗？
+很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年畢業，想要报名的学员可咨询李老师~
+学校简介：
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦~
+考试科目：
+统考：6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川哪些专业适合考公务员 小自考学历可以考吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考畢業书可以考公务员吗？哪些专业适合考公务员？
+据官方数据公布，2019年国家公务员考试计划招考14537人，众所周知，公务员考试最低学历要求为本科，本次招考，本科学历岗位共8553个，研究生学历岗位有1094个，所有本科学历岗位，自考本科畢業生均可报考！在招考的9657个岗位中，专业主要分为五大类：管理类、法学类、财务类、文秘类、文学类
+小自考是学校正规开展招生的成人学历，学历含金量高，学信网可查，畢業时间灵活，较快1.5年畢業，非常适合想要今早畢業拿證的学员，那么哪些专业比较适合报考公务员呢？李老师为大家推荐适合报考公务员的五大热门专业：
+1、法学：
+招考岗位：1922个  
+2、汉语言文学
+招考岗位：1715个
+3、工商管理
+招考岗位：1689个
+4、行政管理
+招考岗位：1347个
+5、会计学
+招考岗位：516个
+以上为公务员招考岗位最多的五大专业，学员可根据自身情况选择专业报考，这五大类专业也是每年报考的热门专业，通过率高！
+考试科目：
+统考：6科           校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+现在可报考院校：
+四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学
+学费低至2800元/年（按两年收取）包含全套教材资料，视频课件，面授课程，更有班主任全程一对一带班！现在报名可申请400-600元的助学补贴，名额有限，详情速速咨询李老师
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川小自考建筑经济管理专业考试科目 报名时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考建筑经济管理专业考试科目有多少科？多久畢業？
+学校简介：
+成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的中国历史文化名城——成都，由四川省人民政府和中华人民共和国国土资源部共建，入选中国“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”、“四川2011计划”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料、电子、机械、信息科学、管理科学等学科专业为特色的省属重点大学。
+成都理工大学先开放对外招收自考建筑经济管理专业的同学，本专业培养从事建筑工程预算、工程招标投标 、建筑工程施工与组织管理工作的应用型、复合型工程技术人才。该专业就业前景好，适用于政府部门、设计院、会计师事务所、工程建设咨询(顾问)公司、工程经济咨询机构、工程监理单位、工商企业从事生产、经营、服务等管理系统的规划、设计、技术经济、监理、咨询、评估、项目管理等工作。是每年报考的热门专业！
+考试安排：
+小自考分为统考+校考，统考根据专业不同，大多在6科左右；校考由我们助学点组织，考试地点统一安排在成都；学员的学习重心主要放在统考科目上，考生按照我们提供的学习资料系统地复习，通过率都很高！
+那么建筑经济管理专业具体考哪些科目呢？
+建筑工程专业统考科目有：工程地质及土力学、建筑设备、建筑经济与企业管理、流体力学、高层建筑结构设计、房屋建筑概论（共6科）
+校考科目：
+中国近代史纲要、马克思主义基本原理概论、物理（工）、物理（工）（实践）、概率论与数理统计（二）、线性代数、计算机基础与程序设计、结构力学（二）、混凝土结构设计、建筑结构试验。校考均为过程性考试，学员只需到场配合学校处理即可。
+自考是只要学员全部考试科目考试通过即可申请畢業，一年考四次，学员最快可1年考完，1年半畢業，1年9个月拿畢業书！学员普遍畢業时间为2年，自考学历含金量高，社会认可度高！
+学费低至2800元/年（按两年收取），学费包含教材资料、视频课件，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+学校授权的教学点，报名即签订保障学员权益的协议书，学员可放心报考！
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>2020年国家开放大学春季注册多久截至 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川电大学历找工作有用吗？国家开放大学就是电大吗？
+学校简介：
+国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考一年有几次报名机会 分别是多久报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦~川师开设的专业基本都是文科专业，所以通过率较高，同学们在其他地方报考过小自考的，是可以重新报考其他学校跟专业的，只需要你到之前报考的学校退学籍即可！
+考试科目：
+统考：6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>2020年中央电大一年制成人中专火热报名中 专业多轻松毕业</t>
+  </si>
+  <si>
+    <t>中央广播电视中等专业学校是什么学校？学校是正规的吗？
+学校简介：
+中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，畢業可在线验證学历真实性，学制1年，实际畢業时间为7-10个月，学员畢業后可用于考幼师，二建，当兵等，现在执业资格證书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避免考试通过后拿不到證书的风险！
+中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取畢業书！学费低至1480元，全包，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~</t>
+  </si>
+  <si>
+    <t>2020年四川小自考什么时候开始报名 报名需要交学费吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年四川小自考报名时间多久开始？报名多久截至？
+自考一年有几次注册时间？
+四川自学考试每年有四次注册时间，现在正在报名，在报名可以早半年畢業！要报考的学员可安排好时间准备考试了哦~
+自考多久能畢業？学费多少？报考院校有哪些呢？
+自考的学历形式比较特殊，没有具体的学制要求，学员全部科目考试通过即可申请畢業，一年四次考试机会，较快1年可考完全部科目，1.5年畢業！普遍学员的畢業时间是两年左右，小自考可报考专业齐全，只需统考3-6科，其他9-12科都是过程性校考，学员的学习重心只需要放在统考科目上即可！
+可报考院校：
+四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学，学费地址2700/年（按两年收取），学费包含教材资料，大专业学校还会开设视频课程，也会有押题资料，帮助学员顺利通过考试，想要报考的学员要抓紧时间联系李老师咨询哦~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学成人学历在哪里报考 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+高中畢業工作后想要拿大学畢業书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请畢業，畢業后由四川师范大学颁发正规合法的畢業书，学信网可查，社会认可度高！
+现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
+报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
+学费：
+成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
+自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年畢業！
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考那些专业比较好 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
+专业介绍：
+人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
+成都理工大学现招收自考人力资源管理专、本科学员，名额有限，需要的需要抓紧时间联系李老师报名哦~
+就业前景：
+企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科畢業生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
+考试科目：
+统考：6科 校考：9-12科（由学校组织，过程性考试）
+学费：2700元/年（按两年收取）学费包含教材资料以及视频在线课程！
+考试时间：
+统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考2020年多久开始报名 报名网址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
+四川师范学院现招收自考专本科学员，名校招生，名额有限，自考报名时间在9月底截止，需要报名的学员要抓紧时间报名哦！
+可报考专业：
+专科：
+法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作、市场营销
+本科：
+法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作、公共事业管理
+自考报考对象：
+1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
+2．专科招收应、往届高中畢業生(含职高、中专、技校生)及以上文化程度者；
+3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历畢業的考生(在校专、本科学生在办理本科畢業书时必须出具专、本科畢業书，无专、本科畢業书不能办理本科畢業书)。
+简单一句话，只要你年满17岁都可报考！
+统考6科（闭卷）+校考9-12科左右（过程性考试）
+考试时间：统考每年的4、10月 校考每年的7、12月
+畢業申请时间每年的6月和12月
+报名地址:成都市成华区建设路银玺国际2810号
+详情可咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川成人学历提升中心 不限前置学历都可报考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川找工作没有学历怎么办？成人学历可以升职加薪吗？想要入职好工作，学历不够怎么办？
+很多找工作的小伙伴应该能了解，现在企事业单位对学历的要求都是越来越高了，连链家的销售竟然都要求本科学历了，国企就更不用说了，至少本科学历，那么学历不高但是想找个好工作该怎么办呢？
+下面李老师就跟大家讲解一下成人获得学历的几种方式，成人学历分为自考，成教，网教，电大四大类型；其中含金量较高的是自考，依次为成交，网教，电大。
+1，自考，就是通过学员自己学习然后参加考试，考试科目为16-18科，考过即可申请畢業（60分即合格），没有时间限制，没有年龄限制，含金量高，但是需要学员花一定时间学习。
+2，成教，需要参加一年一次的成人高考，考试通过即可被学校录取，学制2.5年，读满即可畢業。很多学员一听需要参加成人高考，都会误以为考试难度高，其实不然，成人高考是面向成人举办的考试，考试难度低，录取分数线低，450分满分，专科录取分数线在120分，本科105~155分，还有相关的加分政策，所以报考学员完全不用担心，成教成人高考通过后后期考试简单，不耽误学员时间。
+3，网教，网教又称远程教育，是通过网络学习，然后参加考试，主办院校都是省内985，211的重点大学，学制2.5年。
+4，电大，即成都广播电视大学，学制2.5年，免试入学，是比较轻松畢業的学历形式！
+无论你是初中或高中学历想升专科或本科，或是专升本，不限年龄，不限学历，都可以拿到名牌大学本科畢業书！
+现招收院校：
+四川师范大学/西南石油大学/西华师范大学/成都理工大学/西南科技大学/西南财经大学/川北医学院/电子科技大学等。
+成教报名只需交100元报名费，12月学校录取后再交学费！
+报名时间：
+现自考/成教正在火热报名中，名额有限，错过需等明年才能报名，想要报名费学员抓紧时间联系李老师咨询~
+地址：成都市成华区建设路成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>四川小自考较快可多久毕业 考试可以考几次</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川小自考一年考几次？考试难不难？学费贵吗？什么是自考?过程怎么样? 
+自考属于成人学历中含??金量较高的,学信网终身可以查询,社会认可度较高的学历。相比成教,网教,电大等学历,它的考试周期短,考试安排灵活,考完即可畢業。自考包含统考和校考,统考一般3-6门左右,由国家统一组织考试,校考则是学校组织的过程性考试。每年4、10为统考,12月、6月为校考，学员较快1年可考完全部科目，1.5年畢業！
+1、问:两年期满,有的课程仍未合格怎么办?? 
+答:两年期满对于那些仍未考试合格的考生,可继续参加相应课程的考试,在所有课程考试合格后申请自学考试本科畢業书。 
+2、问:如何本科:申请学士学位? 
+答:自考本科畢業生,符合条件者可授予学士学位。条件主要为:各科成绩平均分达65分以上,通过四川省学位办组织或认定的学士学位外国语水平考试,符合授位条件者由参考大学颁发学士学位證书。
+自学考试本科在籍考生(指将畢業的考生)或取得自学考试本科毕證书的考生可以报考研究生或公务员。 
+3、问:学位外语如何报考?? 
+答:学位外语考试每年一次,报名时间一般在每年的3月份,考试时间一般在次年的4月份.
+4、问:报考本科专业是否可与专科专业不同?? 
+答:可以在学院开设专业内自由选择,一旦注册成功后不得修改专业。 
+报名需要交哪些资料呢？
+身份證正反面照片或者扫描件 
+两寸蓝底电子档照片
+现在可报考院校:
+四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学的名校,现在可报考专业齐全，更多专业详情可加李老师。
+学费:根据学校专业不同,学费在2500元/年-3700元/年,按两年收取(包含教材资料、在线教学课程)，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址:成都市成华区建设路银玺国际2810号
+详情可咨询李老师~
+电话:199 8120 3720（微信同号）      QQ:1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学成人专本科学历学费大概多少 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+高中畢業工作后想要拿大学畢業书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请畢業，畢業后由四川师范大学颁发正规合法的畢業书，学信网可查，社会认可度高！
+现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
+报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
+学费：
+成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
+自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年畢業！
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考什么时候报名 要靠多少科</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川在哪里报名小自考？小自考现在报名多久考试呢？
+在四川的同学们，在报考自考时，都会疑惑四川小自考在哪里报名呢？成都报名点在哪里？现在报名多久考试呢？
+下面李老师为大家讲解下，报考自考的流程以及注意事项：
+首先小自考是学校开设的正规学历，比大自考简单一些，只需要统考3-6科，其他的9-12科都是过程性校考，校考是学校组织监考的过程性考试，学员只需把学习重心放在统考科目上即可，统考科目大专业学校会开始视频课程，学员可登陆app个人学习，考前集中刷题，帮助学员顺利通过考试！
+小自考一年有两次注册机会，分别是上半年3-5月，下半年9-11月，学校招生名额招满截止，现在报考的同学们都是参加4月统考，小自考一年有四次考试机会，最快1年可考完全部科目，1.5年畢業！学员普遍畢業时间是是2年左右！对于很多想要快速拿到学历證书的学员，小自考是可以最快时间畢業的学历形式！
+四川小自考在哪里报名呢？怎么报考呢？学员可以自己报考吗？
+小自考是学校开设的学历形式，学员是不能够自己注册的，是需要交资料给老师，老师给学员注册的，注册考籍后学员可根据班主任老师的通知进行报考，然后参加考试，现在报名可参加12月底的校考，可早半年畢業！
+本处为小自考报名点，可报考学校有四川师范大学，成都理工大学，西南石油大学，西南财经大学等名校，学费低至2700元/年（学费按两年收取）现在可报考专业齐全，详情可加李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720 （微信同号）     扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川成人学历有哪些形式 有没有简单一点的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                                  我国现行成人学历有哪些形式：统招、自考、成教、‌‌网教、电大
+1. 什么是自考
+自学考试，1981年经国务院批准创立，是对社会人员以学历考试为主的高等教育国家考试。是个人自学、社会助学和国家考试相结合的高等教育形式。
+通过国家考试促进广泛的个人自学和社会助学活动，贯彻宪法鼓励自学成材的有关规定，造就和选拔德才兼备的专门人才，提高全民族的思想道德素质和科学文化素质，以适应社会主义现代化建设的需要。 经过系统的学习后，通过畢業论文答辩、学位英语考核达到规定成绩，符合学位申请条件的，可申请授予成人学士学位，并可继续攻读硕士学位和博士学位。
+2. 自考的特点
+自考没有学历限制，每个人都可以报考，你可以先从专科开始，或者没有专科證也可以先参加自考本科的考试，就是将来在申请本科时要先出示专科畢業，所以就要先考一个专科畢業并且在本科前畢業,这是自考的硬性规定。
+自考没有学制限制，自考专科一般有16门，本科有18门，只要你一门一门全部通过就能办理畢業，二年考完二年畢業，十年考完十年畢業。所以这也使很多想要早点畢業的考生，尤其是没时间复习或基础差的考生愿意去依靠培训班，帮助自己顺利通过考试，尽早考完尽早畢業。
+3.大自考和小自考的区别
+大自考就是自己去自考办报名，选择要报读的学校和专业，每期自行在自学考试网报名，每科都需要参加全国统考，对学员的学习能力要求高，难度大，通过率低一些，一年考试两次 4月和10月；
+小自考就是通过培训机构报名，选择要报读的学校和专业，需要参加统考的科目有4-8科，其余科目由学校安排（校考），其中英语统考可以用三科校考科目成绩代替，培训机构会提前提醒你复习、报考，为你准备复习资料，小自考相对难度较低，通过率较高，一年考试4次 4月和10月统考 7月和1月校考。
+4.在四川可以报读的自考院校
+四川可以报自考的学校：成都工业学院、四川师范大学、西南石油大学、西南财经大学、西华师范大学、绵阳师范学员、西南交通大学、电子科技大学、西南科技大学、四川工商学院等。（自考报名后大部分考试都会就近安排，所以不用担心学校的问题）
+5. 自考可选择的专业
+教育类：学前教育、小学教育、汉语言文学、美术教育、音乐教育、英语教育、科学教育等
+建筑类：建筑经济管理、工程造价、交通土建工程、建筑工程管理、建筑施工技术管理等
+其他热门专业：交通运营管理、会计、法律、护理、行政管理、工商管理、人力资源管理、市场营销、汉语言文学、法学、工商企业管理、人力资源管理、公共事业管理、等等
+6. 自考的学制以及考试时间
+自考学籍：2年（最快1.5年）
+自考流程：
+1、提交资料（2寸蓝底照片电子版标准电子版、身份證复印件正反面电子版）
+2、注册学籍：四川一年有两次注册机会
+3、每年（4、10）月参加统考科目，（7、1）月参加校考科目，统考科目基本两次可以考完。
+注：大部分专业只有6科统考科目，除开美术教育、艺术设计等专业。校考是学校组织的，像期末考试一样简单，所以报考的学生不用担心
+自考学费：
+学费低至2700元/年（按两年收取），学费包含教材资料，现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询！
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川一年制中专什么时候报名 学费多少</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+中央广播电视大学有哪些中专专业？多久畢業？
+中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，畢業可在线验證学历真实性，学制1年，实际畢業时间为7-10个月，学员畢業后可用于考幼师，二建，当兵等，现在执业资格證书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避**试通过后拿不到證书的风险！
+中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取畢業书！
+学费低至1480元，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川报小自考大概要花多少钱 学费包含些什么</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川小自考学费大概多少？报考学校有没有区别？
+四川小自考的学费大致在5000-8000元左右不等，不同学校的收费标准是不同的，学员可以根据自身情况来选择报考的院校及专业，现在可报考专业齐全，详情可加李老师咨询~
+川内现在可报考院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，早半年畢業！四川2019年报考自考的学员已经突破25万，同学们，想要获得自己想要的生活是需要通过自己努力的，趁年轻多提升自己，现在报考还可申请200-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+小自考的学历形式比较特殊，没有明确的学制要求，同学们报考的专业所对应的考试科目，全部考过即可申请畢業，一般是3-6科统考，9-12科校考，统考是需要学员认真看书学习然后参加考试的，校考为过程性考试，学员只需把学习重心放在统考科目上即可，每年四次考试机会，6月跟12月是校考，4月跟10月是统考，较快可1年考完全部科目，1.5年畢業！自考也是所有学历形式里面能最快畢業的学历形式！
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川自考学历有学位證書吗 怎么才能申请学位证</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川小自考畢業有学位證书吗？申请学士学位有哪些条件？
+四川小自考畢業后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
+一、基本要求：
+①本科畢業生均应在获得本科畢業生證书后两年内提出申请，未通过者不再补授学士学位；畢業两年内必须申请，超过两年就不能再申请了。
+②自考本科畢業生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、畢業论文或畢業设计以及其他畢業实践环节）；
+③通过省学位办组织的外国语考试并获得合格證书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
+满足以上三点要求，就可以申请学士学位證书！
+二、申报时须提供的材料
+1、《四川省普通高等学校成教本科畢業生学士学位申请表》；
+2、本科畢業书原件、复印件及本科学历證书电子注册备案表。
+具体申报时需要提供的资料班主任会单独通知，学员只需配合班主任准备资料即可！
+四川小自考现在可报考的院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加4月统考，可报考2-4科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川自考应用型跟社会型有什么区别 在哪里报名 报名方式</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                                四川应用型自考跟社会性自考有什么区别？含金量一样吗？
+区别：
+（1）应用型自考就是小自考，是学校开放对外招收的，只需统考3-6科，其他的9-12科都是过程性校考，学员把学习的重心放在统考科目上就行了，校考科目不需要学员花时间看书学习，一年考四次，较快可1年考完全部科目，1年9个月畢業！社会型自考也就是大自考，是全部科目12-14科都参加全国统考，一年两次考试机会，全靠学员自学通过考试！考试通过才能申请畢業，通过率低，能畢業的学员基本都需要3-5年！
+（2）参加应用行自考的学生必须参加主考院校的助学才可以报考，学生在全面系统的教学辅导下循序渐进，通过率得到保證，通过系统学习又能真正掌握知识，因此以通过率高、畢業时间短、文凭含金量高等特点受到社会、用人单位和考生的广泛好评，保證了畢業生质量。全程有班主任代班，不会出现学员报考后没有老师管理的情况，社会性大自考学员可自行到官网注册考籍，然后自己报考即可！
+应用型小自考相较于社会性大自考减少了统考科目，降低了考试难度，增加了考试机会，缩短了畢業时间，可以让学员快速通过考试申请畢業，对于很多想要快点畢業的学员来说，小自考是最好的选择，且大小自考学历的含金量是一样的，畢業并不会区分大小自考，学信网也不会区分，所以同学们可以放心报考！
+四川现在可报考学校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的过程性校考，可早一些畢業！学费低至2800元/年，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+畢業获颁由学校跟自考办联合颁发的国家认可学信网可查的正规畢業书，自考学历含金量高，畢業时间灵活，报名即签订保障学员权益的协议，学员可放心报考~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川成人学历是正规学历吗？学信网可查吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川成人学历有什么作用？成人学历是学校正规招收的学历吗？
+很多考生对于成人学历有误区，认为成人学历不是正规学历企业不会认可？成人学历到底是主要针对哪些学员开设的呢？
+首先成人学历是学校坚持继续教育以安全稳定为前提、规范办学为基础、服务学生为根本“三位一体”的发展思路，继续教育各类在籍学生总体规模稳步增长。50多年来为社会共输送成人高等学历教育畢業生数十万人，为社会各界输送自考畢業生近六万人。历经半个多世纪的不断发展、创新，在专业建设、培养模式、教学计划、教学管理、学生管理、办学条件、校外站点监管等方面均形成了自身的特色并取得了一定的成绩。主要是针对社会在职人员需要提升学历的情况，提高全民教育水平。
+所以成人学历是学校正规招收的学历，畢業学信网可查学籍，考生可以放心报考！  
+成人学历主要分为四种:自考、成教、网教、电大，含金量也是按这个顺序排列的，自考含金量最高，其次是成教，网教跟电大，这四种学历都是学校正规开展的学历形式，畢業学信网终身可查，学员报考时可仔细甄别，学信网不可查的学历千万不要报考！考生报考时可根据自身学习能力及工作情况来选择报考的学历形式。
+李老师简单为大家分析一下：
+自考是含金量最高的，只需统考3-6科，其他9-12科为过程性校考，统考科目是必须学员看书学习然后参加考试的，自考是要求全部科目考试通过才能申请畢業的学历形式，一年考四次，较快可1年考完全部科目，1.5年畢業，畢業时间灵活，含金量高，现在报考可参加12月底的过程性校考，早半年畢業！
+成教是成人高等教育，需要参加入学考试，入学考试即成人高考，成教报名一年只有一次，每年的八九月份报名，成教录取分数线低，还有相应的加分政策，学制2.5年畢業，成教只要录取后期末考试都很简单，对于工作比较繁忙还要提升学历的学员来说，成教是个不错的选择。
+网教、电大都是通过网络远程教育，学制2.5年畢業，考试简单，学员不需要花费太多精力！
+可报考院校：
+四川师范大学、成都理工大学、西南财经大学、西南石油大学、国家开放大学等，现在可报考专业齐全，相关详情可加李老师咨询~
+畢業获颁由学校颁发的国家认可学信网终身可查的正规学历，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路成功银玺国际2810
+电话：199 8120 3720（微信同号）          扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报名流程 可以自己在网站报名吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川师范大学自考学历是什么性质？跟统招学历有什么区别？
+四川师范大学开设的自考学历，主要针对学校需要专升本以及校外在职人员提升学历，学历分为统招全日制以及成人学历，自考学历成人学历里面含金量最高的，性质是业余，通过业余时间学习，自考是学历形式里面除了统招学历以外含金量最高的学历形式！现在可报考专业齐全，招收高起专，专升本学员！
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦~
+考试科目：
+统考：3-6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+电话：199 8120 3720（微信同号）      QQ：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川小自考艺术类专业学费大概多少 考几科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川小自考艺术类专业有哪些学校可以报考？考试难吗？
+成都理工大学现开放对外招收小自考艺术类专业，自考学历含金量高，且艺术类专业统考科目较少，只需统考4科，考试难度较低，很多想要快速畢業的学员可以考虑选择报考小自考艺术类专业！
+成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
+专业介绍：
+艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
+考试科目：
+统考：4科          校考：9-14科（校考过程性考试）
+自考畢業时间灵活，较快1年考完全部科目，1.5年拿畢業书！畢業获颁由自考办和成都理工大学联合颁发的畢業书！
+学历国家认可学信网终身可查！现在报名可参加12月底校考，可早半年畢業！
+学费低至2700元/年（按两年收取）包含教材资料，现在报名可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+咨询方式：李老师
+</t>
+  </si>
+  <si>
+    <t>四川大自考考到一半可以报小自考吗 成绩还有效吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
+很多报名参加大自考的学员，考试没通过，但是又想拿畢業怎么办？
+大自考是需要全部科目16-18科全部参加国家统考，考试难度高，并且一年只有两次考试机会，畢業时间较长，这时候想报小自考行不行呢？
+大自考考不过的学员是可以报小自考的，大自考考过的科目可转免kao，小自考只需统考6科，个别科目只需统考三科，其他均为校考（校考是学校自己组织，过程性考试）并且统考科目会有视频课件给学员日常学习，考前还会安排面授，也会有押题资料。小自考大大降低了考试难度，并且小自考与大自考的畢業书含金量是完全一样的，畢業也不区分大小自考。小自考考试时间比大自考增加了两次，一年有四次考试机会，较快1年考完全部科目，1.5年那畢業书！大大缩短了学员畢業时间！想要快速畢業拿證的学员可选择报考自考！
+大自考转小自考，只需要学员提供身份證扫描件以及2寸蓝底證件照，其他相关的转免考手续后续会有班主任辅助学员完成，学员只需根据班主任通知配合处理即可！
+现在可报考学校：
+四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
+学费低至2700元/年（按两年收取），现可报考专业齐全，现在报名还可申请领取200元-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川报小自考选择哪个机构比较靠谱 学费比较划算</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
+首先，小自考报名是可以在学校报也可以选在在校外的机构报名，但是首先要甄别校外机构是否是学校签约授权的教学点，如果是学校授权招生的教学点，那么就可以放心报考。
+很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
+校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
+本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿畢業，自考是成人学历里面含金量较高的一种学历形式，畢業时间灵活，考完即可申请畢業~
+报名地址：成都市成华区建设路银玺国际2810号
+更多咨询方式：李老师
+~</t>
+  </si>
+  <si>
+    <t>四川小自考学习形式是怎样的 报名后多久畢業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                                四川小自考报考后该怎么学习？统考难不难？
+想要自考小学教育专业的学员看过来，李老师为你解答你的疑问，首先自考小学教育专业到底难不难？
+小学教育专业是文科类专业，主要靠记忆，考试科目难度都不高！统考6科，校考10科；
+统考考试科目为：
+计算机应用基础，教育学（二）、中小学教育管理、心理卫生和心理辅导、课程与教学论、教育心理学。
+校考全部是由学校自己组织的过程性考试，学员只需参加考试配合学校处理，学员的主要重心放在统考科目上，考试60分及格便可，学校还有录制的收费课件给到学员，统考科目考试前会安排面授，也有相应的押题资料，帮助学员能尽快通过考试，能顺利领取畢業书！
+其次是自考小学教育专业多久能拿到畢業书？
+自考是所有考试科目考完即可申请畢業，畢業时间灵活，每年有4次考试机会，两次校考，两次统考，校考一次较多报4-6科，统考2-4科，学员较快可1.5年考完全部考试科目，一年九个月领取畢業书！
+畢業书是由自考办和学校联合颁发的国家认可学信网可查的正规畢業书！
+自考畢業书也是成人学历里面含金量较高的！可以考教师资格證，也可以参加教师公招！
+怎么报名？
+现四川师范大学，西华师范大学正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+咨询方式：李老师
+~
+</t>
+  </si>
+  <si>
+    <t>中央电大一年制成人中专报考专业有哪些 多久能拿畢業</t>
+  </si>
+  <si>
+    <t>咨询人：李老师        
+中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
+一、招生专业
+建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
+以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿畢業书！
+二、招生对象
+应往届初中畢業生、高中畢業生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！三、招生时间
+每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
+四、学习方式
+线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
+学历證书可在中央广播电视中等专业学校的官网上查询并验證，如有需要可以生成学历證书在线验證报告。
+学费：1480元（全包）
+报名地址：成都市成华区建设路银玺国际2810-2811号
+详情咨询李老师~
+电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川自考学历可以申请学位證书吗？满足哪些条件？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师        四川自考的学位英语考试难不难？考过就可以拿学位證书？
+四川自考申请学位證书必须满足以下三个条件：
+四川小自考畢業后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
+一、基本要求：
+①本科畢業生均应在获得本科畢業生證书后两年内提出申请，未通过者不再补授学士学位；畢業两年内必须申请，超过两年就不能再申请了。
+②自考本科畢業生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、畢業论文或畢業设计以及其他畢業实践环节）；
+③通过省学位办组织的外国语考试并获得合格證书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
+满足以上三个条件才能申请学士学位，缺一不可，其中最难的主要是学位英语考试，学位英语考试是全国统考，每年3月份报考，难度在英语3级不到4级的程度，需要同学们看书学习，才能通过！
+四川小自考现在可报考的院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学今年可以报小自考吗 报名地址在哪里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川师范大学有小自考吗？小自考学历是不是只有四川才认可？
+四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+四川师范大学现可报名专业：
+专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
+本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
+考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至3000+/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名即可签订协议保障学员权益！现在报名可参加12月校考！校考一次可考4-6科，可以早半年畢業！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面最高的！单位认可度高，如果是想用畢業来找工作的话建议考小自考，工作竞争优势偏大点！且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考！
+小自考学历是学校正规开设的学历，畢業获颁由学校和自考办联合颁发的正规学历，学信网终身可查，很多大自考机构宣传的小自考学历出省不认可这种情况是不真实的，只要是学信网可查的学历都是全国认可的！所以同学们可以放心报考！
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考畢業时间是多久 怎么报名</t>
+  </si>
+  <si>
+    <t>咨询人：李老师        2020年四川小自考报名时间是多久？1.5年真的能畢業吗？
+四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在秋季招生，现在报名的学生可参加12月底的校考，校考可以参加4-6科的考试，想要报名的学员可以抓紧时间咨询相关信息~
+小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿畢業书，是所有学历形式里面能最快畢業的学历，且自考含金量高，含金量仅次于统招全日制学历，畢業时间灵活，所有考试科目通过即可申请畢業！
+小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
+现在可报考院校：
+四川师范大学、成都理工大学、西南财经大学、西南石油大学等省内重点大学，学费低至2800元/年，学费按两年收取，现在报名可申请助学补贴，名额有限，想要报考的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）         扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川报二建没有学历怎么办 怎样能快点畢業</t>
+  </si>
+  <si>
+    <t>咨询人：李老师      
+中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格證书教育和岗位培训提供教学服务。
+中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿畢業书，对于很多想要考證的学员来说，一年制中专都是很好的选择！
+现在可报考专业：
+建筑工程施工（报考二建必备的专业）
+会计（可报考初级会计师）
+机电技术应用（可报考二建，初级工程师）
+电气技术应用（可报初级工程师）
+建筑设备安装（报考二建）
+电子商务
+市场营销
+老年服务与管理等专业，现在可报考专业齐全，想要报考的学员可加李老师咨询哦~
+学费：1480元（全包，学员不用参加考试，直接学制修够畢業就可以了）
+报名地址：成都市成华区建设路成功银玺国际2810号
+咨询人：李老师  电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报考专业表在哪里找 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川师范大学小自考有哪些专业？现在还可以报名考试吗？
+很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年畢業，自考畢業时间灵活，现在四川师范大学小自考正在秋季报名注册中，现在报考可参加12月的校考，想要报名的同学们可咨询李老师~
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦，自考学历含金量高，相关专业考试科目可加李老师详细咨询~
+考试科目：
+统考：3-6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3600元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+电话：199 8120 3720（微信同号）      QQ：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川大自考可以转小自考吗 小自考为什么只有四川才有</t>
+  </si>
+  <si>
+    <t>咨询人：李老师      大自考可以转小自考吗？小自考只有四川才有吗？
+2019年四川自考报考考生突破250000+，创历年新高，为什么这么多同学要报自考呢？自考这种学历形式到底难不难？多久能畢業呢？
+李老师为大家分析解答一下：
+高等教育自学考试（Self-taught higher education examinations），简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。是通过自学然后参加考试，考试通过即可申请畢業，对学员的自学能力以及自觉性有较高的要求！
+很多考生只清楚大自考，大自考学员可自行在网上注册，没有学费，但是考试难度大，需要统考十多科，一年只有两次考试机会，通过率非常低，对于很多已经工作的考生老说，想要全部参加统考并且考过试特别难的，很多考生考到一半会觉得太难，想要转成小自考，那么大自考可以转小自考吗？
+大自考是可以转小自考的，小自考也就是应用型自考，只需要统考3-6科，比大自考的统考科目少了8-10科，大大降低了考生的难度，其他的9-12科都是过程性校考，学员的学习以及考试难度主要集中在统考科目上，并且每年增加了两次校考机会，可以一年考四次，较快的话可以1年考完全部科目，1.5年畢業，小自考降低了考试难度，缩短了畢業时间，小自考报名跟大自考有区别，大自考是学员自己注册，小自考是需要交资料给老师，由学校教务老师电子端口统一注册，现在小自考正在秋季报名注册中，现在报考可参加12月底的校考，想要报考的学员可加李老师咨询~
+已经报考过大自考的学员是可以直接注册小自考的，只需要把资料交给相应的报名点，如果大自考有考过的科目，在小自考的统考范围内，是可以转免考的，只需要学员到之前报考大自考的自考办打印之前考过的成绩单即可！自考学历形势比较特殊，虽然学校收取学费都是按两年收取，但是他没有学制要求，只要你的考试科目全部通过就可以申请畢業，畢業时间灵活，且自考学历含金量高，所以每年报考的考生才会特别多！
+现在可报考学校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报名还可申请助学补贴，名额有限，想要报考的学员可咨询李老师~
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考教育类专业报哪个学校比较好 学费贵吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川师范大学教育类小自考专本科招生中
+四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+四川师范大学现可报名专业：
+专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
+本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
+考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至3600/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名即可签订协议保障学员权益！现在报名可参加12月过程性校考！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面最高的！单位认可度高，如果是想用畢業来找工作的话建议考小自考，工作竞争优势偏大点！且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考！四川师范大学作为省内最好的师范类院校，每年报考该校的教育类专业的考生特别多，其中小学教育，学前教育，美术教育都是每年报考的热门专业，在四川的考生想要报考教育类专业首选四川师范大学！
+报名时间：正在报名注册中，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川小自考最近一次报名时间是多久 报名后多久毕业</t>
+  </si>
+  <si>
+    <t>咨询人：李老师      四川小自考较快多久畢業？现在报名参加几月份考试？
+小自考也就是应用型自考，是学校开设招生的学历形式，自考顾名思义就是通过自学，把所有考试科目通过，自考的学历形式比较特殊，他畢業时间比较灵活，什么时候考试科目通过什么时候就可以申请畢業，较快可以1年考完全部科目，1.5年畢業，那么自考到底难不难呢？要考多少科呢？
+小自考只需要统考3-6科，统考科目是需要看书学习的，其他的9-12科校考为学校组织的过程性考试，学院只需到场配合学校处理，学员把学习重心放在统考科目上即可，其他的只需根据班主任通知配合走流程，很多报考小自考的学员会有个迷思，觉得小自考是不是可以包过的，这里李老师回复大家，小自考不是包过的，统考科目都是需要学员看书硬考的，试问全国统考如果都可以包过的话，这种学历形式含金量会高吗？自考本身就是含金量仅次于统招全日制学历，所以其含金量高，必然会有一些考试科目需要统考！所以千万不要再问李老师自考是不是包过，但是报考的同学们也不用担心自考会太难，统考科目都是考的基础，学员但凡花了时间看书学习都是能通过的，现在报考可参加4月统考，可报考专业齐全，更多专业详情可加李老师咨询~
+现在可报考院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，学费低至2800元/年，学费按两年收取，学费包含教材资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年国家开放大学多久开始报名 什么时候截止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      
+国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>报小自考有哪些专业比较好考 考过的推荐一下</t>
   </si>
   <si>
     <r>
@@ -1480,8 +1859,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                    四川毕业证怎么区分大小自考？小自考会不会单位不认可？
-1.自考是成人学历中含金量较高的，所以难度也是相对</t>
+      <t>咨询人：李老师      四川小自考不知道报考哪个专业？简单易过的专业有哪些？
+自</t>
     </r>
     <r>
       <rPr>
@@ -1499,739 +1878,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
-2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
-大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
-3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
-现在可报考院校：
-四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
-四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
-详情咨询李老师~
-</t>
-    </r>
-  </si>
-  <si>
-    <t>四川师范大学有小自考吗？怎么报名？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学小自考只针对校内招生吗？在职人员可以报考吗？
-很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年毕业，想要报名的学员可咨询李老师~
-学校简介：
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦~
-考试科目：
-统考：6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>四川要考公务员报哪个专业比较好？自考学历有用吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考毕业证书可以考公务员吗？哪些专业适合考公务员？
-据官方数据公布，2019年国家公务员考试计划招考14537人，众所周知，公务员考试最低学历要求为本科，本次招考，本科学历岗位共8553个，研究生学历岗位有1094个，所有本科学历岗位，自考本科毕业生均可报考！在招考的9657个岗位中，专业主要分为五大类：管理类、法学类、财务类、文秘类、文学类
-小自考是学校正规开展招生的成人学历，学历含金量高，学信网可查，毕业时间灵活，较快1.5年毕业，非常适合想要今早毕业拿证的学员，那么哪些专业比较适合报考公务员呢？李老师为大家推荐适合报考公务员的五大热门专业：
-1、法学：
-招考岗位：1922个  
-2、汉语言文学
-招考岗位：1715个
-3、工商管理
-招考岗位：1689个
-4、行政管理
-招考岗位：1347个
-5、会计学
-招考岗位：516个
-以上为公务员招考岗位最多的五大专业，学员可根据自身情况选择专业报考，这五大类专业也是每年报考的热门专业，通过率高！
-考试科目：
-统考：6科           校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-现在可报考院校：
-四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学
-学费低至2800元/年（按两年收取）包含全套教材资料，视频课件，面授课程，更有班主任全程一对一带班！现在报名可申请400-600元的助学补贴，名额有限，详情速速咨询李老师
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>四川小自考建筑经济管理专业考哪些科目？学费贵吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考建筑经济管理专业考试科目有多少科？多久毕业？
-学校简介：
-成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的中国历史文化名城——成都，由四川省人民政府和中华人民共和国国土资源部共建，入选中国“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”、“四川2011计划”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料、电子、机械、信息科学、管理科学等学科专业为特色的省属重点大学。
-成都理工大学先开放对外招收自考建筑经济管理专业的同学，本专业培养从事建筑工程预算、工程招标投标 、建筑工程施工与组织管理工作的应用型、复合型工程技术人才。该专业就业前景好，适用于政府部门、设计院、会计师事务所、工程建设咨询(顾问)公司、工程经济咨询机构、工程监理单位、工商企业从事生产、经营、服务等管理系统的规划、设计、技术经济、监理、咨询、评估、项目管理等工作。是每年报考的热门专业！
-考试安排：
-小自考分为统考+校考，统考根据专业不同，大多在6科左右；校考由我们助学点组织，考试地点统一安排在成都；学员的学习重心主要放在统考科目上，考生按照我们提供的学习资料系统地复习，通过率都很高！
-那么建筑经济管理专业具体考哪些科目呢？
-建筑工程专业统考科目有：工程地质及土力学、建筑设备、建筑经济与企业管理、流体力学、高层建筑结构设计、房屋建筑概论（共6科）
-校考科目：
-中国近代史纲要、马克思主义基本原理概论、物理（工）、物理（工）（实践）、概率论与数理统计（二）、线性代数、计算机基础与程序设计、结构力学（二）、混凝土结构设计、建筑结构试验。校考均为过程性考试，学员只需到场配合学校处理即可。
-自考是只要学员全部考试科目考试通过即可申请毕业，一年考四次，学员最快可1年考完，1年半毕业，1年9个月拿毕业证书！学员普遍毕业时间为2年，自考学历含金量高，社会认可度高！
-学费低至2800元/年（按两年收取），学费包含教材资料、视频课件，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-学校授权的教学点，报名即签订保障学员权益的协议书，学员可放心报考！
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>2020年国家开放大学春季报名注册中 专业齐全 四川报名入口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川电大学历找工作有用吗？国家开放大学就是电大吗？
-学校简介：
-国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
-国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
-毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>想报川师大自考 在哪里报名比较便宜 学费大概多少？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校简介：
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦~川师开设的专业基本都是文科专业，所以通过率较高，同学们在其他地方报考过小自考的，是可以重新报考其他学校跟专业的，只需要你到之前报考的学校退学籍即可！
-考试科目：
-统考：6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>四川二建报名条件不够怎么办？成人中专多少钱？</t>
-  </si>
-  <si>
-    <t>中央广播电视中等专业学校是什么学校？学校是正规的吗？
-学校简介：
-中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
-学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，毕业可在线验证学历真实性，学制1年，实际毕业时间为7-10个月，学员毕业后可用于考幼师，二建，当兵等，现在执业资格证书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避免考试通过后拿不到证书的风险！
-中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取毕业证书！学费低至1480元，全包，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~</t>
-  </si>
-  <si>
-    <t>四川小自考报名多久截止 一年几次报名机会？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020年四川小自考报名时间多久开始？报名多久截至？
-自考一年有几次注册时间？
-四川自学考试每年有四次注册时间，球季注册是现在正在报名，现在报名可参加4月统考！可以选择报考2-4科，可以早半年毕业！要报考的学员可安排好时间准备考试了哦~
-自考多久能毕业？学费多少？报考院校有哪些呢？
-自考的学历形式比较特殊，没有具体的学制要求，学员全部科目考试通过即可申请毕业，一年四次考试机会，较快1年可考完全部科目，1.5年毕业！普遍学员的毕业时间是两年左右，小自考可报考专业齐全，只需统考3-6科，其他9-12科都是过程性校考，学员的学习重心只需要放在统考科目上即可！
-可报考院校：
-四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学，学费地址2700/年（按两年收取），学费包含教材资料，大专业学校还会开设视频课程，也会有押题资料，帮助学员顺利通过考试，想要报考的学员要抓紧时间联系李老师咨询哦~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>四川师范大学成人可以报吗？学费贵吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校简介：
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-高中毕业工作后想要拿大学毕业证书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请毕业，毕业后由四川师范大学颁发正规合法的毕业证书，学信网可查，社会认可度高！
-现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
-报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
-学费：
-成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
-自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年毕业！
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>020年成都理工大学小自考报名入口 报考专业齐全</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">学校简介：
-成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
-专业介绍：
-人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
-成都理工大学现招收自考人力资源管理专、本科学员，名额有限，需要的需要抓紧时间联系李老师报名哦~
-就业前景：
-企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科毕业生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
-考试科目：
-统考：6科 校考：9-12科（由学校组织，过程性考试）
-学费：2700元/年（按两年收取）学费包含教材资料以及视频在线课程！
-考试时间：
-统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考专业表 现在还可以报名吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
-四川师范学院现招收自考专本科学员，名校招生，名额有限，自考报名时间在9月底截止，需要报名的学员要抓紧时间报名哦！
-可报考专业：
-专科：
-法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作、市场营销
-本科：
-法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作、公共事业管理
-自考报考对象：
-1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
-2．专科招收应、往届高中毕业生(含职高、中专、技校生)及以上文化程度者；
-3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历毕业证的考生(在校专、本科学生在办理本科毕业证书时必须出具专、本科毕业证书，无专、本科毕业证书不能办理本科毕业证书)。
-简单一句话，只要你年满17岁都可报考！
-统考6科（闭卷）+校考9-12科左右（过程性考试）
-考试时间：统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名地址:成都市成华区建设路银玺国际2810号
-详情可咨询李老师~
-</t>
-  </si>
-  <si>
-    <t>四川成人学历报名入口 省内重点大学开放端口注册</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川找工作没有学历怎么办？成人学历可以升职加薪吗？想要入职好工作，学历不够怎么办？
-很多找工作的小伙伴应该能了解，现在企事业单位对学历的要求都是越来越高了，连链家的销售竟然都要求本科学历了，国企就更不用说了，至少本科学历，那么学历不高但是想找个好工作该怎么办呢？
-下面李老师就跟大家讲解一下成人获得学历的几种方式，成人学历分为自考，成教，网教，电大四大类型；其中含金量较高的是自考，依次为成交，网教，电大。
-1，自考，就是通过学员自己学习然后参加考试，考试科目为16-18科，考过即可申请毕业（60分即合格），没有时间限制，没有年龄限制，含金量高，但是需要学员花一定时间学习。
-2，成教，需要参加一年一次的成人高考，考试通过即可被学校录取，学制2.5年，读满即可毕业。很多学员一听需要参加成人高考，都会误以为考试难度高，其实不然，成人高考是面向成人举办的考试，考试难度低，录取分数线低，450分满分，专科录取分数线在120分，本科105~155分，还有相关的加分政策，所以报考学员完全不用担心，成教成人高考通过后后期考试简单，不耽误学员时间。
-3，网教，网教又称远程教育，是通过网络学习，然后参加考试，主办院校都是省内985，211的重点大学，学制2.5年。
-4，电大，即成都广播电视大学，学制2.5年，免试入学，是比较轻松毕业的学历形式！
-无论你是初中或高中学历想升专科或本科，或是专升本，不限年龄，不限学历，都可以拿到名牌大学本科毕业证书！
-现招收院校：
-四川师范大学/西南石油大学/西华师范大学/成都理工大学/西南科技大学/西南财经大学/川北医学院/电子科技大学等。
-成教报名只需交100元报名费，12月学校录取后再交学费！
-报名时间：
-现自考/成教正在火热报名中，名额有限，错过需等明年才能报名，想要报名费学员抓紧时间联系李老师咨询~
-地址：成都市成华区建设路成功银玺国际2810号
-</t>
-  </si>
-  <si>
-    <t>四川小自考报名后多久能毕业？学费多少？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考一年考几次？考试难不难？学费贵吗？什么是自考?过程怎么样? 
-自考属于成人学历中含??金量较高的,学信网终身可以查询,社会认可度较高的学历。相比成教,网教,电大等学历,它的考试周期短,考试安排灵活,考完即可毕业。自考包含统考和校考,统考一般3-6门左右,由国家统一组织考试,校考则是学校组织的过程性考试。每年4、10为统考,12月、6月为校考，学员较快1年可考完全部科目，1.5年毕业！
-1、问:两年期满,有的课程仍未合格怎么办?? 
-答:两年期满对于那些仍未考试合格的考生,可继续参加相应课程的考试,在所有课程考试合格后申请自学考试本科毕业证书。 
-2、问:如何本科:申请学士学位? 
-答:自考本科毕业生,符合条件者可授予学士学位。条件主要为:各科成绩平均分达65分以上,通过四川省学位办组织或认定的学士学位外国语水平考试,符合授位条件者由参考大学颁发学士学位证书。
-自学考试本科在籍考生(指将毕业的考生)或取得自学考试本科毕证书的考生可以报考研究生或公务员。 
-3、问:学位外语如何报考?? 
-答:学位外语考试每年一次,报名时间一般在每年的3月份,考试时间一般在次年的4月份.
-4、问:报考本科专业是否可与专科专业不同?? 
-答:可以在学院开设专业内自由选择,一旦注册成功后不得修改专业。 
-报名需要交哪些资料呢？
-身份证正反面照片或者扫描件 
-两寸蓝底电子档照片
-现在可报考院校:
-四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学的名校,现在可报考专业齐全，更多专业详情可加李老师。
-学费:根据学校专业不同,学费在2500元/年-3700元/年,按两年收取(包含教材资料、在线教学课程)，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址:成都市成华区建设路银玺国际2810号
-详情可咨询李老师~
-电话:199 8120 3720（微信同号）      QQ:1916 3720 47</t>
-  </si>
-  <si>
-    <t>成人想要报考四川师范大学该怎么报考？大概要花多少钱？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-高中毕业工作后想要拿大学毕业证书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请毕业，毕业后由四川师范大学颁发正规合法的毕业证书，学信网可查，社会认可度高！
-现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
-报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
-学费：
-成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
-自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年毕业！
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>2020年四川小自考春季招生中 报名即参加4月考试</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川在哪里报名小自考？小自考现在报名多久考试呢？
-在四川的同学们，在报考自考时，都会疑惑四川小自考在哪里报名呢？成都报名点在哪里？现在报名多久考试呢？
-下面李老师为大家讲解下，报考自考的流程以及注意事项：
-首先小自考是学校开设的正规学历，比大自考简单一些，只需要统考3-6科，其他的9-12科都是过程性校考，校考是学校组织监考的过程性考试，学员只需把学习重心放在统考科目上即可，统考科目大专业学校会开始视频课程，学员可登陆app个人学习，考前集中刷题，帮助学员顺利通过考试！
-小自考一年有两次注册机会，分别是上半年3-5月，下半年9-11月，学校招生名额招满截止，现在报考的同学们都是参加4月统考，小自考一年有四次考试机会，最快1年可考完全部科目，1.5年毕业！学员普遍毕业时间是是2年左右！对于很多想要快速拿到学历证书的学员，小自考是可以最快时间毕业的学历形式！
-四川小自考在哪里报名呢？怎么报考呢？学员可以自己报考吗？
-小自考是学校开设的学历形式，学员是不能够自己注册的，是需要交资料给老师，老师给学员注册的，注册考籍后学员可根据班主任老师的通知进行报考，然后参加考试，现在报名可参加12月底的校考，可早半年毕业！
-本处为小自考报名点，可报考学校有四川师范大学，成都理工大学，西南石油大学，西南财经大学等名校，学费低至2700元/年（学费按两年收取）现在可报考专业齐全，详情可加李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720 （微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历报考条件是什么？有年龄限制吗？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                                我国现行成人学历有哪些形式：统招、自考、成教、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">网教、电大
-1. 什么是自考
-自学考试，1981年经国务院批准创立，是对社会人员以学历考试为主的高等教育国家考试。是个人自学、社会助学和国家考试相结合的高等教育形式。
-通过国家考试促进广泛的个人自学和社会助学活动，贯彻宪法鼓励自学成材的有关规定，造就和选拔德才兼备的专门人才，提高全民族的思想道德素质和科学文化素质，以适应社会主义现代化建设的需要。 经过系统的学习后，通过毕业论文答辩、学位英语考核达到规定成绩，符合学位申请条件的，可申请授予成人学士学位，并可继续攻读硕士学位和博士学位。
-2. 自考的特点
-自考没有学历限制，每个人都可以报考，你可以先从专科开始，或者没有专科证也可以先参加自考本科的考试，就是将来在申请本科时要先出示专科毕业证，所以就要先考一个专科毕业证并且在本科前毕业,这是自考的硬性规定。
-自考没有学制限制，自考专科一般有16门，本科有18门，只要你一门一门全部通过就能办理毕业，二年考完二年毕业，十年考完十年毕业。所以这也使很多想要早点毕业的考生，尤其是没时间复习或基础差的考生愿意去依靠培训班，帮助自己顺利通过考试，尽早考完尽早毕业。
-3.大自考和小自考的区别
-大自考就是自己去自考办报名，选择要报读的学校和专业，每期自行在自学考试网报名，每科都需要参加全国统考，对学员的学习能力要求高，难度大，通过率低一些，一年考试两次 4月和10月；
-小自考就是通过培训机构报名，选择要报读的学校和专业，需要参加统考的科目有4-8科，其余科目由学校安排（校考），其中英语统考可以用三科校考科目成绩代替，培训机构会提前提醒你复习、报考，为你准备复习资料，小自考相对难度较低，通过率较高，一年考试4次 4月和10月统考 7月和1月校考。
-4.在四川可以报读的自考院校
-四川可以报自考的学校：成都工业学院、四川师范大学、西南石油大学、西南财经大学、西华师范大学、绵阳师范学员、西南交通大学、电子科技大学、西南科技大学、四川工商学院等。（自考报名后大部分考试都会就近安排，所以不用担心学校的问题）
-5. 自考可选择的专业
-教育类：学前教育、小学教育、汉语言文学、美术教育、音乐教育、英语教育、科学教育等
-建筑类：建筑经济管理、工程造价、交通土建工程、建筑工程管理、建筑施工技术管理等
-其他热门专业：交通运营管理、会计、法律、护理、行政管理、工商管理、人力资源管理、市场营销、汉语言文学、法学、工商企业管理、人力资源管理、公共事业管理、等等
-6. 自考的学制以及考试时间
-自考学籍：2年（最快1.5年）
-自考流程：
-1、提交资料（2寸蓝底照片电子版标准电子版、身份证复印件正反面电子版）
-2、注册学籍：四川一年有两次注册机会
-3、每年（4、10）月参加统考科目，（7、1）月参加校考科目，统考科目基本两次可以考完。
-注：大部分专业只有6科统考科目，除开美术教育、艺术设计等专业。校考是学校组织的，像期末考试一样简单，所以报考的学生不用担心
-自考学费：
-学费低至2700元/年（按两年收取），学费包含教材资料，现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-    </r>
-  </si>
-  <si>
-    <t>中央广播电视大学有开设成人中专吗？学历是正规的吗？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-中央广播电视大学有哪些中专专业？多久毕业？
-中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
-学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，毕业可在线验证学历真实性，学制1年，实际毕业时间为7-10个月，学员毕业后可用于考幼师，二建，当兵等，现在执业资格证书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避**试通过后拿不到证书的风险！
-中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取毕业证书！
-学费低至1480元，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考学校不同含金量一样吗？考试科目也是一样吗？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考学费大概多少？报考学校有没有区别？
-四川小自考的学费大致在5000-8000元左右不等，不同学校的收费标准是不同的，学员可以根据自身情况来选择报考的院校及专业，现在可报考专业齐全，详情可加李老师咨询~
-川内现在可报考院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，早半年毕业！四川2019年报考自考的学员已经突破25万，同学们，想要获得自己想要的生活是需要通过自己努力的，趁年轻多提升自己，现在报考还可申请200-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
-小自考的学历形式比较特殊，没有明确的学制要求，同学们报考的专业所对应的考试科目，全部考过即可申请毕业，一般是3-6科统考，9-12科校考，统考是需要学员认真看书学习然后参加考试的，校考为过程性考试，学员只需把学习重心放在统考科目上即可，每年四次考试机会，6月跟12月是校考，4月跟10月是统考，较快可1年考完全部科目，1.5年毕业！自考也是所有学历形式里面能最快毕业的学历形式！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川自考学历申请学位证书怎么怎么申请？怎么走流程？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考毕业有学位证书吗？申请学士学位有哪些条件？
-四川小自考毕业后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
-一、基本要求：
-①本科毕业生均应在获得本科毕业生证书后两年内提出申请，未通过者不再补授学士学位；毕业两年内必须申请，超过两年就不能再申请了。
-②自考本科毕业生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、毕业论文或毕业设计以及其他毕业实践环节）；
-③通过省学位办组织的外国语考试并获得合格证书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
-满足以上三点要求，就可以申请学士学位证书！
-二、申报时须提供的材料
-1、《四川省普通高等学校成教本科毕业生学士学位申请表》；
-2、本科毕业证书原件、复印件及本科学历证书电子注册备案表。
-具体申报时需要提供的资料班主任会单独通知，学员只需配合班主任准备资料即可！
-四川小自考现在可报考的院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加4月统考，可报考2-4科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考难度高吗？考过的多吗？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                              四川应用型自考跟社会性自考有什么区别？含金量一样吗？
-区别：
-（1）应用型自考就是小自考，是学校开放对外招收的，只需统考3-6科，其他的9-12科都是过程性校考，学员把学习的重心放在统考科目上就行了，校考科目不需要学员花时间看书学习，一年考四次，较快可1年考完全部科目，1年9个月毕业！社会型自考也就是大自考，是全部科目12-14科都参加全国统考，一年两次考试机会，全靠学员自学通过考试！考试通过才能申请毕业，通过率低，能毕业的学员基本都需要3-5年！
-（2）参加应用行自考的学生必须参加主考院校的助学才可以报考，学生在全面系统的教学辅导下循序渐进，通过率得到保证，通过系统学习又能真正掌握知识，因此以通过率高、毕业时间短、文凭含金量高等特点受到社会、用人单位和考生的广泛好评，保证了毕业生质量。全程有班主任代班，不会出现学员报考后没有老师管理的情况，社会性大自考学员可自行到官网注册考籍，然后自己报考即可！
-应用型小自考相较于社会性大自考减少了统考科目，降低了考试难度，增加了考试机会，缩短了毕业时间，可以让学员快速通过考试申请毕业，对于很多想要快点毕业的学员来说，小自考是最好的选择，且大小自考学历的含金量是一样的，毕业证并不会区分大小自考，学信网也不会区分，所以同学们可以放心报考！
-四川现在可报考学校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的过程性校考，可早一些毕业！学费低至2800元/年，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-毕业获颁由学校跟自考办联合颁发的国家认可学信网可查的正规毕业证书，自考学历含金量高，毕业时间灵活，报名即签订保障学员权益的协议，学员可放心报考~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历是正规学历吗？学信网可查吗？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川成人学历有什么作用？成人学历是学校正规招收的学历吗？
-很多考生对于成人学历有误区，认为成人学历不是正规学历企业不会认可？成人学历到底是主要针对哪些学员开设的呢？
-首先成人学历是学校坚持继续教育以安全稳定为前提、规范办学为基础、服务学生为根本“三位一体”的发展思路，继续教育各类在籍学生总体规模稳步增长。50多年来为社会共输送成人高等学历教育毕业生数十万人，为社会各界输送自考毕业生近六万人。历经半个多世纪的不断发展、创新，在专业建设、培养模式、教学计划、教学管理、学生管理、办学条件、校外站点监管等方面均形成了自身的特色并取得了一定的成绩。主要是针对社会在职人员需要提升学历的情况，提高全民教育水平。
-所以成人学历是学校正规招收的学历，毕业学信网可查学籍，考生可以放心报考！  
-成人学历主要分为四种:自考、成教、网教、电大，含金量也是按这个顺序排列的，自考含金量最高，其次是成教，网教跟电大，这四种学历都是学校正规开展的学历形式，毕业学信网终身可查，学员报考时可仔细甄别，学信网不可查的学历千万不要报考！考生报考时可根据自身学习能力及工作情况来选择报考的学历形式。
-李老师简单为大家分析一下：
-自考是含金量最高的，只需统考3-6科，其他9-12科为过程性校考，统考科目是必须学员看书学习然后参加考试的，自考是要求全部科目考试通过才能申请毕业的学历形式，一年考四次，较快可1年考完全部科目，1.5年毕业，毕业时间灵活，含金量高，现在报考可参加12月底的过程性校考，早半年毕业！
-成教是成人高等教育，需要参加入学考试，入学考试即成人高考，成教报名一年只有一次，每年的八九月份报名，成教录取分数线低，还有相应的加分政策，学制2.5年毕业，成教只要录取后期末考试都很简单，对于工作比较繁忙还要提升学历的学员来说，成教是个不错的选择。
-网教、电大都是通过网络远程教育，学制2.5年毕业，考试简单，学员不需要花费太多精力！
-可报考院校：
-四川师范大学、成都理工大学、西南财经大学、西南石油大学、国家开放大学等，现在可报考专业齐全，相关详情可加李老师咨询~
-毕业获颁由学校颁发的国家认可学信网终身可查的正规学历，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路成功银玺国际2810
-电话：199 8120 3720（微信同号）          扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学自考学费贵吗？有哪些专业？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川师范大学自考学历是什么性质？跟统招学历有什么区别？
-四川师范大学开设的自考学历，主要针对学校需要专升本以及校外在职人员提升学历，学历分为统招全日制以及成人学历，自考学历成人学历里面含金量最高的，性质是业余，通过业余时间学习，自考是学历形式里面除了统招学历以外含金量最高的学历形式！现在可报考专业齐全，招收高起专，专升本学员！
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦~
-考试科目：
-统考：3-6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川小自考艺术类专业对专业知识要求高吗？通过率如何？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川小自考艺术类专业有哪些学校可以报考？考试难吗？
-成都理工大学现开放对外招收小自考艺术类专业，自考学历含金量高，且艺术类专业统考科目较少，只需统考4科，考试难度较低，很多想要快速毕业的学员可以考虑选择报考小自考艺术类专业！
-成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
-专业介绍：
-艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
-考试科目：
-统考：4科          校考：9-14科（校考过程性考试）
-自考毕业时间灵活，较快1年考完全部科目，1.5年拿毕业证书！毕业获颁由自考办和成都理工大学联合颁发的毕业证书！
-学历国家认可学信网终身可查！现在报名可参加12月底校考，可早半年毕业！
-学费低至2700元/年（按两年收取）包含教材资料，现在报名可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川大自考难度太高可以转小自考吗？还需要交学费？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
-很多报名参加大自考的学员，考试没通过，但是又想拿毕业证怎么办？
-大自考是需要全部科目16-18科全部参加国家统考，考试难度高，并且一年只有两次考试机会，毕业时间较长，这时候想报小自考行不行呢？
-大自考考不过的学员是可以报小自考的，大自考考过的科目可转免kao，小自考只需统考6科，个别科目只需统考三科，其他均为校考（校考是学校自己组织，过程性考试）并且统考科目会有视频课件给学员日常学习，考前还会安排面授，也会有押题资料。小自考大大降低了考试难度，并且小自考与大自考的毕业证书含金量是完全一样的，毕业证也不区分大小自考。小自考考试时间比大自考增加了两次，一年有四次考试机会，较快1年考完全部科目，1.5年那毕业证书！大大缩短了学员毕业时间！想要快速毕业拿证的学员可选择报考自考！
-大自考转小自考，只需要学员提供身份证扫描件以及2寸蓝底证件照，其他相关的转免考手续后续会有班主任辅助学员完成，学员只需根据班主任通知配合处理即可！
-现在可报考学校：
-四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
-学费低至2700元/年（按两年收取），现可报考专业齐全，现在报名还可申请领取200元-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考报名在哪个机构比较好？学费性价比高？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
-首先，小自考报名是可以在学校报也可以选在在校外的机构报名，但是首先要甄别校外机构是否是学校签约授权的教学点，如果是学校授权招生的教学点，那么就可以放心报考。
-很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
-校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
-本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
-小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿毕业证，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，考完即可申请毕业~
-报名地址：成都市成华区建设路银玺国际2810号
-更多咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>小自考报名后怎么学习？需要在校上课吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                              四川小自考报考后该怎么学习？统考难不难？
-想要自考小学教育专业的学员看过来，李老师为你解答你的疑问，首先自考小学教育专业到底难不难？
-小学教育专业是文科类专业，主要靠记忆，考试科目难度都不高！统考6科，校考10科；
-统考考试科目为：
-计算机应用基础，教育学（二）、中小学教育管理、心理卫生和心理辅导、课程与教学论、教育心理学。
-校考全部是由学校自己组织的过程性考试，学员只需参加考试配合学校处理，学员的主要重心放在统考科目上，考试60分及格便可，学校还有录制的收费课件给到学员，统考科目考试前会安排面授，也有相应的押题资料，帮助学员能尽快通过考试，能顺利领取毕业证书！
-其次是自考小学教育专业多久能拿到毕业证书？
-自考是所有考试科目考完即可申请毕业，毕业时间灵活，每年有4次考试机会，两次校考，两次统考，校考一次较多报4-6科，统考2-4科，学员较快可1.5年考完全部考试科目，一年九个月领取毕业证书！
-毕业证书是由自考办和学校联合颁发的国家认可学信网可查的正规毕业证书！
-自考毕业证书也是成人学历里面含金量较高的！可以考教师资格证，也可以参加教师公招！
-怎么报名？
-现四川师范大学，西华师范大学正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-</t>
-  </si>
-  <si>
-    <t>一年制成人中专报名注册中，改革后1年才能毕业哦</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47      
-中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
-中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
-一、招生专业
-建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
-以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿毕业证书！
-二、招生对象
-应往届初中毕业生、高中毕业生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！三、招生时间
-每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
-四、学习方式
-线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
-学历证书可在中央广播电视中等专业学校的官网上查询并验证，如有需要可以生成学历证书在线验证报告。
-学费：1480元（全包）
-报名地址：成都市成华区建设路银玺国际2810-2811号
-详情咨询李老师~
-电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川自考学历可以申请学位证书吗？满足哪些条件？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47      四川自考的学位英语考试难不难？考过就可以拿学位证书？
-四川自考申请学位证书必须满足以下三个条件：
-四川小自考毕业后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
-一、基本要求：
-①本科毕业生均应在获得本科毕业生证书后两年内提出申请，未通过者不再补授学士学位；毕业两年内必须申请，超过两年就不能再申请了。
-②自考本科毕业生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、毕业论文或毕业设计以及其他毕业实践环节）；
-③通过省学位办组织的外国语考试并获得合格证书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
-满足以上三个条件才能申请学士学位，缺一不可，其中最难的主要是学位英语考试，学位英语考试是全国统考，每年3月份报考，难度在英语3级不到4级的程度，需要同学们看书学习，才能通过！
-四川小自考现在可报考的院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考学历跟大自考含金量一样吗？在哪里报名？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47                             四川师范大学有小自考吗？小自考学历是不是只有四川才认可？
-四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-四川师范大学现可报名专业：
-专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
-本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
-考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
-考试时间：统考在每年的4月、10月，校考在每年的7月、12月
-学费最低低至3000+/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加12月校考！校考一次可考4-6科，可以早半年毕业！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！
-小自考学历是学校正规开设的学历，毕业获颁由学校和自考办联合颁发的正规学历，学信网终身可查，很多大自考机构宣传的小自考学历出省不认可这种情况是不真实的，只要是学信网可查的学历都是全国认可的！所以同学们可以放心报考！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>2020年小自考是多久报名？报名后多久毕业？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47      2020年四川小自考报名时间是多久？1.5年真的能毕业吗？
-四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在秋季招生，现在报名的学生可参加12月底的校考，校考可以参加4-6科的考试，想要报名的学员可以抓紧时间咨询相关信息~
-小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿毕业证书，是所有学历形式里面能最快毕业的学历，且自考含金量高，含金量仅次于统招全日制学历，毕业时间灵活，所有考试科目通过即可申请毕业！
-小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
-现在可报考院校：
-四川师范大学、成都理工大学、西南财经大学、西南石油大学等省内重点大学，学费低至2800元/年，学费按两年收取，现在报名可申请助学补贴，名额有限，想要报考的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）         扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川二建报名条件 学历不符合怎么办？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    
-中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格证书教育和岗位培训提供教学服务。
-中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿毕业证书，对于很多想要考证的学员来说，一年制中专都是很好的选择！
-现在可报考专业：
-建筑工程施工（报考二建必备的专业）
-会计（可报考初级会计师）
-机电技术应用（可报考二建，初级工程师）
-电气技术应用（可报初级工程师）
-建筑设备安装（报考二建）
-电子商务
-市场营销
-老年服务与管理等专业，现在可报考专业齐全，想要报考的学员可加李老师咨询哦~
-学费：1480元（全包，学员不用参加考试，直接学制修够毕业就可以了）
-报名地址：成都市成华区建设路成功银玺国际2810号
-咨询人：李老师  电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考校考简单吗？真的不用看书？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川师范大学小自考有哪些专业？现在还可以报名考试吗？
-很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年毕业，自考毕业时间灵活，现在四川师范大学小自考正在秋季报名注册中，现在报考可参加12月的校考，想要报名的同学们可咨询李老师~
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦，自考学历含金量高，相关专业考试科目可加李老师详细咨询~
-考试科目：
-统考：3-6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3600元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>考过大自考可以换小自考吗？成都大自考怎么转小自考</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    大自考可以转小自考吗？小自考只有四川才有吗？
-2019年四川自考报考考生突破250000+，创历年新高，为什么这么多同学要报自考呢？自考这种学历形式到底难不难？多久能毕业呢？
-李老师为大家分析解答一下：
-高等教育自学考试（Self-taught higher education examinations），简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。是通过自学然后参加考试，考试通过即可申请毕业，对学员的自学能力以及自觉性有较高的要求！
-很多考生只清楚大自考，大自考学员可自行在网上注册，没有学费，但是考试难度大，需要统考十多科，一年只有两次考试机会，通过率非常低，对于很多已经工作的考生老说，想要全部参加统考并且考过试特别难的，很多考生考到一半会觉得太难，想要转成小自考，那么大自考可以转小自考吗？
-大自考是可以转小自考的，小自考也就是应用型自考，只需要统考3-6科，比大自考的统考科目少了8-10科，大大降低了考生的难度，其他的9-12科都是过程性校考，学员的学习以及考试难度主要集中在统考科目上，并且每年增加了两次校考机会，可以一年考四次，较快的话可以1年考完全部科目，1.5年毕业，小自考降低了考试难度，缩短了毕业时间，小自考报名跟大自考有区别，大自考是学员自己注册，小自考是需要交资料给老师，由学校教务老师电子端口统一注册，现在小自考正在秋季报名注册中，现在报考可参加12月底的校考，想要报考的学员可加李老师咨询~
-已经报考过大自考的学员是可以直接注册小自考的，只需要把资料交给相应的报名点，如果大自考有考过的科目，在小自考的统考范围内，是可以转免考的，只需要学员到之前报考大自考的自考办打印之前考过的成绩单即可！自考学历形势比较特殊，虽然学校收取学费都是按两年收取，但是他没有学制要求，只要你的考试科目全部通过就可以申请毕业，毕业时间灵活，且自考学历含金量高，所以每年报考的考生才会特别多！
-现在可报考学校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报名还可申请助学补贴，名额有限，想要报考的学员可咨询李老师~
-报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考教育类专业报名注册中 较快2年毕业</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川师范大学教育类小自考专本科招生中 报名参加12月校考
-四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-四川师范大学现可报名专业：
-专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
-本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
-考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
-考试时间：统考在每年的4月、10月，校考在每年的7月、12月
-学费最低低至3600/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加12月过程性校考！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！四川师范大学作为省内最好的师范类院校，每年报考该校的教育类专业的考生特别多，其中小学教育，学前教育，美术教育都是每年报考的热门专业，在四川的考生想要报考教育类专业首选四川师范大学！
-报名时间：正在报名注册中，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考都是2月报名吗？报名后参加校考吗？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考较快多久毕业？现在报名参加几月份考试？
-小自考也就是应用型自考，是学校开设招生的学历形式，自考顾名思义就是通过自学，把所有考试科目通过，自考的学历形式比较特殊，他毕业时间比较灵活，什么时候考试科目通过什么时候就可以申请毕业，较快可以1年考完全部科目，1.5年毕业，那么自考到底难不难呢？要考多少科呢？
-小自考只需要统考3-6科，统考科目是需要看书学习的，其他的9-12科校考为学校组织的过程性考试，学院只需到场配合学校处理，学员把学习重心放在统考科目上即可，其他的只需根据班主任通知配合走流程，很多报考小自考的学员会有个迷思，觉得小自考是不是可以包过的，这里李老师回复大家，小自考不是包过的，统考科目都是需要学员看书硬考的，试问全国统考如果都可以包过的话，这种学历形式含金量会高吗？自考本身就是含金量仅次于统招全日制学历，所以其含金量高，必然会有一些考试科目需要统考！所以千万不要再问李老师自考是不是包过，但是报考的同学们也不用担心自考会太难，统考科目都是考的基础，学员但凡花了时间看书学习都是能通过的，现在报考可参加4月统考，可报考专业齐全，更多专业详情可加李老师咨询~
-现在可报考院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，学费低至2800元/年，学费按两年收取，学费包含教材资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川电大成人专本科报名注册中 学信网可查 国家认可</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    
-国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
-国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
-毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川小自考什么专业通过率高 大概多久毕业</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考不知道报考哪个专业？简单易过的专业有哪些？
-自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">考是成人学历的其中一种形式，它的含金量也是非常高的，考验了学员的自学能力，很多学员就认为那自考应该是很难的，其实不然，自考既是成人学历的一种，考试难度也就自然不会太高，只需要参加6门统考（60分及格即可）其他9-12门全是校考，校考是由学校自己组织，只需要学员配合学校完成考试，考前会有资料，学员的重心可以都放在6门统考上，一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到毕业证书！
+      <t xml:space="preserve">考是成人学历的其中一种形式，它的含金量也是非常高的，考验了学员的自学能力，很多学员就认为那自考应该是很难的，其实不然，自考既是成人学历的一种，考试难度也就自然不会太高，只需要参加6门统考（60分及格即可）其他9-12门全是校考，校考是由学校自己组织，只需要学员配合学校完成考试，考前会有资料，学员的重心可以都放在6门统考上，一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到畢業书！
 2·选择自考的形式后，该选择哪些专业呢？
 自考热门专业可分为四大类：
 A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
@@ -2250,55 +1897,55 @@
     </r>
   </si>
   <si>
-    <t>四川小自考教育类专业是不是只能报川师大 学费贵吗</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考教育类专业最好的是不是四川师范大学？怎么报考？
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川小自考教育类专业最好的是不是四川师范大学？怎么报考？
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学是四川省内教育类专业最好的学校，想要报考的学员现在可以尽快交资料报名了哦，现在正在秋季报名注册中，现在报名可参加12月底的过程性校考！过程性校考考试简单，学员只需到场配合处理！
 考试科目：6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
 考试时间：统考在每年的4月、10月            校考在每年的7月、12月
 学费3400元/年（按两年收取），包含资料视频+教材+视频课程+重点复习资料，现在报名还可申请200-600元助学补贴，名额有限，报名即跟学员签订保障学员权益的协议，学员可以放心报考，想要报名的学员速速联系李老师咨询~
-自考的毕业证书含金量是成人学历里面较高的！单位认可度高，对毕业证含金量有要求的可以选择报考小自考，且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考哦！
+自考的畢業书含金量是成人学历里面较高的！单位认可度高，对畢業含金量有要求的可以选择报考小自考，且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考哦！
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>成都理工大学有环境设计专业吗？统考几科？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考设计类专业是只有成都理工大学可以报考吗？学费？
+</t>
+  </si>
+  <si>
+    <t>四川小自考环境设计专业统考几科 要上课吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川小自考设计类专业是只有成都理工大学可以报考吗？学费？
 成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
 学校现在正在招收小自考环境设计，产品设计两个专业，设计类专业只需要统考4科，其他的科目都是过程性校考，设计类专业统考科目少，通过率高，想要报考的学员可加李老师详细咨询~
 专业介绍：
 艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
 考试科目：
 统考：4科 校考：9-14科（校考过程性考试）
-自考毕业时间灵活，较快1年考完全部科目，1.5年拿毕业证书！毕业获颁由自考办和成都理工大学联合颁发的毕业证书！
+自考畢業时间灵活，较快1年考完全部科目，1.5年拿畢業书！畢業获颁由自考办和成都理工大学联合颁发的畢業书！
 学历国家认可学信网终身可查！
 学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可申请助学补贴，补贴名额有限，想要报考的学员抓紧时间联系李老师~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>小自考报名后在哪里查询报考信息？必须交学费才注册吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47    四川小自考在哪里可以查询学籍？学信网可查吗？
-自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请毕业，自考的是学费低、教考分离、毕业生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予毕业（60分既合格）颁发毕业证，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
-所有自考学历都是只有在毕业后才可以在学信网查学籍，因为每个考生的毕业时间是不一样的，所以都是考试通过后申请毕业才能在学信网验证学籍，报考后都是在省考试院查询考籍，考籍包含学员报考学校跟专业，现在报考的同学们，在3月即可查询报考信息
+</t>
+  </si>
+  <si>
+    <t>四川小自考报名后多久可以查学籍 学信网可以查吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川小自考在哪里可以查询学籍？学信网可查吗？
+自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请畢業，自考的是学费低、教考分离、畢業生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予畢業（60分既合格）颁发畢業，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
+所有自考学历都是只有在畢業后才可以在学信网查学籍，因为每个考生的畢業时间是不一样的，所以都是考试通过后申请畢業才能在学信网验證学籍，报考后都是在省考试院查询考籍，考籍包含学员报考学校跟专业，现在报考的同学们，在3月即可查询报考信息
 那么很多学员都会思考一个问题，学历提升有什么好处呢？我为什么要提升学历呢？
-1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考毕业时间灵活，一年考四次，较快可1年考完全部科目，1.5年毕业！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
+1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考畢業时间灵活，一年考四次，较快可1年考完全部科目，1.5年畢業！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
 2、为自己就业时提供进门的机会。现在许多大型企业，尤其是教师、公务员、司法方面的考试都需要本科 学 历，自考是受国家承认的，无论你是要考公务员或者应聘公司岗位，都是认可的，同学们可趁年轻多努力为自己创造更好的未来！
-3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格证书，都是对学历有要求的！
+3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格證书，都是对学历有要求的！
 自考报考对象：
 1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
-2．专科招收应、往届高中毕业生(含职高、中专、技校生)及以上文化程度者；
-3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历毕业证的考生(在校专、本科学生在办理本科毕业证书时必须出具专、本科毕业证书，无专、本科毕业证书不能办理本科毕业证书)。
+2．专科招收应、往届高中畢業生(含职高、中专、技校生)及以上文化程度者；
+3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历畢業的考生(在校专、本科学生在办理本科畢業书时必须出具专、本科畢業书，无专、本科畢業书不能办理本科畢業书)。
 李老师总结一句话：只要年满17岁都可报考！不限前置学历，高中起点的学生可以套读本科哦，自考学历含金量高，想要报考的同学们可加李老师详细咨询~
-自考免试入学，宽进严出，全部科目考过即可申请毕业！毕业即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
+自考免试入学，宽进严出，全部科目考过即可申请畢業！畢業即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
 现在可报考院校：
 四川师范大学、成都理工大学、西南石油大学、西华师范大学、西南财经大学等省内重点大学！
 考试地点：
@@ -2306,16 +1953,15 @@
 （校考）由我处组织，都是在成都市区各大中小学考场，校考9-12科，学员只需到场配合处理！
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川成人中专报考限制户籍吗？外省可以报考吗？</t>
+</t>
+  </si>
+  <si>
+    <t>成人中专报哪个学校比较好 有哪些专业</t>
   </si>
   <si>
     <t>学校介绍：
-中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格证书教育和岗位培训提供教学服务。
-中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿毕业证书，对于很多想要考证的学员来说，一年制中专都是很好的选择！
+中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格證书教育和岗位培训提供教学服务。
+中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿畢業书，对于很多想要考證的学员来说，一年制中专都是很好的选择！
 现在可报考专业：
 建筑工程施工（报考二建必备的专业）
 会计（可报考初级会计师）
@@ -2325,122 +1971,122 @@
 电子商务
 市场营销
 老年服务与管理等专业，现在可报考专业齐全，想要报考的学员可加李老师咨询哦~
-学费：1480元（全包，学员不用参加考试，直接学制修够毕业就可以了）
+学费：1480元（全包，学员不用参加考试，直接学制修够畢業就可以了）
 报名地址：成都市成华区建设路成功银玺国际2810号
 咨询人：李老师  电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
   </si>
   <si>
-    <t>电大是不是最简单的学历？是哪个学校呢？四川报名入口</t>
+    <t>2020年国家开放大学多久报名 注册到多久截至</t>
   </si>
   <si>
     <t xml:space="preserve">学校简介：
 国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
-国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
 现在可报考专业：
-专科：药学、金融（证券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
+专科：药学、金融（證券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
 本科：
 金融学、法学、社会工作、小学教育、学前教育（学前教师教育方向）、学前教育（学前教育管理方向）、广告学、英语（教育方向）、汉语言文学、汉语言文学（师范方向）、计算机科学与技术、机械设计制造及其自动化（机电一体化系统方向）、土木工程（建筑工程方向）、土木工程（建筑管理方向）、土木工程（道路桥梁方向）、水利水电工程、工商管理、会计学、物流管理、市场营销、行政管理、护理学、公共事业管理(卫生事业管理)、公共事业管理（教育管理）、
 公共事业管理（教育管理）（学校管理方向）、公共事业管理（社会教育及其应用心理方向）
 广告学、水利水电工程
-毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
 电话：199 8120 3720（微信同号）     扣：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川小自考工商管理专业学费贵吗？现在报名多久考试？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师    电话：199 8120 3720（vx同号）   扣：1916 3720 47                                                                                            四川小自考工商管理专业报考哪个学校比较好？大概学费？
+    <t>四川小自考工商管理专业报考学校有哪些 学费贵吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 四川小自考工商管理专业报考哪个学校比较好？大概学费？
 想要报考小自考工商管理专业的学员，李老师给大家说一下报考工商管理专业的情况：
 首先我们先先介绍下工商管理专业：
 工商企业管理，是对企业的生产经营活动进行计划、组织、领导、人员配备、指挥、协调和控制等一系列职能的总称。工商企业管理专业是自学考试学科调整后产生的新专业。这一专业的设置是为了培养在社会主义市场经济条件下从事工商业及其他各类企业管理方面工作的专门人才。经过专业学习，成绩合格者应系统地掌握现代管理理论、有广泛的知识。熟悉各类管理的基本技能和科学方法，能够胜任企业管理工作。 工商管理是研究工商企业经济管理基本理论和一般方法的学科，主要包括企业的经营战略制定和内部行为管理两个方面。工商管理专业是每年自考报名的热门专业，也是比较简单好考的专业，通过率较高！
-那么工商管理专业毕业后可以找什么工作呢？就业前景如何？
-该专业毕业后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。
+那么工商管理专业畢業后可以找什么工作呢？就业前景如何？
+该专业畢業后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。
 主要从事以下岗位：
 1. 一般传统管理类岗位
 2. 市场营销类岗位
 3. 人力资源管理类岗位
 4. 物流管理类岗位
-工商管理专业毕业后就业范围广，想要报考的学员可以加李老师咨询~
+工商管理专业畢業后就业范围广，想要报考的学员可以加李老师咨询~
 那么小自考工商管理专业一共要考几科呢？
 统考6科（需要同学们根据老师的课程以及整理好的押题资料进行学习，是全国统考）
 校考9-12科（过程性考试）
-学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿毕业证书，同学们普遍的毕业时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，毕业后学信网终身可查！是由学校跟自考办联合颁发的正规毕业证书！
+学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿畢業书，同学们普遍的畢業时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，畢業后学信网终身可查！是由学校跟自考办联合颁发的正规畢業书！
 可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询！
-报名时间：正在报名注册中，现在报名可参加4月统考，可早半年毕业！
+报名时间：正在报名注册中，现在报名可参加4月统考，可早半年畢業！
 报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师    电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>川师有小自考汉语言专业吗？是不是川师的通过率比较高？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师    电话：199 8120 3720（vx同号）    扣：1916 3720 47                                                                                                          川师小自考汉语言文学专业就业前景如何？简单易过通过率高？四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+详情咨询李老师    
+</t>
+  </si>
+  <si>
+    <t>川师大小自考汉语言文学专业通过率高吗 校考很简单吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 川师小自考汉语言文学专业就业前景如何？简单易过通过率高？四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上。
 汉语言文学专业统考科目分别是：00537 中国现代文学史、00529 中国古代文学史（一）、00539 中国古代文学史（二）、00540 外国文学史、00541 语言学概论、00547 马列文论选读
-汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年毕业！
-该汉语言文学专业就业前景：汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
+汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年畢業！
+该汉语言文学专业就业前景：汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格證成为教师。
 现四川师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
-学费低至3600元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，毕业获颁由学校和自考办联合颁发的毕业证书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
+学费低至3600元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，畢業获颁由学校和自考办联合颁发的畢業书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
 报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师    电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>小自考毕业证可考资格证书吗？国家认可吗？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师   电话：199 8120 3720（微信同号）   扣：1916 3720 47                                                                                          四川小自考学历可以考资格证书吗？在哪里报考呢？
-小自考学历是国家认可的学信网可查的正规学历，且自考已经是成人学历中含金量zui高的学历形式了，只要是国家认可学信网可查的正规学历要参加国家组织的资格证书考试都是完全没问题的，所以想要报考的学生完全不用担心，自考学历不论是考证书还是考公务员或者是教师公招都是没问题的！
+详情咨询李老师    </t>
+  </si>
+  <si>
+    <t>四川大自考与小自考有什么区别 含金量都一样吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 四川小自考学历可以考资格證书吗？在哪里报考呢？
+小自考学历是国家认可的学信网可查的正规学历，且自考已经是成人学历中含金量zui高的学历形式了，只要是国家认可学信网可查的正规学历要参加国家组织的资格證书考试都是完全没问题的，所以想要报考的学生完全不用担心，自考学历不论是考證书还是考公务员或者是教师公招都是没问题的！
 自考的优势以及特点：
 1.自考是成人学历中含金量较高的，所以难度也是相对‌‌较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
 2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
-大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
-3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
+大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请畢業。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员畢業时间。
+3.小自考较快1年就可以考完全部科目，1.5年领取畢業书！普遍学员的畢業时间是两年左右哦~并且自考畢業书不区分大小自考，畢業书都是完全一样的！含金量也是完全一样的！
 现在可报考院校：四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
 四川小自考现在正在注册报名中，现在报考可参加12月底的校考，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师   电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川报大自考跟报小自考有什么区别？哪一个更好？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师    电话：199 8120 3720（微信同号）   扣：1916 3720 47四川大小自考的区别？选择适合自己学历提升的方式？
+详情咨询李老师   </t>
+  </si>
+  <si>
+    <t>四川报小自考要交多少钱 除了学费还要交什么费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 现在社会针对所有职场人员来说，高学历已经是一种趋势了，也成为了绝大多数行业的敲门砖，那么，对于学历低的人员来说，想要提升学历怎么办？去学校读书已经不再现实了，在职人员能选择提升学历的形式就是成人继续教育！
 自考（高等教育自学考试）：自考是对自学者进行的以学历考试为主的高等教育国家考试，是个人自学、社会助学和国家考试相结合的高等教育形式。简单的来说就是：自考是一种自己学习，然后参加自考统一考试的一种模式，有社会性及应用型之分，也就是大家常说的大自考，小自考。
 那么大自考和小自考的区别是什么？考生报考时该如何选择？
 相同点：
-1、考试费都是35元一科，准考证、考试方式、考试地点都一样，毕业证书都在学信网查询。
-2、毕业证书一样，证书上面没有写“大自考”和“小自考”的字样。
-3、证书认可度、含金量都一样都可以出国、留学、考公务员、凭职称、考各种资格等级证。
+1、考试费都是35元一科，准考證、考试方式、考试地点都一样，畢業书都在学信网查询。
+2、畢業书一样，證书上面没有写“大自考”和“小自考”的字样。
+3、證书认可度、含金量都一样都可以出国、留学、考公务员、凭职称、考各种资格等级證。
 不同点：
 1、大自考在当地自考办报名，没有学费，学员自行到网站上注册即可，小自考在助学机构报名，学校统一端口注册！
-2、大自考考试科目14-18科全是统考，毕业周期长、小自考只需统考3-6科，其他为过程性校考，学制2年，一般1.5-2年均可毕业。
+2、大自考考试科目14-18科全是统考，畢業周期长、小自考只需统考3-6科，其他为过程性校考，学制2年，一般1.5-2年均可畢業。
 3、大自考考试全靠自己看书学习、无学校辅导、难度大、通过率低、小自考机构全程指导、发教材、资料、考点重点等，大专业有学校开设的视频课程，通过率高，帮助同学们顺利通过考试！
 了解完大小自考的区别，那么考生在报考时如何进行选择？
-很多同学都比较关心，就是大小自考学历的含金量到底有没有区别，其实大小自考的含金量是一样的，因为毕业证并不会区分自考的形式到底是应用型还是社会型，所以考生可以放心报考！
+很多同学都比较关心，就是大小自考学历的含金量到底有没有区别，其实大小自考的含金量是一样的，因为畢業并不会区分自考的形式到底是应用型还是社会型，所以考生可以放心报考！
 大自考和小自考的区别只是学习形式不一样，所以加以区分，结果都是一样的。我们建议较好是选择小自考（应用型），缩短时间、降低难度、提高通过率。
-报名时间：小自考一年四次注册时间，报名时间不一样，参考时间不一样，早报名，早考试，早毕业。目前正在秋季报名注册，现在报名可以参加12月底校考，详情可加号咨询，现在报名有优惠哦~
+报名时间：小自考一年四次注册时间，报名时间不一样，参考时间不一样，早报名，早考试，早畢業。目前正在秋季报名注册，现在报名可以参加12月底校考，详情可加号咨询，现在报名有优惠哦~
 考试科目：统考3-6科【发教材、资料、提供辅导】     校考9-12科【过程性考试，学员的学习重心放在统考科目上即可】
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情咨询李老师     电话：199 8120 3720（微信同号）              扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川报小自考大概要花多少钱？除了学费以外还有什么费用？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师    电话：199 8120 3720（vx同号）    扣：1916 3720 47                                                                                          四川小自考在哪里报名？专升本大概花费多少钱？
+    <t>四川小自考怎么报名 报名方式 报名时间 报名网站</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 想要报考四川小自考的同学，在选择学校跟专业的时候会有很多不太清楚的地方，下面李老师给大家解答下关于报考小自考的一些疑惑？
 首先报考前我们要明确什么是小自考，小自考是什么样的学历形式？
-高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可毕业！
-其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，毕业时间灵活，全部科目考试通过即可申请毕业，较快可1年时间考完全部科目，1年9个月毕业！对于很多觉得大自考比较难，毕业时间长的考生来说，小自考就是个很好的选择，而且自考毕业证书是不会区分大小自考的，所以证书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
+高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可畢業！
+其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，畢業时间灵活，全部科目考试通过即可申请畢業，较快可1年时间考完全部科目，1年9个月畢業！对于很多觉得大自考比较难，畢業时间长的考生来说，小自考就是个很好的选择，而且自考畢業书是不会区分大小自考的，所以證书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
 四川省内现在可报考的学较多，可报考专业也比较齐全，现在报考的同学们可以参加12月底的校考，同学们好集中精力备考明年4月的统考，费用在五六千左右，学校跟专业不同，收费也略微有些不同，很多考生也会问，除了学费外，还有些什么费用呢？
-报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科毕业证工本费150元，本科毕业证工本费+毕业答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生毕业为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
+报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科畢業工本费150元，本科畢業工本费+畢業答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生畢業为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
 本处可报考四川师范大学/成都理工大学/西南财经大学/西南石油大学等省内重点大学，专业及详情可加李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号 详情咨询李老师~ 电话：199 8120 3720（微信同号）　　　扣：１９１６　３７２０　４７</t>
   </si>
@@ -2451,12 +2097,12 @@
     <t>四川成人学历报名条件是什么？有没有什么要求？
 四川这边的成人分为四种：
 自考、成教、网教、电大，这四种类型的学历都是国家认可学信网终身可查的正规学历，学员们可以放心报考，那么这几种学历形式有什么区别呢？
-首先我们讲下自考：自考是成人高等自学考试，比较考验学员的学习能力，也是四种形式中难度较高的，但是相对来说含金量也是较高的，需要参加１６－１８门的考试，其中有３－６门是需要学员认真看书学习通过考试的，毕业时间较为灵活，较快１年考完全部科目，１年９个月毕业，学员的普遍毕业时间为２年左右！
+首先我们讲下自考：自考是成人高等自学考试，比较考验学员的学习能力，也是四种形式中难度较高的，但是相对来说含金量也是较高的，需要参加１６－１８门的考试，其中有３－６门是需要学员认真看书学习通过考试的，畢業时间较为灵活，较快１年考完全部科目，１年９个月畢業，学员的普遍畢業时间为２年左右！
 接下来就是含金量第二高的成教，成教是成人高等教育，需要参加入学考试，入学考试即成人高考，成人高考录取分数线低，还有相应的加分政策，李老师往年报考的学生只要不缺考考试都是通过的哦，成教学制２．５年，学制中还有四次过程性期末考试，成教只要入学考试通过，后面的期末考试都很简单。
-第三是网教，网教就是网络远程教育，是通过网上挂课时跟学习，学制２．５年修满即可毕业，跟成教一样，学制内有四次期末考试，网教对于很多工作比较繁忙但是想提升学历的学员来说是一个很好的选择！
+第三是网教，网教就是网络远程教育，是通过网上挂课时跟学习，学制２．５年修满即可畢業，跟成教一样，学制内有四次期末考试，网教对于很多工作比较繁忙但是想提升学历的学员来说是一个很好的选择！
 现在自考跟网教专本科都在秋季报名注册中，可报考专业齐全，相关学习以及专业详情可加李老师咨询～
 现在可报考院校：四川师范大学、成都理工大学、西南石油大学、西南财经大学、国家开放大学等，现在报名可申请２００－６００元助学补贴，名额有限，同学们抓紧时间报名哦～
-成人学历是面向成人开设的学历提升的方式，主要目的是国家为了提高全名教育水平，所以报名条件至少１７岁，只要你年龄够，就可以报考，拿正规名牌大学毕业证书！
+成人学历是面向成人开设的学历提升的方式，主要目的是国家为了提高全名教育水平，所以报名条件至少１７岁，只要你年龄够，就可以报考，拿正规名牌大学畢業书！
 报名地址：成都市成华区建设路成功银玺国际２８１０号　　　　　　　　　　　　　　　　                                                                                                 详情咨询李老师    电话：199 8120 3720（vx同号）    扣：1916 3720 47　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
   </si>
   <si>
@@ -2480,36 +2126,8 @@
     <t>财经类专业最好的学校是西南财经大学吗？在哪里报名？</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介：
-西南财经大学（SWUFE）位于天府之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+    <t>学校简介：
+西南财经大学（SWUFE）位于天府之‌‌‌‌国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
 西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
 报名时间：10月统考的报名时间在9月6号截止！
 可报考专业：
@@ -2519,49 +2137,20 @@
 统考：6科        校考：9-12科（由学校组织，过程性考试）
 学费：7400元（全部学费），学费包含教材资料跟视课程
 统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情可咨询李老师~
 电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考会计专业要考多少科？一年考几次？多久毕业？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考会计专业统考几科？一年考几次？多久毕业？
+  </si>
+  <si>
+    <t>四川小自考会计专业要考多少科？一年考几次？多久畢業？</t>
+  </si>
+  <si>
+    <t>四川小自考会计专业统考几科？一年考几次？多久畢業？
 想要自考会计专业的学员，
 只需统考6科。
-专科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>考试科目：
+专科‌‌考试科目：
 计算机应用基础、基础会计学、财政与金融、财务管理学、中级财务会计、管理会计（一）
 本科考试科目：
 市场营销学、国际贸易理论与实务、金融理论与实务、高级财务会计、审计学、财务报表分析（一）
@@ -2569,7 +2158,7 @@
 现四川师范大学自考会计专业专本科正在报名中，
 一年有四次考试机会，
 较快1年考完全部科目，
-1.5年毕业！
+1.5年畢業！
 学员只需把重心放在6科统考科目上，
 且学校统考科目有专业的老师录制视频资料，
 以及考前会有集中面授。
@@ -2579,128 +2168,49 @@
 现在报名可申请200元-600元助学补贴，
 名额有限，想要报名的学员抓紧时间联系李老师咨询~
 可报考学校：四川师范大学/成都理工大学/西南财经大学等省内重点大学，
-现在报名可参加12月底的过程性校考，早点考完毕业！
+现在报名可参加12月底的过程性校考，早点考完畢業！
 报名地址：成都市成华区建设路 成功银玺国际2810号
 详情咨询李老师~
 电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川师范大学自考在招生吗？报名地址？报名条件？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介：
-四川师范大学（Sichuan Nor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+  </si>
+  <si>
+    <t>四川师范大学小自考学费贵吗 在哪里报名</t>
+  </si>
+  <si>
+    <t>学校简介：
+四川师范大学（Sichuan Nor‌‌mal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学自考专科，本科正在报名中！现可报考专业齐全，本次注册为今年较后一次注册时间，想要报名的学员抓紧时间联系李老师咨询详情~
 可报考专业：
 专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
 本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
 考试科目：
 统考：3-6科         校考：9-14科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！
-毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！
+畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
 学费：3400元/年（按两年收取）学费包含教材资料跟成都课程，现在报名可申请200-600元的助学补贴，名额有限，详情速速咨询李老师~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情咨询李老师~
 电话： 199 8120 3720（微信同号）             扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川大自考毕业证书跟小自考有什么不一样 含金量要高些</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川的小自考毕业证跟大自考毕业证一样吗？认可度不一样？
-很多学员都会疑惑，小自考减少了统考科目，降低了考试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>难度，会不会小自考的毕业证书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
-自考简称自学考试，顾名思义就是主要通过自己学习并参</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">加考试，是成人学历中含金量较高的学历。
+  </si>
+  <si>
+    <t>怎么区分大小自考 畢業有什么不一样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川的小自考畢業跟大自考畢業一样吗？认可度不一样？
+很多学员都会疑惑，小自考减少了统考科目，降低了考试‌‌难度，会不会小自考的畢業书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
+自考简称自学考试，顾名思义就是主要通过自己学习并参‌‌加考试，是成人学历中含金量较高的学历。
 1、自考因其含金量高，所以难度也是比较大，大自考与小自考较大区别就是考试难度以及通过率，大自考是国家统一安排考试（16-18科），需学员自学且全部考过，考试难度高。小自考一般只统考6科，个别科目如美术教育专业只需统考3科，考前有老师上课，还有资料，其他9-14科都是由学校组织，考试灵活度高，降低了难度，提高了通过率！
-2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的毕业时间，让学员能快速拿到毕业证！较快1年考完全部科目，1.5年拿到毕业证书！
-大自考与小自考的毕业证书是完全一样的！含金量也是一样的！
+2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的畢業时间，让学员能快速拿到畢業！较快1年考完全部科目，1.5年拿到畢業书！
+大自考与小自考的畢業书是完全一样的！含金量也是一样的！
 3、大自考费用低，小自考需要向学校交学费，这也是他能降低难度的原因。学信网是不会区分大小自考的，考生们可以放心报考！
 四川现在自考正在报名院校：四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学等。
 学费低至2800元/年（按两年收取），学费包含教材资料现视频课程，现在报名还可申请助学补助400-600元，名额有限，想要报名的学员抓紧时间联系李老师咨询相关详情~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情可联系李老师~
 </t>
-    </r>
-  </si>
-  <si>
-    <t>四川成人提升学历有哪些好处 毕业后有什么作用</t>
+  </si>
+  <si>
+    <t>四川提升学历好处多多 可考證升职加薪找好工作</t>
   </si>
   <si>
     <t xml:space="preserve">多学员都存在一些选择困难的问题，比如不清楚自己到底应该报自考、成教还是网教！
@@ -2709,26 +2219,26 @@
 1、拿文凭找工作：这类情况，我推荐学员自考，因为你拿到的文凭是用来找工作的，必然是应该选择含金量高的文凭，那么自考的文凭是成人学历教育中含金量较高的！
 2、已经在职，准备拿文凭升职、涨工资：这类情况我推荐学员报成教或者网教，因为你需要的仅仅只是文凭，不必在意是什么类型！所以选择拿文凭更加简便的方法！
 3、服兵役的兵哥哥：这类学员是没时间自学的，所以我推荐学员报成教！含金量高也不耽误平时时间！
-4、需要学历报考各种资格证：这类学员我推荐读成教！
+4、需要学历报考各种资格證：这类学员我推荐读成教！
 5、不知道干啥的学员：报自考，提升自己的学习能力，让自己忙起来！！！
-有提升学历想法的同学注意了哦，现四川师范大学正在招收自考、成教、网教专科、本科学员！专业齐全，毕业由学校颁发学信网可查国家认可的正规毕业证书！
+有提升学历想法的同学注意了哦，现四川师范大学正在招收自考、成教、网教专科、本科学员！专业齐全，畢業由学校颁发学信网可查国家认可的正规畢業书！
 报名地址：成都市成华区建设路成功银玺国际2810号
 想要报名的学员要抓紧时间联系李老师报名哦~
 </t>
   </si>
   <si>
-    <t>四川电大有本科学历吗 毕业证书是国家开放大学吗</t>
+    <t>四川学历提升有哪些形式 有简单一点的吗</t>
   </si>
   <si>
     <t xml:space="preserve">四川的小伙伴，平时工作忙想提升学历怎么办？
 找李老师报名，
-祝你轻松拿到大学毕业证书！
+祝你轻松拿到大学学位證书！
 免试入学，
 不耽误平时时间，
-2.5年即可拿毕业证书！
+2.5年即可拿證书！
 国家开放大学网教专本科正在报名中！
 现在可报考专业：
-专科：证券与期货、金融管理、投资与理财、保险、汽车运用与维修技术、汽车营销与服务、法律事务、小学教育、市场营销（行业营销方向、营销与策划方向、市场开发与营销方向）、计算机网络技术（网络管理方向）、计算机信息管理、工程造价、护理、会计、行政管理、电子商务、建筑工程技术、建设工程管理、药学、水利水电工程与管理、物流管理、旅游管理、酒店管理、汉语言文学、学前教育、城市轨道交通运营管理、人力资源管理、机电一体化技术、工商企业管理
+专科：證券与期货、金融管理、投资与理财、保险、汽车运用与维修技术、汽车营销与服务、法律事务、小学教育、市场营销（行业营销方向、营销与策划方向、市场开发与营销方向）、计算机网络技术（网络管理方向）、计算机信息管理、工程造价、护理、会计、行政管理、电子商务、建筑工程技术、建设工程管理、药学、水利水电工程与管理、物流管理、旅游管理、酒店管理、汉语言文学、学前教育、城市轨道交通运营管理、人力资源管理、机电一体化技术、工商企业管理
 本科：法学、小学教育、汉语言文学、计算机科学与技术、土木工程、工商管理、会计学、行政管理、护理学、药学、机械设计制造及自动化、市场营销、金融学、学前教育（学前教师教育方向、幼儿园管理方向、0-3岁婴幼儿教育方向
 学费：3400元/年（按两年收取）
 现在报名可申请200元-600元助学补助，名额有限，想要报名的学员抓紧时间联系李老师咨询~
@@ -2737,59 +2247,12 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考什么时候报名 多久截止</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>四川师范大学报名要交什么资料 报名条件是什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 四川师范大学小自考报名需要准备哪些资料？学费多少？ 
-四川师范大学（SICHUAN N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ORMAL UNIVERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家中西部高校基础能力建设工程重点建设大学，入选“卓越教师培养计划”、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
+四川师范大学（SICHUAN N‌‌ORMAL UNIVERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家中西部高校基础能力建设工程重点建设大学，入选“卓越教师培养计划”、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
 专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
 本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
 其中教育类专业等文科专业都比较好考，也是四川师范大学的优势热门专业！
@@ -2797,171 +2260,75 @@
 考试科目：统考：6科 校考：9-14科（由学校组织，过程性考试）
 学费：3600元/年（按两年收取）包含教材资料，网上课件，面授，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号
-毕业由自考办和四川师范大学联合颁发的国家认可的毕业证书，学信网可查！
+畢業由自考办和四川师范大学联合颁发的国家认可的学位證书！
 现在报名还可申请200元-600元助学补贴，名额有限，详情联系李老师咨询~
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考可以考几年 报名在哪里报</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 学费多少</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-四川自考大概需要考几年才能毕业?四川在哪里报考? 自考多久能毕业？
-多久毕业这个问题对于每个人的概</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">念都是不一样的
+  </si>
+  <si>
+    <t>四川报自考大概要多久畢業 小自考是不是畢業要快些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川自考大概需要考几年才能畢業?四川在哪里报考? 自考多久能畢業？
+多久畢業这个问题对于每个人的概‌‌念都是不一样的
 因为考试是学员本人在考，结果还是要看自己
-如果你从来不看书不复习不做题，想全部裸考毕业
+如果你从来不看书不复习不做题，想全部裸考畢業
 李老师告诉你：几乎是不可能的！
 除非你原本的基础就很好，且拥有非常深厚的专业知识
 李老师提醒：
 只要你认真看看书，多做做我们的发给你的真题
 哪怕是考前一个月临时抱佛脚，你都会看到收获哦！
-下面我就按照常规的普遍的情况为大家总结下大多数学生的毕业时间：
-如果你按照老师指导的学习方式学习后，2年左右可以毕业
-更努力或者基础好点的学生一年半就可以考完所有的科目申请毕业
-学习时间较少的学生，一般在2年至3年毕业
+下面我就按照常规的普遍的情况为大家总结下大多数学生的畢業时间：
+如果你按照老师指导的学习方式学习后，2年左右可以畢業
+更努力或者基础好点的学生一年半就可以考完所有的科目申请畢業
+学习时间较少的学生，一般在2年至3年畢業
 现自考正在招生院校：
 四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等。
 学费低至2700元/年,招生名额有限,想要报名的学员抓紧时间联系李老师咨询~
 详情咨询李老师   </t>
-    </r>
-  </si>
-  <si>
-    <t>中央电大一年制成人中专改革了吗 现在学费多少</t>
+  </si>
+  <si>
+    <t>中央电大一年制中专学籍要多久查 报名时间</t>
   </si>
   <si>
     <t xml:space="preserve">
-四川电大中专学历怎么查学籍？毕业真的可以考证吗？
+四川电大中专学历怎么查学籍？畢業真的可以考證吗？
 电大中专：
 入学后学籍查询网址：
 http://crtvsvs.ouchn.edu.cn/stu_query.jsp
-毕业证书查询网址：
+畢業书查询网址：
 http://crtvsvs.ouchn.edu.cn/graduate_query.jsp
-在线验证报告查询网址：
+在线验證报告查询网址：
 http://zzx.ouchn.edu.cn/edu/index.php/index/login/index.html
-成都广播电视大学现特设一年制中专，8-10个月就可拿毕业证，没有入学考试，没有平时作业！完全不耽误学员时间！
+成都广播电视大学现特设一年制中专，8-10个月就可拿畢業，没有入学考试，没有平时作业！完全不耽误学员时间！
 中专通知：
-每个月都可以报，但是早报早毕业，后期会严格规范前置学历（高中）和毕业学制年限（至少一年），所以抓紧现有机会联系李老师！
-我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考证需要学历、生活需要学历.....
+每个月都可以报，但是早报早畢業，后期会严格规范前置学历（高中）和畢業学制年限（至少一年），所以抓紧现有机会联系李老师！
+我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考證需要学历、生活需要学历.....
 可以考二建
 可以考九大员
 可以考执业药师、执业助理医师
-可以考幼师资格证、幼儿园园长证
-可以考各种资格证：银行从业资格证、基金从业证、证券从业资格证、期货从业资格证考试
+可以考幼师资格證、幼儿园园长證
+可以考各种资格證：银行从业资格證、基金从业證、證券从业资格證、期货从业资格證考试
 可以用于提干、加薪、评职称、作为报专科的前置学历 . . .
-我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，毕业证带二维码辨别真伪！ 
-全国认可，轻松简单，适用范围广！学制一年（快半年拿证），毕业即颁发中央广播电视学校毕业证书，全国承认学历（电子注册，网上可查）
+我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，畢業带二维码辨别真伪！ 
+全国认可，轻松简单，适用范围广！学制一年（快半年拿證），畢業即颁发中央广播电视学校畢業书，全国承认学历（电子注册，网上可查）
 可读专业：
 建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销
 报名时间：常年招生，每月滚动注册
-学费：1680元（全包，学员只管拿证）
+学费：1680元（全包，学员只管拿證）
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情可咨询李老师  
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>自考专升本学前教育专业考试科目 报名时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 怎么报名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>四川小自考学前教育专业畢業可以考幼师吗 学校认可吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 四川小自考学前教育专业有哪些学校可以报考？考试科目 成都小自考学前教育哪些学校可以报考？
-答：四</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">川师范大学、成都大学、西华师范大学
-我们为我处为 四川师范大学、成都大学、西华师范大学 正规教学站每年报考上千人 专业齐全 服务体系完善 全省报考全省考试 考试咨询 复习资料 毕业办理全省跟踪服务
-考试科目：中国近现代史纲要、马克思主义基本原理概论、学前卫生学、幼儿园课程、学前教育原理、学前教育心理学、学前教育研究方法、儿童发展理论、儿童发展理论、幼儿园组织与管理 、学前比较教育、学前教育史、低幼儿童文学名著导读、低学前儿童心理健康与辅导、学前儿童发展评估、家长工作与家园沟通、幼儿园班级管理、幼儿教师教研指导、毕业考核
+答：四‌‌川师范大学、成都大学、西华师范大学
+我们为我处为 四川师范大学、成都大学、西华师范大学 正规教学站每年报考上千人 专业齐全 服务体系完善 全省报考全省考试 考试咨询 复习资料 畢業办理全省跟踪服务
+考试科目：中国近现代史纲要、马克思主义基本原理概论、学前卫生学、幼儿园课程、学前教育原理、学前教育心理学、学前教育研究方法、儿童发展理论、儿童发展理论、幼儿园组织与管理 、学前比较教育、学前教育史、低幼儿童文学名著导读、低学前儿童心理健康与辅导、学前儿童发展评估、家长工作与家园沟通、幼儿园班级管理、幼儿教师教研指导、畢業考核
 考试时间：统考每年4月、10月 校考每年7月、12月 
 统考6门 校考9-12门（过程性软过）
 学费情况：
@@ -2972,40 +2339,20 @@
 4、含考前重考点答题技巧面授
 5、多年自考经验的老师上课课件
 报名资料：
-身份证扫描件电子版，两寸标准蓝底照片电子版
+身份證扫描件电子版，两寸标准蓝底照片电子版
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 详情咨询李老师 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>西南石油大学有自考法学专业 考哪几科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 怎么报名</t>
-    </r>
+  </si>
+  <si>
+    <t>西南石油大学小自考法学专业报名注册中 仅需统考6科</t>
   </si>
   <si>
     <t xml:space="preserve">
-西南石油大学小自考法学专业通过率高吗？毕业就业广  
+西南石油大学小自考法学专业通过率高吗？畢業就业广  
 西南石油大学，简称“西油”，坐落于历史文化名城成都，是一所由四川省人民政府与中石油、中石化、中海油、成都市人民政府共建高校，入选首批国家世界学科建设高校、“中西部高校基础能力建设工程”、“海外高层次人才引进计划”、“国家建设高水平大学公派研究生项目”、 中国政府奖学金来华留学生接收院校、“111计划”，已发展成一所油气工业学科群（油气、能源及海洋机电装备、地科、化工、能源材料、石油计算技术、工程管理 ）为主，多学科协调发展的大学。
 法律专业就业范围广，考试相对简单，过关率较高！想要自考提升学历的赶紧报名，报名时间紧迫，现在正火热报名中！
 二、招生对象和报考条件：只要你年满18岁都可报考！
-统考科目：劳动法、知识产权法、税法、国际私法、公证律师制度、法律文书写作
+统考科目：劳动法、知识产权法、税法、国际私法、公證律师制度、法律文书写作
 校考科目：中国近现代史纲要、马克思主义基本原理概论、公司法、环境与资源保护法学、合同法、国际经济法概论、外国法制史、中国法律思想史、婚姻家庭法、行政法与行政诉讼法、罪犯劳动改造学、专利法
 学习形式：6门统考+9-11门校考
 考试时间：统考在每年的4月、10月，校考在每年的7月、12月
@@ -3017,74 +2364,25 @@
 </t>
   </si>
   <si>
-    <t>四川小自考管理专业有哪些 哪个比较好考</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>四川小自考什么专业比较好考 管理类专业畢業好就业吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 四川自考管理类专业难不难？怎么报名？学费多少？
-自考中管理类专业是相对比较好考的专业，其中工商</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">管理专业是每年报考的热门专业，该专业只需统考6科，其他9-12科都是校考，校考过程性考试，考前一周发资料，学员的重心只需放在统考科目上，统考科目有老师专门录制好的视频课件，以及考前的面授突击，以帮助学员能最快的时间通过考试，从而领取毕业证书，自考一年4次考试机会，两次校考，两次统考，学员最快可1年考完全部科目，1.5年毕业！
-自考也是学员能最快拿到毕业证书的一种学习方式。
+自考中管理类专业是相对比较好考的专业，其中工商‌‌管理专业是每年报考的热门专业，该专业只需统考6科，其他9-12科都是校考，校考过程性考试，考前一周发资料，学员的重心只需放在统考科目上，统考科目有老师专门录制好的视频课件，以及考前的面授突击，以帮助学员能最快的时间通过考试，从而领取畢業书，自考一年4次考试机会，两次校考，两次统考，学员最快可1年考完全部科目，1.5年畢業！
+自考也是学员能最快拿到畢業书的一种学习方式。
 现在可报考院校：
 四川师范大学、成都理工大学、西华师范大学、西南石油大学等。
-自考是所有科目考完即可申请毕业，毕业获颁由学校和自考办联合颁发的毕业证书，毕业证书学信网终身可查，社会认可度高！
+自考是所有科目考完即可申请畢業，畢業获颁由学校和自考办联合颁发的畢業书，畢業书学信网终身可查，社会认可度高！
 学费低至2000+/年，按两年收取，学费包含教材资料/视频课件/面授课程，还有班主任全程带班，帮助学员顺利通过考试！
 名额有限，想要报名的学员速速联系李老师咨询~
 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>020年成都理工大学小自考专业有哪些 报名多久截止</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">报名地址：成都市成华区建设北路三段成功银玺国际2810号
-成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！
+  </si>
+  <si>
+    <t>成都理工大学小自考在哪里报名 要到学校本部报名吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！
 成都理工现可报专业：
 专科可报专业：会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理
 本科可报专业：现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价
@@ -3097,40 +2395,12 @@
 咨询方式：李老师     </t>
   </si>
   <si>
-    <t xml:space="preserve">四川小自考较快可以一年拿毕业证吗 学费多少 </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-四川成人学历中什么形式可以较快拿到毕业证书？
-找李老</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到毕业证书的，自考只需要全部科目考试通过就可以申请毕业，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取毕业证书！且自毕业证书含金量高，企业认可度高！
+    <t>四川什么学历可以快点畢業 较快多久拿畢業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川成人学历中什么形式可以较快拿到畢業书？
+找李老‌‌师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到畢業书的，自考只需要全部科目考试通过就可以申请畢業，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取畢業书！且自畢業书含金量高，企业认可度高！
 考试科目：
 统考：3-6科 校考：9-12科（由学校组织，过程性考试）
 学费低至2700元/年（按两年收取）费用包含教材资料，收费课件，考前资料！
@@ -3138,181 +2408,64 @@
 考试时间：统考每年的4、10月 校考每年的7、12月
 现在可报名学校：
 四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等名牌大学。
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的名校毕业证书(学信网终身可查）。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的名校畢業书(学信网终身可查）。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 详情咨询李老师    </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川成人学历大概要花多少钱 怎么报名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 报名地址</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-四川成人学历提升报名怎么报？在哪儿报名？学费多少？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">‌‌
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">成人学历分为自考，成教，网教，电大四大类型，
+  </si>
+  <si>
+    <t>四川成人想提升学历层次怎么办 四川成人学历报名入口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川成人学历提升报名怎么报？在哪儿报名？学费多少？‌‌
+成人学历分为自考，成教，网教，电大四大类型，
 现在李老师就跟大家主要讲解一下正在报名的自考，网教以及电大。
 自考是成人学历里面含金量较高的，所以难度也是相对高一些的，自考需要统考6科，个别科目如美式教育专业只需统考3科，其他考试科目均为校考，校考是由学校自己组织，只需学员配合学校处理（即参加考试）考前也不会有资料，
-报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，收费在线课件给到学员，也会在考试前安排统一面授，提高学员考试通过率，自考只要全部考试科目考过即可申请毕业，较快1.5年考完全部科目，一年九个月领取毕业证书！
+报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，收费在线课件给到学员，也会在考试前安排统一面授，提高学员考试通过率，自考只要全部考试科目考过即可申请畢業，较快1.5年考完全部科目，一年九个月领取畢業书！
 学费低至2700元/年，学费包含教材资料+视频课程+教即资料
-网络远程教育，每年3月跟9月报名，现在省内还可以注册国家开放大学，免试入学，轻松毕业，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可毕业！
+网络远程教育，每年3月跟9月报名，现在省内还可以注册国家开放大学，免试入学，轻松畢業，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可畢業！
 学费：3400元（按两年收取）
-电大（成都电大）现特设一年制中专，7-10个月即可领取毕业证书，毕业可当兵，考取二建，幼师，执业药师等资格证书！还可作为报考大专的前置学历，面试入学，没有平时作业以及期末考试，
-轻松毕业！
+电大（成都电大）现特设一年制中专，7-10个月即可领取畢業书，畢業可当兵，考取二建，幼师，执业药师等资格證书！还可作为报考大专的前置学历，面试入学，没有平时作业以及期末考试，
+轻松畢業！
 学费：14680元（全包）
 现在可报名学校:四川师范大学，西华师范大学，西南石油大学，西南财经大学，国家开放大学，成都理工大学，成都广播电视大学等。
-一经毕业获得由学校颁发的国家认可学信网终身可查的正规毕业证书！现报名名额有限，想要报名的学员抓紧时间联系李老师咨询~
+一经畢業获得由学校颁发的国家认可学信网终身可查的正规畢業书！现报名名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设北路成功银玺国际2810号
 详情咨询李老师    </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>小自考计算机专业通过率高吗 考几科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+  </si>
+  <si>
+    <t>四川小自考信息管理与信息系统专业通过率高吗 学费多少</t>
   </si>
   <si>
     <t xml:space="preserve">
 专升本小自考信息管理与信息系统专业考哪几科？哪里报名？
 小自考信息管理与信息系统专业，专业代码Y071602，属于计算机相关专业，多余很多it行业从业人员需要专升本，可以选择报考该专业，该专业只需统考6科，其他9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可，校考只需学员配合处理！
-统考科目：信息资源建设、信息政策与法规、信息系统设计与分析、windos及应用、计算机信息检索、信息咨询，学员需要花时间学习的就是以上6科，以上6科会提供押题资料给学员，帮助考生顺利通过考试！自考一年考四次，较快一年考完全部科目，一年九个月毕业！
+统考科目：信息资源建设、信息政策与法规、信息系统设计与分析、windos及应用、计算机信息检索、信息咨询，学员需要花时间学习的就是以上6科，以上6科会提供押题资料给学员，帮助考生顺利通过考试！自考一年考四次，较快一年考完全部科目，一年九个月畢業！
 可报考院校：成都理工大学、西南石油大学，学费低至2700元/年（学费按两年收取），学费包含教材+资料+考前押题，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名时间：现在正在报名注册中，现在报名可参加4月统考，同学们可为统考做考试准备！
 报名地址：成都市成华区建设北路三段银玺国际2810号
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>四川小自考毕业证跟大自考一样吗 怎么报名</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t>四川小自考学历出省有用吗 国家都认可自考学历吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 小自考是只有四川才有吗？除了四川其他省认可吗？
-很多学员都会疑惑，小自考减少了统考科目，降低了考试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>难度，会不会小自考的毕业证书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
-自考简称自学考试，顾名思义就是主要通过自己学习并参</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">加考试，是成人学历中含金量较高的学历。
+很多学员都会疑惑，小自考减少了统考科目，降低了考试‌‌难度，会不会小自考的畢業书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
+自考简称自学考试，顾名思义就是主要通过自己学习并参‌‌加考试，是成人学历中含金量较高的学历。
 1、自考因其含金量高，所以难度也是比较大，大自考与小自考较大区别就是考试难度以及通过率，大自考是国家统一安排考试（16-18科），需学员自学且全部考过，考试难度高。小自考一般只统考6科，个别科目如美术教育专业只需统考3科，考前有老师上课，还有资料，其他9-14科都是由学校组织，考试灵活度高，降低了难度，提高了通过率！
-2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的毕业时间，让学员能快速拿到毕业证！较快1年考完全部科目，1.5年拿到毕业证书！
-大自考与小自考的毕业证书是完全一样的！含金量也是一样的！毕业学信网终身可查！全国认可！
+2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的畢業时间，让学员能快速拿到畢業！较快1年考完全部科目，1.5年拿到畢業书！
+大自考与小自考的畢業书是完全一样的！含金量也是一样的！畢業学信网终身可查！全国认可！
 3、大自考费用低，小自考需要向学校交学费，这也是他能降低难度的原因。学信网是不会区分大小自考的，考生们可以放心报考！
 四川现在自考正在报名院校：四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学等。
 学费低至2800元/年（按两年收取），学费包含教材资料现视频课程，现在报名还可申请助学补助400-600元，名额有限，想要报名的学员抓紧时间联系李老师咨询相关详情~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情可联系李老师 </t>
-    </r>
-  </si>
-  <si>
-    <t>小自考会计专业在哪个学校报名 报名要交什么资料</t>
+  </si>
+  <si>
+    <t>四川小自考会计专业报什么学校比较好 报名需要交哪些资料</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3322,100 +2475,62 @@
 校考科目：中国近现代史纲要、管理系统中计算机应用、资产评估、会计制度设计、概率论与数理统计（经管类）、线性代数、税务会计、会计电算化基础、社会经济统计学原理、国家税收、社会保障概论
 报考的同学可以从考试科目看出，小自考把专业性较强，难度较高的科目都放到了校考科目中，增加各位考生通过率，统考科目中大部分为理论基础知识，所以相对来说降低了很多难度！
 现在可报考院校：四川师范大学、西南财经大学、西华师范大学、西南石油大学、成都理工大学等神内重点大学都可报考，现在报名可参加4月统考，各位同学可提前做考试准备！
-报名资料：只需年满17岁都可报考，需提供身份证正反面扫描件、二寸浅蓝底证件照
+报名资料：只需年满17岁都可报考，需提供身份證正反面扫描件、二寸浅蓝底證件照
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-自考学历含金量高，较快可1年考完全部科目，1年9个月毕业，毕业颁发由学校和自考办联合颁发的学信网可查国家认可的正规毕业证书！
+自考学历含金量高，较快可1年考完全部科目，1年9个月畢業，畢業颁发由学校和自考办联合颁发的学信网可查国家认可的正规畢業书！
 详情咨询李老师 
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考是什么学历形式 含金量高吗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 怎么报名</t>
-    </r>
+    <t>四川小自考报名后怎么学习 需要在校上课吗</t>
   </si>
   <si>
     <t xml:space="preserve">
 首先报考前我们要明确什么是小自考，小自考是什么样的学历形式？
-高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可毕业！
-其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，毕业时间灵活，全部科目考试通过即可申请毕业，较快可1年时间考完全部科目，1年9个月毕业！对于很多觉得大自考比较难，毕业时间长的考生来说，小自考就是个很好的选择，而且自考毕业证书是不会区分大小自考的，所以证书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
+高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可畢業！
+其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，畢業时间灵活，全部科目考试通过即可申请畢業，较快可1年时间考完全部科目，1年9个月畢業！对于很多觉得大自考比较难，畢業时间长的考生来说，小自考就是个很好的选择，而且自考畢業书是不会区分大小自考的，所以證书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
 四川省内现在可报考的学较多，可报考专业也比较齐全，现在报考的同学们可以参加12月底的校考，同学们好集中精力备考明年4月的统考，费用在五六千左右，学校跟专业不同，收费也略微有些不同，很多考生也会问，除了学费外，还有些什么费用呢？
-报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科毕业证工本费150元，本科毕业证工本费+毕业答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生毕业为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
+报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科畢業工本费150元，本科畢業工本费+畢業答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生畢業为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
 本处可报考四川师范大学/成都理工大学/西南财经大学/西南石油大学等省内重点大学，专业及详情可加李老师咨询~
 报名地址：成都市成华区建设路北路三段成功银玺国际2810号
 咨询人：李老师 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>020年四川电大春季报名注册中 专业齐全 轻松毕业</t>
-    </r>
+    <t>国家开放大学网教春季报名注册中 考试简单 2.5年畢業</t>
   </si>
   <si>
     <t xml:space="preserve">
-四川国家开放大学限制户籍吗？多久毕业？学费多少？
-国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
-专科：药学、金融（证券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
+四川国家开放大学限制户籍吗？多久畢業？学费多少？
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
+专科：药学、金融（證券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
 本科：
 金融学、法学、社会工作、小学教育、学前教育（学前教师教育方向）、学前教育（学前教育管理方向）、广告学、英语（教育方向）、汉语言文学、汉语言文学（师范方向）、计算机科学与技术、机械设计制造及其自动化（机电一体化系统方向）、土木工程（建筑工程方向）、土木工程（建筑管理方向）、土木工程（道路桥梁方向）、水利水电工程、工商管理、会计学、物流管理、市场营销、行政管理、护理学、公共事业管理(卫生事业管理)、公共事业管理（教育管理）、
 公共事业管理（教育管理）（学校管理方向）、公共事业管理（社会教育及其应用心理方向）
 广告学、水利水电工程
-毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
 报名时间：2020年春季招生正在电子注册中，专科限制比率，想要报名的同学抓紧时间联系李老师报名哦~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 详情咨询李老师 
 </t>
   </si>
   <si>
-    <t>四川小自考报名网站 可以自己报吗 学费怎么交</t>
+    <t>四川小自考报名网站 报考流程 报考院校</t>
   </si>
   <si>
     <t xml:space="preserve">
 四川小自考报名网站 成都小自考报名流程 四川自考本科有哪些专业
-官网可查 学费低 拿证快 自主组织考试 通过率高
-学费低至：2700/年 统考3-6科，其他均为过程性考试，考试简单，专业齐全 覆盖专业达百分之八十 考前辅导 在线题库保证过关率
+官网可查 学费低 拿證快 自主组织考试 通过率高
+学费低至：2700/年 统考3-6科，其他均为过程性考试，考试简单，专业齐全 覆盖专业达百分之八十 考前辅导 在线题库保證过关率
 考试时间：每年 4 10月统考 每次最多报4科 7 12月校考
-最快一年半毕业 学信网可查 可报考公务员 事业单位
+最快一年半畢業 学信网可查 可报考公务员 事业单位
 关于小自考的介绍
 1、问：什么叫小自考专业？
 答：小自考专业是自学考试开考体制改革试点专业的俗称。
-2、问：参加小自考学习，毕业后待遇如何？
-答：小自考毕业生与大自考毕业生具有同等待遇。
+2、问：参加小自考学习，畢業后待遇如何？
+答：小自考畢業生与大自考畢業生具有同等待遇。
 学员修完本专业规
-定的全部课程，考试全部合格者，可领取由省自考办验印及主考院校署印的大学专科或大学本科毕业证书，并经由教育部统一电子注册。国发1988）
-15号文、国家教育部（2000）30号文中都明文规定：自学考试毕业证书获得者在工资待遇、公务员考试录用、企事业单位聘用、户籍管理和专业技术职务评审等方面享有与普通高等院校同类毕业生（大专或本科）同等的待遇。
+定的全部课程，考试全部合格者，可领取由省自考办验印及主考院校署印的大学专科或大学本科畢業书，并经由教育部统一电子注册。国发1988）
+15号文、国家教育部（2000）30号文中都明文规定：自学考试畢業书获得者在工资待遇、公务员考试录用、企事业单位聘用、户籍管理和专业技术职务评审等方面享有与普通高等院校同类畢業生（大专或本科）同等的待遇。
 3、问：在哪里报考小自考？
 答：小自考只能在各主考院校或经省自考办和主考院校认可的助学点 办理报名报考手续，各县（市、区）教育局自考办无办理小自考报名
 报考相关事务。
@@ -3425,7 +2540,7 @@
 咨询人：李老师 </t>
   </si>
   <si>
-    <t>西南财经大学小自考校考简单吗 报考大概要花多少钱</t>
+    <t>西南财经大学小自考现在报名还可以参加4月份统考吗 学费多少</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3441,46 +2556,80 @@
 咨询人：李老师 </t>
   </si>
   <si>
-    <t>想报西华师范大学小自考必须去南充吗 考试在哪里考</t>
+    <t>西华师范大学小自考报名时间 学费多少 考试难吗</t>
   </si>
   <si>
     <t xml:space="preserve">
-想报西华师范大学小自考要花多少钱？学费必须一次性交？
+想报西华师范大学小自考要花多少钱？学费必须一次交？
 西华师范大学（China West N??ormal University），简称“西华师大”，是四川省人民政府举办的全日制重点师范大学，学校座落在历史文化名城南充，是四川省第一所师范类高等学府和全国批学士、硕士学位授权单位。
-西华师范大学现招收自考专、本科学员。初中毕业的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
+西华师范大学现招收自考专、本科学员。初中畢業的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
 应用型（小自考）考试形式：统考6科（闭卷）+校考9-12科左右（过程性考试）
 自考一共涉及三个费用
-第一：学费（包括教材+辅导资料+教学课程）
+一：学费（包括教材+辅导资料+教学课程）
 （2800元/年，按两年收取）
-第二：考试费35/科 一般考18科
-第三：本科生涉及论文答辩费 480元（结束再交） 专科生只交毕业证工本费150左右 无答辩
+二：考试费35/科 一般考18科
+三：本科生涉及论文答辩费 480元（结束再交） 专科生只交畢業工本费150左右 无答辩
 考试地点： 统考四川任意市县均有考点 校考统一安排在成都
 可以结合教学课程和辅导资料在家自主复习
 考试时间：统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名时间：正在报名注册中，名额有限吗，想要报名的学生速速联系李老师咨询
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>2020年小自考报名时间是多久？真的能一年多拿证？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-2020年小自考报名时间是多久？真的能一年多拿证？
-四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在秋季招生，现在报名的学生可参加4月统考，考生们可提前为考试做准备！
-以抓紧时间咨询相关信息小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿毕业证书，是所有学历形式里面能最快毕业的学历，且自考含金量高，含金量仅次于统招全日制学历，毕业时间灵活，所有考试科目通过即可申请毕业！
+    <t>成都理工大学小自考报名要交学费吗 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+成都理工大学也开始对外招生自考本科专业的学生了，成都理工大学，在理工类的专业中，在川内也是比较有名的学校，如果想要报考一个成都理工大学的自考的同学就不要错过了，目前成都理工大学有多个专业对外招生，近期成都理工大学，学费下调，需要的同学要及时咨询报名了。
+以上为该本科专业学历提升的统考科目，其他均为校考，校考为过程性考试，详情咨询李老师~
+自考收费情况：
+学费低至2700元/年（按两年收取）学费包含视频教材资料/视频课程，现在报名可参加4月统考，同学们可提前为考试做准备了！
+今年畢業时间：1年考完，1年半畢業！！
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都
+报名时间：正在火热报名中，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考可以选择哪些学校报名 大概学费是多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小自考报名地点：成都市成华区建设北路三段成功银玺国际2810号
+可报考的学校有：
+四川师范大学、西南石油大学、成都理工大学、西华师范大学、成都大学、西南财经大学、四川大学、西南科技大学、电子科技大学、西南交通大学
+小自考可报考的专业有：
+会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理、现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价、汉语言文学、小学教育、学前教育、法律事务 汉语言文学、汉语言文学教育、法学、行政管理、英语教育、工商管理、工程造价、计算机信息管理、会计学、旅游管理、人力资源管理、林业及园林高新技术与管理、教育管理、学前教育、小学教育、音乐教育、美术教育、网络工程、新闻学、播音与主持、建筑经济管理等专业。现在可报考专业齐全。
+考试形式：6门统考+11门校考，校考为过程性考试，学员只需把重心放在统考科目上即可！
+学习形式：网络教学视频+复习资料
+自考收费情况：
+1，学费低至2800/年（按两年收取，现在报名可申请助学补贴200元-600元，名额有限，想要报名的学员速速联系李老师咨询~
+2，考试费35元/科
+3，专科畢業工本费150元，本科畢業论文答辩费+畢業工本费480元。
+除此以外绝无其他收费，详情咨询李老师~
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都 
+咨询方式：李老师 </t>
+  </si>
+  <si>
+    <t>2020年小自考注册时间是多久  报名方式是什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2020年小自考报名时间是多久？真的能一年多拿證？
+四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在春季招生，现在报名的学生可参加46月校考，考生们可提前为考试做准备！
+以抓紧时间咨询相关信息小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿畢業书，是所有学历形式里面能最快畢業的学历，且自考含金量高，含金量仅次于统招全日制学历，畢業时间灵活，所有考试科目通过即可申请畢業！
 小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
 现在可报考院校：四川师范大学、成都理工大学、西南财经大学、西南石油大学等省内重点大学，学费低至2800元/年，学费按两年收取，现在报名可申请助学补贴，名额有限，想要报考的学员速速联系李老师咨询~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>西南财经大学小自考校外人员可以报考吗？要交多少学费？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>西南财经大学小自考费用大概多少 除了学费还有什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 西南财经大学小自考校外人员可以报考吗？要交多少学费？
 西南财经大学（SWUFE）位于天府之??国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
 西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
@@ -3493,49 +2642,50 @@
 学费：7400元（全部学费）包含教材资料跟视频课程，以及班主任全程代班
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师 电话：199 8120 3720（微信同步） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>电大成人一年制中专报名注册中 报名网站 报名地址</t>
-  </si>
-  <si>
-    <t>欢迎咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-地址：成都市成华区建设北路三段成功银玺国际2810号，报名即签订保障学员权益的协议书，学员可放心报考！
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>现在报电大一年制中专多久可以毕业 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+报名即签订保障学员权益的协议书，学员可放心报考！
 1、颁发院校：中央广播电视中等专业学校
 2、年龄要求：18岁，不限户籍
 3、注册时间：每月22号截止注册，滚动招生
-4、学制：一年（7-10个月出证）
-5、有学籍，网上可查，可出学历认证报告
+4、学制：一年（7-10个月出證）
+5、有学籍，网上可查，可出学历认證报告
 6、不用考试、不用网上学习
-中央广播电视中等专业学校是一所经原国家教委批准、现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
+中央广播电视中等专业学校是一所经原国家教委批准、现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
 招生专业：
 建筑工程施工，消防工程师（前置学历必须真实），药剂，中药，会计，计算机应用，酒店服务与管理，农村经济综合管理，西，烹饪（西点方向），中餐烹饪，学前教育，园林技术，建筑设备安装，电气技术应用，机电技术应用，电子商务，市场营销等专业！
-学费低至1480元，vip班没有入学考试，没有平时作业，轻松拿到毕业证书！
-详情咨询李老师 电话：199 8120 3720（微信手机同号） QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考每年多久报名？有几次？2020年要涨学费？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+学费低至1480元，vip班没有入学考试，没有平时作业，轻松拿到畢業书！
+地址：成都市成华区建设北路三段成功银玺国际2810号，
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考2020年报名时间是多久 学费大概多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 四川小自考每年多久报名？有几次？2020年要涨学费？
 很多想要报自考的学员，不知道准确的注册时间，自考一年有四次注册机会，现在正在报名注册中，需要报名的学员可联系李老师咨询~
-自考主要是通过学员自己学习，并且参加考试，考试通过就可申请毕业，很多在职的学员因为自考难度太高，而不敢报名，首先，要明确，自考面向成人的考试，考试难度是不会特别大的，并且自考分为大自考跟小自考，大自考是学员自己在网上注册，16-18科全部参加统考，全部自学，没有任何学费，小自考是在学校注册学籍，只需要统考6科，其他9-12科都是校考，校考过程性考试，考前发资料，所以如果怕大自考有难度的学员可以考虑报小自考！
-很多学员会担心，小自考学历会不会不如大自考的含金量高，其实不然，大自考跟小自考学历含金量都是一样高的，毕业证不区分大小自考!学员可以放心报考，并且学校还有专门的班主任负责带班，也会有老师录制好的教学视频给大家学习，大专业也会开设面授课程，从而帮助学员尽快通过考试，早点拿到毕业证书！
+自考主要是通过学员自己学习，并且参加考试，考试通过就可申请畢業，很多在职的学员因为自考难度太高，而不敢报名，首先，要明确，自考面向成人的考试，考试难度是不会特别大的，并且自考分为大自考跟小自考，大自考是学员自己在网上注册，16-18科全部参加统考，全部自学，没有任何学费，小自考是在学校注册学籍，只需要统考6科，其他9-12科都是校考，校考过程性考试，考前发资料，所以如果怕大自考有难度的学员可以考虑报小自考！
+很多学员会担心，小自考学历会不会不如大自考的含金量高，其实不然，大自考跟小自考学历含金量都是一样高的，畢業不区分大小自考!学员可以放心报考，并且学校还有专门的班主任负责带班，也会有老师录制好的教学视频给大家学习，大专业也会开设面授课程，从而帮助学员尽快通过考试，早点拿到畢業书！
 现在可报考院校：四川师范大学/成都理工大学/西华师范大学/西南石油大学/西南财经大学等川内名牌大学！
 学费低至2700元/年（按两年收取）学费包含全套教材资料，视频课件，面授课程，想在报名还可申请助学补贴200-600元，名额有限，想要报名的学员速速联系李老师咨询~
-自考是只要全部科目考试通过就可申请毕业，学习能力较好的学员最快1年就可考完全部科目，1.5年毕业，毕业获颁由学校和自考办联合颁发的国家认可学信网终身可查的正规毕业证书！报名即签订协议，保障学员权益！
+自考是只要全部科目考试通过就可申请畢業，学习能力较好的学员最快1年就可考完全部科目，1.5年畢業，畢業获颁由学校和自考办联合颁发的国家认可学信网终身可查的正规畢業书！报名即签订协议，保障学员权益！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-详情可咨询李老师 电话：199 8120 3720（微信手机同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考什么专业简单易过？比较好考？学费？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+详情可咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考通过率高比较好考的专业是哪一个 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 四川小自考什么专业简单易过？比较好考？学费？四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 首先汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上，汉语言文学专业统考科目分别是：
@@ -3550,51 +2700,17 @@
 学费低至2900年（按两年收取），现在报名可申请助学金200元-600元，名额有限，想要报名的学员速咨询李老师~
 考试时间：4月/10月统考 6月/12月校考
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-咨询方式：李老师 电话：199 8120 3720（微信同手机号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>成都理工大学有自考工程造价专业吗？校考好考吗？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-成都理工大学也开始对外招生自考本科专业的学生了，成都理工大学，在理工类的专业中，在川内也是比较有名的学校，如果想要报考一个成都理工大学的自考的同学就不要错过了，目前成都理工大学有多个专业对外招生，近期成都理工大学，学费下调，需要的同学要及时咨询报名了。
-以上为该本科专业学历提升的统考科目，其他均为校考，校考为过程性考试，详情咨询李老师~
-自考收费情况：
-学费低至2700元/年（按两年收取）学费包含视频教材资料/视频课程，现在报名可参加4月统考，同学们可提前为考试做准备了！
-今年毕业时间：1年考完，1年半毕业！！
-考试地点： 统考四川任意市县均有考点 校考统一安排在成都
-报名时间：正在火热报名中，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设北路三段成功银玺国际2810号
-详情可咨询李老师 电话：199 8120 3720（微信手机同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考报名入口 名校招生 专业齐全 毕业快速</t>
-  </si>
-  <si>
-    <t xml:space="preserve">小自考报名地点：成都市成华区建设北路三段成功银玺国际2810号
-可报考的学校有：
-四川师范大学、西南石油大学、成都理工大学、西华师范大学、成都大学、西南财经大学、四川大学、西南科技大学、电子科技大学、西南交通大学
-小自考可报考的专业有：
-会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理、现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价、汉语言文学、小学教育、学前教育、法律事务 汉语言文学、汉语言文学教育、法学、行政管理、英语教育、工商管理、工程造价、计算机信息管理、会计学、旅游管理、人力资源管理、林业及园林高新技术与管理、教育管理、学前教育、小学教育、音乐教育、美术教育、网络工程、新闻学、播音与主持、建筑经济管理等专业。现在可报考专业齐全。
-考试形式：6门统考+11门校考，校考为过程性考试，学员只需把重心放在统考科目上即可！
-学习形式：网络教学视频+复习资料
-自考收费情况：
-1，学费低至2800/年（按两年收取，现在报名可申请助学补贴200元-600元，名额有限，想要报名的学员速速联系李老师咨询~
-2，考试费35元/科
-3，专科毕业证工本费150元，本科毕业论文答辩费+毕业证工本费480元。
-除此以外绝无其他收费，详情咨询李老师~
-考试地点： 统考四川任意市县均有考点 校考统一安排在成都 
 咨询方式：李老师 </t>
   </si>
   <si>
-    <t>小自考专升本行政管理专业报哪个学校比较好？学费多少？</t>
+    <t>四川小自考行政管理专业适合哪些人报考 报名条件</t>
   </si>
   <si>
     <t xml:space="preserve">
 四川小自考行政管理就业如何？现在有哪些学校可以报？
 行政管理(administration manag??ement)是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展,行政管理的对象日益广泛,包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法,以减少人力、物力、财力和时间的支出和浪费,提高行政管理的效能和效率。
 专业统考科目:社会学概论丶当代中国政治制度丶西方政治制度丶公共政策丶领导科学丶公务员制度
-专业校考科目:中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理(选考课程不低于10学分。不考英语(二)的再另选三门课程,总学分不低于24学分)】毕业考核(或论文综合实践实验实习等)
+专业校考科目:中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理(选考课程不低于10学分。不考英语(二)的再另选三门课程,总学分不低于24学分)】畢業考核(或论文综合实践实验实习等)
 行政管理就业方向:
 1. 在县级以上政府的民政职能部门和事业单位就业;
 2. 从事乡镇民政办公室管理工作;
@@ -3603,24 +2719,24 @@
 5. 从事婚姻服务中介机构、收养登记服务中介机构管理工作;
 6. 从事婚姻管理、收养登记管理、行政区划管理工作;
 7. 从事地名管理、社团管理工作等。
-8. 可从事事业单位的行政协理员,办公室主任、行政主管、协调层或决策层高级助理,中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职毕业生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作,学校、科研部门的教学或科研工作,大、中型企业和企业集团
+8. 可从事事业单位的行政协理员,办公室主任、行政主管、协调层或决策层高级助理,中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职畢業生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作,学校、科研部门的教学或科研工作,大、中型企业和企业集团
 考试科目：统考6科(闭卷)+校考9-12科左右(过程性考试）
 学费低至2800元/年(按两年收取)学费包含教材资料、在线教学、面授,现在报名还可申请200元-600元助学补贴,名额有限,想要报名的学员速速联系李老师咨询~
 考试时间:
 统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名资料:身份证扫描件和一张两寸蓝底照片(电子版)
+畢業申请时间每年的6月和12月
+报名资料:身份證扫描件和一张两寸蓝底照片(电子版)
 报名时间:正在报名注册中(名额有限,赶快抓紧时间报名哦)
 报名地址:成都市成华区建设北路三段成功银玺国际2810号
 详情可咨询李老师 </t>
   </si>
   <si>
-    <t>西南财经大学有小自考市场营销专业吗？考几科？</t>
+    <t>2020年西财小自考市场营销专业还可以报名吗 统考哪些科目</t>
   </si>
   <si>
     <t xml:space="preserve">
-四川小自考市场营销专业毕业从事什么工作？报名怎么报？
-市场营销专业毕业生可以从事市场调研、营销策划、广告策划、市场开发、营销管理、推销服务和教学科研等工作，也可在国内外高校及研究机构中继续深造。还可以在工商、外贸、金融、保险、证券、旅游、房地产等企事业单位从事企业营销管理、客户资源管理、网络营销管理、营销诊断、市场调查和咨询等工作。但是刚踏入社会选择私企的销售工作会比较好找些，一般国企外企虽然待遇和福利会好些，但是招人都只会招有经验的销售人员，对销售人员的聘用要求会很高，也会比较严格些，竞争也更激烈。
+四川小自考市场营销专业畢業从事什么工作？报名怎么报？
+市场营销专业畢業生可以从事市场调研、营销策划、广告策划、市场开发、营销管理、推销服务和教学科研等工作，也可在国内外高校及研究机构中继续深造。还可以在工商、外贸、金融、保险、證券、旅游、房地产等企事业单位从事企业营销管理、客户资源管理、网络营销管理、营销诊断、市场调查和咨询等工作。但是刚踏入社会选择私企的销售工作会比较好找些，一般国企外企虽然待遇和福利会好些，但是招人都只会招有经验的销售人员，对销售人员的聘用要求会很高，也会比较严格些，竞争也更激烈。
 市场营销专业考哪些科目呢？统考几科？考试难度大吗？
 统考：国际市场营销学、国际贸易理论与实务、金融理论与实务、消费经济学、商品流通概论、国际商务谈判
 校考：中国近现代史纲要、管理系统中计算机应用、企业会计学、市场营销策划、概率论与数理统计（经管类）、管理学原理、货币银行学、企业经营战略
@@ -3632,12 +2748,12 @@
 </t>
   </si>
   <si>
-    <t>四川小自考教育管理本科应该报考什么学校</t>
+    <t>四川小自考有教育管理专业吗 可以报哪些学校</t>
   </si>
   <si>
     <t xml:space="preserve">
 四川小自考专升本教育管理专业考什么？报哪个学校？
-该专业需要统考6科，校考9科，一年四次考试机会，较快一年即可考完全部科目，2年左右毕业！现在报名可参加4月的统考，可报考2-4科，现在报名的考生可领取教材注册学习账号准备考试！
+该专业需要统考6科，校考9科，一年四次考试机会，较快一年即可考完全部科目，2年左右畢業！现在报名可参加4月的统考，可报考2-4科，现在报名的考生可领取教材注册学习账号准备考试！
 统考科目：计算机应用基础、教育学（二）、教育心理学、教育管理原理、教育经济学、教育科学研究方法（二）
 校考科目：中国近现代史纲要、马克思主义基本原理概论、教育评估和督导、教育统计与测量、教育法学、教育管理心理学、中外教育管理史、学前教育管理、中小学教育管理、教育行政学、学校管理学、教育预测与规划
 以上为该专业考试科目，需要看书学习的就是统考6科，其他科目均为过程性考试，学员只需把学习重心放在统考科目上即可！
@@ -3647,10 +2763,7 @@
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考报可以报考哪些专业</t>
+    <t>四川师范大学小自考报名结束了吗 报名需要哪些资料</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3662,12 +2775,12 @@
 考试科目：统考：6科 校考：9-12科（由学校组织，过程性考试）
 学费：3600元/年（按两年收取）包含教材资料，网上课件，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
-毕业由自考办和四川师范大学联合颁发的国家认可的毕业证书，学信网可查！
+畢業由自考办和四川师范大学联合颁发的国家认可的畢業书，学信网可查！
 详情咨询李老师 
 </t>
   </si>
   <si>
-    <t>四川师范大学小自考报名时间是多久 要注意什么</t>
+    <t>2020年小自考统考在几月份 什么时候报名 学费多少</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3685,17 +2798,17 @@
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>四川小自考最全报考资料</t>
+    <t>四川小自考报名时间 哪些专业比较好考 通过率高</t>
   </si>
   <si>
     <t xml:space="preserve">
-四川小自考注册时间是多久？小自考通过率高的专业？四川小自考注册时间是多久？小自考通过率高的专业作为一名自考生，你对自考的报名、复习、申请毕业等，这些你都知道吗？今天李老师带大家熟悉一下：
+四川小自考注册时间是多久？小自考通过率高的专业？四川小自考注册时间是多久？小自考通过率高的专业作为一名自考生，你对自考的报名、复习、申请畢業等，这些你都知道吗？今天李老师带大家熟悉一下：
 一、怎么报名、报考？
 现在多数省市都是网上报名，报名网站一般都是本地的自考办网站，自考新生还需要现场报名，想轻松一些的可以选择自考助学机构报名，可以省去报名和报考步骤更省心。
 二、考试时间
 四川省有小自考，每年可以考试4次，分别在4月、6月、10月、12月；现在正在秋季报名注册中，现在报名的考生可参加4月统考，同学们可报名领取教材为4月统考做考试准备
-三、自考毕业需要几年？
-自考毕业需要几年这个问题因人因地而异。如果你选择好考的专业，学习能力又强，一年半全部考完申请毕业也是可行的，一般时间在2年左右，注意！这是指小自考！
+三、自考畢業需要几年？
+自考畢業需要几年这个问题因人因地而异。如果你选择好考的专业，学习能力又强，一年半全部考完申请畢業也是可行的，一般时间在2年左右，注意！这是指小自考！
 四、自考什么专业比较容易考过？
 一般来说理工科的专业困难一些，要考到数学之类的，文科类的专业相对容易，如行政管理、人力资源、学前教育等，可以根据自己的个人爱好和情况来。
 五、自考报哪个学校比较好？
@@ -3704,23 +2817,7 @@
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>四川小自考市场营销专业怎么样</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-西南财经大学小自考有市场营销专业吗？就业前景如何？
-市场营销专业毕业生可以从事市场调研、营销策划、广告策划、市场开发、营销管理、推销服务和教学科研等工作，也可在国内外高校及研究机构中继续深造。还可以在工商、外贸、金融、保险、证券、旅游、房地产等企事业单位从事企业营销管理、客户资源管理、网络营销管理、营销诊断、市场调查和咨询等工作。但是刚踏入社会选择私企的销售工作会比较好找些，一般国企外企虽然待遇和福利会好些，但是招人都只会招有经验的销售人员，对销售人员的聘用要求会很高，也会比较严格些，竞争也更激烈。
-市场营销专业考哪些科目呢？统考几科？考试难度大吗？
-统考：国际市场营销学、国际贸易理论与实务、金融理论与实务、消费经济学、商品流通概论、国际商务谈判
-校考：中国近现代史纲要、管理系统中计算机应用、企业会计学、市场营销策划、概率论与数理统计（经管类）、管理学原理、货币银行学、企业经营战略
-统考6科+校考9科，校考为过程性考试，由我们统一组织监考，学员只需把学习重心放在统考科目上即可！一年四次考试机会，两次校考，两次统考，较快一年考完全部科目，2年左右右！
-西南财经大学正在招收小自考市场营销专业的学生，名额有限，想要报名的同学可加李老师详细咨询~
-学费低至3700元/年（按两年收取）学费包含全新的教材资料+单独的视频学习平台账号+考前真题，帮助学员顺利通过考试，更多专业及详情可加李老师详细咨询~
-报名地址：成都市成华区建设北路三段成功银玺国际2810号（报名即签订保障学员权益的协议书，学员可放心报考）
-咨询人：李老师 </t>
-  </si>
-  <si>
-    <t>四川小自考工程造价专业怎么样</t>
+    <t>四川自考工程造价专业太难怎么办 有办法简单一些吗</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3735,7 +2832,7 @@
 咨询人：李老师 </t>
   </si>
   <si>
-    <t>西南财经大学小自考难吗？什么专业通过率高？</t>
+    <t>2020年西南财经大学小自考有哪些专业比较好 什么时候报名</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3751,13 +2848,13 @@
 学费：7400元（全部学费）包含教材资料跟视频课程，以及班主任全程代班
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师</t>
   </si>
   <si>
-    <t>西华师范大学学前教育专业考几科？今年多久考试？</t>
+    <t>西华师范大学学前教育怎么样</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3776,7 +2873,7 @@
 咨询方式：李老师 </t>
   </si>
   <si>
-    <t>西南财经小自考选择那些专业好考 学费多少</t>
+    <t>西南财经小自考怎么样</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3792,21 +2889,21 @@
 </t>
   </si>
   <si>
-    <t>四川小自考护理专业可以报哪个学校 考试难度</t>
+    <t>四川小自考护理专业怎么样 可以选择什么名校</t>
   </si>
   <si>
     <t xml:space="preserve">
 四川小自考护理专业难度高吗？报哪个学校通过率高？
-该专业学生主要学习相关的人文社会的科学知识和基础医学、预防保健的基本理论、基本知识和临床护理技能的培训，具有对服务对象实施整体护理系社区健康服务的基本能力。 毕业后可在护理领域内从事临床护理、预防保健、护理管理、护理教学和护理科研。
+该专业学生主要学习相关的人文社会的科学知识和基础医学、预防保健的基本理论、基本知识和临床护理技能的培训，具有对服务对象实施整体护理系社区健康服务的基本能力。 畢業后可在护理领域内从事临床护理、预防保健、护理管理、护理教学和护理科研。
 学生就业主要分布在各级各类综合医院、专科医院、急救中心、康复中心、社区医疗服务中心，并且从事临床护理、护理管理工作。 如果国家发展到一定的程度，还可以为每一个家庭和小区配备一个护士，到那个时候护士可以进入家庭和社区，条件是国家有能力给这些人付工资。
 护理专业战队性强，对专业知识有要求，建议有相关工作经验或基础的考生报考，那么护理专业需要考几科呢？
-统考：卫生统计学、护理教育导论、急救护理学、精神障碍护理学、儿科护理学（二）、计算机应用基础，只需统考6科，学员只需把学习重心放在统考科目上即可，其余科目均为过程性校考，小自考一年考四次，较快可一年考完全部科目，2年左右时间毕业！
+统考：卫生统计学、护理教育导论、急救护理学、精神障碍护理学、儿科护理学（二）、计算机应用基础，只需统考6科，学员只需把学习重心放在统考科目上即可，其余科目均为过程性校考，小自考一年考四次，较快可一年考完全部科目，2年左右时间畢業！
 成都大学护理专业正在招生报名注册中，学费低至3000元/年（学费按两年收取）现在报名的同学可申请助学补贴，可减免200-600元，想要报名的考生可加李老师详细咨询~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号，报名即签订保障学员权益学员的协议书，学员可放心报考！
 咨询人：李老师 </t>
   </si>
   <si>
-    <t>四川小自考人力资源管理毕业找什么工作 报考院校</t>
+    <t>四川小自考人力资源管理专业怎么样 可以选择哪些名校</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3815,46 +2912,26 @@
 考试科目有哪些呢？
 统考：管理学原理、公共关系学、管理思想史、劳动关系与劳动法、人员素质测评理论与方法、人力资源开发与管理
 校考：中国近现代史纲要、基础会计学、管理系统中计算机应用、经济学（二）、薪酬管理、工作分析、社会学概论、行政管理学
-该专业只需统考6科，其余科目均为过程性校考，统考科目会开设课程，所有科目均为理论知识，主要靠学员记忆，是比较简单好考的专业，很多学员想要快速毕业可以考虑报考该专业！
+该专业只需统考6科，其余科目均为过程性校考，统考科目会开设课程，所有科目均为理论知识，主要靠学员记忆，是比较简单好考的专业，很多学员想要快速畢業可以考虑报考该专业！
 可报考哪些学校呢？
 成都理工大学，西南财经大学都可以报考，考试科目完全相同，含金量也是一样的，考试难度也是一样的，学员可根据自身情况选择适合自己的学校报考！报名详情可加李老师详细咨询！
 报名地址：成都市成华区建设路成功银玺国际2810号
 咨询人：李老师 </t>
   </si>
   <si>
-    <t>成都理工大学自考专升本可以报工商管理专业吗 学费多少</t>
+    <t>成都理工大学2020年小自考在哪里报名 学费标准</t>
   </si>
   <si>
     <t xml:space="preserve">
-成都理工大学小自考工商管理专业如何？怎么报名？
 成都理工大学是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。成都理工大学是理科类专业，其中理科专业均为优势专业，在省内排位都是前几名哦，所以想要报考理科专业的同学可以选择报考成都理工大学！
-工商管理专业的应用性很强，它的目标是依据管理学、经济学的基本理论，通过运用现代管理的方法和手段来进行有效的企业管理和经营决策，保证企业的生存和发展。适应国家和地方各级经济管理部门、行业管理部门、大中型工商企业经营管理、涉外公司经营管理、金融、商贸企业等领域的工作。
-工商管理专业应用范围广，毕业好就业，也可用于考公务员都是完全没问题的，该专业只需统考6科，其他科目均为过程性校考，学员只需把学习重心放在统考科目上即可，小自考一年有四次考试机会，较快学员可一年考完全部科目，2年左右毕业，报名详情可加李老师详细咨询~
-学费低至2700元/年（学费按两年收取，学费包含教材资料+单独的视频学习平台账号+考前资料）早报早毕业，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+工商管理专业的应用性很强，它的目标是依据管理学、经济学的基本理论，通过运用现代管理的方法和手段来进行有效的企业管理和经营决策，保證企业的生存和发展。适应国家和地方各级经济管理部门、行业管理部门、大中型工商企业经营管理、涉外公司经营管理、金融、商贸企业等领域的工作。
+工商管理专业应用范围广，畢業好就业，也可用于考公务员都是完全没问题的，该专业只需统考6科，其他科目均为过程性校考，学员只需把学习重心放在统考科目上即可，小自考一年有四次考试机会，较快学员可一年考完全部科目，2年左右畢業，报名详情可加李老师详细咨询~
+学费低至2700元/年（学费按两年收取，学费包含教材资料+单独的视频学习平台账号+考前资料）早报早畢業，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 咨询人：李老师 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>020年四川4月份统考多久考试 考哪些科目</t>
-    </r>
+    <t>2020年小自考4月统考考试时间出来了吗 多久报名</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3862,13 +2939,13 @@
 2020年四川小自考4月统考考试安排已出 考试时间是多久？
 很多同学想要报考小自考，但是不知道怎么报名，怎么学习，考试安排，下面李老师跟大家详细解答一下关于小自考的一些疑问：
 小自考可以选择到报名点报名，只需提交资料注册即可，现在报名的考生都可参加4月统考，现在距离考试只有三个月的时间了，可报名领取教材资料提前为考试做考前准备，增加考生考试通过率！
-自学考试的学习形式，主要还是需要学员自己自学，但是学校为了增加同学们的通过率，也会开设视频课程，发放考前真题资料，从而帮助同学们顺利通过考试，并且报考小自考的同学，全程会有班主任带班，避免学生不知道考试科目，以及考试时间从而延误毕业的状况，尽量做到让学员尽快早毕业！
+自学考试的学习形式，主要还是需要学员自己自学，但是学校为了增加同学们的通过率，也会开设视频课程，发放考前真题资料，从而帮助同学们顺利通过考试，并且报考小自考的同学，全程会有班主任带班，避免学生不知道考试科目，以及考试时间从而延误畢業的状况，尽量做到让学员尽快早畢業！
 报考院校：西南财经大学、西华师范大学、四川师范大学、西南石油大学、成都理工大学、成都大学等省内重点大学，现在可报考专业齐全，想咨询专业详情的可加李老师详细咨询~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>四川小自考汉语言文学专业报名 西华师范这个专业如何</t>
+    <t>西华师范大学小自考有汉语言文学专业吗 考试科目多吗</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3876,13 +2953,13 @@
 汉语言文学专业主要培养掌握汉语和中国文学方面的基本知识，受到有关理论、发展历史、研究现状等方面的系统教育和业务能力的基本训练，可在科研机关、高等院校从事研究、教学工作、有的可从事对外汉语教学。可适宜在党政机关，包括报刊宣传、新闻出版、影视文化、互联网、对外交流其他企事业部门从事语言文字工作的专门人才。汉语言文学专业就业范围广，通过率高，西华师范大学2020年春季正在招收自考汉语言文学专业的考生，想要报名的考生可加李老师详细咨询~
 统考：中国现代文学史、中国古代文学史（一）、中国古代文学史（二）、外国文学史、语言学概论、马列文论选读，一共统考6科，均为文科科目，需学员看书记忆！其余科目均为学校组织的过程性考试，学员只需把学习重心放在统考科目上即可！
 报名条件：只需年满17岁都可报名，现在报名可参加4月统考，4月考试安排已出，同学们可根据考试安排选择科目进行考试准备！
-报名资料：身份证正反面照片、两寸蓝底证件照电子档
+报名资料：身份證正反面照片、两寸蓝底證件照电子档
 报名方式：可直接交资料网上报名也可到本报名处现场报名，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810-2811号
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>想要报西南财大的小自考 需要什么条件才能报名</t>
+    <t>西南财经大学小自考怎么报名 报名需要满足什么条件</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -3896,30 +2973,29 @@
 考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
 学费：7400元（全部学费），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 考试时间：统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路北路成功银玺国际2810号
 详情可咨询 李老师</t>
   </si>
   <si>
-    <t>西南财经大学小自考金融学专业报名注册中 优势专业</t>
+    <t>报西南财经大学自考金融学专业学费贵吗 什么时候报名</t>
   </si>
   <si>
     <t xml:space="preserve">
-西南财经小自考金融学专业毕业好就业吗？学费多少？
-学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。西南财经大学正在招收小自考金融学专业，报名即可参加考试，较快1年考完全部科目，2年左右时间毕业！
-统考：管理学原理、财务管理学、国际金融、银行会计学、国际市场营销学、金融风险控制与管理，一共6科统考，统考科目学校会开设视频课程，考前资料，帮助学员顺利通过考试，早点毕业！其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
-西南财经大学金融学专业是学校优势专业，西财也是985,211的院校，金融学的主要就业方向：金融行业监管部门、各类银行、信用社、证券/信托/基金机构、保险公司、资产管理公司、上市公司证券部、高校或研究所等各类金融机构从事金融行业工作或教学科研等，就业范围广，想要报考的学员可加李老师详细咨询~
+西南财经小自考金融学专业畢業好就业吗？学费多少？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。西南财经大学正在招收小自考金融学专业，报名即可参加考试，较快1年考完全部科目，2年左右时间畢業！
+统考：管理学原理、财务管理学、国际金融、银行会计学、国际市场营销学、金融风险控制与管理，一共6科统考，统考科目学校会开设视频课程，考前资料，帮助学员顺利通过考试，早点畢業！其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+西南财经大学金融学专业是学校优势专业，西财也是985,211的院校，金融学的主要就业方向：金融行业监管部门、各类银行、信用社、證券/信托/基金机构、保险公司、资产管理公司、上市公司證券部、高校或研究所等各类金融机构从事金融行业工作或教学科研等，就业范围广，想要报考的学员可加李老师详细咨询~
 学费：3700元/年（学费按两年收取）学费包含教材资料+单独的视频学习平台+真题资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 详情咨询李老师 </t>
   </si>
   <si>
-    <t>成都理工大学小自考工程造价专业好吗？2020年多久报名？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-成都理工大学小自考工程造价专业好吗？2020年多久报名？
+    <t>成都理工大学小自考专升本有工程造价专业吗 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都理工大学小自考工程造价专业好吗？2020年多久报名？
 成都理工大学创办于1956年，由国务院批准建立，原名成都地质勘探学院，以重庆大学地质系、西北大学和南京大学地质系的工科部分为基础，同时抽调北京地质学院、东北地质学院部分干部教师组建。
 工程造价专业是理科工程类优势专业，成都理工大学是理科类院校里面较好的，在四川都是排位比较高的学校，想要报考工程造价专业的学生可以选择报考成都理工大学！
 工程造价专业考哪些科目呢？
@@ -3928,74 +3004,73 @@
 报名时间：正在报名注册中，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
 考试时间为4月11-12号，4月统考考试安排已出，同学们可报名领取教材备考4月统考，可选择1-4科准备，距离考试只有不到3个月的时间了，想要报名的同学可详细咨询李老师~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川小自考专升本小学教育大概需要多少学费？报哪个学校？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川小自考小学教育专业好考吗 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 四川小自考专升本小学教育大概需要多少学费？报哪个学校？
 小学教育专业培养德、智、体全面发展的，具有较高教育理论素养和较强教育实际工作能力（语、数、英）小学教师及教育科研、各级教育行政管理人员和其他教育工作者。
 小学教育属于教育类专业，可以选择报考师范类院校，现在四川可报考的院校有四川师范大学跟西华师范大师，这两所学校全部学费在5000-7000不等，不同学校收费标准不同，专业及学费详情可加李老师详细咨询~
 考试科目：计算机应用基础、教育学（二）、中小学教育管理、心理卫生与心理辅导、课程与教学论、教育心理学，只需统考6科，其他科目均为过程性校考，以上统考科目学校会开设视频课程，考前也会发考前资料给大家，帮助同学们顺利通过考试！
-小自考学费只收两年，学费包含教材资料+单独的视频学习平台账号+考前资料，除此以外只有考试费35元/科，本科有毕业证工本费+毕业答辩费480元，其他没有任何费用了，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
-报名时间：一年四次注册机会，现在正在火热报名中，现在报名的考生可参加4月统考！
-同学们可提前为4月考试做考前准备了，考试时间为4月11-12号，可报考1-4科，距离考试只剩不到3个月的时间，想要报名的同学可联系李老师报名，领取教材资料备考！
+小自考学费只收两年，学费包含教材资料+单独的视频学习平台账号+考前资料，除此以外只有考试费35元/科，本科有畢業工本费+畢業答辩费480元，其他没有任何费用了，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：一年四次注册机会，现在正在火热报名中！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号                                                                                                                      详情咨询李老师    电话：199 8120 3720（vx同号）   扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>2020年西南财经大学小自考新增人力资源管理专业报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年西财自考有开设人力资源管理专业吗？需要统考几科？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+2020年西南财经大学春季新增人力资源管理专业可以报考，该专业只需统考6科，其他科目均为过程性校考，学员把学习重心放在统考科目上即可，一年四次考试机会，较快1年考完全部科目，2年左右畢業！
+考试科目：管理学原理、公共关系学、管理思想史、劳动关系与劳动法、人员素质测评理论与方法、人力资源开发与管理，统考科目学校会开设视频课程，学员可登陆app学习，考前也会发真题资料，帮助学员顺利通过考试！
+企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作，人力资源管理专业畢業好就业，想要报名的同学可加李老师详细咨询~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>2020年西财自考有开设人力资源管理专业吗？需要统考几科？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-2020年西财自考有开设人力资源管理专业吗？需要统考几科？
-学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
-2020年西南财经大学春季新增人力资源管理专业可以报考，该专业只需统考6科，其他科目均为过程性校考，学员把学习重心放在统考科目上即可，一年四次考试机会，较快1年考完全部科目，2年左右毕业！
-考试科目：管理学原理、公共关系学、管理思想史、劳动关系与劳动法、人员素质测评理论与方法、人力资源开发与管理，统考科目学校会开设视频课程，学员可登陆app学习，考前也会发真题资料，帮助学员顺利通过考试！
-企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作，人力资源管理专业毕业好就业，想要报名的同学可加李老师详细咨询~
+</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>四川自考会计专业难吗 小自考会不会简单些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小自考专升本会计专业难度 可以报什么学校？
+会计专业可报考院校：四川师范大学、西南财经大学、西华师范大学、成都理工大学、西南石油大学，以上几所学校会计专业都在招生报名中，会计专业对专业知识有一定要求，所以建议有相关学习经历或者工作经验的学员报考！
+考试科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报表分析（一） 统考6科，其他科目均为过程性校考，会计专业6科统考+11科校考，一年四次考试机会，学习情况较好的同学可一年考完全部科目，2年左右畢業！想要报考的同学可根据自身情况选择学校报考，更多专业及学校的详情可加李老师详细咨询~
+自考学历含金量高，社会认可度高，畢業可考證，考公务员都是没问题的，现在正在报名注册中，报名领取教材备考，学费低至2700元/年，学费按两年收取，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>小自考专升本会计专业难度 可以报什么学校？</t>
-  </si>
-  <si>
-    <t>小自考专升本会计专业难度 可以报什么学校？
-会计专业可报考院校：四川师范大学、西南财经大学、西华师范大学、成都理工大学、西南石油大学，以上几所学校会计专业都在招生报名中，会计专业对专业知识有一定要求，所以建议有相关学习经历或者工作经验的学员报考！
-考试科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报表分析（一） 统考6科，其他科目均为过程性校考，会计专业6科统考+11科校考，一年四次考试机会，学习情况较好的同学可一年考完全部科目，2年左右毕业！想要报考的同学可根据自身情况选择学校报考，更多专业及学校的详情可加李老师详细咨询~
-自考学历含金量高，社会认可度高，毕业可考证，考公务员都是没问题的，现在正在报名注册中，报名领取教材备考，学费低至2700元/年，学费按两年收取，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
-报名地址：成都市成华区建设北路三段成功银玺国际2810号
-详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>西华师范大学小自考有哪些专业 在哪里可以查专业表</t>
+</t>
+  </si>
+  <si>
+    <t>西华师范大学小自考什么时候开始报名 报考专业有哪些</t>
   </si>
   <si>
     <t xml:space="preserve">西华师范大学小自考有哪些专业 在哪里可以查专业表
 西华师范大学（China West N??ormal University），简称“西华师大”，是四川省人民政府举办的全日制重点师范大学，学校座落在历史文化名城南充，是四川省第一所师范类高等学府和全国批学士、硕士学位授权单位。
-西华师范大学现招收自考专、本科学员。初中毕业的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
+西华师范大学现招收自考专、本科学员。初中畢業的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
 应用型（小自考）考试形式：统考6科（闭卷）+校考9-12科左右（过程性考试） 
 专科：会计、学前教育、小学教育、法律事务、人力资源管理、汉语言文学 本科：法学、学前教育、小学教育、汉语言文学、工商管理、市场营销、会计学、人力资源管理、行政管理、教育管理、旅游管理、美术教育
 自考一共涉及三个费用：
 第一：学费（包括教材+辅导资料+教学课程）
 （2800元/年，按两年收取）
 第二：考试费35/科 一般考18科
-第三：本科生涉及论文答辩费 480元（结束再交） 专科生只交毕业证工本费150左右 无答辩
+第三：本科生涉及论文答辩费 480元（结束再交） 专科生只交畢業工本费150左右 无答辩
 考试地点： 统考四川任意市县均有考点 校考统一安排在成都
 可以结合教学课程和辅导资料在家自主复习
 考试时间：统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名时间：正在报名注册中，名额有限吗，想要报名的学生速速联系李老师咨询
-报名地址：成都市成华区建设北路三段成功银玺国际2810号 详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>西南财经大学小自考可以在网上报名吗？学费怎么交？</t>
+报名地址：成都市成华区建设北路三段成功银玺国际2810号 
+</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考网上报名地址在哪里 学费多少 怎么报名</t>
   </si>
   <si>
     <t>西南财经大学小自考可以在网上报名吗？学费怎么交？
@@ -4008,82 +3083,471 @@
 考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
 学费：7400元（全部学费），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 考试时间：统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版），报名相关详情咨询李老师~
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版），报名相关详情咨询李老师~
 报名地址：成都市成华区建设路北路成功银玺国际2810号
 详情可咨询 电话：199 8120 3720（vx同号） QQ：1916 3720 47</t>
   </si>
   <si>
-    <t>小自考环境设计专业好考吗？成都有哪些学校可以报？</t>
-  </si>
-  <si>
-    <t>小自考环境设计专业好考吗？成都有哪些学校可以报?
+    <t>四川小自考环境设计专业考试科目多吗 可以报考什么学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小自考环境设计专业好考吗？成都有哪些学校可以报?
 成都理工大学是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。成都理工大学是理科类专业，其中理科专业均为优势专业，在省内排位都是前几名哦，所以想要报考理科专业的同学可以选择报考成都理工大学！
 环境艺术设计是指对于建筑室内外的空间环境，通过艺术设计的方式进行整合设计的一门实用艺术。环境艺术所涉及的学科很广泛，包括建筑学、城市规划学、人类工程学、环境心理学、设计美学、社会学、文学、史学、考古学、宗教学、环境生态学、环境行为学等学科。
-成都理工大学现在招收自考环境设计专业的学生，该专业只需要统考4科，其他均为过程性校考，一年四次考试机会，较快可一年考完全部科目，2年左右毕业！
-考试科目：04026设计美学、04489室内装饰材料、05424现代设计史、08918工程图学基础，以上四科为统考科目，需要学员看书学习，考前会发给大家考前资料，同学们可大量刷题增加通过率，环境设计专业统考科目较少，很多想要快速考完拿证的同学可以选择报考该专业，该专业毕业后可以从事室内外装饰装修设计，就业范围广！
+成都理工大学现在招收自考环境设计专业的学生，该专业只需要统考4科，其他均为过程性校考，一年四次考试机会，较快可一年考完全部科目，2年左右畢業！
+考试科目：04026设计美学、04489室内装饰材料、05424现代设计史、08918工程图学基础，以上四科为统考科目，需要学员看书学习，考前会发给大家考前资料，同学们可大量刷题增加通过率，环境设计专业统考科目较少，很多想要快速考完拿證的同学可以选择报考该专业，该专业畢業后可以从事室内外装饰装修设计，就业范围广！
 报名时间：现在正在报名注册中，现在报名学费低至2700元一年（按两年收取），报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考报名怎么报？需要到现场报名吗？</t>
+</t>
+  </si>
+  <si>
+    <t>四川师范大学在成都哪些地方可以报小自考 报名费多少</t>
   </si>
   <si>
     <t xml:space="preserve">四川师范大学小自考报名怎么报？需要到现场报名吗？
 四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
-四川师范大学正在招收小自考专本科学员，专业齐全，考试简单，学员较快可1年考完全部科目，2年左右拿毕业证书！
+四川师范大学正在招收小自考专本科学员，专业齐全，考试简单，学员较快可1年考完全部科目，2年左右拿畢業书！
 四川师范大学小自考报名怎么报？需要到现场报名吗？
-川师自考毕业证样板
+川师自考畢業样板
 专科：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作、市场营销
 本科：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作、公共事业管理等专业，更多专业及详情可加李老师咨询~
-报名方式：小自考一般是在校外报名点报名，学员可根据自身情况选择，可现场咨询报名也可以直接交资料网上报名，由教务老师同意注册考籍，参加考试，后续考试及报考有班主任全程一对一带班，避免同学们因为不知道什么时候报考和不知道报考科目错过考试，延误毕业时间，帮助学员顺利通过考试！
+报名方式：小自考一般是在校外报名点报名，学员可根据自身情况选择，可现场咨询报名也可以直接交资料网上报名，由教务老师同意注册考籍，参加考试，后续考试及报考有班主任全程一对一带班，避免同学们因为不知道什么时候报考和不知道报考科目错过考试，延误畢業时间，帮助学员顺利通过考试！
 学费3500元/年（学费按两年收取）学费包含教材资料+单独的视频学习账号+考前资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>成都理工大学小自考工商管理专业 学费多少 怎么报名</t>
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考工商管理专业 学费便宜性价比高 好就业</t>
   </si>
   <si>
     <t>成都理工大学小自考工商管理专业 学费多少 怎么报名
-成都理工大学现在正在招收小自考专科、本科工商管理专业，工商管理专业商管理涉猎知识面很广， 囊括了经济学（微观经济学、宏观经济学、会计学、统计学、金融学、证券投资学、财务管理、管理学、人力资源管理、运筹学、市场营销等等 ）因此它的就业范围也是很广，可以从事会计、金融（银行和证券公司）、公司管理人员、市场营销人员。毕业好找工作，想要报考的考生可加李老师详细咨询
+成都理工大学现在正在招收小自考专科、本科工商管理专业，工商管理专业商管理涉猎知识面很广， 囊括了经济学（微观经济学、宏观经济学、会计学、统计学、金融学、證券投资学、财务管理、管理学、人力资源管理、运筹学、市场营销等等 ）因此它的就业范围也是很广，可以从事会计、金融（银行和證券公司）、公司管理人员、市场营销人员。畢業好找工作，想要报考的考生可加李老师详细咨询
 专科专业名称为：工商企业管理 本科专业名称为：工商管理
 统考考试科目： 专科：计算机应用基础、基础会计学、企业会计学、市场营销学、中国税制、大学语文
 本科：管理学原理、国际贸易理论与实务、金融理论与实务、企业经营战略、组织行为学、质量管理（一）
-专本科都只需要统考6科，其他的科目均为过程性校考，学员只需把学习重心放在6科统考上即可，一年四次考试机会，两次校考，两次统考，学员报名后只需按班主任通知报考参加考试，会有班主任帮助同学们筛选科目规划考试进度，尽量让同学们可以快点考完毕业，专本科较快都可以1年考完全部科目，专科1.5年毕业，本科有毕业答辩跟毕业论文，2年左右毕业！
+专本科都只需要统考6科，其他的科目均为过程性校考，学员只需把学习重心放在6科统考上即可，一年四次考试机会，两次校考，两次统考，学员报名后只需按班主任通知报考参加考试，会有班主任帮助同学们筛选科目规划考试进度，尽量让同学们可以快点考完畢業，专本科较快都可以1年考完全部科目，专科1.5年畢業，本科有畢業答辩跟畢業论文，2年左右畢業！
 学费标准：2700元/年（按两年收取）学费包含教材资料+视频学习平台账号+考前资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
 详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
   </si>
   <si>
-    <t>西南财经大学小自考会计专业 毕业快，考试简单</t>
-  </si>
-  <si>
-    <t>西南财经大学小自考会计专业 毕业快 考试简单
+    <t>西南财经大学小自考会计专业报名注册中 较快拿名校毕业证</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西南财经大学小自考会计专业 畢業快 考试简单
 学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
 西南财经大学现在正在招收小自考会计专业的学生，专科本科都可以报名，会计专业也是西南财经大学的优势专业，每年报考的考生特别多，西财作为985,211的院校，现在开放对社会再收自考专科、本科的学生，名校招生，想要报名的学员速速联系李老师咨询~
-很多想要报考小自考会计专业的学生都不知道会计专业到底考多少科？报名后多久能毕业？考试难度如何等，接来下李老师为大家详细解答一下这几个问题：
-首先小自考会计专业只需要统考6科，其余11科均为过程性校考，统考科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报名分析（一）以上6科为统考科目，这6科是需要同学们跟着老师学习然后刷题才能通过的，小自考一年有四次考试机会，学习情况较好的同学是可以一年考完全部科目，2年左右毕业的！至于剩下的11科校考只需同学们到场配合参加即可！
-自考学历含金量高，社会认可度高，毕业由西南财经大学和自考办联合颁发毕业证书，学信网永久可查！西财学费低至3700元/年（学费按两年收取）学费包含教材资料+视频课程+考前资料，帮助学员顺利通过考试！更有班主任全程一对一带班，避免学生因不知道报考时间以及报考科目等原因错过考试，延误毕业时间！
+很多想要报考小自考会计专业的学生都不知道会计专业到底考多少科？报名后多久能畢業？考试难度如何等，接来下李老师为大家详细解答一下这几个问题：
+首先小自考会计专业只需要统考6科，其余11科均为过程性校考，统考科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报名分析（一）以上6科为统考科目，这6科是需要同学们跟着老师学习然后刷题才能通过的，小自考一年有四次考试机会，学习情况较好的同学是可以一年考完全部科目，2年左右畢業的！至于剩下的11科校考只需同学们到场配合参加即可！
+自考学历含金量高，社会认可度高，畢業由西南财经大学和自考办联合颁发畢業书，学信网可查！西财学费低至3700元/年（学费按两年收取）学费包含教材资料+视频课程+考前资料，帮助学员顺利通过考试！更有班主任全程一对一带班，避免学生因不知道报考时间以及报考科目等原因错过考试，延误畢業时间！
 报名时间：现在正在报名注册中，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
-详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考汉语言文学专业专升本考试科目 可以报哪些学校</t>
-  </si>
-  <si>
-    <t>四川小自考汉语言文学专业专升本考试科目 可以报哪些学校
+</t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学专业专升本考试科目多吗 在哪里报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考汉语言文学专业专升本考试科目 可以报哪些学校
 汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。
 小自考汉语言文学专业现在可报考院校： 四川师范大学、西华师范大学这两所学校都可以报考，汉语言专业是每年报考的热门专业，通过率高，考试简单，只需要统考6科，其余科目均为过程性校考，报考小自考的同学只有统考科目需要看书学习，统考科目学校也会开设视频课程，帮助学员顺利通过考试！
 统考科目：中国现代文学史、中国古代文学史（一）、中国古代文学史（二）、外国文学史、语言学概论、马列文论选读
 校考科目：中国近现代史纲要、马克思主义基本原理概论、美学、中国古代文论选读、新闻采访与写作、影视艺术概论、报告文学研究、散文创作与研究、市场营销学、广告学（一）、广告策划、传播学概论，校考科目为过程性考试，报考的同学只需按班主任通知到场参加考试即可！
-自考学历含金量高，社会认可度高，毕业由学校跟自考办联合颁发正规的学信网可查的毕业证书，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+自考学历含金量高，社会认可度高，畢業由学校跟自考办联合颁发正规的学信网可查的畢業书，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
 报名时间：正在报名注册中，学费在5000多到7000多不等，学校不同学费标准也不同，学费及专业详情可加李老师详细咨询~
 报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考4月份统考考试时间公布了吗 报名时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年四川小自考4月统考会延期吗 多久报名 报名网站
+2020年四川小自考4月统考会延期吗 多久报名 报名网站
+2020年初因为一场病毒疫情，大家都在家过了一个足不出户的年，这是往年从来没有的感受，也因为这场疫情，推迟返工，推迟开校，导致大家到现在都没办法正常的工作跟学习，一下打乱了大家所有的计划，很多想报考自考的同学不知道该怎么报名，怎么规划学习，多久考试，下面李老师给大家详细解答一下：
+四月统考原计划于4月11-12号考试，考试安排与考试时间已出，同学们可以根据考试安排开始备考了，距离四月考试还有不到100天，现在考试院暂时没有通知统考会更改时间，大家正好趁这段时间有闲暇，备考提升自己！
+很多同学想知道小自考在哪里报名 ？哪里注册？小自考是报名后由学校或教学点开端口网上电子注册，同学们是不能自己注册的，只有大自考才可以登录自考网站自己注册，小自考都是经由教务老师注册，学员只需提供资料报名，教务老师注册，现在报名，三月初就可在省考试院查询考籍，考籍包含报考院校跟专业。
+现在可报考院校：西南财经大学/西华师范大学/四川师范大学/成都理工大学/西南石油大学/成都大学等省内重点大学，现在可报考专业齐全，更多专业详情可加李老师详细咨询~
+报名资料：两寸浅蓝底證件照电子档+身份證正反面照片（报名表）
+报名地址：成都市成华区建设北路三段成功印玺国际2810号
+详情咨询李老师 电话：199 8120 3720 （微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考学费有优惠吗 报名地址在哪里</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考报名要交多少钱？哪里报名便宜？
+西南财经大学始于1925年在上海创建的光华大学。1925年6月3日，在“五卅”反帝爱国怒潮中，圣约翰大学及附中572名爱国师生脱离该校，拥戴张寿镛先生筹办光华大学；9月，光华大学举办首次开学典礼。校名取自“日月光华，旦复旦兮”（《卿云歌》），象征着复兴中华，反抗帝国主义割宰和奴役的革命精神。光华大学是一所设有文学院、理学院、商学院的私立综合性大学，其中商学院分设经济学、会计学、银行学和工商管理学四个系。
+西南财经大学2020年春季报名注册中，现在报名的考生可参加4月份统考，距离统考时间还有不到100天，同学们可以根据考试安排备考啦，现在可报考专业如下：
+专科：会计电算化、工商企业管理、市场营销
+本科：会计学、工商管理、金融学、市场营销、人力资源管理、行政管理等专业，以上专业都只需要统考6科，其他9-12科均为过程性校考，统考科目需要同学们看书学习备考，同学们只需把学习重心放在统考科目上即可，更多专业相关考试科目详情可加李老师详细咨询~
+西南财经大学学费标准：3700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，报名跟学员签订保障学员权益的协议书，学员可放心报考！
+考试时间：4月、10月（统考） 6月、12月（校考）一年四次考试机会，学员较快可一年考完全部科目，2年左右畢業！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>没有标题</t>
+  </si>
+  <si>
+    <t>成都理工大学2020年小自考学费标准是多少 报考专业
+2001年，由教育部批准组建成都理工大学（合并四川商业高等专科学校和有色金属地质职工大学）。学校由地质部、地质矿产部、国土资源部直属，划转为中央与地方共建、以四川省人民政府管理为主的省属重点大学。9月21日，成都理工大学正式挂牌成立。
+成都理工大学小自考2020年春季注册可报考专业如下：
+专科：工商企业管理、市场营销、会计、建筑工程管理、物流管理、工程造价
+本科：电子科学与技术、工商管理、会计学、现代企业管理、旅游管理、建筑经济管理、英语、公共事业管理、环境设计、机械制造及自动化、建筑工程、工程造价、信息管理与信息系统、财务管理、人力资源管理、艺术设计等专业，以上专业仅需统考4-6科，其余9-12科均为过程性校考，统考科目学校会开设响应的课程以及考前资料，帮助学员顺利通过考试！
+学费标准：2700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，避免学员因为没有人通知报考以及考试我错过考试，延误畢業的情况！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+报名即签订保障学员权益的协议书，学员可放心报考，本报名点为正规招生，更多专业及报名详情可咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>西华师范大学小自考专业在哪里查？学费标准？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西华师范大学小自考专业在哪里查？学费标准？
+学校创建于1946年，其诞生与东北大学有直接历史渊源。1937年，抗日战争全面爆发，东北大学内迁四川省三台县办学；1945年，东北大学迁回沈阳。1946年5月，在川北三十六县十盐场及各界有识之士支持下，部分东北大学的川籍师生在三台原校址创建私立川北农工学院。后历经私立川北大学、公立川北大学、川北大学、四川师范学院、南充师范专科学校、南充师范学院、四川师范学院等阶段，2003年，经教育部批准更名为西华师范大学。
+西华师范大学小自考2020年春季招生专业表如下：
+专科：学前教育、小学教育、会计、法律事务、人力资源管理、汉语言文学
+本科：法学、学前教育、小学教育、汉语言文学、工商管理、市场营销、会计学、人力资源管理、行政管理、教育管理、旅游管理、美术教育
+以上专业为西华师范大学2020年春季小自考注册专业表，这些专业都是可以报名注册的，只需统考3-6科，其余的9-12科均为过程性校考，统考科目会开设视频课程，学员只需把学习重心放在统考科目上即可，考前会整理对复习针对性较强的资料发给大家考前集中刷题，帮助同学们顺利通过考试！
+考试时间：4月、10月（统考） 6月、12月（校考）一年四次考试机会，学员较快可一年考完全部科目，2年左右畢業！小自考是现在能较快时间畢業的学历形式，且含金量高，社会认可度高，对于很多用于考證，考公务员，升职加薪换工作的学生来说是一个很好的选择，畢業由学校和自考办联合颁发畢業书，学信网可查国家认可的正规学历！更多专业及报名详情可加李老师详细咨询~
+学费标准：2900元/年（ 按两年收取）学费包含教材+题库资料+单独的视频学习平台账号+考前资料，更有班主任全程一对一带班，避免同学们因为不知道报考以及考试时间而错过考试机会，延误畢業的情况，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考还可以报名吗 机构报名交学费靠谱吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考还可以报名吗 机构报名交学费靠谱吗
+四川师范大学2020年春季小自考正在报名注册中，现在还可以报名，现在报名的考生只需提供报名资料即可报名，报名后可参加4月份统考，2020年四月统考考试安排已出，距离统考还剩不到100天的时间，同学们可根据考试安排抓紧时间备考！
+很多报名考生纠结在学校报名跟在机构报名哪个靠谱？下面李老师跟大家分析一下：
+小自考是不能由学生自行到网站注册考籍的，都需要通过学校的端口才能注册，正规的招生机构是跟学校合作招生的，其实注册端口也是学校开放给机构的，正规报名机构负责学生后期的校考的组织以及监考，以及申请畢業等流程，那么既然都是一样的，很多学生想那我去学校报名不是更放心吗？其实不然，机构报名跟学校报名的最大不同是： 1、机构报名有专门的班主任负责带学生，避免学生因为不知道报考时间考试时间以及考试地址等信息而错过考试机会，从而延误畢業，到学校本部报名的学生，是没有老师会专门带你们的，报名后发教材资料备考，机构会为了报名学员的通过率不断督促大家早点考完畢業！在机构报名的话相对于多了一个配套服务！
+2、很多同学怕在机构报名学费比学校收的贵，其实学费都是学校规定的，机构往往会比学校略微便宜些，学生可自行登录学校官网或者打电话到学校继教院咨询学费标准，想要报名的学生在不确定学校学费标准的情况下可以确认清楚了再跟机构做对比，选择靠谱的机构报名！
+本处为四川师范大学小自考报名点，正规招生，学费低至3600元/年（学费按两年收取）学费还包含教材资料+单独的视频学习平台账号+考前资料，李老师提醒大家哦，学校报名教材资料以及学习账号都是要单独收费的，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+现在可报名专业齐全，只需统考3-6科，其余9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可，更多专业以及考试详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>2020年西南财经大学小自考 报考指南！适合那些人报考？</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考二月的报名正在如火如荼的进行着，现在报名的考生可参加4月统考，2020年4月统考的考试安排已出，同学们可根据考试安排选择科目进行备考了，2020年时特别的1年，希望大家珍惜在家的时间，一方面跟病毒做斗争，一方面提升自己！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销、行政管理、人力资源管理等专业。
+在财经类大学里面，西财是最有名气的，就业前景好，适合现在或者以后准备从事金融行业工作的同学，例如：信托、保险、證券、贷款、会计等从业人员！西南财经大学是财经类院校，但是2020年新开设了人力资源管理以及行政管理专业，从事相关工作的同学，可以选择报考西南财经大学，可以提升自己的专业知识，也可用于升职加薪换更好的工作岗位！
+考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费），学费包含教材资料+视频学习账号+考前资料，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试时间：统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版），报名相关详情咨询李老师~
+报名地址：成都市成华区建设路北路成功银玺国际2810号
+详情可咨询 电话：199 8120 3720（vx同号） QQ：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考适合哪些人报考 报名条件 在哪里报名</t>
+  </si>
+  <si>
+    <t>四川小自考适合哪些人报考 报名条件 在哪里报名
+可加李老师199 8120 3720（vx同号）了解更多关于自考的信息。
+网络上关于自考的消息铺天盖地，那么到底自考适合哪些同学参加，在哪里报名，报名条件又是什么呢？
+1、自考适合专科在读生，想在专科学制内升本科学历的在校学生同学，这样可以在完成专科学业的同时参加自学考试，可以更快时间的拿到本科畢業书，俗称专本连读，有机会在专科畢業后就申请本科畢業书！
+2、适合已经大专畢業正在工作想要提升学历层次到本科的学生，没办法全日制在学校在读，只需要抽平时的闲暇时间进行学习跟考试，在工作的同时完成了学历的提升！
+3、初高中畢業早早进入社会的年轻求学人员，为了工作或以后职业规划需要学历的学员可以选择专本科套读，本科可选择自考，较快可3年左右直接申请本科学历！
+4、本身具有一定的学历，因为考證或职业规划的原因需要获得第二学历的在职人员！
+以上类型的考生都可报考自考，由于自考的特殊形式，畢業时间灵活，规定专业的考试科目全部考试通过即可申请畢業，较快可一年考完全部科目，两年左右畢業！自考学历含金量高，很多考生畢業后可用于加薪、考编制、评职称、留学、考研等都是没问题的！
+那么小自考报名条件是什么呢？
+自考不受性别、年龄、民族、种族、学历、身体健康状况、居住地等限制，均可报名参加考试，想要报考的考生都可报考，现在四川小自考2020年春季报名注册中，报考专业齐全，小自考只需要统考3-6科，其余科目均为过程性校考，学员可把学习重心放在统考科目上即可！
+报考院校：西南财经大学/四川师范大学/成都理工大学/西华师范大学/西南石油大学/成都大学等省内重点大学，学费低至2700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，想要报名的考生可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号，本初为正规招生，报名即跟学员签订保障学员权益的协议书，学员可放心报考，现在报考的考生可根据4月统考考试安排，为考试做准备啦！报名后领取教材资料以及注册学习账号进行学习哦~
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考工商管理专业报名 西南财经大学在招生吗？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（微信同号）
+四川小自考工商管理专业报名 西南财经大学在招生吗？
+西南财经大学是工商管理专业的主考院校，该专业为学校的优势专业，是经管类专业里的大热门！每年报考该专业的考生都特别多，且该专业为文科专业，是比较好考的专业，考试通过率高！
+想要报考小自考工商管理专业的学员，李老师给大家说一下报考工商管理专业的情况：
+专业介绍：工商管理专业主要学习管理学、经济学和企业管理的基本理论和基础只是，进行企业管理方法与技巧方面的基本训练，使学员具有分析和解决企业管理问题是的基本能力，随着知识经济时代的来临，企业对专业工商管理人才越发显示出很大的需求，会计师、营销师、人力资源师、项目经理等职位将成为未来企业人才竞争的焦点！
+从事的岗位如下：
+1. 一般传统管理类岗位
+2. 市场营销类岗位
+3. 人力资源管理类岗位
+4. 物流管理类岗位
+工商管理专业畢業后就业范围广，是每年报考的热门专业！
+那么小自考工商管理专业一共要考几科呢？
+统考6科（需要同学们根据老师的课程以及整理好的押题资料进行学习，是全国统考）校考9-12科（过程性考试）学员只需把学习重心放在统考6科上就行了，考试科目详情可咨询李老师~
+一年考四次，较快1年可考完全部科目，1年9个月拿畢業證書，同学们普遍的畢業时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，畢業后学信网终身可查！是由学校跟自考办联合颁发的正规畢業證書！
+四川小自考工商管理专业报名 西南财经大学在招生吗？
+可报考院校：
+四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
+学费低至2700元/年（按两年收取），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询
+报名时间：正在报名注册中，现在报名可参加4统考，可早半年畢業！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>小自考行政管理专业报名 报名网址 考试科目 学校有哪些？</t>
+  </si>
+  <si>
+    <t>专业介绍：行政管理是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展,行政管理的对象日益广泛,包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法,以减少人力、物力、财力和时间的支出和浪费,提高行政管理的效能和效率。
+何为小自考：小自考是自考的一种，自考分为应用型自考跟社会型自考，小自考即为应用型自考，主要是由学校为办学主体，部分考试（9-12科）由学校组织考生参加考试，学校提供教材/资料/学习资料，帮助学员顺利通过考试，减轻考生的压力与负担，小自考大大减短了同学们的畢業时间，降低了考试的难度，更符合报名自考的同学们的期望。
+专业统考科目:社会学概论丶当代中国政治制度丶西方政治制度丶公共政策丶领导科学丶公务员制度，，以上6科为统考科目，同学们把学习重心放在统考科目上即可！
+专业校考科目:中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理(选考课程不低于10学分。不考英语(二)的再另选三门课程,总学分不低于24学分)】畢業考核(或论文综合实践实验实习等)以上科目为学校组织的过程性校考！
+行政管理就业方向:
+在县级以上政府的民政职能部门和事业单位就业;
+从事乡镇民政办公室管理工作；
+从事城镇街道民政所管理工作;
+从事县(或市)以上民政部门以及民间组织中介机构管理工作;
+从事婚姻服务中介机构、收养登记服务中介机构管理工作;
+从事婚姻管理、收养登记管理、行政区划管理工作;
+从事地名管理、社团管理工作等；
+可从事事业单位的行政协理员,办公室主任、行政主管、协调层或决策层高级助理,中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职畢業生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作,学校、科研部门的教学或科研工作,大、中型企业和企业集团
+考试科目：统考6科(闭卷)+校考9-12科左右(过程性考试）
+学费低至2900元/年(按两年收取)学费包含教材资料、在线教学、面授,现在报名还可申请200元-600元助学补贴,名额有限,想要报名的学员速速联系李老师咨询~
+小自考行政管理专业报名 报名网址 考试科目 学校有哪些？
+考试时间:统考每年的4、10月 校考每年的7、12月
+报名资料:身份证扫描件和一张两寸蓝底照片(电子版)
+报名时间:正在报名注册中(名额有限,赶快抓紧时间报名哦)
+报名地址:成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 电话:199 8120 3720（微信同号） QQ:1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考小学教育专业考试科目多吗？报哪个学校好？</t>
+  </si>
+  <si>
+    <t>四川小自考小学教育专业考试科目多吗？报哪个学校好？
+小学教育专业培养德、智、体全面发展的，具有较高教育理论素养和较强教育实际工作能力（语、数、英）小学教师及教育科研、各级教育行政管理人员和其他教育工作者。
+小学教育属于教育类专业，可以选择报考师范类院校，现在四川可报考的院校有四川师范大学跟西华师范大师，这两所学校全部学费在5000-7000不等，不同学校收费标准不同，专业及学费详情可加李老师详细咨询~
+考试科目：计算机应用基础、教育学（二）、中小学教育管理、心理卫生与心理辅导、课程与教学论、教育心理学，只需统考6科，其他科目均为过程性校考，以上统考科目学校会开设视频课程，考前也会发考前资料给大家，帮助同学们顺利通过考试！
+小自考学费只收两年，学费包含教材资料+单独的视频学习平台账号+考前资料，除此以外只有考试费35元/科，本科有畢業证工本费+畢業答辩费480元，其他没有任何费用了，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：一年四次注册机会，现在正在火热报名中，现在报名的考生可参加4月统考！
+同学们可提前为4月考试做考前准备了，考试时间为4月11-12号，可报考1-4科，距离考试只剩不到3个月的时间，想要报名的同学可联系李老师报名，领取教材资料备考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
 咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年四川小自考 四川师范大学春季报名注册中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（vx同号）
+四川师范大学2020年春季小自考招生注意事项：
+四川师范大学2020年春季小自考正在报名注册中，现在还可以报名，现在报名的考生只需提供报名资料即可报名，报名后可参加4月份统考，2020年四月统考考试安排已出，距离统考还剩不到100天的时间，同学们可根据考试安排抓紧时间备考！
+四川师范大学是四川省属重点大学，国家首批“中西部高校基础能力建设工程”实施高校及全国神话创新创业教育改革示范校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的大学！四川师范大学是川内自考报考最热门的院校，客观上将川师开设的专业齐全且实用性高，所以适合很多上班族报考，另外，川师开设的专业多为文科专业通过率高，所以拿证也比较轻松。
+那么川师有哪些专业可以报考呢？
+专科：汉语言文学、法律事务、工商企业管理、会计、行政管理、学前教育、社会工作
+本科：汉语言文学、小学教育、工商管理、学前教育、行政管理、法学、工程造价、美术教育、会计学等专业，四川师范大学办学历史悠久，开设专业齐全，想要报考的考生可详细咨询李老师~
+很多报名考生纠结在学校报名跟在机构报名哪个靠谱？下面李老师跟大家分析一下：
+小自考是不能由学生自行到网站注册考籍的，都需要通过学校的端口才能注册，正规的招生机构是跟学校合作招生的，其实注册端口也是学校开放给机构的，正规报名机构负责学生后期的校考的组织以及监考，以及申请毕业等流程，那么既然都是一样的，很多学生想那我去学校报名不是更放心吗？其实不然，机构报名跟学校报名的最大不同是：
+1、机构报名有专门的班主任负责带学生，避免学生因为不知道报考时间考试时间以及考试地址等信息而错过考试机会，从而延误毕业，到学校本部报名的学生，是没有老师会专门带你们的，报名后发教材资料备考，机构会为了报名学员的通过率不断督促大家早点考完毕业！在机构报名的话相对于多了一个配套服务！
+2、很多同学怕在机构报名学费比学校收的贵，其实学费都是学校规定的，机构往往会比学校略微便宜些，学生可自行登录学校官网或者打电话到学校继教院咨询学费标准，想要报名的学生在不确定学校学费标准的情况下可以确认清楚了再跟机构做对比，选择靠谱的机构报名！
+本处为四川师范大学小自考报名点，正规招生，学费低至3600元/年（学费按两年收取）学费还包含教材资料+单独的视频学习平台账号+考前资料，李老师提醒大家哦，学校报名教材资料以及学习账号都是要单独收费的，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+现在可报名专业齐全，只需统考3-6科，其余9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>2020年成都理工大学小自考报名时间 专业 费用</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 370（vx同号）
+2020年成都理工大学报名时间 专业 费用
+2020年春季成都理工大学小自考报名注意事项：
+想要报自考同学，如果说在四川哪所学校性价比高，那么肯定是成都理工大学！
+成都理工大学，建校当年即开始招收本科生。学校先后由地质部、地质矿产部、国土资源部直属，2000年划转为地方，成为中央与地方共建、以四川省人民政府管理为主的省属重点大学。2020年11月3日，国土资源部与四川省人民政府签署共建成都理工大学协议，2017年9月，学校进入国家一流学科建设高校行列。
+成都理工大学是一所工科类高校，想要报考工科类或者理科类专业的同学，成都理工大学肯定是最适合的，学费便宜，社会认可度高，是目前省内招收小自考院校里面性价比最高的！
+那么，哪些人适合报考成都理工大学呢？
+成都理工大学适合从事工科类工作的同学，如：计算机、工程、建筑、机械、信息管理等领域的同学，且学校还开设了财经类的会计、财务管理，管理类的工商管理、人力资源管理等专业，从事这方面工作的同学也可以考虑报考！
+2020年成都理工大学报名时间 专业 费用
+成都理工大学小自考2020年春季注册可报考专业如下：
+专科：工商企业管理、市场营销、会计、建筑工程管理、物流管理、工程造价
+本科：电子科学与技术、工商管理、会计学、现代企业管理、旅游管理、建筑经济管理、英语、公共事业管理、环境设计、机械制造及自动化、建筑工程、工程造价、信息管理与信息系统、财务管理、人力资源管理、艺术设计等专业，以上专业仅需统考4-6科，其余9-12科均为过程性校考，统考科目学校会开设响应的课程以及考前资料，帮助学员顺利通过考试！
+2020年成都理工大学报名时间 专业 费用
+学费标准：2700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，避免学员因为没有人通知报考以及考试我错过考试，延误毕业的情况！
+报名即签订保障学员权益的协议书，学员可放心报考，本报名点为正规招生，更多专业及报名详情可咨询李老师
+电话：199 8120 3720（vx同号） 扣：1916 3720 47
+2020年成都理工大学报名时间 专业 费用</t>
+  </si>
+  <si>
+    <t>四川小自考人力资源管理专业：通过率高 专业性强 好就业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（vx同号）
+专业介绍：人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才
+人力资源管理这个专业对比其他管理类专业来说，专业性更强，主要从事人事、人力资源总监的方向，现在社会人才竞争非常激烈，人力资源这个岗位就越发的重要了，也是每个公司必须要有的岗位！
+就业前景：企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度较新权威数据显示，人力资源管理专业的本科毕业生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
+报考指南
+（一）报名时间：正在报名注册中，早报名早毕业！早点毕业同学们也好早点投入使用！
+（二）报名条件：没有年龄、地域限制都可报考！
+（三）报名资料：身份证正反面照片、两寸浅蓝底证件照电子档
+统考科目：00054管理学原理、00182公共关系学、06088管理思想史、06089劳动关系与劳动法、06090人员素质测评理论与方法、06093人力资源开发与管理，
+以上6科为该专业需要统考的科目，统考是全国统一性考试，需要同学们认真看书学习，同学们把学习重心放在统考科目上即可，其余的9-12科均为过程性校考！
+那么人力资源管理专业有哪些学校可以报考呢？
+西南财经大学/成都理工大学/西华师范大学正在招收小自考人力资源管理专业！名额有限，预报从速哦
+学费低至2700元/年（按两年收取）学费包含教材资料+单独的视频学习平台账号+考前资料，更有班主任全程带班，帮助学员顺利通过考试！
+考试时间：统考每年的4、10月 校考每年的7、12月，较快1年考完全部科目，1.5年毕业！
+自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业證書(学信网可查）。自考含金量高，社会认可度高。
+报名详情咨询李老师
+电话：199 8120 3720（vx同号） QQ：1916372047
+</t>
+  </si>
+  <si>
+    <t>四川小自考推荐专业 自考法学专业 报考指南</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话:199 8120 3720(微信同号）
+该专业学生主要学习法学的基本理论和基本知识，受到法学思维和法律实务的基本训练，具有运用法学理论和方法分析问题和运用法律管理事务与解决问题的基本能力。能在国家机关、企业是单位和社会团体，特别时能在国家立法机关、审判机关、检察机关、司法行政机关、仲裁机关、法律夫机构和涉外活动从事法律工作的应用型、复合型高级的专门人才，同时特能培养能够在各高等、中等学校从事法学教学的教师。
+考试时间：6月 、12月（校考） 4月、10月（统考）一年四次考试机会，较快可1年考完全部科目，1.5年-2年左右毕业！
+法学统考考哪些科目？
+劳动法、知识产权法、税法、国际私法、公证律师制度、法律文书写作、英语（二），以上6科为统考科目，其余9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可！
+注：英语（二）可用3门校考成绩代替
+那么自考法学专业怎么学习呢？有考前辅导课程吗？
+法学专业的统考科目学校开设了视频课程，讲解详细，同学们可根据老师的视频课程把所有的课程学习一遍，每节课程都有针对性的课后小题，考前一个月左右我们会发考前资料给大家重点刷题记忆，刷题很关键哦，同学们只要按照制定好的学习计划一步一步的学习，考试通过是没问题的哦~
+自考法学专业可以报考哪些学校？
+四川师范大学、西南石油大学、西华师范大学这三所学校都在招收法学专业的考生，毕业由学校和自考办联合颁发国家认可含金量高的自考毕业證書！名校招生，欲报从速哦~
+学费低至2800元/年（学费按两年收取）学费包含教材资料+单独的视频学习平台账号+考前资料，更有班主任全程一堆一带班，每次报考以及考试班主任都会单独通知，避免同学们因为错过报考或考试而延长毕业时间，帮助同学们顺利通过考试！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号（报名即跟学员签订保障学员权益的协议书，学员可放心报考）
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川报小自考不知道选什么专业？哪些专业简单易过 通过率高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（vx同号）
+四川报小自考不知道选什么专业？哪些专业简单易过 通过率高
+自考专业怎么选择？
+很多咨询报自考的同学经常问，哪些专业比较好考通过率高？或者说哪些专业报的学生比较多？其实报自考选专业是第一步，也是非常重要的一步，如果专业没有选对，之后的考试也是受影响，因为自考学历形式的特殊性，必须是专业课程内的全部科目考试通过才能申请毕业，所以如果专业选的不适合自己，有些同学会坚持不下去就半途放弃了自考，所以在李老师这里报名的考生李老师都会推荐相对简单一点的大专业，也是为了更好的确保大家的通过率不浪费大家的学费！
+自考是成人学历的其中一种形式，它的含金量也是非常高的，考验了学员的自学能力，很多学员听到这里就认为那自考应该是很难的，其实不然，自考既是成人学历的一种，考试难度也就自然不会太高，只需要参加3-6门统考（60分及格即可）其他9-12门全是校考，校考是由学校自己组织，只需要学员配合学校完成考试，考前会有资料，学员的学习重心可以都放在统考科目上即可！
+自考选择专业时有什么标准或者原则吗？
+1、首先要结合自身的学习能力、学习自觉性、学习基础、职业规划来选择；
+2、避开冷门专业，自考中的冷门专业是不会开设课程的，资料也是非常少的，建议避开冷门的难度较大的专业；
+选择自考的形式后，该选择哪些专业呢？
+自考热门专业可分为四大类：
+A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
+B，管理类：工商管理/行政管理/人力资源管理/现代企业管理/旅游管理等专业
+C，财经类：会计学/金融学/市场营销等专业
+D，建筑工程类：建筑工程/工程造价/建筑经济管理等专业
+这四类专业中通过率高使用范围广的专业有汉语言文学，法学，行政管理，工商管理，人力资源管理和小学教育，学前教育等教育类专业，其中美术教育可以只参加三科统考，其他均是校考，通过率高毕业时间快！
+下面李老师跟大家讲一下通过率这个事：
+关于自考的通过率，首先大家真的没必要纠结于统计数据上，通过率只是在一定程度上反映了当时的一个概率，但对于每一个准备报考的考生来说，它仅作为参考。自考的难度不在于说考试的难度有多大，之前我们也讲到过，自考的考试都是考的基础，而主要在于同学们有没有充分的准备考试，只要你跟着老师的课程学习考前刷题，是很容易通过的，但是很多同学遇到学习上的困难就容易放弃，不能很好的坚持下去，这才是很多人说自考难度高的根本原因。
+按照李老师的经验来看，只要是具备一定的学习能力，愿意在考前花时间去复习准备考试的学生，通过率都是非常高的。再配合考前我们整理的考前资料刷题，一步一个脚印的按学习安排来学习，争取尽快考完所有考试，毕业时没没问题的。自考一年有四次考试机会，同学们最快可以1年考完全部科目，较快1年半-2年毕业！
+四川报小自考不知道选什么专业？哪些专业简单易过 通过率高
+最后，李老师想告诉大家，人生是一场没有捷径的旅程，学习也是一样，挑战总是随处可见，要改变人生核心动力其实就是你自己哦~
+报名时间：正在报名注册中，早报名早毕业！
+可报考院校：四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！报考指南以及招收专业可详细李老师~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+招生办李老师 电话：199 8120 3720（微信同步） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>中央广播电视中等专业学校成人中专报名入口 报考专业齐全</t>
+  </si>
+  <si>
+    <t>更多成人学历相关信息咨询李老师 电话：199 8120 3720（vx同号）
+中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
+一、招生专业
+建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
+以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿畢業书！
+二、招生对象
+应往届初中畢業生、高中畢業生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！三、招生时间
+每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
+四、学习方式
+线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
+学历證书可在中央广播电视中等专业学校的官网上查询并验證，如有需要可以生成学历證书在线验證报告。
+学费：1680元（全包）
+报名地址：成都市成华区建设路银玺国际2810-2811号
+详情咨询李老师 电话：199 8120 3720 （微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考报哪家机构比较好 机构报名放心吗？</t>
+  </si>
+  <si>
+    <t>更多自考相关信息咨询李老师 电话：199 8120 3720（vx同号）
+很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
+很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
+校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大！
+并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦，不相信的学员可自行对比~
+现在可报考院校有四川师范大学、西南财经大学、成都理工大学、西南石油大学、成都大学、西华师范大学等省内重点大学，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+小自考时学校开设的自考助学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5-2年左右毕业，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，专科课程的所有科目考完即可申请毕业，毕业由学校和学校联合颁发正规的毕业证书！
+报名地址：成都市成华区建设路银玺国际2810号
+更多咨询方式：李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>大自考太难怎么办？大自考可以转小自考吗？怎么报名？</t>
+  </si>
+  <si>
+    <t>更多自考相关信息咨询李老师 电话：199 8120 3720（vx同号）
+四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
+很多报名参加大自考的学员，考试没通过，但是又想拿毕业证怎么办？
+大自考是需要全部科目16-18科全部参加国家统考，考试难度高，并且一年只有两次考试机会，畢業时间较长，这时候想报小自考行不行呢？
+大自考考不过的学员是可以报小自考的，大自考考过的科目可转免kao，小自考只需统考6科，个别科目只需统考三科，其他均为校考（校考是学校自己组织，过程性考试）并且统考科目会有视频课件给学员日常学习，考前还会安排面授，也会有押题资料。小自考大大降低了考试难度，并且小自考与大自考的畢業书含金量是完全一样的，毕业也不区分大小自考。小自考考试时间比大自考增加了两次，一年有四次考试机会，较快1年考完全部科目，1.5年那毕业证书！大大缩短了学员畢業时间！想要快速毕业的学员可选择报考自考！
+大自考转小自考，只需要学员提供身份證扫描件以及2寸蓝底證件照电子档报名即可，其他相关的转免考手续后续会有班主任辅助学员完成，学员只需根据班主任通知配合处理即可！
+现在可报考学校：
+四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
+学费低至2700元/年（按两年收取），学费包含教材资料+单独的视频学习平台账号+考前资料，现可报考专业齐全，更多专业及报名详情可加李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年四川成人高考分数线 报名时间 答题须知</t>
+  </si>
+  <si>
+    <t>更多学历相关信息咨询李老师 电话：199 8120 3720（vx同号）
+成人高等学校招生全国统一考试（Adult university entrance exam）简称成人高考，是我国成人高等学校选拔合格的畢業生以进入更高层次学历教育的入学考试，属于国民教育系列教育，已经列入国家招生计划。成人高考同普通高考一样，是选拔人才的国家考试，只是由于本身的学习特征需要，才在学习形式等环节上有所差别，进行了一定区分。考生需参加教育部组织的全国统一考试，由各省市自治区、直辖市统一组织录取。设立之初，是为解决在岗人员的学历教育和继续教育问题，参加者多为成年人，是国家高等教育重要组成部分。
+2020年四川成人高考火热报名中，很多选择报考成人高考的同学，都是为了在学习专业知识的同时提升自己的学历层次，成教作为一种成人继续教育，需要参加成人高考，考试通过才能录取，那么参加成人高考难不难呢？成人高考的分数线以及考试难度呢？
+成人高考考哪些科目呢？
+专科：语文、数学、英语（总分450分，分数线在120分左右）
+本科：英语、政治、专业课（总分450分，分数线在105-150之间）
+本科是根据同学们选择的专业来确定专业科的，具体考哪些专业课程，以及对应专业的分数线可详细咨询李老师
+答题技巧：李老师按照往年报考的同学的考试情况，跟大家简单分享一些考试的通关经验，报考成教的同学都会担心成人高考考试的难度，其实成人高考真不难，成人高考是面向成人的考试，考试难度是不大的，且分数线非常低，还有很多的加分政策，如考生年龄满25岁都可加分20分，少数名族区域也可加分20分等相应的加分政策，所以同学们可根据自身情况，把重点放在自己擅长的科目上，在配合我们提供的资料以及教学。
+考试时把卷子答满，字迹一定要工整，不要潦草，减少涂改，尤其是语文，主观题和作文是没有标准答案的，所以做到以上几点，也是拿分的关键哦~
+ps：李老师往年报考的学员考试通过率为98%，只要学员不缺考基本上都能通过哦~
+2020年四川成人高考分数线 报名时间 答题须知
+成教每年多久报名？报名后多久考试？
+四川成人高考正在报名中，一年只有一次报名机会，报名只需交100元，12月录取后再交学费，现在报名可以开始看视频课程学习了，准备10月份考试！成教只要成人高考通过，后面的考试都是过程性考试，学制2.5年修满毕业！
+现在可报考院校：四川师范大学、成都理工大学、西南石油大学、四川文理学院、成都医学院等省内大学!
+学费低至2100元/年（按两年收取）毕业由学校颁发正规的毕业证书！学信网可查！
+报名方式：提供身份证正反面照片+两寸蓝底证件照电子档即可报名，报名后领取教材资料备考！
+详情咨询李老师电话：199 8120 3720（微信同号） 扣：1916 3720 47
+2020年四川成人高考分数线 报名时间 答题须知</t>
+  </si>
+  <si>
+    <t>西华师范大学小自考现在通过率高吗？报名要交多少学费？</t>
+  </si>
+  <si>
+    <t>更多关于自考的相关信息咨询李老师 电话：199 8120 3720（vx同号）
+学校创建于1946年，其诞生与东北大学有直接历史渊源。1937年，抗日战争全面爆发，东北大学内迁四川省三台县办学；1945年，东北大学迁回沈阳。1946年5月，在川北三十六县十盐场及各界有识之士支持下，部分东北大学的川籍师生在三台原校址创建私立川北农工学院。后历经私立川北大学、公立川北大学、川北大学、四川师范学院、南充师范专科学校、南充师范学院、四川师范学院等阶段，2003年，经教育部批准更名为西华师范大学。
+西华师范大学小自考2020年春季招生专业表如下：
+专科：学前教育、小学教育、会计、法律事务、人力资源管理、汉语言文学
+本科：法学、学前教育、小学教育、汉语言文学、工商管理、市场营销、会计学、人力资源管理、行政管理、教育管理、旅游管理、美术教育
+以上专业为西华师范大学2020年春季小自考注册专业表，这些专业都是可以报名注册的，只需统考3-6科，其余的9-12科均为过程性校考，统考科目会开设视频课程，学员只需把学习重心放在统考科目上即可，考前会整理对复习针对性较强的资料发给大家考前集中刷题，帮助同学们顺利通过考试！
+考试时间：4月、10月（统考） 6月、12月（校考）一年四次考试机会，学员较快可一年考完全部科目，2年左右毕业！小自考是现在能较快时间毕业的学历形式，且含金量高，社会认可度高，对于很多用于考证，考公务员，升职加薪换工作的学生来说是一个很好的选择，毕业由学校和自考办联合颁发毕业证书，学信网可查国家认可的正规学历！更多专业及报名详情可加李老师详细咨询~
+学费标准：2900元/年（ 按两年收取）学费包含教材+题库资料+单独的视频学习平台账号+考前资料，更有班主任全程一对一带班，避免同学们因为不知道报考以及考试时间而错过考试机会，延误毕业的情况，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考哪个学校通过率高？怎么报名？学费多少？</t>
+  </si>
+  <si>
+    <t>更多关于自考相关信息咨询李老师 电话：199 8120 3720(vx同号）
+四川小自考春季报名注册中，很多想要报考的同学不知道哪些专业好考？下面李老师给大家推荐几个通过率高好考的专业：
+汉语言文学专业、行政管理专业、工商管理专业、人力资源管理、法学、小学教育、学前教育、美术教育等几个专业都是每年报考的热门专业，都是文科专业，考试难度不大，都考基础理论知识，通过率高，所以想要报自考快点考完毕业拿证书的同学可以选择报考以上专业！
+以上专业只需要统考3-6科，其余9-12科均为过程性校考，同学们需要看书学习的就是统考科目，校考是不需要大家看书学习的，只需根据班主任通知配合参加即可，小自考一年有四次考试机会，两次校考，两次统考，较快可一年考完全部科目，2年左右拿毕业证书！
+考试时间：4月 10月（统考） 6月 12月（校考） 每年考试安排都是可以让考生一年内把所有科目考完的，所以想要报名的同学报名后一定不要缺考，争取早点考完毕业！
+川内有哪些学校可以报考呢？四川师范大学、西南财经大学、西华师范大学、成都理工大学、西南石油大学、成都大学等省内重点大学，学费低至2700元/年（学费按两年收取）学费包含教材资料+单独的视频学习平台账号+考前资料，帮助学员顺利通过考试，更多专业及报名详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
   </si>
 </sst>
 </file>
@@ -4091,12 +3555,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4145,6 +3609,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -4160,7 +3644,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4182,38 +3666,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4224,29 +3684,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4274,8 +3711,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4300,12 +3777,6 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF3366CC"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -4322,7 +3793,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4334,7 +3841,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4346,7 +3901,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4358,25 +3925,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4388,13 +3949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4406,97 +3961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4534,21 +4005,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4560,21 +4016,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4595,6 +4036,36 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4621,10 +4092,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4633,137 +4104,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4822,6 +4293,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5172,18 +4649,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96:D129"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144:D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="59.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="33.8727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.875" style="2" customWidth="1"/>
     <col min="2" max="2" width="48" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.1272727272727" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.87272727272727" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -5902,7 +5379,7 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="20" t="s">
         <v>97</v>
       </c>
       <c r="B52" s="3" t="s">
@@ -6367,7 +5844,7 @@
       <c r="A85" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="19" t="s">
         <v>164</v>
       </c>
       <c r="C85" s="10" t="s">
@@ -7004,85 +6481,85 @@
         <v>6</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" customHeight="1" spans="1:4">
       <c r="A131" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>257</v>
-      </c>
       <c r="C131" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" customHeight="1" spans="1:4">
       <c r="A132" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B132" s="9" t="s">
-        <v>259</v>
-      </c>
       <c r="C132" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="133" customHeight="1" spans="1:4">
       <c r="A133" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B133" s="9" t="s">
-        <v>261</v>
-      </c>
       <c r="C133" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134" customHeight="1" spans="1:4">
       <c r="A134" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B134" s="9" t="s">
-        <v>263</v>
-      </c>
       <c r="C134" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="135" customHeight="1" spans="1:4">
       <c r="A135" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>265</v>
-      </c>
       <c r="C135" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>255</v>
+        <v>7</v>
       </c>
     </row>
     <row r="136" customHeight="1" spans="1:4">
       <c r="A136" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="C136" s="10" t="s">
         <v>6</v>
@@ -7093,10 +6570,10 @@
     </row>
     <row r="137" customHeight="1" spans="1:4">
       <c r="A137" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>269</v>
       </c>
       <c r="C137" s="10" t="s">
         <v>6</v>
@@ -7107,10 +6584,10 @@
     </row>
     <row r="138" customHeight="1" spans="1:4">
       <c r="A138" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="C138" s="10" t="s">
         <v>6</v>
@@ -7121,10 +6598,10 @@
     </row>
     <row r="139" customHeight="1" spans="1:4">
       <c r="A139" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>273</v>
       </c>
       <c r="C139" s="10" t="s">
         <v>6</v>
@@ -7135,10 +6612,10 @@
     </row>
     <row r="140" customHeight="1" spans="1:4">
       <c r="A140" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>274</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>275</v>
       </c>
       <c r="C140" s="10" t="s">
         <v>6</v>
@@ -7149,10 +6626,10 @@
     </row>
     <row r="141" customHeight="1" spans="1:4">
       <c r="A141" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>277</v>
       </c>
       <c r="C141" s="10" t="s">
         <v>6</v>
@@ -7163,10 +6640,10 @@
     </row>
     <row r="142" customHeight="1" spans="1:4">
       <c r="A142" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>279</v>
       </c>
       <c r="C142" s="10" t="s">
         <v>6</v>
@@ -7177,10 +6654,10 @@
     </row>
     <row r="143" customHeight="1" spans="1:4">
       <c r="A143" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="C143" s="10" t="s">
         <v>6</v>
@@ -7191,38 +6668,38 @@
     </row>
     <row r="144" customHeight="1" spans="1:4">
       <c r="A144" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="C144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:4">
+      <c r="A145" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C144" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:4">
-      <c r="A145" s="12" t="s">
+      <c r="B145" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="C145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:4">
+      <c r="A146" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C145" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="1:4">
-      <c r="A146" s="2" t="s">
+      <c r="B146" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="C146" s="10" t="s">
         <v>6</v>
@@ -7233,19 +6710,19 @@
     </row>
     <row r="147" customHeight="1" spans="1:4">
       <c r="A147" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="C147" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="C147" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D147" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="1:4">
+    </row>
+    <row r="148" ht="235" customHeight="1" spans="1:4">
       <c r="A148" s="12" t="s">
         <v>290</v>
       </c>
@@ -7256,7 +6733,7 @@
         <v>6</v>
       </c>
       <c r="D148" s="11" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="149" customHeight="1" spans="1:4">
@@ -7270,7 +6747,7 @@
         <v>6</v>
       </c>
       <c r="D149" s="11" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="150" customHeight="1" spans="1:4">
@@ -7284,7 +6761,7 @@
         <v>6</v>
       </c>
       <c r="D150" s="11" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="151" customHeight="1" spans="1:4">
@@ -7298,7 +6775,7 @@
         <v>6</v>
       </c>
       <c r="D151" s="11" t="s">
-        <v>7</v>
+        <v>289</v>
       </c>
     </row>
     <row r="152" customHeight="1" spans="1:4">
@@ -7358,10 +6835,10 @@
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:4">
-      <c r="A156" s="12" t="s">
+      <c r="A156" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="3" t="s">
         <v>307</v>
       </c>
       <c r="C156" s="10" t="s">
@@ -7369,6 +6846,250 @@
       </c>
       <c r="D156" s="11" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:4">
+      <c r="A163" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:4">
+      <c r="A164" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:2">
+      <c r="A171" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:2">
+      <c r="A172" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:2">
+      <c r="A173" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:2">
+      <c r="A174" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:2">
+      <c r="A175" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="176" customHeight="1" spans="1:2">
+      <c r="A176" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +7108,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7404,7 +7125,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -7421,7 +7142,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7437,7 +7158,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7453,7 +7174,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.62727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/data/tiezi.xlsx
+++ b/data/tiezi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20445" windowHeight="6930"/>
+    <workbookView windowWidth="22296" windowHeight="11831"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$189</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="345">
   <si>
     <t>Title(长度30个字)</t>
   </si>
@@ -58,11 +58,11 @@
     <t>不运行</t>
   </si>
   <si>
-    <t>成都理工大学成教怎么报名？报名时间是多久？考试时间？
+    <t xml:space="preserve">成都理工大学成教怎么报名？报名时间是多久？考试时间？
 成都理工大学现开放对外招收成教高起专，专升本学员，只要你年满18岁都可报考！报名只需100元，录取后再交学费，成教报名一年一次机会，报名截止到9月初，需要报名的学员抓紧时间联系李老师咨询报名事宜~
 咨询方式：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
 学校简介：
-成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！在省内理科内院校里面排名靠前，学员只需100元即可报考成都理工大学成人教育专本科学历，成教考试简单，学员可轻松毕业！
+成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！在省内理科内院校里面排名靠前，学员只需100元即可报考成都理工大学成人教育专本科学历，成教考试简单，学员可轻松畢業！
 成都理工现可报专业：
 专科：会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理
 本科：现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价
@@ -72,7 +72,7 @@
 报名即可签订协议保障学员权益！且成教报名只需交100元资料费（包含考试三科教材资料+考试科目视频课程），帮助同学们顺利通过考试，12月网上查录取后再交学费，学员报名可无后顾之忧~
 报名时间：现在正在报名，报名截止9月初，大家千万不要错过一年一次的报名机会哦，不然又要等明年！
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
+</t>
   </si>
   <si>
     <t>zikao.jpg,hanjin.jpg,why.jpg,chuanshi.jpg,rensheng.png,why2.png,way.png</t>
@@ -94,10 +94,9 @@
 学费低至2100元/年（按两年收取），现在可报考专业齐全，想要了解更多专业及详情可加李老师咨询~
 现只需交100元报名费即可报名参加209年成人高考，考试通过后再收取学费！学员报考可无后顾之忧！
 划重点：现只需交100报名费就可参加考试！
-毕业由四川广播电视大学颁发正规合法的毕业证书（学校网可查），社会认可度高！
+畢業由四川广播电视大学颁发正规合法的畢業书（学校网可查），社会认可度高！
 想要报考的学员抓紧时间赶快咨询哦~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 </t>
   </si>
   <si>
@@ -114,7 +113,6 @@
 报名时间：正在火热报名中，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：四川师范大学自考教学点（成都市成华区建设路银玺国际2810号）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 电话：199 8120 3720（微信同号）   扣：1916 3720 47</t>
   </si>
   <si>
@@ -142,7 +140,6 @@
 学费：2100元/年（按两年收取），现在报名可申请助学补贴200-600元，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
 </t>
   </si>
   <si>
@@ -151,7 +148,7 @@
 报名地址：四川师范大学自考新概念（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询人：李老师  
 成都工业学院是四川省人民政府举办、省教育厅主管的公办全日制普通本科学校。学校创办于1913年，是辛亥革命后四川省举办的第一所实业学校。学校曾先后12次更名，历经四川省立第一甲种工业学校、四川省立成都高级工业职业学校、成都无线电机械学校、成都电子机械高等专科学校等多个历史发展阶段。新中国成立后长期直属国家电子工业部，1987年起改由四川省人民政府主办、省电子工业厅主管，2000年调整为四川省教育厅主管。陈毅元帅曾于1916-1918在我校染织专业学习。江泽民同志曾视察过我校，并亲笔为学校七十五周年校庆题词：“发扬优良传统，培养优秀人才”。
-成人高考报考对象凡坚持四项基本原则，拥护改革开放，品德良好，遵纪守法，身体健康者均可报名。其中，相当高中毕业文化程度的从业人员或社会青年，普通高中、中等职业学校的应届毕业生可报考高中起点的本、专科专业；国民教育系列高等学校的大学专科或专科以上的毕业生可报考专科起点本科专业或第二专科专业。参加一次入学考试（每年10月份） 后续基本无考试 学制两年半!
+成人高考报考对象凡坚持四项基本原则，拥护改革开放，品德良好，遵纪守法，身体健康者均可报名。其中，相当高中畢業文化程度的从业人员或社会青年，普通高中、中等职业学校的应届畢業生可报考高中起点的本、专科专业；国民教育系列高等学校的大学专科或专科以上的畢業生可报考专科起点本科专业或第二专科专业。参加一次入学考试（每年10月份） 后续基本无考试 学制两年半!
 现成都理工专科可报专业：
 建筑装饰工程技术、工程造价、汽车技术服务与营销、服装设计、会计电算化、经济信息管理、国际经济与贸易、市场营销、电子商务、工商企业管理、旅游管理、酒店管理、行政管理、广告设计与制作、法律事务、汽车运用技术、城市轨道交通工程技术、金属矿产地质与勘查技术、水文与工程地质、石油与天然气地质勘探技术、工程测量技术、建筑装饰工程技术、建筑工程技术、工程造价、机械制造与自动化、数控技术、模具设计与制造、机电一体化技术、汽车检测与维修技术、汽车技术服务与营销、计算机应用技术、软件技术、电子信息工程技术、应用电子技术、通信技术、服装设计、会计电算化、经济信息管理、国际经济与贸易、市场营销、电子商务、工商企业管理、旅游管理、酒店管理、行政管理、广告设计与制作、法律事务
 本科可报专业：
@@ -161,23 +158,22 @@
 报名时间：正在火热报名中
 报名地址：川师自考教学点（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学成教专本科开放对外招生，现在高起专，专升本可报考专业齐全，学制2.5年毕业，报考专业齐全，详细专业参加下面招生专业：
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学成教专本科开放对外招生，现在高起专，专升本可报考专业齐全，学制2.5年畢業，报考专业齐全，详细专业参加下面招生专业：
 招生专业：
-专科：安全技术管理、保险实务、编导、餐饮管理与服务、初等教育、电子商务、法律事务、房地产经营与估价、服装设计、工程造价、广告设计与制作、国际商务、汉语、航空服务、会计、会计电算化、会计与统计核算、机电一体化技术、机械制造自动化、计算机信息管理、计算机应用技术、建筑工程管理、建筑工程技术 、建筑装饰工程技术、金融与证券、经济管理、酒店管理、矿山测量、矿山机电、旅游管理、煤矿开采技术、美术教育、模具设计与制造、烹饪工艺与营养、汽车电子技术、汽车技术服务与营销、汽车检测与维修技术、汽车运用技术、人力资源管理、软件技术、市场营销、数控技术、体育教育、文秘、物流管理、新闻采编与制作、行政管理、学前教育、艺术设计、音乐教育、应用电子技术；
+专科：安全技术管理、保险实务、编导、餐饮管理与服务、初等教育、电子商务、法律事务、房地产经营与估价、服装设计、工程造价、广告设计与制作、国际商务、汉语、航空服务、会计、会计电算化、会计与统计核算、机电一体化技术、机械制造自动化、计算机信息管理、计算机应用技术、建筑工程管理、建筑工程技术 、建筑装饰工程技术、金融与證券、经济管理、酒店管理、矿山测量、矿山机电、旅游管理、煤矿开采技术、美术教育、模具设计与制造、烹饪工艺与营养、汽车电子技术、汽车技术服务与营销、汽车检测与维修技术、汽车运用技术、人力资源管理、软件技术、市场营销、数控技术、体育教育、文秘、物流管理、新闻采编与制作、行政管理、学前教育、艺术设计、音乐教育、应用电子技术；
 本科：汉语言文学 英语 环境设计 安全工程 采矿工程 电气工程及其自动化 工业设计
 计算机科学与技术 数学与应用数学 财务管理 电子商务 工程造价 工商管理 会计学
 酒店管理 旅游管理 人力资源管理 市场营销 心理学 法学 教育技术学 教育学 体育教育
 小学教育 学前教育
 招生对象：
-只要你年满18岁！都可拿到名校毕业证书，正规学历，学信网终身可查！
+只要你年满18岁！都可拿到名校畢業书，正规学历，学信网终身可查！
 学费低至2000+/年（按两年收取）现在报名只需交100元资料费（包含考试科目教材资料，视频课件）12月查录取后再收取学费，成教学制2.5年，入学考试录取分数线低，期末考试均为过程性校考，由我们自己组织以及监考，学员可放心报考！
 咨询地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
+~
 </t>
   </si>
   <si>
@@ -198,11 +194,11 @@
 5、12月录取，交学费
 6、次年3月计算学籍
 录取后有网上在线学习及作业+学制内一共4次期末考试(期末考试过程性考试，学员到场配合处理即可)
-学制2.5年修满毕业！
+学制2.5年修满畢業！
 成人高考招生层次：高起本 专升本
 报考院校：四川师范大学、西南石油大学、成都理工大学、成都广播电视大学、成都医学院等省内重点大学！
-可报考专业齐全，现在报名只需交100元报名费(包含教材资料)考过再交学费，考试简单，录取分数线低，学制2.5年，毕业即可申请领取由学校颁发的学信网可查国家认可的正规毕业证书！
-很多学员初高中辍学，或因为各种原因没有拿到高中或者中专毕业证，想提升学历能不能报考成人高考呢？联系李老师报名，帮你解决你的难题
+可报考专业齐全，现在报名只需交100元报名费(包含教材资料)考过再交学费，考试简单，录取分数线低，学制2.5年，畢業即可申请领取由学校颁发的学信网可查国家认可的正规畢業书！
+很多学员初高中辍学，或因为各种原因没有拿到高中或者中专畢業，想提升学历能不能报考成人高考呢？联系李老师报名，帮你解决你的难题
 报名地址：成都市成华区建设路银玺国际28楼10号(川师自考点)
 详情咨询李老师~
 电话：199 8120 3720（微信同号）        扣：1916 3720 47</t>
@@ -210,11 +206,11 @@
   <si>
     <t>成教学历是不是含金量不高？四川成人高考报名入口？
 成教是什么学历形式？学历国家认可吗？
-成人高等学校招生全国统一考试（Adult university entrance exam）简称成人高考，是我国成人高等学校选拔合格的毕业生以进入更高层次学历教育的入学考试，属于国民教育系列教育，已经列入国家招生计划。成人高考同普通高考一样，是选拔人才的国家考试，只是由于本身的学习特征需要，才在学习形式等环节上有所差别，进行了一定区分。考生需参加教育部组织的全国统一考试，由各省市自治区、直辖市统一组织录取。设立之初，是为解决在岗人员的学历教育和继续教育问题，参加者多为成年人，是国家高等教育重要组成部分。
+成人高等学校招生全国统一考试（Adult university entrance exam）简称成人高考，是我国成人高等学校选拔合格的畢業生以进入更高层次学历教育的入学考试，属于国民教育系列教育，已经列入国家招生计划。成人高考同普通高考一样，是选拔人才的国家考试，只是由于本身的学习特征需要，才在学习形式等环节上有所差别，进行了一定区分。考生需参加教育部组织的全国统一考试，由各省市自治区、直辖市统一组织录取。设立之初，是为解决在岗人员的学历教育和继续教育问题，参加者多为成年人，是国家高等教育重要组成部分。
 成教是需要参加成人高考的，成人高考难不难呢？成人高考的分数线以及考试难度呢？
 很多想要报考成教的同学都会担心成人高考考试的难度，其实成人高考真不难，成人高考是面向成人的考试，考试难度是不大的，且分数线非常低，考三科，总分450分，专科120分左右录取，本科105-150之间录取，还有很多的加分政策，列如考生年龄满25岁都可加分20分，少数名族区域也可加分20分等相应的加分政策，往年报考的学员考试通过率为98%，只要学员不缺考基本上都能通过哦~
 成教每年多久报名？报名后多久考试？
-成教每年注册都是在8月底九月初，一年只有一次报名机会，2019年注册时间是9月4号-11号，考试时间为10月26-27号，考一天半，现在离报名截至还有最后十多天，学员抓紧时间报名哦，报名只需交100元，12月录取后再交学费，现在报名可以开始看视频课程学习了，准备10月份考试！成教只要成人高考通过，后面的考试都是过程性考试，学制2.5年修满毕业~
+成教每年注册都是在8月底九月初，一年只有一次报名机会，2019年注册时间是9月4号-11号，考试时间为10月26-27号，考一天半，现在离报名截至还有最后十多天，学员抓紧时间报名哦，报名只需交100元，12月录取后再交学费，现在报名可以开始看视频课程学习了，准备10月份考试！成教只要成人高考通过，后面的考试都是过程性考试，学制2.5年修满畢業~
 现在可报考院校：
 四川师范大学、成都理工大学、西南石油大学、四川文理学院、成都医学院等省内大学!
 学费低至2100元/年（按两年收取）现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
@@ -223,21 +219,24 @@
 电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
   </si>
   <si>
-    <t>中专学历有什么用?哪里可以报中专?不限户籍不学习不??考试！轻松毕业
+    <t>中专学历有什么用?哪里可以报中专?不限户籍不学习不??考试！轻松畢業
 对于无学历的朋友们来说，是提升学历提高自己的上限，还是随波逐流好？
 并不是说“唯学历是尊”，认为高学历就代表了高能力，但是如果想让自己上步步高升取得更多收获，如果有提升学历的机会，一定牢牢抓住，遗憾的人太多，别让自己成为其中一员！
-★中央广播电视中等专业学校---国家教育部直属中专，全国认可，网可查，毕业证带二维码辨别真伪，学信网验证报告也可查！
-★★毕业快快！免试入学！且不用学习！不用考试！不限制报考的户籍、前置学历、年龄★★ 
+★中央广播电视中等专业学校---国家教育部直属中专，全国认可，网可查，畢業带二维码辨别真伪，学信网验證报告也可查！
+★★畢業快快！免试入学！且不用学习！不用考试！不限制报考的户籍、前置学历、年龄★★ 
 专业齐全、实用性高、含金量高---（详情咨询李老师）
-“中专学历”：好的选择，拿证速度快，毕业轻松无忧，适用范围广：★★求职、升职、加薪、职称评定、留学、落户、考各大资格证书、可用于提升学历、升学前置学历、报考二建、报九大员、政审当兵、报幼师、报执业药师...
-不用学习和考试就能拿到毕业证书！还可提前毕业，8-10个月即可领取毕业证书！以后中专学历报名要求会变严苛，并不能提前毕业！
+“中专学历”：好的选择，拿證速度快，畢業轻松无忧，适用范围广：★★求职、升职、加薪、职称评定、留学、落户、考各大资格證书、可用于提升学历、升学前置学历、报考二建、报九大员、政审当兵、报幼师、报执业药师...
+不用学习和考试就能拿到畢業书！还可提前畢業，8-10个月即可领取畢業书！以后中专学历报名要求会变严苛，并不能提前畢業！
 学费：1480元（全包）
 所以拿起手机咨询/报名：李老师（网上即可提交报名资料报名+注册学籍，详情联系李老师！）
 报名地址：成都市成华区建设路银玺国际2810号
 电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
   </si>
   <si>
-    <t>成教（即成人高等教育），需参加成人高考，成人高考考试简单，考试通过率高。成人高考和普通高考不同，成人高考只需要考三门科目。不限学历！初中毕业，高中毕业都可报考！
+    <t>2020年四川成人高考报名时间 报名网站 报考院校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成教（即成人高等教育），需参加成人高考，成人高考考试简单，考试通过率高。成人高考和普通高考不同，成人高考只需要考三门科目。不限学历！初中畢業，高中畢業都可报考！
 考试科目：
 专科：语文、数学、英语3科
 本科：英语、政治、专业相关科目3科
@@ -253,14 +252,14 @@
 划重点：现只需交100报名费就可参加考试，学校录取后再收取学费！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师直属自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考艺术类专业考不考专业知识？没有基础可以报考吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川自考艺术类专业是不是学费比较贵？统考几科？
-所有专业中，艺术类专业跟医学类专业学费都要比普通专业相对高一些哦，也是因为艺术类专业相对来说比普通专业的统考科目要少一些，难度要低一些，学员可以更快时间通过考试申请毕业！
+</t>
+  </si>
+  <si>
+    <t>四川小自考艺术类专业学费贵吗 是不是考试科目要少一些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考艺术类专业难度高吗？只需统考4科？
+所有专业中，艺术类专业跟医学类专业学费都要比普通专业相对高一些哦，也是因为艺术类专业相对来说比普通专业的统考科目要少一些，难度要低一些，学员可以更快时间通过考试申请畢業！
 那么想要报考艺术类专业的同学，想要知道哪些专业是艺术类的专业？考试科目有几科？考试难度？
 李老师给大家总结一下，
 目前艺术类专业正在招收的专业有：
@@ -271,67 +270,37 @@
 艺术类专业是每年报考的热门专业，因其统考科目少，通过率高！所以每年报考的学员很多哦 ~
 四川现在可报考艺术专业的学校：
 四川师范大学、西华师范大学、成都理工大学，其中成都理工大学的艺术类专业跟普通专业学费标准是一样的哦，性价比超高！详情可加李老师咨询~
-自考毕业时间灵活，较快1年考完全部科目，1.5年毕业！毕业获颁由学校和自考办联合颁发的学信网可查国家认可的正规学历！
+自考畢業时间灵活，较快1年考完全部科目，1.5年畢業！畢業获颁由学校和自考办联合颁发的学信网可查国家认可的正规学历！
 学费低至2000+/年（按两年收取），学费包含教材+绝密押题资料，现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询哦~
 报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川成人学历有哪些形式？学历学信网可查吗？</t>
+</t>
+  </si>
+  <si>
+    <t>四川成人学历提升有哪些形式 在哪里报名 费用多少</t>
   </si>
   <si>
     <t xml:space="preserve">四川成人学历有哪些是正规学历？学信网可查的？
-有很多学员毕业工作后，想提升学历，但又怕成人学历不受企业认可。那么到底哪些是正规的成人学历呢？李老师为大家分析解答一下~
+有很多学员畢業工作后，想提升学历，但又怕成人学历不受企业认可。那么到底哪些是正规的成人学历呢？李老师为大家分析解答一下~
 同学们其实完全不用担心，成人学历都是国家认可学信网终生可查的学历！是国家为了提升全民教育水平开设的针对社会人员的学历形式，学习形式是用同学们闲暇空余时间进行学习，然后提升学历的一种方式，那么成人学历到底有哪些类型呢？
 成人学历分为四类：
 自考、成教、网教、电大，这四种形式，都是学信网可查的正规学历形式，学员们报考时可进行甄别，千万不要报考民办且学信网不能查的学历哦，每年高考落榜的学生很大一部分都会被无良的民办招生老师坑，所以选择学校时请详细咨询清楚~
 成人学历中含金量较高的为自考，依次为成教、网教、电大。
-现在很多企业对职员学历的要求越来越高，大部分企业至少都要求大专学历，很多学员面对自己想要的工作，但是没有满足基本学历的要求而感到很遗憾，成人学历便是面向需要提升学历，但是没有学习时间，就可以选择报考成人学历，不耽误工作时间，较快1.5年就可以拿到毕业证书！普遍毕业时间是2-2.5年！
+现在很多企业对职员学历的要求越来越高，大部分企业至少都要求大专学历，很多学员面对自己想要的工作，但是没有满足基本学历的要求而感到很遗憾，成人学历便是面向需要提升学历，但是没有学习时间，就可以选择报考成人学历，不耽误工作时间，较快1.5年就可以拿到畢業书！普遍畢業时间是2-2.5年！
 学历学信网终身可查！国家认可！
-重点：我们学校正规招生！不限学历，不限年龄，都可以拿到名牌大学毕业证书！
+重点：我们学校正规招生！不限学历，不限年龄，都可以拿到名牌大学畢業书！
 现在可报考院校：
 西南石油大学、四川师范大学、西华师范大学、成都理工大学、西南财经大学等省内名牌大学。
 学费低至2100元（学费按两年收取）现在报名可申请200元-400元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川自考怎么报名？报名流程？现在报名多久毕业？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>很多想要报考小自考的学员，都想了解小自考报名的学费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">是多少？在哪里报名？报名需要提供哪些资料？四川小自考报考流程及注意事项
+</t>
+  </si>
+  <si>
+    <t>四川小自考报考时要注意事项 报考流程 报名方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多想要报考小自考的学员，都想了解小自考报名的学费‌‌是多少？在哪里报名？报名需要提供哪些资料？四川小自考报考流程及注意事项
 李老师来为大家慢慢的解答~
 首先四川小自考（应用型）报名
 主要是准备3-6门左右的统考，其余9-12科为校考科目，校考过程性考试，学员只需到场配合学校处理，小自考有资料、辅导，大专业还可开始视频课程，统考科目较少，在通过率上有优势。费用的话学校不同学费也有所不同，学费低至2000+元/年（学费按两年收取），学员可根据自身情况选择报考学校跟专业。
@@ -342,9 +311,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询哦~
 二、报名条件： 
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）划重点：只要你年满17岁都可报考哦！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）划重点：只要你年满17岁都可报考哦！
 三、报名资料 ： 
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费： 
 学费低至2000+/年（按两年收取），现在报名可申请助学补贴，名额有限，想要报名的同学赶快联系李老师咨询~
 五、报名流程：
@@ -354,12 +323,10 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号（川师自考教学点）报名即跟学员签订保障学员权益的协议，学员可放心报考！
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考有学制要求吗？必须两年考完吗？</t>
+</t>
+  </si>
+  <si>
+    <t>自考有时间限制吗 在四川报自考怎么报 多久能毕业</t>
   </si>
   <si>
     <r>
@@ -370,8 +337,8 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>四川小自考学制是多久？有年限要求吗？较快多久毕业？
-很多学员不清楚自考到底多久毕业？学制多长？
+      <t>四川小自考学制是多久？有年限要求吗？较快多久畢業？
+很多学员不清楚自考到底多久畢業？学制多长？
 其实这个问题对于每个人的概</t>
     </r>
     <r>
@@ -392,34 +359,34 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">念都是不一样的，因为自考毕业时间是比较灵活的，
-需要所有考试科目全部通过就可以申请毕业，如果你认真看书，那么最快可1.5年毕业，
+      <t xml:space="preserve">念都是不一样的，因为自考畢業时间是比较灵活的，
+需要所有考试科目全部通过就可以申请畢業，如果你认真看书，那么最快可1.5年畢業，
 主要看同学们个人的学习能力跟学习自觉性，
 因为考试是学员本人在考，结果还是要看自己，
-如果你从来不看书不复习不做题，想全部裸考毕业
+如果你从来不看书不复习不做题，想全部裸考畢業
 李老师告诉你：几乎是不可能的！
 除非你原本的基础就很好，且拥有非常深厚的专业知识，
 小自考只需统考3-6科，其他9-12科都是过程性校考，
 其实小自考统考科目的难度是不大的，只是需要学员花些时间看书，
-都是考的基础知识，所以学员选择报考自考，那么就要下定决心，争取早点考完拿到毕业证书！
+都是考的基础知识，所以学员选择报考自考，那么就要下定决心，争取早点考完拿到畢業书！
 注意事项：
 只要你认真看看书，多做做我们的发给你的真题！
 哪怕是考前一个月临时抱佛脚，你都会看到收获哦！
 学校规定自考按两年收费，但是自考原则上是到学员考过为止，学员可放心报考！
-已经报考的学员普遍毕业时间是2-3年，较快可1年9个月拿毕业证书！
+已经报考的学员普遍畢業时间是2-3年，较快可1年9个月拿畢業书！
 现自考正在招生院校：
 四川师范大学、西南石油大学、西华师范大学、成都理工大学，西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取）学费包含教材资料跟视频课程，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成化区建设路银玺国际2810号（川师自考教学点）
-电话：199 8120 3720（微信同号）     扣：1916 3720 47
 </t>
     </r>
   </si>
   <si>
-    <t>川师小自考在哪里可以报名？报考时怎么选择专业？</t>
-  </si>
-  <si>
-    <t>四川师范大学小自考怎么报名？报名时怎么选择专业？
+    <t>四川师范大学有小自考吗 专业有哪些 哪些专业简单</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+四川师范大学小自考怎么报名？报名时怎么选择专业？
 学校简介：
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学现可报名专业：
@@ -428,109 +395,41 @@
 考试科目：6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
 考试时间：统考在每年的4月、10月，校考在每年的7月、12月
 很多学员报名时会不知道自己该选择什么专业，李老师为大家推荐一下，四川师范大学作为省内文科院校，他的文科专业是优势专业，且文科专业也是自考里面通过率较高的专业，如果学员没有专业上的要求，可选择简单通过率高的专业，列如汉语言文学，小学教育，学前教育，行政管理，工商管理等文科专业，只需要统考6科，统考科目还会开设视频课程，也会有绝密押题资料，帮助学员顺利通过考试！
-学费3400元/年（按两年收取），包含资料视频+教材+视频课程+重点复习资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加10月统考！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面较高的！单位认可度高，对毕业证含金量有要求的可以选择报考小自考，且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考哦！
-报名时间：正在报名注册中，现在报名可参加10月统考！早半年毕业！
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考会计专业的通过率如何？统考几科？在哪里报名？</t>
-  </si>
-  <si>
-    <t>专业介绍：
+学费3600元/年（按两年收取），包含资料视频+教材+视频课程+重点复习资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名即可签订协议保障学员权益！现在报名可参加4月统考！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面较高的！单位认可度高，对畢業含金量有要求的可以选择报考小自考，且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考哦！
+报名时间：正在报名注册中，现在报名可参加6月校考，早报早毕业！
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师    电话：199 8120 3720（vx同号）   扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>自考报会计专业通过率高吗 四川有哪些学校可以报考会计专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">专业介绍：
 会计学专业属工商管理学科，是一个应用性较强的专业。该专业设有企业会计、国际会计、注册会计师等三个专业方向。专业以企业会计为主，兼顾计算机与财务管理。在教学方法上强调理论与实践相结合的教学模式，提倡启发式与案例教学，多方位培养学生处理会计业务与管理财务的操作能力和创新能力。
 会计学专业自考还是有一定难度，但是只需要统考6科，100分满分60分及格即可，配合老师的授课以及押题资料，只要统考科目花些时间看书，难度还是不大的，其他9-14科的校考，只要学员配合学校处理，过程性考试，学员只需要把重心放在6科统考上。
 现在可报考会计学的学校：
 西南石油大学、四川师范大学、西南财经大学、西华师范大学、成都理工大学等。
-报名时间：现在正在报名中（现在报名，可参加6月校考，早半年毕业）
+报名时间：现在正在报名中（现在报名，可参加6月校考，早半年畢業）
 学费低至2700元一年，现在报名可申请领取200-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 本处为学校授权的校外教学点，学校网站可查，学员可放心报考！报名即签订保障学员权益的协议书，学员无后顾之忧！
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考行政管理专业统考几科？是不是比大自考统考科目少？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介：
-四川师范大学（SICHUAN NOR​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>MAL UNI</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家 中西部高校基础能力建设工程 重点建设大学，入选“卓越教师培养计划 ” 、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考行政管理专业报名注册中 统考少 毕业快</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+四川师范大学（SICHUAN NOR​‌‌MAL UNI‌‌‌‌VERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家 中西部高校基础能力建设工程 重点建设大学，入选“卓越教师培养计划 ” 、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
 专业介绍：
-行政管理（administration manag</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ement）是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展，行政管理的对象日益广泛，包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法，以减少人力、物力、财力和时间的支出和浪费，提高行政管理的效能和效率。
+行政管理（administration manag‌‌ement）是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展，行政管理的对象日益广泛，包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法，以减少人力、物力、财力和时间的支出和浪费，提高行政管理的效能和效率。
 考试科目：
 专业统考科目：社会学概论丶当代中国政治制度丶西方政治制度丶公共政策丶领导科学丶公务员制度
-专业校考科目：中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理（选考课程不低于10学分。不考英语（二）的再另选三门课程，总学分不低于24学分）】毕业考核（或论文综合实践实验实习等）
+专业校考科目：中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理（选考课程不低于10学分。不考英语（二）的再另选三门课程，总学分不低于24学分）】畢業考核（或论文综合实践实验实习等）
 行政管理就业方向:
 1. 在县级以上政府的民政职能部门和事业单位就业；
 2. 从事乡镇民政办公室管理工作；
@@ -539,54 +438,25 @@
 5. 从事婚姻服务中介机构、收养登记服务中介机构管理工作；
 6. 从事婚姻管理、收养登记管理、行政区划管理工作；
 7. 从事地名管理、社团管理工作等。
-8. 可从事事业单位的行政协理员，办公室主任、行政主管、协调层或决策层高级助理，中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职毕业生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作，学校、科研部门的教学或科研工作，大、中型企业和企业集团
+8. 可从事事业单位的行政协理员，办公室主任、行政主管、协调层或决策层高级助理，中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职畢業生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作，学校、科研部门的教学或科研工作，大、中型企业和企业集团
 统考6科（闭卷）+校考9-12科左右（过程性考试）
 现四川师范大学招收自考行政管理专业专科、本科学员，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 学费：3400元/年（按两年收取）
 学费包含教材资料、在线教学、面授，现在报名还可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名时间：正在火热报名中，现在报名即可参加6月校考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考报考流程 报考注意事项</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>很多想要报考小自考的学员，都想了解小自考报名的学费​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是多少？在哪里报名？报名需要提供哪些资料？
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考什么时候开始报名 报名需要哪些资料 学费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多想要报考小自考的学员，都想了解小自考报名的学费​‌‌是多少？在哪里报名？报名需要提供哪些资料？
 李老师来为大家慢慢的解答~
 首先四川小自考（应用型）报名
 主要是准备六门左右的统考，其余9-12科为校考科目，校考过程性考试，学员只需到场配合学校处理，小自考有资料、辅导，统考科目也少，在通过率上有优势。费用的话学校不同学费也有所不同，学费低至2000+元/年（学费按两年收取），学员可根据自身情况选择报考学校跟专业。
@@ -597,9 +467,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询~
 二、报名条件： 
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）只要你年满17岁都可报考！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）只要你年满17岁都可报考！
 三、报名资料 ： 
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费： 
 学费包含教材资料，视频课件，面授课程！
 五、报名流程：
@@ -609,20 +479,19 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号（川师自考教学点）本处为学校直属教学站点，报名即跟学员签订保障学员权益的协议，学员可放心报考！
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川报了大自考太难了考不过怎么办？可以换简单点的吗？</t>
-  </si>
-  <si>
-    <t>四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
+</t>
+  </si>
+  <si>
+    <t>四川大自考的成绩可以转到小自考吗 需要哪些资料 怎么办理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
 很多报名参加大自考的学员，
 考试没通过，
-但是又想拿毕业证怎么办？
+但是又想拿畢業怎么办？
 大自考是需要全部科目16-18科全部参加国家统考，
 考试难度高，并且一年只有两次考试机会，
-毕业时间较长，
+畢業时间较长，
 这时候想报小自考行不行呢？
 大自考考不过的学员是可以报小自考的，
 大自考考过的科目可转免kao
@@ -632,117 +501,57 @@
 并且统考科目会有视频课件给学员日常学习，
 考前还会安排面授，也会有押题资料。
 小自考大大降低了考试难度，
-并且小自考与大自考的毕业证书含金量是完全一样的，
-毕业证也不区分大小自考。
+并且小自考与大自考的畢業书含金量是完全一样的，
+畢業也不区分大小自考。
 小自考考试时间比大自考增加了两次，一年有四次考试机会
-较快1年考完全部科目，1.5年那毕业证书！
-大大缩短了学员毕业时间！
-想要快速毕业拿证的学员可选择报考自考！
+较快1年考完全部科目，1.5年那畢業书！
+大大缩短了学员畢業时间！
+想要快速畢業拿證的学员可选择报考自考！
 现在可报考学校：
 四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取），现可报考专业齐全，现在报名还可申请领取200元-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川专本套读难不难？在哪里报考？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>李老师推荐什么是专本套读？适合什么样的人群选择？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">‌
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川成人报考本科有哪些条件？高中毕业可以报本科吗？
+</t>
+  </si>
+  <si>
+    <t>专本套读是什么学历形式 四川成人学历在哪里报名靠谱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">李老师推荐什么是专本套读？适合什么样的人群选择？‌
+四川成人报考本科有哪些条件？高中畢業可以报本科吗？
 相信大家可能听说过高起专，专升本等等考试，那么专本套读是什么意思呢，适合什么样的人群选择呢？接下来李老师就为大家解释一下~
-专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，利用周末的时间完成本科段的学习，学制为两年半。这样专科毕业的同时能获得一个自考本科文凭。简单一点就是在专科学制内报读自考本科，在专科学制内完成本科段的考试科目，然后专科毕业后就可以申请本科毕业证，专本套读是较快能拿到本科学历的形式~
+专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，利用周末的时间完成本科段的学习，学制为两年半。这样专科畢業的同时能获得一个自考本科文凭。简单一点就是在专科学制内报读自考本科，在专科学制内完成本科段的考试科目，然后专科畢業后就可以申请本科畢業，专本套读是较快能拿到本科学历的形式~
 为什么会有专本套读呢？
-因为只有自考专升本在报考时不需要出示前置学历，只要在本科申请毕业时出示前置学历即可，所以专本套读的的本科只能选择自考哦，其他形式的学历是在报考时必须提供前置学历的
+因为只有自考专升本在报考时不需要出示前置学历，只要在本科申请畢業时出示前置学历即可，所以专本套读的的本科只能选择自考哦，其他形式的学历是在报考时必须提供前置学历的
 适合什么样的人群去选择呢？
 其实专本套读这种形式较适合的就是只有初高中学历的人，想要国家承认的本科学历，那么就可以选择专本套读，专科可选择简单一点的成教或网教，学制2.5年，本科选择自考，这样学员可以把重心放在自考本科的考试科目上，对于很多在职人员来说也是比较好的选择！同学们可以根据自身情况来选择报考形式！
-现在社会上对于学历越来越重视，高的学历可以使你得到更好的发展平台，更好的施展自己的才华，如果仅仅只有高中学历，在社会上的竞争力是不够的，更何况如果你还要考各类资格证书，那么学历都是硬性要求，不管曾经是因为什么而错失了上大学的机会，现在有专本套读这个机会可以帮助你完成上大学的梦想！机会只给有准备的人，我相信同学们也不甘心碌碌无为的过一辈子！所以抓紧时间联系李老师咨询~
+现在社会上对于学历越来越重视，高的学历可以使你得到更好的发展平台，更好的施展自己的才华，如果仅仅只有高中学历，在社会上的竞争力是不够的，更何况如果你还要考各类资格證书，那么学历都是硬性要求，不管曾经是因为什么而错失了上大学的机会，现在有专本套读这个机会可以帮助你完成上大学的梦想！机会只给有准备的人，我相信同学们也不甘心碌碌无为的过一辈子！所以抓紧时间联系李老师咨询~
 我校为成都理工大学、四川师范大学、西南石油大学等学校的校外自考站，学历均学信网终身可查，国家认可，专业齐全，学费低至2100元/年（按两年收取），现在报名还可申请助学补贴200-600元，名额有限，想要报名的学员速速联系里李老师咨询~
 报名后有专门的班主任全程带班，避免了学员学习无规划，考试没报考的现象，报名即跟学员签订保障同学们权益的协议，同学们可以放心报考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川自考有计算机专业吗？通过率高吗？</t>
-  </si>
-  <si>
-    <t>西华师范大学/成都理工大学现招收小自考计算机专业，it行业现在对从业人员的学历要求越来越高，所以从事计算机行业的同学们赶快报考成人学历提升自己的学历，让自己不要因为学历原因应聘不上自己想去的公司。
-计算机专业统考6科，校考9-14科，校考由学校组织，过程性考试，学员只需把重心放在6科统考上，统考科目会有往年的真题资料以及学习重点给到每个学员，一年四次考试机会，较快1年考完全部科目，1.5年毕业！学员普遍的毕业时间为两年左右，
-毕业获颁由自考办和学校联合颁发的毕业证书，自考毕业证书含金量高，社会认可度高，学信网终身可查！
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西华师范大学/成都理工大学现招收小自考计算机专业，it行业现在对从业人员的学历要求越来越高，所以从事计算机行业的同学们赶快报考成人学历提升自己的学历，让自己不要因为学历原因应聘不上自己想去的公司。
+计算机专业统考6科，校考9-14科，校考由学校组织，过程性考试，学员只需把重心放在6科统考上，统考科目会有往年的真题资料以及学习重点给到每个学员，一年四次考试机会，较快1年考完全部科目，1.5年畢業！学员普遍的畢業时间为两年左右，
+畢業获颁由自考办和学校联合颁发的畢業书，自考畢業书含金量高，社会认可度高，学信网终身可查！
 报名时间：正在火热报名中，现在报名可申请助学补贴200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 收费情况：2700元/年（按两年收取）包含全套教材资料、视频课件、面授，现在报名即可参加4月统考，报名及签订保障学员权益的协议书，学员可放心报考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川电大学历含金量是不是不高？学信网能查吗？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介
-国家开放大学，是中华人民共和国教育部直​</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>属的，以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合
+~
+</t>
+  </si>
+  <si>
+    <t>四川国家开放大学现在还可以报名吗 学费多少</t>
+  </si>
+  <si>
+    <t>学校简介
+国家开放大学，是中华人民共和国教育部直​‌‌属的，以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合
 一、国家开放大学靠谱吗？
-答案肯定是靠谱的，因为国家开放大学的学历是国家直属，直属于教育局，是实体大学，可以直接用来考证、评职称、考公务员等。
+答案肯定是靠谱的，因为国家开放大学的学历是国家直属，直属于教育局，是实体大学，可以直接用来考證、评职称、考公务员等。
 二、国家开放大学有哪些优势？ 
 1、适合在职人员，业余时间可学习，时间灵活
 2、考试难度相对较低，校本部出题，难度不大，没入学考试
@@ -754,31 +563,15 @@
 1．本科（专科起点）专业
 土木工程、护理学、行政管理、市场营销、工商管理、计算机科学与技术、学前教育（幼儿园管理方向）、学前教育（学前教师教育方向）、法学、金融学、公共事业管理（社会教育及应用心理方向）、公共事业管理（学校管理方向）、公共事业管理（卫生事业管理方向）、物流管理、会计学、水利水电工程、机械设计制造及其自动化、汉语言文学（师范方向）、汉语言文学、英语（师资培养方向）、广告学、小学教育、社会工作、汽车专业
 2．专科专业
-老年服务与管理、药品经营与管理、城市轨道交通运营管理、室内艺术设计、机械制造与自动化（机电方向）、社会工作（老年方向）、社会工作、物业管理、公共事务管理、机电一体化技术、园艺技术（都市园艺方向）、信息系统开发与维护、广告设计与制作、传播与策划、文秘、汉语言文学、英语（经济贸易方向）、英语（教师培养方向）、建设工程管理、建设工程技术、工商企业管理、护理、法律事务、市场营销（行业营销方向）、市场营销（营销与策划方向）、市场营销（市场开发与营销方向）人力资源管理、酒店管理、旅游管理、行政管理、物流管理、电子商务、会计、药学、水利水电工程管理、工程造价、计算机网络技术(网络管理方向)、汽车营销与服务、汽车运用与维修技术、学前教育、小学教育、保险、投资与理财、金融管理、证券与期货
+老年服务与管理、药品经营与管理、城市轨道交通运营管理、室内艺术设计、机械制造与自动化（机电方向）、社会工作（老年方向）、社会工作、物业管理、公共事务管理、机电一体化技术、园艺技术（都市园艺方向）、信息系统开发与维护、广告设计与制作、传播与策划、文秘、汉语言文学、英语（经济贸易方向）、英语（教师培养方向）、建设工程管理、建设工程技术、工商企业管理、护理、法律事务、市场营销（行业营销方向）、市场营销（营销与策划方向）、市场营销（市场开发与营销方向）人力资源管理、酒店管理、旅游管理、行政管理、物流管理、电子商务、会计、药学、水利水电工程管理、工程造价、计算机网络技术(网络管理方向)、汽车营销与服务、汽车运用与维修技术、学前教育、小学教育、保险、投资与理财、金融管理、證券与期货
 学历提升相关咨询，可联系李老师咨询~
 电话：199 8120 3720（微信同号）   扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>小自考工程造价报考哪个学校比较好？考试难度？</t>
-  </si>
-  <si>
-    <t>小自考工程造价专业火热招生中！
-小自考工程造价可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南交通大学...
-统考考试科目： 建筑工程定额预算、建设工程工程量清单计价实务、建设工程合同条款、工程项目管理、工程造价确定与控制、房屋建筑工程概论
-校考考试科目：中国近现代史纲要、马克思主义基本原理概论、概率论与数理统计(二）、线性代数、土木工程制图、综合课程设计、工程经济学、工程建设法规、装饰工程定额与预算、安装工程定额与预算
-学习形式：6门统考+9-11门校考
-考试时间：统考在每年的4月、10月，校考在每年的7月、12月
-学费低至2000+/年（学费按两年收取），现在报名可申请助学金200-600元，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询：李老师
-电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考汉语言文学专业可以报哪个学校？成都报名点在哪儿？</t>
-  </si>
-  <si>
-    <t>四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+  </si>
+  <si>
+    <t>自考汉语言文学专业考试科目 考试难度大吗 四川报名方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 首先汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上，汉语言文学专业统考科目分别是：
 00537 中国现代文学史
@@ -789,7 +582,7 @@
 00547 马列文论选读
 汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！
 该汉语言文学专业就业前景：
-汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
+汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格證成为教师。
 现四川师范大学/西华师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
 学费低至2500元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，想要报名的学员速速咨询李老师~
 考试时间：
@@ -797,13 +590,13 @@
 4月/10月统考 6月/12月校考
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点，本处为学校直属站点，学校可查，学员可放心报考）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>小自考只有四川才有吗？国家认可小自考学历吗？</t>
-  </si>
-  <si>
-    <t>自考是成人学历的其中一种形式，
+</t>
+  </si>
+  <si>
+    <t>小自考学历可以考公务员吗 小自考学历企业认可吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自考是成人学历的其中一种形式，
 它的含金量也是非常高的，
 考验了学员的自学能力，
 很多学员就认为那自考应该是很难的，
@@ -816,7 +609,7 @@
 只需要学员配合学校完成考试，
 考前会有资料，
 学员的重心可以都放在6门统考上，
-一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到毕业证书！
+一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到畢業书！
 2·选择自考的形式后，该选择哪些专业呢？
 自考热门专业可分为四大类：
 A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
@@ -830,13 +623,13 @@
 四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 名校招生，名额有限，学费低，通过率高！想要报名的学员抓紧时间联系李老师咨询详情~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考小学教育统考几科？学费多少？</t>
-  </si>
-  <si>
-    <t>想要自考小学教育专业的学员看过来，
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考小学教育专业学费贵吗 什么时候报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">想要自考小学教育专业的学员看过来，
 李老师为你解答你的疑问，
 首先自考小学教育专业到底难不难？
 小学教育专业是文科类专业，
@@ -853,85 +646,55 @@
 统考科目考试前会安排面授，
 也有相应的押题资料，
 帮助学员能尽快通过考试，
-能顺利领取毕业证书！
-其次是自考小学教育专业多久能拿到毕业证书？
-自考是所有考试科目考完即可申请毕业，
-毕业时间灵活，
+能顺利领取畢業书！
+其次是自考小学教育专业多久能拿到畢業书？
+自考是所有考试科目考完即可申请畢業，
+畢業时间灵活，
 每年有4次考试机会，
 两次校考，两次统考，
 校考一次较多报4-6科，统考2-4科，
 学员较快可1.5年考完全部考试科目，
-一年九个月领取毕业证书！
-毕业证书是由自考办和学校联合颁发的国家认可学信网可查的正规毕业证书！
-自考毕业证书也是成人学历里面含金量较高的！可以考教师资格证，也可以参加教师公招！
+一年九个月领取畢業书！
+畢業书是由自考办和学校联合颁发的国家认可学信网可查的正规畢業书！
+自考畢業书也是成人学历里面含金量较高的！可以考教师资格證，也可以参加教师公招！
 怎么报名？
 现四川师范大学，西华师范大学
 正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（四川师范大学自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考美术教育是不是统考科目较少的专业 多久毕业？</t>
-  </si>
-  <si>
-    <t>美术教育专业：
+</t>
+  </si>
+  <si>
+    <t>四川小自考美术教育专业 统考少 毕业快</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美术教育专业：
 美术教育专业以培养德、智、体、美全面发展，较系统地掌握美术基本理论、基本知识和美术教师必备的职业道德，职业技能，能够较好地适应民族教育改革发展，胜任小学美术教育教学工作为宗旨，兼顾培养从事与美术专业相关工作的实用性、应用性人才。
 西华师范大学、四川师范大学现招收美术教育专业本科自考学员，名额有限，需要报名的学员要抓紧时间报名！
 统考较少只参加两门！
-英语2（可用校考替代）、计算机应用基础（全国计算机一、二级证书可
+英语2（可用校考替代）、计算机应用基础（全国计算机一、二级證书可
 考）、教育学、教育心理学。
-统考科目少，大大降低了考试难度，增加了考试通过率！较快有学员1.5年就考完申请毕业！
+统考科目少，大大降低了考试难度，增加了考试通过率！较快有学员1.5年就考完申请畢業！
 学费低至2700元/年（按两年收取），学费包含全套教材资料，以及绝密押题资料！
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名时间：正在火热报名中(名额有限，赶快抓紧时间报名哦）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>电大一年制中专在哪里报名  报考专业  学费</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>报名时间：正在火热报名中，每月滚动注册
+</t>
+  </si>
+  <si>
+    <t>报二建没有学历怎么办 中央电大成人中专报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">报名时间：正在火热报名中，每月滚动注册
 报名地址：川师自考教学点（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询方式：李老师 
 课程学费：1480元
 成都电大现特设一年制中专，
-7-10个月即可领取</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>毕业证！
+7-10个月即可领取‌‌畢業！
 中专学历有什么用：
 可用于报考二级建造师，九大员，安全工程师等考试，
 可用于参军，就业，
@@ -939,41 +702,39 @@
 可用于评定建筑类或者其他类初级职称。
 不用参加考试，
 没有平时作业！
-轻松拿到毕业证书！
-毕业由中央广播电视中等学校验印的成人中等毕业证书！国家承认！
-报考一年制中专毕业后可以考二建吗？答案是肯定的，成人中专是中央电大特别为考证的学员设置的班型，是正规学历，注册后一个月可在学校网站查询考籍，正规学历当然是可以正常报考二建等证书的！
+轻松拿到畢業书！
+畢業由中央广播电视中等学校验印的成人中等畢業书！国家承认！
+报考一年制中专畢業后可以考二建吗？答案是肯定的，成人中专是中央电大特别为考證的学员设置的班型，是正规学历，注册后一个月可在学校网站查询考籍，正规学历当然是可以正常报考二建等證书的！
 学费：1480元（全部学费） 需要提升学历的咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
 每月滚动注册，学员交资料报名即可注册！
 报名地址：川师自考教学点（成都市成华区建设路银玺国际2810号（川师自考教学点））
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考汉语言文学专业通过率高吗？这个专业是不是比较简单？</t>
-  </si>
-  <si>
-    <t>四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+</t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学要考几科 报名后怎么学习</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 首先汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上。
 汉语言文学专业统考科目分别是：00537 中国现代文学史、00529 中国古代文学史（一）、00539 中国古代文学史（二）、00540 外国文学史、00541 语言学概论、00547 马列文论选读
-汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年毕业！
+汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年畢業！
 该汉语言文学专业就业前景：
-汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
+汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格證成为教师。
 现四川师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
-学费低至3400元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，毕业获颁由学校和自考办联合颁发的毕业证书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
+学费低至3400元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，畢業获颁由学校和自考办联合颁发的畢業书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考工程造价专业统考哪几科？大概要花多少钱？</t>
-  </si>
-  <si>
-    <t>四川小自考工程造价统考几科？每个学校考试科目都一样吗？
+</t>
+  </si>
+  <si>
+    <t>四川小自考工程造价专业报哪个学校比较简单 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考工程造价统考几科？每个学校考试科目都一样吗？
 小自考工程造价专业火热招生中！
-小自考工程造价可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南交通大学等省内重点大学，现在报考可参加12月底校考，本次注册是今年最后一次注册机会，可早半年毕业！
+小自考工程造价可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南交通大学等省内重点大学，现在报考可参加12月底校考，本次注册是今年最后一次注册机会，可早半年畢業！
 统考考试科目： 建筑工程定额预算、建设工程工程量清单计价实务、建设工程合同条款、工程项目管理、工程造价确定与控制、房屋建筑工程概论，统考6科，需要看书学习的就是这6科！
 校考考试科目：中国近现代史纲要、马克思主义基本原理概论、概率论与数理统计(二）、线性代数、土木工程制图、综合课程设计、工程经济学、工程建设法规、装饰工程定额与预算、安装工程定额与预算，校考为过程性考试，学员只需配合学校处理即可！
 学习形式：6门统考+9-11门校考
@@ -981,10 +742,10 @@
 学费低至2000+/年（学费按两年收取），现在报名可申请助学金200-600元，名额有限，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询：李老师
-电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考人力资源管理专业就业前景如何？在哪里报名？</t>
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考报哪些专业比较好考 怎么报名</t>
   </si>
   <si>
     <t xml:space="preserve">成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
@@ -992,66 +753,37 @@
 人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
 成都理工大学现招收自考人力资源管理专、本科学员，名额有限，需要的需要抓紧时间联系李老师报名哦~
 就业前景：
-企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科毕业生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
+企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科畢業生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
 考试科目：
 统考：4-6科        校考：9-12科（由学校组织，过程性考试）
 学费：2700元/年（按两年收取）学费包含教材资料以及视频在线课程！
 考试时间：
 统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）        QQ:1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川小自考在哪里机构报名比较靠谱？有没有报过的人推荐一下？</t>
-  </si>
-  <si>
-    <t>四川小自考报考机构哪一个比较负责？选择适合自己的专业？
+</t>
+  </si>
+  <si>
+    <t>四川小自考报哪个机构通过率高 老师负责</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考报考机构哪一个比较负责？选择适合自己的专业？
 很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
 校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
 本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
-小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿毕业证，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，考完即可申请毕业~
-可报考专业齐全，详情可加李老师咨询，很多考生报考时不知道选择专业的话，可以选择报考热门专业，列如汉语言文学、法学、行政管理、工商管理、小学教育等专业都是每年报考的热门专业，也是通过率较高比较好考的专业，对于很多对专业没有要求的考生来说，报考以上专业可以较快时间考完毕业！
+小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿畢業，自考是成人学历里面含金量较高的一种学历形式，畢業时间灵活，考完即可申请畢業~
+可报考专业齐全，详情可加李老师咨询，很多考生报考时不知道选择专业的话，可以选择报考热门专业，列如汉语言文学、法学、行政管理、工商管理、小学教育等专业都是每年报考的热门专业，也是通过率较高比较好考的专业，对于很多对专业没有要求的考生来说，报考以上专业可以较快时间考完畢業！
 报名地址：成都市成华区建设路银玺国际2810号
 更多咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>小自考在哪里报名？报名时间？报名资料？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>很多想要报考小自考的学员，都想了解小自考报名的学费</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>是多少？在哪里报名？报名需要提供哪些资料？
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考报名入口 报名网站 报名时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多想要报考小自考的学员，都想了解小自考报名的学费‌‌是多少？在哪里报名？报名需要提供哪些资料？
 李老师来为大家慢慢的解答~
 首先四川小自考（应用型）报名
 主要是准备六门左右的统考，其余9-12科为校考科目，校考过程性考试，学员只需到场配合学校处理，小自考有资料、辅导，统考科目也少，在通过率上有优势。费用的话学校不同学费也有所不同，学费低至2000+元/年（学费按两年收取），学员可根据自身情况选择报考学校跟专业。
@@ -1062,9 +794,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询~
 二、报名条件： 
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）只要你年满17岁都可报考！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）只要你年满17岁都可报考！
 三、报名资料 ： 
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费： 
 学费包含教材资料，视频课件，面授课程！
 五、报名流程：
@@ -1074,57 +806,56 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号，报名即跟学员签订保障学员权益的协议，学员可放心报考！
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>小自考工商管理专业就业前景 学费大概多少？</t>
-  </si>
-  <si>
-    <t>四川小自考工商管理专业统考几科？这个专业好考吗？
+</t>
+  </si>
+  <si>
+    <t>四川小自考工商管理专业考数学吗 考不过怎么办</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考工商管理专业统考几科？这个专业好考吗？
 想要报考小自考工商管理专业的学员，李老师给大家说一下报考工商管理专业的情况：
 先介绍下工商管理专业：
 工商企业管理，是对企业的生产经营活动进行计划、组织、领导、人员配备、指挥、协调和控制等一系列职能的总称。工商企业管理专业是自学考试学科调整后产生的新专业。这一专业的设置是为了培养在社会主义市场经济条件下从事工商业及其他各类企业管理方面工作的专门人才。经过专业学习，成绩合格者应系统地掌握现代管理理论、有广泛的知识。熟悉各类管理的基本技能和科学方法，能够胜任企业管理工作。 工商管理是研究工商企业经济管理基本理论和一般方法的学科，主要包括企业的经营战略制定和内部行为管理两个方面。
-那么工商管理专业毕业后可以找什么工作呢？
-该专业毕业后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。从事的岗位如下：
+那么工商管理专业畢業后可以找什么工作呢？
+该专业畢業后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。从事的岗位如下：
 1. 一般传统管理类岗位
 2. 市场营销类岗位
 3. 人力资源管理类岗位
 4. 物流管理类岗位
-工商管理专业毕业后就业范围广，是每年报考的热门专业！
+工商管理专业畢業后就业范围广，是每年报考的热门专业！
 那么小自考工商管理专业一共要考几科呢？
 统考6科（需要同学们根据老师的课程以及整理好的押题资料进行学习，是全国统考）
 校考9-12科（过程性考试）
-学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿毕业证书，同学们普遍的毕业时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，毕业后学信网终身可查！是由学校跟自考办联合颁发的正规毕业证书！
+学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿畢業书，同学们普遍的畢業时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，畢業后学信网终身可查！是由学校跟自考办联合颁发的正规畢業书！
 可报考院校：
 四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询
-报名时间：正在报名注册中，现在报名可参加10月统考，可早半年毕业！
+报名时间：正在报名注册中，现在报名可参加10月统考，可早半年畢業！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历在哪里报名？有哪些学校？</t>
+</t>
+  </si>
+  <si>
+    <t>四川哪些高校可以报考成人正规学历</t>
   </si>
   <si>
     <t xml:space="preserve">四川成人学历是正规学历吗？有哪些学校可以报考？四川成人学历提升报名怎么报？在哪儿报名？学费多少？
 很多想要报考成人学历的学员面对五花八门的学历形式以及学校，会不知道怎么选择，那么到底哪些是国家认可的正规学历形式呢？下面李老师为大家解答一下关于成人学历的知识：
-成人学历分为自考，成教，网教，电大四大类型，含金量也是按这个顺序排列的，自考第一，然后是成教，网教，电大，这四种学历形式都是国家正规开展的成人学历形式，毕业后学信网终身可查，主要是为了提高全民教育水平的学历形式，是国家为了很多在职人员开设的提升学历的形式，学员可一边工作，一边完成学历的提升，四类学历形式适合不同人群，李老师跟大家详细讲下这几种学历形式的区别~
-自考是成人学历里面含金量较高的，所以难度也是相对高一些的，自考需要统考3-6科，个别科目如美式教育专业只需统考3科，其他考试科目均为校考，校考是由学校自己组织，只需学员配合学校处理（即参加考试）考前也不有资料，报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，在线视频课程，大专业统考科目学校会开设课程，提高学员考试通过率，自考只要全部考试科目考过即可申请毕业，较快1.5年考完全部科目，一年九个月领取毕业证书！
+成人学历分为自考，成教，网教，电大四大类型，含金量也是按这个顺序排列的，自考第一，然后是成教，网教，电大，这四种学历形式都是国家正规开展的成人学历形式，畢業后学信网终身可查，主要是为了提高全民教育水平的学历形式，是国家为了很多在职人员开设的提升学历的形式，学员可一边工作，一边完成学历的提升，四类学历形式适合不同人群，李老师跟大家详细讲下这几种学历形式的区别~
+自考是成人学历里面含金量较高的，所以难度也是相对高一些的，自考需要统考3-6科，个别科目如美式教育专业只需统考3科，其他考试科目均为校考，校考是由学校自己组织，只需学员配合学校处理（即参加考试）考前也不有资料，报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，在线视频课程，大专业统考科目学校会开设课程，提高学员考试通过率，自考只要全部考试科目考过即可申请畢業，较快1.5年考完全部科目，一年九个月领取畢業书！
 成教即成人高等教育，需参加入学考试，即成人高考，成人高考录取分数线低，还有加分政策，学制2.5年，成教性价比高，含金量仅次于自考，成教报名一年只有一次，今年报名9月初截至，可报考专业齐全，想要报考的学员可抓紧时间联系李老师报名~
-网教即网络远程教育，分为春秋两季注册，全是985，211的重点大学，考试简单，轻松毕业，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可毕业！
-电大（成都电大）现特设一年制中专，7-10个月即可领取毕业证书，毕业可当兵，考取二建，幼师，执业药师等资格证书！还可作为报考大专的前置学历，免试入学，没有平时作业以及期末考试，轻松毕业！
+网教即网络远程教育，分为春秋两季注册，全是985，211的重点大学，考试简单，轻松畢業，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可畢業！
+电大（成都电大）现特设一年制中专，7-10个月即可领取畢業书，畢業可当兵，考取二建，幼师，执业药师等资格證书！还可作为报考大专的前置学历，免试入学，没有平时作业以及期末考试，轻松畢業！
 现在可报名学校:
 四川师范大学，西华师范大学，西南石油大学，西南财经大学，国家开放大学，成都理工大学，成都广播电视大学等。
-一经毕业获得由学校颁发的国家认可学信网终身可查的正规毕业证书！秋季注册学员还可额外申请学校200-400员的助学补助！名额有限，想要报名的学员抓紧时间联系李老师咨询~
+一经畢業获得由学校颁发的国家认可学信网终身可查的正规畢業书！秋季注册学员还可额外申请学校200-400员的助学补助！名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-</t>
-  </si>
-  <si>
-    <t>四川小自考报考流程 报名方式 注册时间</t>
+~
+</t>
+  </si>
+  <si>
+    <t>四川小自考疑惑解答都在这里</t>
   </si>
   <si>
     <t>很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
@@ -1134,13 +865,13 @@
 很多学员还会想到底校外教学点跟学校是什么关系，学校为什么要把招生交给机构呢？
 校外教学点也就是机构有足够的资质后，学校授权机构对他的自考等成人学历进行招生，也可以组织校考和平常的学习，因为学校本部对成人学历这块的宣传是非常少的，学员基本上很难知道到底怎么报名，有哪些专业可以报名，学校本部主要针对本部专科生进行招生，面对社会在职人员，学校就委托校外教学点进行招生，个别学校在校园网上可以查询到校外教学站点的机构名称，校外站点跟学校是有合同，有协议，就算出了问题学校都会负责，所以学员报考时可以参考这一点，选择正规的机构，不要图一时便宜。
 本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
-小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿毕业证，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，考完即可申请毕业~
+小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿畢業，自考是成人学历里面含金量较高的一种学历形式，畢業时间灵活，考完即可申请畢業~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 更多咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>四川小自考报名需要本人现场报名吗？成都报名点在哪里？</t>
+~</t>
+  </si>
+  <si>
+    <t>四川小自考各大名校专业 报名条件</t>
   </si>
   <si>
     <t>很多想要报考小自考的学员，都想了解小自考报名的学费是多少？在哪里报名？报名需要提供哪些资料？
@@ -1154,9 +885,9 @@
 本科：建筑工程、电子商务、会计、建筑经济管理、现代商务、会计、法律、石油工程、工程造价管理、工商企业管理、信息管理与服务、物业管理、工商管理、教育管理、金融、环境艺术设计、销售管理、汉语言文学、数字媒体技术、数字媒体艺术、教育技术、社会工作与管理、学前教育、小学教育、汉语言文学教育、音乐教育、英语教育、美术教育、数学教育、人力资源管理、计算机网络、计算机信息管理、新闻学、播音与主持、酒店管理、交通运输等。
 这些只是部分专业，现在可报考专业齐全，更多详情可加号咨询~
 二、报名条件：                                
-自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请毕业的时候需提供专科毕业证）只要你年满17岁都可报考！
+自考报名不受既有教育程度的限制，可根据本人的实际情况，自由选择专业，报名报考四川省高等教育自学考试（在自考本科申请畢業的时候需提供专科畢業）只要你年满17岁都可报考！
 三、报名资料 ：                              
-身份证正反面扫描件（或身份证正反面照片）电子版蓝底寸照
+身份證正反面扫描件（或身份證正反面照片）电子版蓝底寸照
 四、学费：                                  
 学费包含教材资料，视频课件，面授课程！
 五、报名流程：
@@ -1166,35 +897,35 @@
 七，报名地址：
 成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）本处为学校直属教学站点，报名即跟学员签订保障学员权益的协议，学员可放心报考！
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>学历低 川内重点大学成人学历专本科招生中 轻松毕业</t>
-  </si>
-  <si>
-    <t>很多已经毕业的小伙伴，想要提升学历，不了解该怎么报考？
+~</t>
+  </si>
+  <si>
+    <t>畢業后学历提升可以选择自考 成交 网教</t>
+  </si>
+  <si>
+    <t xml:space="preserve">很多已经畢業的小伙伴，想要提升学历，不了解该怎么报考？
 下面李老师为大家总结一下成人学历的形式以及学员报考该如何选择。
 成人学历分为四种形式：
 自考、成教、网教、电大，其含金量也是按这个顺序依次排列的。
-1：自考（即高等自学考试），是学员通过自己学习并参加考试，考试科目在16-18科，分为统考（统考科目一般为6科，个别科目只需统考三科）+校考（校考过程性考试，由学校自行组织，考前发资料）全部考试通过即可毕业，自考的统考科目是必须学员认真学习以及看书然后考试通过的，所以自考比较适合有一定学习能力且有学习时间的学员，想要报考自考的学员本身对学历含金量也是有一定要求的。
+1：自考（即高等自学考试），是学员通过自己学习并参加考试，考试科目在16-18科，分为统考（统考科目一般为6科，个别科目只需统考三科）+校考（校考过程性考试，由学校自行组织，考前发资料）全部考试通过即可畢業，自考的统考科目是必须学员认真学习以及看书然后考试通过的，所以自考比较适合有一定学习能力且有学习时间的学员，想要报考自考的学员本身对学历含金量也是有一定要求的。
 自考现在可报考学校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学、电子科技大学等。
 2：成教（成人高等教育）成教学历是含金量仅次于自考的学历，成教需要参加成人高考，考试通过即被学校录取，学制2.5年，很多学员一听说成人高考，就会误以为考试难度比较大，其实不然，成人高考是面向成人的考试，其考试难度不大，录取分数线非常低，三科总分450分，专科120分即可录取，本科105-155分即被录取，成考还有相应的加分政策，年满20岁还可加分20分，所以成人高考是非常简单的，成教录取后后面的考试都非常简单，多以如果平时工作比较繁忙但是又想学历有含金量的学员可以考虑报考成教。
 成教可报考学校：四川师范大学、西南石油大学、成都理工大学、电子科技大学、川北医学院等。
 3：网教（即网络远程教育）是学员通过网上学习并参加期末考试，学制2.5年，网教学习都是用学员业余时间，不耽误学员平时时间，网教开办学校都是“985，211”的重点大学，对于有名校情结的学员可以选择报考网教。
 网教可报考学校：西南科技大学、中国传媒大学、天津大学、陕西师范大学等。
-4：电大（国家开放大学）可面试入学，后期期末考试都很简单，学制2.5年，国家开放大学还开放招生vip班，没有平时作业，也没有期末考试，只需要学制修满即可毕业，国家开放大学适合不想考试但是只是想把学历层次提升一下的学员。
-以上学历形式取得的毕业证书都是国家认可学信网终身可查的毕业证书！学员可放心报考！
+4：电大（国家开放大学）可面试入学，后期期末考试都很简单，学制2.5年，国家开放大学还开放招生vip班，没有平时作业，也没有期末考试，只需要学制修满即可畢業，国家开放大学适合不想考试但是只是想把学历层次提升一下的学员。
+以上学历形式取得的畢業书都是国家认可学信网终身可查的畢業书！学员可放心报考！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历报名入口 名校招生 轻松拿名校学历</t>
-  </si>
-  <si>
-    <t>成人学历中什么形式可以较快拿到毕业证书？
-找李老师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到毕业证书的，自考只需要全部科目考试通过就可以申请毕业，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取毕业证书！
-且自毕业证书含金量高，企业认可度高！
+</t>
+  </si>
+  <si>
+    <t>四川小自考最快1年半即可拿證</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成人学历中什么形式可以较快拿到畢業书？
+                                               找李老师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到畢業书的，自考只需要全部科目考试通过就可以申请畢業，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取畢業书！
+且自畢業书含金量高，企业认可度高！
 考试科目：
 统考：6科 校考：12-14科（由学校组织，过程性考试）
 学费低至2700元/年（按两年收取）
@@ -1205,32 +936,31 @@
 统考每年的4、10月 校考每年的7、12月
 现在可报名学校：
 四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等名牌大学。
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的名校毕业证书(学信网终身可查）。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的名校畢業书(学信网终身可查）。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>成都理工大学有小自考吗？较快多久毕业？</t>
-  </si>
-  <si>
-    <t>学校简介：
-成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考艺术设计专业考几科 学费贵吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
 专业介绍：
 艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
 成都理工大学现招收小自考艺术设计类专业学员，现在报名可申请200-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 考试科目：
 统考：4科 校考：9-14科（校考过程性考试）
-自考毕业时间灵活，较快1年考完全部科目，1.5年拿毕业证书！毕业获颁由自考办和成都理工大学联合颁发的毕业证书！
+自考畢業时间灵活，较快1年考完全部科目，1.5年拿畢業书！畢業获颁由自考办和成都理工大学联合颁发的畢業书！
 学历国家认可学信网终身可查！
 学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可申请200-600元助学补贴，名额有限
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考学历含金量高吗？找工作公司认可吗？</t>
+</t>
+  </si>
+  <si>
+    <t>四川小自考含金量高吗 认可度是不是没有大自考高</t>
   </si>
   <si>
     <r>
@@ -1258,23 +988,23 @@
         <rFont val="黑体"/>
         <charset val="134"/>
       </rPr>
-      <t>较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
+      <t xml:space="preserve">较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
 2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
-大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
-3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
+大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请畢業。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员畢業时间。
+3.小自考较快1年就可以考完全部科目，1.5年领取畢業书！普遍学员的畢業时间是两年左右哦~并且自考畢業书不区分大小自考，畢業书都是完全一样的！含金量也是完全一样的！
 现在可报考院校：
 四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
 四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
+</t>
     </r>
   </si>
   <si>
-    <t>四川小自考怎么上课？学校会开课吗？学费怎么缴纳？</t>
-  </si>
-  <si>
-    <t>四川小自考报考后该怎么学习？统考难不难？
+    <t>四川小自考学习形式 报名后要到学校上课吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考报考后该怎么学习？统考难不难？
 想要自考小学教育专业的学员看过来，
 李老师为你解答你的疑问，
 首先自考小学教育专业到底难不难？
@@ -1292,26 +1022,26 @@
 统考科目考试前会安排面授，
 也有相应的押题资料，
 帮助学员能尽快通过考试，
-能顺利领取毕业证书！
-其次是自考小学教育专业多久能拿到毕业证书？
-自考是所有考试科目考完即可申请毕业，
-毕业时间灵活，
+能顺利领取畢業书！
+其次是自考小学教育专业多久能拿到畢業书？
+自考是所有考试科目考完即可申请畢業，
+畢業时间灵活，
 每年有4次考试机会，
 两次校考，两次统考，
 校考一次较多报4-6科，统考2-4科，
 学员较快可1.5年考完全部考试科目，
-一年九个月领取毕业证书！
-毕业证书是由自考办和学校联合颁发的国家认可学信网可查的正规毕业证书！
-自考毕业证书也是成人学历里面含金量较高的！可以考教师资格证，也可以参加教师公招！
+一年九个月领取畢業书！
+畢業书是由自考办和学校联合颁发的国家认可学信网可查的正规畢業书！
+自考畢業书也是成人学历里面含金量较高的！可以考教师资格證，也可以参加教师公招！
 怎么报名？
 现四川师范大学，西华师范大学
 正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号（四川师范大学自考教学点）
 咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>成都小自考有哪些学校在招生？通过率比较高的专业有哪些？</t>
+</t>
+  </si>
+  <si>
+    <t>四川小自考报考专业该如何选择 热门专业有哪些</t>
   </si>
   <si>
     <r>
@@ -1321,7 +1051,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>四川小自考热门专业推荐?怎么报名?多久毕业?
+      <t>四川小自考热门专业推荐?怎么报名?多久畢業?
 自</t>
     </r>
     <r>
@@ -1340,7 +1070,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>考是成人学历的其中一种形式，
+      <t xml:space="preserve">考是成人学历的其中一种形式，
 它的含金量也是非常高的，
 考验了学员的自学能力，
 很多学员就认为那自考应该是很难的，
@@ -1353,7 +1083,7 @@
 只需要学员配合学校完成考试，
 考前会有资料，
 学员的重心可以都放在6门统考上，
-一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到毕业证书！
+一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到畢業书！
 2·选择自考的形式后，该选择哪些专业呢？
 自考热门专业可分为四大类：
 A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
@@ -1362,30 +1092,30 @@
 D，建筑工程类：建筑工程/工程造价等
 这四类专业中通过率高使用范围广的专业有汉语言文学，法学，行政管理，人力资源管理和教育类专业，其中美术教育可以只参加三科统考，其他均是校考，通过率非常高！
 3，自考报名怎么报名？在哪儿报名？多久报名？
-报名时间：正在报名注册中，现在报名可参加10月统考！
+报名时间：正在报名注册中
 可报考院校：
 四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 现在报名科申请200元-600元助学补贴，名额有限，学费低，通过率高！想要报名的学员抓紧时间联系李老师咨询详情~
-电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+</t>
     </r>
   </si>
   <si>
-    <t>四川小自考一年考几次？报名到毕业的流程是什么？</t>
-  </si>
-  <si>
-    <t>四川小自考是什么学历形式？一年考几次？考试难吗？
-自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请毕业，自考的是学费低、教考分离、毕业生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予毕业（60分既合格）颁发毕业证，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
+    <t>四川小自考是什么学历 报名时间是多久 有哪些学校可以报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考是什么学历形式？一年考几次？考试难吗？
+自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请畢業，自考的是学费低、教考分离、畢業生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予畢業（60分既合格）颁发畢業，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
 那么很多学员都会思考一个问题，学历提升有什么好处呢？我为什么要提升学历呢？
-1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考毕业时间灵活，一年考四次，较快可1年考完全部科目，1.5年毕业！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
+1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考畢業时间灵活，一年考四次，较快可1年考完全部科目，1.5年畢業！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
 2、为自己就业时提供进门的机会。现在许多大型企业，尤其是教师、公务员、司法方面的考试都需要本科 学 历，自考是受国家承认的，无论你是要考公务员或者应聘公司岗位，都是认可的，同学们可趁年轻多努力为自己创造更好的未来！
-3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格证书，都是对学历有要求的！
+3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格證书，都是对学历有要求的！
 自考报考对象
 1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
-2．专科招收应、往届高中毕业生(含职高、中专、技校生)及以上文化程度者；
-3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历毕业证的考生(在校专、本科学生在办理本科毕业证书时必须出具专、本科毕业证书，无专、本科毕业证书不能办理本科毕业证书)。
+2．专科招收应、往届高中畢業生(含职高、中专、技校生)及以上文化程度者；
+3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历畢業的考生(在校专、本科学生在办理本科畢業书时必须出具专、本科畢業书，无专、本科畢業书不能办理本科畢業书)。
 李老师总结一句话：只要年满17岁都可报考！
-自考免试入学，宽进严出，全部科目考过即可申请毕业！毕业即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
+自考免试入学，宽进严出，全部科目考过即可申请畢業！畢業即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
 现在可报考院校：
 四川师范大学、成都理工大学、西南石油大学、西华师范大学、西南财经大学等省内重点大学！
 考试地点：
@@ -1393,72 +1123,72 @@
 （校考）由我处组织，都是在成都市区各大中小学考场
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>中央电大成人一年制中专报名入口  7-10个月拿毕业证</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中央电大一年制中专真的可以半年毕业吗？靠谱吗？
-很多学员为了考证书会选择报考成人中专，中央电大现开设成人一年制中专报名，报考专业齐全，是学校正规开设的学历形式，学制为1年，但是实际毕业时间为7-10个月，方便学员参加资格证书考试，在学校官网可查学籍，也可在线验证，学员可放心报考！
+</t>
+  </si>
+  <si>
+    <t>2020年中央电大一年制成人中专报考专业 毕业时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中央电大一年制中专真的可以半年畢業吗？靠谱吗？
+很多学员为了考證书会选择报考成人中专，中央电大现开设成人一年制中专报名，报考专业齐全，是学校正规开设的学历形式，学制为1年，但是实际畢業时间为7-10个月，方便学员参加资格證书考试，在学校官网可查学籍，也可在线验證，学员可放心报考！
 如何查询学籍？在哪里查询？
 入学后学籍查询网址：
 http://crtvsvs.ouchn.edu.cn/stu_query.jsp
-毕业证书查询网址：
+畢業书查询网址：
 http://crtvsvs.ouchn.edu.cn/graduate_query.jsp
-在线验证报告查询网址：
+在线验證报告查询网址：
 http://zzx.ouchn.edu.cn/edu/index.php/index/login/index.html
 学员报名注册后1-2个月即可登陆学校官网查询学籍！
-成都广播电视大学现特设一年制中专，8-10个月就可拿毕业证，没有入学考试，没有平时作业！完全不耽误学员时间！
+成都广播电视大学现特设一年制中专，8-10个月就可拿畢業，没有入学考试，没有平时作业！完全不耽误学员时间！
 中专通知：
-每月滚动注册，但是早报早毕业，后期会严格规范前置学历（高中）和毕业学制年限（至少一年），所以抓紧现有机会联系李老师！
-我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考证需要学历、生活需要学历.....
+每月滚动注册，但是早报早畢業，后期会严格规范前置学历（高中）和畢業学制年限（至少一年），所以抓紧现有机会联系李老师！
+我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考證需要学历、生活需要学历.....
 中专学历的用处：
 1、可以考二建
 2、可以考九大员
 3、可以考执业药师、执业助理医师
-4、可以考幼师资格证、幼儿园园长证
-5、可以考各种资格证：银行从业资格证、基金从业证、证券从业资格证、期货从业资格证考试
+4、可以考幼师资格證、幼儿园园长證
+5、可以考各种资格證：银行从业资格證、基金从业證、證券从业资格證、期货从业资格證考试
 6、可以用于提干、加薪、评职称、作为报专科的前置学历 . . .
-我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，毕业证带二维码辨别真伪！
-全国认可，轻松简单，适用范围广！学制一年（快半年拿证），毕业即颁发中央广播电视学校毕业证书，全国承认学历（电子注册，网上可查）
+我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，畢業带二维码辨别真伪！
+全国认可，轻松简单，适用范围广！学制一年（快半年拿證），畢業即颁发中央广播电视学校畢業书，全国承认学历（电子注册，网上可查）
 可读专业：
 建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销
 报名时间：每月滚动注册
-学费：1480元（全包，学员只管拿证）
+学费：1480元（全包，学员只管拿證）
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川学历低该如何提升学历？成人如何报考学历?</t>
-  </si>
-  <si>
-    <t>工作后学历低找不到好工作怎么办？四川成人学历报名入口：
-很多同学早早开始工作，工作后怎么提升学历呢？其实成人是可以提升学历的，适合各种学历人群，无论你是初高中毕业或者是专科毕业，都是可以通过自己努力拿到本科学历的，且成人学历都是国家认可，学信网可查的正规学历！
-初高中毕业的同学怎么拿本科学历呢？
+</t>
+  </si>
+  <si>
+    <t>四川成人学历报名中心 工作后也能拿大学学历</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工作后学历低找不到好工作怎么办？四川成人学历报名入口：
+很多同学早早开始工作，工作后怎么提升学历呢？其实成人是可以提升学历的，适合各种学历人群，无论你是初高中畢業或者是专科畢業，都是可以通过自己努力拿到本科学历的，且成人学历都是国家认可，学信网可查的正规学历！
+初高中畢業的同学怎么拿本科学历呢？
 李老师推荐可以选择专本套读的学历形式，
 相信大家可能听说过高起专，专升本等等考试，那么专本套读是什么意思呢，适合什么样的人群选择呢？老师就为大家解释一下。
-专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，专科可选择简单点的成教或网教，本科选择自考，专科学制2.5年，在专科学制内，自考本科的所有科目考试通过即可在专科毕业证拿到后申请本科毕业证书！最快2年9个月拿到专本科毕业证书！
+专本套读是为了填补专升本的空缺，也是为了利用教学资源，节省学生学习时间而推出的一种新的办学形式。让学生在进行专科阶段学习的同时，专科可选择简单点的成教或网教，本科选择自考，专科学制2.5年，在专科学制内，自考本科的所有科目考试通过即可在专科畢業拿到后申请本科畢業书！最快2年9个月拿到专本科畢業书！
 为什么会有专本套读呢？
-因为只有自考专升本在报考时不需要出示大专学历，只要在申请毕业时出示大专学历就可以，所以有了专本套读的可能，其他学历形式的学历报考时就需要提供前置学历！
+因为只有自考专升本在报考时不需要出示大专学历，只要在申请畢業时出示大专学历就可以，所以有了专本套读的可能，其他学历形式的学历报考时就需要提供前置学历！
 适合什么样的人群去选择呢？
-适合初高中毕业，需要拿到本科学历的学员，或者是专科在读，想最快时间拿到本科学历的学员！
+适合初高中畢業，需要拿到本科学历的学员，或者是专科在读，想最快时间拿到本科学历的学员！
 专本套读的形式有哪些？
-专本套读的形式主要有两种，一种是成教大专+自考专升本，另一种是网教大专+自考专升本，学生科根据自身各方面条件进行选择。这样在用大专证去申请自考专升本毕业就可以了，专科本科一起毕业，一举两得。
+专本套读的形式主要有两种，一种是成教大专+自考专升本，另一种是网教大专+自考专升本，学生科根据自身各方面条件进行选择。这样在用大专證去申请自考专升本畢業就可以了，专科本科一起畢業，一举两得。
 现在社会上对于学历越来越重视，高的学历可以使你得到更好的发展平台，更好的施展自己的才华，那么仅仅只有高中学历，不管当初是因为是因为什么而错失了上大学的机会，找李老师报名可圆你上大学的梦想~
 我处为成都理工大学、四川师范大学、西南石油大学等学校的校外自考站，学历均学信网终身可查，国家认可，专业齐全，学费低至2700元/年（按两年收取），现在报名还可申请助学补贴200-600元，名额有限，想要报名的学员速速联系里李老师咨询~
-报自考学员报名后就有教材+资料+在线题库+面授课程+专业的教务班主任服务，学员轻松学习，轻松毕业。是包含在学费内的哦~
+报自考学员报名后就有教材+资料+在线题库+面授课程+专业的教务班主任服务，学员轻松学习，轻松畢業。是包含在学费内的哦~
 报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>川师小自考通过率如何？现在还能报名吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">川师小自考在哪里报名？专业有哪些？有老师上课吗？
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考有老师讲课吗 学费贵吗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    
+川师小自考在哪里报名？专业有哪些？有老师上课吗？
 学校简介：
 四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学现可报名专业：
@@ -1467,16 +1197,674 @@
 考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
 考试时间：统考在每年的4月、10月，校考在每年的7月、12月
 学费最低低至3000+/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加10月统考！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！
+报名即可签订协议保障学员权益！现在报名可参加4月统考！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面最高的！单位认可度高，如果是想用畢業来找工作的话建议考小自考，工作竞争优势偏大点！且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考！
 报名时间：正在报名注册中
 报名地址：四川师范大学自考教学点（成都市成华区建设路银玺国际2810号）
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川大自考跟小自考到底有没有区别？认可度是一样的吗？</t>
+</t>
+  </si>
+  <si>
+    <t>四川大自考跟小自考有什么区别 小自考为什么要交学费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川畢業怎么区分大小自考？小自考会不会单位不认可？
+1.自考是成人学历中含金量较高的，所以难度也是相对‌‌较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
+2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
+大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请畢業。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员畢業时间。
+3.小自考较快1年就可以考完全部科目，1.5年领取畢業书！普遍学员的畢業时间是两年左右哦~并且自考畢業书不区分大小自考，畢業书都是完全一样的！含金量也是完全一样的！
+现在可报考院校：
+四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
+四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学自考专升本校外人员可以报考吗 有哪些专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考只针对校内招生吗？在职人员可以报考吗？
+很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年畢業，想要报名的学员可咨询李老师~
+学校简介：
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦~
+考试科目：
+统考：6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川哪些专业适合考公务员 小自考学历可以考吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考畢業书可以考公务员吗？哪些专业适合考公务员？
+据官方数据公布，2019年国家公务员考试计划招考14537人，众所周知，公务员考试最低学历要求为本科，本次招考，本科学历岗位共8553个，研究生学历岗位有1094个，所有本科学历岗位，自考本科畢業生均可报考！在招考的9657个岗位中，专业主要分为五大类：管理类、法学类、财务类、文秘类、文学类
+小自考是学校正规开展招生的成人学历，学历含金量高，学信网可查，畢業时间灵活，较快1.5年畢業，非常适合想要今早畢業拿證的学员，那么哪些专业比较适合报考公务员呢？李老师为大家推荐适合报考公务员的五大热门专业：
+1、法学：
+招考岗位：1922个  
+2、汉语言文学
+招考岗位：1715个
+3、工商管理
+招考岗位：1689个
+4、行政管理
+招考岗位：1347个
+5、会计学
+招考岗位：516个
+以上为公务员招考岗位最多的五大专业，学员可根据自身情况选择专业报考，这五大类专业也是每年报考的热门专业，通过率高！
+考试科目：
+统考：6科           校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+现在可报考院校：
+四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学
+学费低至2800元/年（按两年收取）包含全套教材资料，视频课件，面授课程，更有班主任全程一对一带班！现在报名可申请400-600元的助学补贴，名额有限，详情速速咨询李老师
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川小自考建筑经济管理专业报哪个学校比较好 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考建筑经济管理专业考试科目有多少科？多久畢業？
+学校简介：
+成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的中国历史文化名城——成都，由四川省人民政府和中华人民共和国国土资源部共建，入选中国“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”、“四川2011计划”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料、电子、机械、信息科学、管理科学等学科专业为特色的省属重点大学。
+成都理工大学先开放对外招收自考建筑经济管理专业的同学，本专业培养从事建筑工程预算、工程招标投标 、建筑工程施工与组织管理工作的应用型、复合型工程技术人才。该专业就业前景好，适用于政府部门、设计院、会计师事务所、工程建设咨询(顾问)公司、工程经济咨询机构、工程监理单位、工商企业从事生产、经营、服务等管理系统的规划、设计、技术经济、监理、咨询、评估、项目管理等工作。是每年报考的热门专业！
+考试安排：
+小自考分为统考+校考，统考根据专业不同，大多在6科左右；校考由我们助学点组织，考试地点统一安排在成都；学员的学习重心主要放在统考科目上，考生按照我们提供的学习资料系统地复习，通过率都很高！
+那么建筑经济管理专业具体考哪些科目呢？
+建筑工程专业统考科目有：工程地质及土力学、建筑设备、建筑经济与企业管理、流体力学、高层建筑结构设计、房屋建筑概论（共6科）
+校考科目：
+中国近代史纲要、马克思主义基本原理概论、物理（工）、物理（工）（实践）、概率论与数理统计（二）、线性代数、计算机基础与程序设计、结构力学（二）、混凝土结构设计、建筑结构试验。校考均为过程性考试，学员只需到场配合学校处理即可。
+自考是只要学员全部考试科目考试通过即可申请畢業，一年考四次，学员最快可1年考完，1年半畢業，1年9个月拿畢業书！学员普遍畢業时间为2年，自考学历含金量高，社会认可度高！
+学费低至2800元/年（按两年收取），学费包含教材资料、视频课件，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+学校授权的教学点，报名即签订保障学员权益的协议书，学员可放心报考！
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>国家开放大学学历含金量 报名时间 学费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川电大学历找工作有用吗？国家开放大学就是电大吗？
+学校简介：
+国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报名截止时间 现在还可以报名吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦~川师开设的专业基本都是文科专业，所以通过率较高，同学们在其他地方报考过小自考的，是可以重新报考其他学校跟专业的，只需要你到之前报考的学校退学籍即可！
+考试科目：
+统考：6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3500元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>中央电大成人中专现在报名多久毕业 毕业可以考二建吗</t>
+  </si>
+  <si>
+    <t>中央广播电视中等专业学校是什么学校？学校是正规的吗？
+学校简介：
+中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，畢業可在线验證学历真实性，学制1年，实际畢業时间为7-10个月，学员畢業后可用于考幼师，二建，当兵等，现在执业资格證书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避免考试通过后拿不到證书的风险！
+中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取畢業书！学费低至1480元，全包，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~</t>
+  </si>
+  <si>
+    <t>2020年应用型小自考一年有几次报名机会 报名要交多少钱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年四川小自考报名时间多久开始？报名多久截至？
+自考一年有几次注册时间？
+四川自学考试每年有四次注册时间，现在正在报名，在报名可以早半年畢業！要报考的学员可安排好时间准备考试了哦~
+自考多久能畢業？学费多少？报考院校有哪些呢？
+自考的学历形式比较特殊，没有具体的学制要求，学员全部科目考试通过即可申请畢業，一年四次考试机会，较快1年可考完全部科目，1.5年畢業！普遍学员的畢業时间是两年左右，小自考可报考专业齐全，只需统考3-6科，其他9-12科都是过程性校考，学员的学习重心只需要放在统考科目上即可！
+可报考院校：
+四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学，学费地址2700/年（按两年收取），学费包含教材资料，大专业学校还会开设视频课程，也会有押题资料，帮助学员顺利通过考试，想要报考的学员要抓紧时间联系李老师咨询哦~
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学成人学历形式有哪些 报名条件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+高中畢業工作后想要拿大学畢業书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请畢業，畢業后由四川师范大学颁发正规合法的畢業书，学信网可查，社会认可度高！
+现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
+报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
+学费：
+成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
+自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年畢業！
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考专业 费用 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学校简介：
+成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
+专业介绍：
+人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
+成都理工大学现招收自考人力资源管理专、本科学员，名额有限，需要的需要抓紧时间联系李老师报名哦~
+就业前景：
+企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科畢業生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
+考试科目：
+统考：6科 校考：9-12科（由学校组织，过程性考试）
+学费：2700元/年（按两年收取）学费包含教材资料以及视频在线课程！
+考试时间：
+统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考2020年多久开始报名 报名网址</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
+四川师范学院现招收自考专本科学员，名校招生，名额有限，自考报名时间在9月底截止，需要报名的学员要抓紧时间报名哦！
+可报考专业：
+专科：
+法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作、市场营销
+本科：
+法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作、公共事业管理
+自考报考对象：
+1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
+2．专科招收应、往届高中畢業生(含职高、中专、技校生)及以上文化程度者；
+3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历畢業的考生(在校专、本科学生在办理本科畢業书时必须出具专、本科畢業书，无专、本科畢業书不能办理本科畢業书)。
+简单一句话，只要你年满17岁都可报考！
+统考6科（闭卷）+校考9-12科左右（过程性考试）
+考试时间：统考每年的4、10月 校考每年的7、12月
+畢業申请时间每年的6月和12月
+报名地址:成都市成华区建设路银玺国际2810号
+详情可咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川成人学历提升中心 不限前置学历都可报考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川找工作没有学历怎么办？成人学历可以升职加薪吗？想要入职好工作，学历不够怎么办？
+很多找工作的小伙伴应该能了解，现在企事业单位对学历的要求都是越来越高了，连链家的销售竟然都要求本科学历了，国企就更不用说了，至少本科学历，那么学历不高但是想找个好工作该怎么办呢？
+下面李老师就跟大家讲解一下成人获得学历的几种方式，成人学历分为自考，成教，网教，电大四大类型；其中含金量较高的是自考，依次为成交，网教，电大。
+1，自考，就是通过学员自己学习然后参加考试，考试科目为16-18科，考过即可申请畢業（60分即合格），没有时间限制，没有年龄限制，含金量高，但是需要学员花一定时间学习。
+2，成教，需要参加一年一次的成人高考，考试通过即可被学校录取，学制2.5年，读满即可畢業。很多学员一听需要参加成人高考，都会误以为考试难度高，其实不然，成人高考是面向成人举办的考试，考试难度低，录取分数线低，450分满分，专科录取分数线在120分，本科105~155分，还有相关的加分政策，所以报考学员完全不用担心，成教成人高考通过后后期考试简单，不耽误学员时间。
+3，网教，网教又称远程教育，是通过网络学习，然后参加考试，主办院校都是省内985，211的重点大学，学制2.5年。
+4，电大，即成都广播电视大学，学制2.5年，免试入学，是比较轻松畢業的学历形式！
+无论你是初中或高中学历想升专科或本科，或是专升本，不限年龄，不限学历，都可以拿到名牌大学本科畢業书！
+现招收院校：
+四川师范大学/西南石油大学/西华师范大学/成都理工大学/西南科技大学/西南财经大学/川北医学院/电子科技大学等。
+成教报名只需交100元报名费，12月学校录取后再交学费！
+报名时间：
+现自考/成教正在火热报名中，名额有限，错过需等明年才能报名，想要报名费学员抓紧时间联系李老师咨询~
+地址：成都市成华区建设路成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>四川小自考较快可多久毕业 考试可以考几次</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川小自考一年考几次？考试难不难？学费贵吗？什么是自考?过程怎么样? 
+自考属于成人学历中含??金量较高的,学信网终身可以查询,社会认可度较高的学历。相比成教,网教,电大等学历,它的考试周期短,考试安排灵活,考完即可畢業。自考包含统考和校考,统考一般3-6门左右,由国家统一组织考试,校考则是学校组织的过程性考试。每年4、10为统考,12月、6月为校考，学员较快1年可考完全部科目，1.5年畢業！
+1、问:两年期满,有的课程仍未合格怎么办?? 
+答:两年期满对于那些仍未考试合格的考生,可继续参加相应课程的考试,在所有课程考试合格后申请自学考试本科畢業书。 
+2、问:如何本科:申请学士学位? 
+答:自考本科畢業生,符合条件者可授予学士学位。条件主要为:各科成绩平均分达65分以上,通过四川省学位办组织或认定的学士学位外国语水平考试,符合授位条件者由参考大学颁发学士学位證书。
+自学考试本科在籍考生(指将畢業的考生)或取得自学考试本科毕證书的考生可以报考研究生或公务员。 
+3、问:学位外语如何报考?? 
+答:学位外语考试每年一次,报名时间一般在每年的3月份,考试时间一般在次年的4月份.
+4、问:报考本科专业是否可与专科专业不同?? 
+答:可以在学院开设专业内自由选择,一旦注册成功后不得修改专业。 
+报名需要交哪些资料呢？
+身份證正反面照片或者扫描件 
+两寸蓝底电子档照片
+现在可报考院校:
+四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学的名校,现在可报考专业齐全，更多专业详情可加李老师。
+学费:根据学校专业不同,学费在2500元/年-3700元/年,按两年收取(包含教材资料、在线教学课程)，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址:成都市成华区建设路银玺国际2810号
+详情可咨询李老师~
+电话:199 8120 3720（微信同号）      QQ:1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学成人专本科学历学费大概多少 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师  
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+高中畢業工作后想要拿大学畢業书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请畢業，畢業后由四川师范大学颁发正规合法的畢業书，学信网可查，社会认可度高！
+现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
+报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
+学费：
+成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
+自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年畢業！
+报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考什么时候报名 要靠多少科</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川在哪里报名小自考？小自考现在报名多久考试呢？
+在四川的同学们，在报考自考时，都会疑惑四川小自考在哪里报名呢？成都报名点在哪里？现在报名多久考试呢？
+下面李老师为大家讲解下，报考自考的流程以及注意事项：
+首先小自考是学校开设的正规学历，比大自考简单一些，只需要统考3-6科，其他的9-12科都是过程性校考，校考是学校组织监考的过程性考试，学员只需把学习重心放在统考科目上即可，统考科目大专业学校会开始视频课程，学员可登陆app个人学习，考前集中刷题，帮助学员顺利通过考试！
+小自考一年有两次注册机会，分别是上半年3-5月，下半年9-11月，学校招生名额招满截止，现在报考的同学们都是参加4月统考，小自考一年有四次考试机会，最快1年可考完全部科目，1.5年畢業！学员普遍畢業时间是是2年左右！对于很多想要快速拿到学历證书的学员，小自考是可以最快时间畢業的学历形式！
+四川小自考在哪里报名呢？怎么报考呢？学员可以自己报考吗？
+小自考是学校开设的学历形式，学员是不能够自己注册的，是需要交资料给老师，老师给学员注册的，注册考籍后学员可根据班主任老师的通知进行报考，然后参加考试，现在报名可参加12月底的校考，可早半年畢業！
+本处为小自考报名点，可报考学校有四川师范大学，成都理工大学，西南石油大学，西南财经大学等名校，学费低至2700元/年（学费按两年收取）现在可报考专业齐全，详情可加李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720 （微信同号）     扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川成人学历有哪些形式 有没有简单一点的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                                  我国现行成人学历有哪些形式：统招、自考、成教、‌‌网教、电大
+1. 什么是自考
+自学考试，1981年经国务院批准创立，是对社会人员以学历考试为主的高等教育国家考试。是个人自学、社会助学和国家考试相结合的高等教育形式。
+通过国家考试促进广泛的个人自学和社会助学活动，贯彻宪法鼓励自学成材的有关规定，造就和选拔德才兼备的专门人才，提高全民族的思想道德素质和科学文化素质，以适应社会主义现代化建设的需要。 经过系统的学习后，通过畢業论文答辩、学位英语考核达到规定成绩，符合学位申请条件的，可申请授予成人学士学位，并可继续攻读硕士学位和博士学位。
+2. 自考的特点
+自考没有学历限制，每个人都可以报考，你可以先从专科开始，或者没有专科證也可以先参加自考本科的考试，就是将来在申请本科时要先出示专科畢業，所以就要先考一个专科畢業并且在本科前畢業,这是自考的硬性规定。
+自考没有学制限制，自考专科一般有16门，本科有18门，只要你一门一门全部通过就能办理畢業，二年考完二年畢業，十年考完十年畢業。所以这也使很多想要早点畢業的考生，尤其是没时间复习或基础差的考生愿意去依靠培训班，帮助自己顺利通过考试，尽早考完尽早畢業。
+3.大自考和小自考的区别
+大自考就是自己去自考办报名，选择要报读的学校和专业，每期自行在自学考试网报名，每科都需要参加全国统考，对学员的学习能力要求高，难度大，通过率低一些，一年考试两次 4月和10月；
+小自考就是通过培训机构报名，选择要报读的学校和专业，需要参加统考的科目有4-8科，其余科目由学校安排（校考），其中英语统考可以用三科校考科目成绩代替，培训机构会提前提醒你复习、报考，为你准备复习资料，小自考相对难度较低，通过率较高，一年考试4次 4月和10月统考 7月和1月校考。
+4.在四川可以报读的自考院校
+四川可以报自考的学校：成都工业学院、四川师范大学、西南石油大学、西南财经大学、西华师范大学、绵阳师范学员、西南交通大学、电子科技大学、西南科技大学、四川工商学院等。（自考报名后大部分考试都会就近安排，所以不用担心学校的问题）
+5. 自考可选择的专业
+教育类：学前教育、小学教育、汉语言文学、美术教育、音乐教育、英语教育、科学教育等
+建筑类：建筑经济管理、工程造价、交通土建工程、建筑工程管理、建筑施工技术管理等
+其他热门专业：交通运营管理、会计、法律、护理、行政管理、工商管理、人力资源管理、市场营销、汉语言文学、法学、工商企业管理、人力资源管理、公共事业管理、等等
+6. 自考的学制以及考试时间
+自考学籍：2年（最快1.5年）
+自考流程：
+1、提交资料（2寸蓝底照片电子版标准电子版、身份證复印件正反面电子版）
+2、注册学籍：四川一年有两次注册机会
+3、每年（4、10）月参加统考科目，（7、1）月参加校考科目，统考科目基本两次可以考完。
+注：大部分专业只有6科统考科目，除开美术教育、艺术设计等专业。校考是学校组织的，像期末考试一样简单，所以报考的学生不用担心
+自考学费：
+学费低至2700元/年（按两年收取），学费包含教材资料，现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询！
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川一年制中专什么时候报名 学费多少</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+中央广播电视大学有哪些中专专业？多久畢業？
+中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，畢業可在线验證学历真实性，学制1年，实际畢業时间为7-10个月，学员畢業后可用于考幼师，二建，当兵等，现在执业资格證书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避**试通过后拿不到證书的风险！
+中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取畢業书！
+学费低至1480元，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川报小自考大概要花多少钱 学费包含些什么</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川小自考学费大概多少？报考学校有没有区别？
+四川小自考的学费大致在5000-8000元左右不等，不同学校的收费标准是不同的，学员可以根据自身情况来选择报考的院校及专业，现在可报考专业齐全，详情可加李老师咨询~
+川内现在可报考院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，早半年畢業！四川2019年报考自考的学员已经突破25万，同学们，想要获得自己想要的生活是需要通过自己努力的，趁年轻多提升自己，现在报考还可申请200-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+小自考的学历形式比较特殊，没有明确的学制要求，同学们报考的专业所对应的考试科目，全部考过即可申请畢業，一般是3-6科统考，9-12科校考，统考是需要学员认真看书学习然后参加考试的，校考为过程性考试，学员只需把学习重心放在统考科目上即可，每年四次考试机会，6月跟12月是校考，4月跟10月是统考，较快可1年考完全部科目，1.5年畢業！自考也是所有学历形式里面能最快畢業的学历形式！
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川自考学历有学位證書吗 怎么才能申请学位证</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川小自考畢業有学位證书吗？申请学士学位有哪些条件？
+四川小自考畢業后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
+一、基本要求：
+①本科畢業生均应在获得本科畢業生證书后两年内提出申请，未通过者不再补授学士学位；畢業两年内必须申请，超过两年就不能再申请了。
+②自考本科畢業生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、畢業论文或畢業设计以及其他畢業实践环节）；
+③通过省学位办组织的外国语考试并获得合格證书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
+满足以上三点要求，就可以申请学士学位證书！
+二、申报时须提供的材料
+1、《四川省普通高等学校成教本科畢業生学士学位申请表》；
+2、本科畢業书原件、复印件及本科学历證书电子注册备案表。
+具体申报时需要提供的资料班主任会单独通知，学员只需配合班主任准备资料即可！
+四川小自考现在可报考的院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加4月统考，可报考2-4科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川自考应用型跟社会型有什么区别 在哪里报名 报名方式</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                                四川应用型自考跟社会性自考有什么区别？含金量一样吗？
+区别：
+（1）应用型自考就是小自考，是学校开放对外招收的，只需统考3-6科，其他的9-12科都是过程性校考，学员把学习的重心放在统考科目上就行了，校考科目不需要学员花时间看书学习，一年考四次，较快可1年考完全部科目，1年9个月畢業！社会型自考也就是大自考，是全部科目12-14科都参加全国统考，一年两次考试机会，全靠学员自学通过考试！考试通过才能申请畢業，通过率低，能畢業的学员基本都需要3-5年！
+（2）参加应用行自考的学生必须参加主考院校的助学才可以报考，学生在全面系统的教学辅导下循序渐进，通过率得到保證，通过系统学习又能真正掌握知识，因此以通过率高、畢業时间短、文凭含金量高等特点受到社会、用人单位和考生的广泛好评，保證了畢業生质量。全程有班主任代班，不会出现学员报考后没有老师管理的情况，社会性大自考学员可自行到官网注册考籍，然后自己报考即可！
+应用型小自考相较于社会性大自考减少了统考科目，降低了考试难度，增加了考试机会，缩短了畢業时间，可以让学员快速通过考试申请畢業，对于很多想要快点畢業的学员来说，小自考是最好的选择，且大小自考学历的含金量是一样的，畢業并不会区分大小自考，学信网也不会区分，所以同学们可以放心报考！
+四川现在可报考学校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的过程性校考，可早一些畢業！学费低至2800元/年，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+畢業获颁由学校跟自考办联合颁发的国家认可学信网可查的正规畢業书，自考学历含金量高，畢業时间灵活，报名即签订保障学员权益的协议，学员可放心报考~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川成人学历是正规学历吗？学信网可查吗？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               四川成人学历有什么作用？成人学历是学校正规招收的学历吗？
+很多考生对于成人学历有误区，认为成人学历不是正规学历企业不会认可？成人学历到底是主要针对哪些学员开设的呢？
+首先成人学历是学校坚持继续教育以安全稳定为前提、规范办学为基础、服务学生为根本“三位一体”的发展思路，继续教育各类在籍学生总体规模稳步增长。50多年来为社会共输送成人高等学历教育畢業生数十万人，为社会各界输送自考畢業生近六万人。历经半个多世纪的不断发展、创新，在专业建设、培养模式、教学计划、教学管理、学生管理、办学条件、校外站点监管等方面均形成了自身的特色并取得了一定的成绩。主要是针对社会在职人员需要提升学历的情况，提高全民教育水平。
+所以成人学历是学校正规招收的学历，畢業学信网可查学籍，考生可以放心报考！  
+成人学历主要分为四种:自考、成教、网教、电大，含金量也是按这个顺序排列的，自考含金量最高，其次是成教，网教跟电大，这四种学历都是学校正规开展的学历形式，畢業学信网终身可查，学员报考时可仔细甄别，学信网不可查的学历千万不要报考！考生报考时可根据自身学习能力及工作情况来选择报考的学历形式。
+李老师简单为大家分析一下：
+自考是含金量最高的，只需统考3-6科，其他9-12科为过程性校考，统考科目是必须学员看书学习然后参加考试的，自考是要求全部科目考试通过才能申请畢業的学历形式，一年考四次，较快可1年考完全部科目，1.5年畢業，畢業时间灵活，含金量高，现在报考可参加12月底的过程性校考，早半年畢業！
+成教是成人高等教育，需要参加入学考试，入学考试即成人高考，成教报名一年只有一次，每年的八九月份报名，成教录取分数线低，还有相应的加分政策，学制2.5年畢業，成教只要录取后期末考试都很简单，对于工作比较繁忙还要提升学历的学员来说，成教是个不错的选择。
+网教、电大都是通过网络远程教育，学制2.5年畢業，考试简单，学员不需要花费太多精力！
+可报考院校：
+四川师范大学、成都理工大学、西南财经大学、西南石油大学、国家开放大学等，现在可报考专业齐全，相关详情可加李老师咨询~
+畢業获颁由学校颁发的国家认可学信网终身可查的正规学历，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路成功银玺国际2810
+电话：199 8120 3720（微信同号）          扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报名流程 可以自己在网站报名吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川师范大学自考学历是什么性质？跟统招学历有什么区别？
+四川师范大学开设的自考学历，主要针对学校需要专升本以及校外在职人员提升学历，学历分为统招全日制以及成人学历，自考学历成人学历里面含金量最高的，性质是业余，通过业余时间学习，自考是学历形式里面除了统招学历以外含金量最高的学历形式！现在可报考专业齐全，招收高起专，专升本学员！
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦~
+考试科目：
+统考：3-6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+电话：199 8120 3720（微信同号）      QQ：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川小自考艺术类专业学费大概多少 考几科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川小自考艺术类专业有哪些学校可以报考？考试难吗？
+成都理工大学现开放对外招收小自考艺术类专业，自考学历含金量高，且艺术类专业统考科目较少，只需统考4科，考试难度较低，很多想要快速畢業的学员可以考虑选择报考小自考艺术类专业！
+成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
+专业介绍：
+艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
+考试科目：
+统考：4科          校考：9-14科（校考过程性考试）
+自考畢業时间灵活，较快1年考完全部科目，1.5年拿畢業书！畢業获颁由自考办和成都理工大学联合颁发的畢業书！
+学历国家认可学信网终身可查！现在报名可参加12月底校考，可早半年畢業！
+学费低至2700元/年（按两年收取）包含教材资料，现在报名可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+咨询方式：李老师
+</t>
+  </si>
+  <si>
+    <t>四川大自考考到一半可以报小自考吗 成绩还有效吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
+很多报名参加大自考的学员，考试没通过，但是又想拿畢業怎么办？
+大自考是需要全部科目16-18科全部参加国家统考，考试难度高，并且一年只有两次考试机会，畢業时间较长，这时候想报小自考行不行呢？
+大自考考不过的学员是可以报小自考的，大自考考过的科目可转免kao，小自考只需统考6科，个别科目只需统考三科，其他均为校考（校考是学校自己组织，过程性考试）并且统考科目会有视频课件给学员日常学习，考前还会安排面授，也会有押题资料。小自考大大降低了考试难度，并且小自考与大自考的畢業书含金量是完全一样的，畢業也不区分大小自考。小自考考试时间比大自考增加了两次，一年有四次考试机会，较快1年考完全部科目，1.5年那畢業书！大大缩短了学员畢業时间！想要快速畢業拿證的学员可选择报考自考！
+大自考转小自考，只需要学员提供身份證扫描件以及2寸蓝底證件照，其他相关的转免考手续后续会有班主任辅助学员完成，学员只需根据班主任通知配合处理即可！
+现在可报考学校：
+四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
+学费低至2700元/年（按两年收取），现可报考专业齐全，现在报名还可申请领取200元-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川报小自考选择哪个机构比较靠谱 学费比较划算</t>
+  </si>
+  <si>
+    <t>咨询人：李老师                               很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
+首先，小自考报名是可以在学校报也可以选在在校外的机构报名，但是首先要甄别校外机构是否是学校签约授权的教学点，如果是学校授权招生的教学点，那么就可以放心报考。
+很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
+校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
+本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿畢業，自考是成人学历里面含金量较高的一种学历形式，畢業时间灵活，考完即可申请畢業~
+报名地址：成都市成华区建设路银玺国际2810号
+更多咨询方式：李老师
+~</t>
+  </si>
+  <si>
+    <t>四川小自考学习形式是怎样的 报名后多久畢業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                                四川小自考报考后该怎么学习？统考难不难？
+想要自考小学教育专业的学员看过来，李老师为你解答你的疑问，首先自考小学教育专业到底难不难？
+小学教育专业是文科类专业，主要靠记忆，考试科目难度都不高！统考6科，校考10科；
+统考考试科目为：
+计算机应用基础，教育学（二）、中小学教育管理、心理卫生和心理辅导、课程与教学论、教育心理学。
+校考全部是由学校自己组织的过程性考试，学员只需参加考试配合学校处理，学员的主要重心放在统考科目上，考试60分及格便可，学校还有录制的收费课件给到学员，统考科目考试前会安排面授，也有相应的押题资料，帮助学员能尽快通过考试，能顺利领取畢業书！
+其次是自考小学教育专业多久能拿到畢業书？
+自考是所有考试科目考完即可申请畢業，畢業时间灵活，每年有4次考试机会，两次校考，两次统考，校考一次较多报4-6科，统考2-4科，学员较快可1.5年考完全部考试科目，一年九个月领取畢業书！
+畢業书是由自考办和学校联合颁发的国家认可学信网可查的正规畢業书！
+自考畢業书也是成人学历里面含金量较高的！可以考教师资格證，也可以参加教师公招！
+怎么报名？
+现四川师范大学，西华师范大学正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+咨询方式：李老师
+~
+</t>
+  </si>
+  <si>
+    <t>中央电大一年制成人中专报考专业有哪些 多久能拿畢業</t>
+  </si>
+  <si>
+    <t>咨询人：李老师        
+中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
+一、招生专业
+建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
+以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿畢業书！
+二、招生对象
+应往届初中畢業生、高中畢業生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！三、招生时间
+每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
+四、学习方式
+线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
+学历證书可在中央广播电视中等专业学校的官网上查询并验證，如有需要可以生成学历證书在线验證报告。
+学费：1480元（全包）
+报名地址：成都市成华区建设路银玺国际2810-2811号
+详情咨询李老师~
+电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川自考学历可以申请学位證书吗？满足哪些条件？</t>
+  </si>
+  <si>
+    <t>咨询人：李老师        四川自考的学位英语考试难不难？考过就可以拿学位證书？
+四川自考申请学位證书必须满足以下三个条件：
+四川小自考畢業后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
+一、基本要求：
+①本科畢業生均应在获得本科畢業生證书后两年内提出申请，未通过者不再补授学士学位；畢業两年内必须申请，超过两年就不能再申请了。
+②自考本科畢業生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、畢業论文或畢業设计以及其他畢業实践环节）；
+③通过省学位办组织的外国语考试并获得合格證书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
+满足以上三个条件才能申请学士学位，缺一不可，其中最难的主要是学位英语考试，学位英语考试是全国统考，每年3月份报考，难度在英语3级不到4级的程度，需要同学们看书学习，才能通过！
+四川小自考现在可报考的院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学今年可以报小自考吗 报名地址在哪里</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师                               四川师范大学有小自考吗？小自考学历是不是只有四川才认可？
+四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+四川师范大学现可报名专业：
+专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
+本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
+考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至3000+/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名即可签订协议保障学员权益！现在报名可参加12月校考！校考一次可考4-6科，可以早半年畢業！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面最高的！单位认可度高，如果是想用畢業来找工作的话建议考小自考，工作竞争优势偏大点！且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考！
+小自考学历是学校正规开设的学历，畢業获颁由学校和自考办联合颁发的正规学历，学信网终身可查，很多大自考机构宣传的小自考学历出省不认可这种情况是不真实的，只要是学信网可查的学历都是全国认可的！所以同学们可以放心报考！
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>2020年四川小自考畢業时间是多久 怎么报名</t>
+  </si>
+  <si>
+    <t>咨询人：李老师        2020年四川小自考报名时间是多久？1.5年真的能畢業吗？
+四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在秋季招生，现在报名的学生可参加12月底的校考，校考可以参加4-6科的考试，想要报名的学员可以抓紧时间咨询相关信息~
+小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿畢業书，是所有学历形式里面能最快畢業的学历，且自考含金量高，含金量仅次于统招全日制学历，畢業时间灵活，所有考试科目通过即可申请畢業！
+小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
+现在可报考院校：
+四川师范大学、成都理工大学、西南财经大学、西南石油大学等省内重点大学，学费低至2800元/年，学费按两年收取，现在报名可申请助学补贴，名额有限，想要报考的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）         扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川报二建没有学历怎么办 怎样能快点畢業</t>
+  </si>
+  <si>
+    <t>咨询人：李老师      
+中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格證书教育和岗位培训提供教学服务。
+中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿畢業书，对于很多想要考證的学员来说，一年制中专都是很好的选择！
+现在可报考专业：
+建筑工程施工（报考二建必备的专业）
+会计（可报考初级会计师）
+机电技术应用（可报考二建，初级工程师）
+电气技术应用（可报初级工程师）
+建筑设备安装（报考二建）
+电子商务
+市场营销
+老年服务与管理等专业，现在可报考专业齐全，想要报考的学员可加李老师咨询哦~
+学费：1480元（全包，学员不用参加考试，直接学制修够畢業就可以了）
+报名地址：成都市成华区建设路成功银玺国际2810号
+咨询人：李老师  电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报考专业表在哪里找 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川师范大学小自考有哪些专业？现在还可以报名考试吗？
+很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年畢業，自考畢業时间灵活，现在四川师范大学小自考正在秋季报名注册中，现在报考可参加12月的校考，想要报名的同学们可咨询李老师~
+四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+可报考专业：
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，畢業可用于升职加薪，考公务员，考證，考事业单位哦，自考学历含金量高，相关专业考试科目可加李老师详细咨询~
+考试科目：
+统考：3-6科        校考：9-12科（由学校组织，过程性考试）
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
+学费：3600元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟畢業！
+报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
+详情咨询李老师~
+电话：199 8120 3720（微信同号）      QQ：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川大自考可以转小自考吗 小自考为什么只有四川才有</t>
+  </si>
+  <si>
+    <t>咨询人：李老师      大自考可以转小自考吗？小自考只有四川才有吗？
+2019年四川自考报考考生突破250000+，创历年新高，为什么这么多同学要报自考呢？自考这种学历形式到底难不难？多久能畢業呢？
+李老师为大家分析解答一下：
+高等教育自学考试（Self-taught higher education examinations），简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。是通过自学然后参加考试，考试通过即可申请畢業，对学员的自学能力以及自觉性有较高的要求！
+很多考生只清楚大自考，大自考学员可自行在网上注册，没有学费，但是考试难度大，需要统考十多科，一年只有两次考试机会，通过率非常低，对于很多已经工作的考生老说，想要全部参加统考并且考过试特别难的，很多考生考到一半会觉得太难，想要转成小自考，那么大自考可以转小自考吗？
+大自考是可以转小自考的，小自考也就是应用型自考，只需要统考3-6科，比大自考的统考科目少了8-10科，大大降低了考生的难度，其他的9-12科都是过程性校考，学员的学习以及考试难度主要集中在统考科目上，并且每年增加了两次校考机会，可以一年考四次，较快的话可以1年考完全部科目，1.5年畢業，小自考降低了考试难度，缩短了畢業时间，小自考报名跟大自考有区别，大自考是学员自己注册，小自考是需要交资料给老师，由学校教务老师电子端口统一注册，现在小自考正在秋季报名注册中，现在报考可参加12月底的校考，想要报考的学员可加李老师咨询~
+已经报考过大自考的学员是可以直接注册小自考的，只需要把资料交给相应的报名点，如果大自考有考过的科目，在小自考的统考范围内，是可以转免考的，只需要学员到之前报考大自考的自考办打印之前考过的成绩单即可！自考学历形势比较特殊，虽然学校收取学费都是按两年收取，但是他没有学制要求，只要你的考试科目全部通过就可以申请畢業，畢業时间灵活，且自考学历含金量高，所以每年报考的考生才会特别多！
+现在可报考学校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报名还可申请助学补贴，名额有限，想要报考的学员可咨询李老师~
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考教育类专业报哪个学校比较好 学费贵吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川师范大学教育类小自考专本科招生中
+四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+四川师范大学现可报名专业：
+专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
+本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
+考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至3600/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名即可签订协议保障学员权益！现在报名可参加12月过程性校考！
+以上专业都是现在可报专业，自考的畢業书含金量是成人学历里面最高的！单位认可度高，如果是想用畢業来找工作的话建议考小自考，工作竞争优势偏大点！且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考！四川师范大学作为省内最好的师范类院校，每年报考该校的教育类专业的考生特别多，其中小学教育，学前教育，美术教育都是每年报考的热门专业，在四川的考生想要报考教育类专业首选四川师范大学！
+报名时间：正在报名注册中，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+</t>
+  </si>
+  <si>
+    <t>四川小自考最近一次报名时间是多久 报名后多久毕业</t>
+  </si>
+  <si>
+    <t>咨询人：李老师      四川小自考较快多久畢業？现在报名参加几月份考试？
+小自考也就是应用型自考，是学校开设招生的学历形式，自考顾名思义就是通过自学，把所有考试科目通过，自考的学历形式比较特殊，他畢業时间比较灵活，什么时候考试科目通过什么时候就可以申请畢業，较快可以1年考完全部科目，1.5年畢業，那么自考到底难不难呢？要考多少科呢？
+小自考只需要统考3-6科，统考科目是需要看书学习的，其他的9-12科校考为学校组织的过程性考试，学院只需到场配合学校处理，学员把学习重心放在统考科目上即可，其他的只需根据班主任通知配合走流程，很多报考小自考的学员会有个迷思，觉得小自考是不是可以包过的，这里李老师回复大家，小自考不是包过的，统考科目都是需要学员看书硬考的，试问全国统考如果都可以包过的话，这种学历形式含金量会高吗？自考本身就是含金量仅次于统招全日制学历，所以其含金量高，必然会有一些考试科目需要统考！所以千万不要再问李老师自考是不是包过，但是报考的同学们也不用担心自考会太难，统考科目都是考的基础，学员但凡花了时间看书学习都是能通过的，现在报考可参加4月统考，可报考专业齐全，更多专业详情可加李老师咨询~
+现在可报考院校：
+四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，学费低至2800元/年，学费按两年收取，学费包含教材资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年国家开放大学多久开始报名 什么时候截止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      
+国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师~
+电话：199 8120 3720（微信同号）     扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>报小自考有哪些专业比较好考 考过的推荐一下</t>
   </si>
   <si>
     <r>
@@ -1486,8 +1874,8 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>四川毕业证怎么区分大小自考？小自考会不会单位不认可？
-1.自考是成人学历中含金量较高的，所以难度也是相对</t>
+      <t>咨询人：李老师      四川小自考不知道报考哪个专业？简单易过的专业有哪些？
+自</t>
     </r>
     <r>
       <rPr>
@@ -1505,596 +1893,90 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
-2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
-大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
-3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
-现在可报考院校：
-四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
-四川小自考现在正在注册报名中，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
+      <t xml:space="preserve">考是成人学历的其中一种形式，它的含金量也是非常高的，考验了学员的自学能力，很多学员就认为那自考应该是很难的，其实不然，自考既是成人学历的一种，考试难度也就自然不会太高，只需要参加6门统考（60分及格即可）其他9-12门全是校考，校考是由学校自己组织，只需要学员配合学校完成考试，考前会有资料，学员的重心可以都放在6门统考上，一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到畢業书！
+2·选择自考的形式后，该选择哪些专业呢？
+自考热门专业可分为四大类：
+A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
+B，管理类：工商管理/行政管理/人力资源管理等
+C，金融类：会计学/金融学等
+D，建筑工程类：建筑工程/工程造价等
+这四类专业中通过率高使用范围广的专业有汉语言文学，法学，行政管理，人力资源管理和教育类专业，其中美术教育可以只参加三科统考，其他均是校考，通过率非常高！
+3，自考报名怎么报名？在哪儿报名？多久报名？
+报名时间：正在报名注册中
+可报考院校：
+四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
+报名地址：成都市成华区建设路银玺国际2810号
+现在报名科申请200元-600元助学补贴，名额有限，学费低，通过率高！想要报名的学员抓紧时间联系李老师咨询详情~
+电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
     </r>
   </si>
   <si>
-    <t>四川师范大学的小自考在哪里可以报名？现在还能报名吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学小自考只针对校内招生吗？在职人员可以报考吗？
-很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年毕业，想要报名的学员可咨询李老师~
-学校简介：
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦~
-考试科目：
-统考：6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川小自考适合公务员的专业有哪些？学费大概多少？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考毕业证书可以考公务员吗？哪些专业适合考公务员？
-据官方数据公布，2019年国家公务员考试计划招考14537人，众所周知，公务员考试最低学历要求为本科，本次招考，本科学历岗位共8553个，研究生学历岗位有1094个，所有本科学历岗位，自考本科毕业生均可报考！在招考的9657个岗位中，专业主要分为五大类：管理类、法学类、财务类、文秘类、文学类
-小自考是学校正规开展招生的成人学历，学历含金量高，学信网可查，毕业时间灵活，较快1.5年毕业，非常适合想要今早毕业拿证的学员，那么哪些专业比较适合报考公务员呢？李老师为大家推荐适合报考公务员的五大热门专业：
-1、法学：
-招考岗位：1922个  
-2、汉语言文学
-招考岗位：1715个
-3、工商管理
-招考岗位：1689个
-4、行政管理
-招考岗位：1347个
-5、会计学
-招考岗位：516个
-以上为公务员招考岗位最多的五大专业，学员可根据自身情况选择专业报考，这五大类专业也是每年报考的热门专业，通过率高！
-考试科目：
-统考：6科           校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-现在可报考院校：
-四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学
-学费低至2800元/年（按两年收取）包含全套教材资料，视频课件，面授课程，更有班主任全程一对一带班！现在报名可申请400-600元的助学补贴，名额有限，详情速速咨询李老师
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916372047
-</t>
-  </si>
-  <si>
-    <t>四川小自考建筑经济管理专业难不难？统考多少科？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考建筑经济管理专业考试科目有多少科？多久毕业？
-学校简介：
-成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的中国历史文化名城——成都，由四川省人民政府和中华人民共和国国土资源部共建，入选中国“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”、“四川2011计划”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料、电子、机械、信息科学、管理科学等学科专业为特色的省属重点大学。
-成都理工大学先开放对外招收自考建筑经济管理专业的同学，本专业培养从事建筑工程预算、工程招标投标 、建筑工程施工与组织管理工作的应用型、复合型工程技术人才。该专业就业前景好，适用于政府部门、设计院、会计师事务所、工程建设咨询(顾问)公司、工程经济咨询机构、工程监理单位、工商企业从事生产、经营、服务等管理系统的规划、设计、技术经济、监理、咨询、评估、项目管理等工作。是每年报考的热门专业！
-考试安排：
-小自考分为统考+校考，统考根据专业不同，大多在6科左右；校考由我们助学点组织，考试地点统一安排在成都；学员的学习重心主要放在统考科目上，考生按照我们提供的学习资料系统地复习，通过率都很高！
-那么建筑经济管理专业具体考哪些科目呢？
-建筑工程专业统考科目有：工程地质及土力学、建筑设备、建筑经济与企业管理、流体力学、高层建筑结构设计、房屋建筑概论（共6科）
-校考科目：
-中国近代史纲要、马克思主义基本原理概论、物理（工）、物理（工）（实践）、概率论与数理统计（二）、线性代数、计算机基础与程序设计、结构力学（二）、混凝土结构设计、建筑结构试验。校考均为过程性考试，学员只需到场配合学校处理即可。
-自考是只要学员全部考试科目考试通过即可申请毕业，一年考四次，学员最快可1年考完，1年半毕业，1年9个月拿毕业证书！学员普遍毕业时间为2年，自考学历含金量高，社会认可度高！
-学费低至2800元/年（按两年收取），学费包含教材资料、视频课件，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-学校授权的教学点，报名即签订保障学员权益的协议书，学员可放心报考！
-详情咨询李老师~
-电话：199 8120 3720（微信同号）
-扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>国家开放大学的学习形式是什么？在哪里报名？</t>
-  </si>
-  <si>
-    <t>四川电大学历找工作有用吗？国家开放大学就是电大吗？
-学校简介：
-国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
-国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
-毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学自考在哪里报名比较靠谱？报名地址？</t>
-  </si>
-  <si>
-    <t>学校简介：
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦~川师开设的专业基本都是文科专业，所以通过率较高，同学们在其他地方报考过小自考的，是可以重新报考其他学校跟专业的，只需要你到之前报考的学校退学籍即可！
-考试科目：
-统考：6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>中央电大的一年制成人中专学费多少？官网可以查询学籍吗？</t>
-  </si>
-  <si>
-    <t>中央广播电视中等专业学校是什么学校？学校是正规的吗？
-学校简介：
-中央广播电视中等专业学校是一所经原国家教委批准的，现由教育部职业教育与成人教育司领导并依托中央广播电视大学设置的中专学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
-学校开设的成人一年制中专是正规的成人学历，是国家认可的，学校报名注册后1-2个月就可以在学校网站查询学籍，毕业可在线验证学历真实性，学制1年，实际毕业时间为7-10个月，学员毕业后可用于考幼师，二建，当兵等，现在执业资格证书考试都对学历审核越来越严格，以后不具备正规学历的学员想要参加考试是不太可能呢，所以同学们尽量在报考前满足学历要求，正规流程报考，以避免考试通过后拿不到证书的风险！
-中央电大成人中专现在可报考专业齐全，现开设建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销等17个专业，学员报名后无需考试，没有平时作业，直接7-10个月领取毕业证书！学费低至1480元，全包，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考多久报名？一年有几次报名机会？</t>
-  </si>
-  <si>
-    <t>2019年四川小自考秋季报名时间多久开始？报名多久截至？
-自考一年有几次注册时间？2019年秋季注册是什么时候开始？
-四川自学考试每年有四次注册时间，球季注册是现在正在报名，现在报名可参加10月统考！可以选择报考2-4科，可以早半年毕业！现在距离10月考试还有60多天，今年考试时间是在10月19-20号，要报考的学员可安排好时间准备考试了哦~
-自考多久能毕业？学费多少？报考院校有哪些呢？
-自考的学历形式比较特殊，没有具体的学制要求，学员全部科目考试通过即可申请毕业，一年四次考试机会，较快1年可考完全部科目，1.5年毕业！普遍学员的毕业时间是两年左右，小自考可报考专业齐全，只需统考3-6科，其他9-12科都是过程性校考，学员的学习重心只需要放在统考科目上即可！
-可报考院校：
-四川师范大学、成都理工大学、西华师范大学、西南石油大学、西南财经大学等省内重点大学，学费地址2700/年（按两年收取），学费包含教材资料，大专业学校还会开设视频课程，也会有押题资料，帮助学员顺利通过考试，想要报考的学员要抓紧时间联系李老师咨询哦~
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学面向社会招收成人自考专本科学员 报考专业齐全</t>
-  </si>
-  <si>
-    <t>学校简介：
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省建设计划高水平大学，入选教育部“教师培养计划 ”、“四川省法律人才教育培养计划”、四川省”2011计划、工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育早、师范类院校中办学历史为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-高中毕业工作后想要拿大学毕业证书，可以选择成人学历提升，现四川师范大学正在招收成教、自考专、本科学员！成教学制2.5年，自考是只要全部科目考过即可申请毕业，毕业后由四川师范大学颁发正规合法的毕业证书，学信网可查，社会认可度高！
-现四川师范大学正在招收成教、自考专本科的学员，专本套读学员！
-报名时间：九月11号截止（名额有限，需要的学员要抓紧时间报名），成教报名一年一次，错过就只有等明年了哦
-学费：
-成教：2900元/年（按两年收取）现只收取100元报名费，考试通过后再交学费！
-自考：3500元/年(按两年收取），现在报名可参加12月校考，可早半年毕业！
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>成都理工大学小自考学费较低多少？报名地址？</t>
-  </si>
-  <si>
-    <t>学校简介：
-成都理工大学（Chengdu University of Technology）是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，由自然资源部、四川省人民政府、成都市人民政府共建，是国家首批“双一流”世界一流学科建设高校，入选中西部高校基础能力建设工程、卓越工程师教育培养计划、国家级大学生创新创业训练计划、国家建设高水平大学公派研究生项目、国家特色重点学科项目、国家大学生文化素质教育基地、全国深化创新创业教育改革示范高校，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。
-专业介绍：
-人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
-成都理工大学现招收自考人力资源管理专、本科学员，名额有限，需要的需要抓紧时间联系李老师报名哦~
-就业前景：
-企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度新权威数据显示，人力资源管理专业的本科毕业生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
-考试科目：
-统考：6科 校考：9-12科（由学校组织，过程性考试）
-学费：2700元/年（按两年收取）学费包含教材资料以及视频在线课程！
-考试时间：
-统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
-报名地址：成都市成华区建设路银玺国际2810号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）        QQ:1916 3720 47</t>
-  </si>
-  <si>
-    <t>2020年四川师范大学小自考多久报名？要统考几科？</t>
-  </si>
-  <si>
-    <t>咨询人：李老师  电话：199 8120 3720（微信同号）    扣：1916 3720 47
-四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
-四川师范学院现招收自考专本科学员，名校招生，名额有限，自考报名时间在9月底截止，需要报名的学员要抓紧时间报名哦！
-可报考专业：
-专科：
-法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作、市场营销
-本科：
-法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作、公共事业管理
-自考报考对象：
-1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
-2．专科招收应、往届高中毕业生(含职高、中专、技校生)及以上文化程度者；
-3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历毕业证的考生(在校专、本科学生在办理本科毕业证书时必须出具专、本科毕业证书，无专、本科毕业证书不能办理本科毕业证书)。
-简单一句话，只要你年满17岁都可报考！
-统考6科（闭卷）+校考9-12科左右（过程性考试）
-考试时间：统考每年的4、10月 校考每年的7、12月
-毕业证申请时间每年的6月和12月
-报名地址:成都市成华区建设路银玺国际2810号
-详情可咨询李老师~
-电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>找工作学历不够怎么办？四川成人学历专本科招生报名中</t>
-  </si>
-  <si>
-    <t>四川找工作没有学历怎么办？成人学历可以升职加薪吗？想要入职好工作，学历不够怎么办？
-很多找工作的小伙伴应该能了解，现在企事业单位对学历的要求都是越来越高了，连链家的销售竟然都要求本科学历了，国企就更不用说了，至少本科学历，那么学历不高但是想找个好工作该怎么办呢？
-下面李老师就跟大家讲解一下成人获得学历的几种方式，成人学历分为自考，成教，网教，电大四大类型；其中含金量较高的是自考，依次为成交，网教，电大。
-1，自考，就是通过学员自己学习然后参加考试，考试科目为16-18科，考过即可申请毕业（60分即合格），没有时间限制，没有年龄限制，含金量高，但是需要学员花一定时间学习。
-2，成教，需要参加一年一次的成人高考，考试通过即可被学校录取，学制2.5年，读满即可毕业。很多学员一听需要参加成人高考，都会误以为考试难度高，其实不然，成人高考是面向成人举办的考试，考试难度低，录取分数线低，450分满分，专科录取分数线在120分，本科105~155分，还有相关的加分政策，所以报考学员完全不用担心，成教成人高考通过后后期考试简单，不耽误学员时间。
-3，网教，网教又称远程教育，是通过网络学习，然后参加考试，主办院校都是省内985，211的重点大学，学制2.5年。
-4，电大，即成都广播电视大学，学制2.5年，免试入学，是比较轻松毕业的学历形式！
-无论你是初中或高中学历想升专科或本科，或是专升本，不限年龄，不限学历，都可以拿到名牌大学本科毕业证书！
-现招收院校：
-四川师范大学/西南石油大学/西华师范大学/成都理工大学/西南科技大学/西南财经大学/川北医学院/电子科技大学等。
-成教报名只需交100元报名费，12月学校录取后再交学费！
-报名时间：
-现自考/成教正在火热报名中，名额有限，错过需等明年才能报名，想要报名费学员抓紧时间联系李老师咨询~
-地址：成都市成华区建设路成功银玺国际2810号
-电话：199 8120 3720（微信同号） QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>小自考考几次毕业？一般多久能拿证？</t>
-  </si>
-  <si>
-    <t>四川小自考一年考几次？考试难不难？学费贵吗？什么是自考?过程怎么样? 
-自考属于成人学历中含??金量较高的,学信网终身可以查询,社会认可度较高的学历。相比成教,网教,电大等学历,它的考试周期短,考试安排灵活,考完即可毕业。自考包含统考和校考,统考一般3-6门左右,由国家统一组织考试,校考则是学校组织的过程性考试。每年4、10为统考,12月、6月为校考，学员较快1年可考完全部科目，1.5年毕业！
-1、问:两年期满,有的课程仍未合格怎么办?? 
-答:两年期满对于那些仍未考试合格的考生,可继续参加相应课程的考试,在所有课程考试合格后申请自学考试本科毕业证书。 
-2、问:如何本科:申请学士学位? 
-答:自考本科毕业生,符合条件者可授予学士学位。条件主要为:各科成绩平均分达65分以上,通过四川省学位办组织或认定的学士学位外国语水平考试,符合授位条件者由参考大学颁发学士学位证书。
-自学考试本科在籍考生(指将毕业的考生)或取得自学考试本科毕证书的考生可以报考研究生或公务员。 
-3、问:学位外语如何报考?? 
-答:学位外语考试每年一次,报名时间一般在每年的3月份,考试时间一般在次年的4月份.
-4、问:报考本科专业是否可与专科专业不同?? 
-答:可以在学院开设专业内自由选择,一旦注册成功后不得修改专业。 
-报名需要交哪些资料呢？
-身份证正反面照片或者扫描件 
-两寸蓝底电子档照片
-现在可报考院校:
-四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学的名校,现在可报考专业齐全，更多专业详情可加李老师。
-学费:根据学校专业不同,学费在2500元/年-3700元/年,按两年收取(包含教材资料、在线教学课程)，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址:成都市成华区建设路银玺国际2810号
-详情可咨询李老师~
-电话:199 8120 3720（微信同号）      QQ:1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川师范大学成人学历有哪些形式？考试难度高吗？</t>
-  </si>
-  <si>
-    <t>四川小自考报名地址在哪儿？学费标准？</t>
-  </si>
-  <si>
-    <t>四川在哪里报名小自考？小自考现在报名多久考试呢？
-在四川的同学们，在报考自考时，都会疑惑四川小自考在哪里报名呢？成都报名点在哪里？现在报名多久考试呢？
-下面李老师为大家讲解下，报考自考的流程以及注意事项：
-首先小自考是学校开设的正规学历，比大自考简单一些，只需要统考3-6科，其他的9-12科都是过程性校考，校考是学校组织监考的过程性考试，学员只需把学习重心放在统考科目上即可，统考科目大专业学校会开始视频课程，学员可登陆app个人学习，考前集中刷题，帮助学员顺利通过考试！
-小自考一年有两次注册机会，分别是上半年3-5月，下半年9-11月，学校招生名额招满截止，现在报考的同学们都是参加12月的校考，小自考一年有四次考试机会，最快1年可考完全部科目，1.5年毕业！学员普遍毕业时间是是2年左右！对于很多想要快速拿到学历证书的学员，小自考是可以最快时间毕业的学历形式！
-四川小自考在哪里报名呢？怎么报考呢？学员可以自己报考吗？
-小自考是学校开设的学历形式，学员是不能够自己注册的，是需要交资料给老师，老师给学员注册的，注册考籍后学员可根据班主任老师的通知进行报考，然后参加考试，现在报名可参加12月底的校考，可早半年毕业！
-本处为小自考报名点，可报考学校有四川师范大学，成都理工大学，西南石油大学，西南财经大学等名校，学费低至2700元/年（学费按两年收取）现在可报考专业齐全，详情可加李老师咨询~
+    <t>12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川小自考教育类专业最好的是不是四川师范大学？怎么报考？
+四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+四川师范大学是四川省内教育类专业最好的学校，想要报考的学员现在可以尽快交资料报名了哦，现在正在秋季报名注册中，现在报名可参加12月底的过程性校考！过程性校考考试简单，学员只需到场配合处理！
+考试科目：6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
+考试时间：统考在每年的4月、10月            校考在每年的7月、12月
+学费3400元/年（按两年收取），包含资料视频+教材+视频课程+重点复习资料，现在报名还可申请200-600元助学补贴，名额有限，报名即跟学员签订保障学员权益的协议，学员可以放心报考，想要报名的学员速速联系李老师咨询~
+自考的畢業书含金量是成人学历里面较高的！单位认可度高，对畢業含金量有要求的可以选择报考小自考，且自考畢業时间灵活，考完就可申请畢業，最快一年考完，1.5年畢業，想要快速畢業的学员可以考虑选择报自考哦！
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720 （微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人学历报名入口 报考专业齐全 大概学费</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我国现行成人学历有哪些形式：统招、自考、成教、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.5"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">网教、电大
-1. 什么是自考
-自学考试，1981年经国务院批准创立，是对社会人员以学历考试为主的高等教育国家考试。是个人自学、社会助学和国家考试相结合的高等教育形式。
-通过国家考试促进广泛的个人自学和社会助学活动，贯彻宪法鼓励自学成材的有关规定，造就和选拔德才兼备的专门人才，提高全民族的思想道德素质和科学文化素质，以适应社会主义现代化建设的需要。 经过系统的学习后，通过毕业论文答辩、学位英语考核达到规定成绩，符合学位申请条件的，可申请授予成人学士学位，并可继续攻读硕士学位和博士学位。
-2. 自考的特点
-自考没有学历限制，每个人都可以报考，你可以先从专科开始，或者没有专科证也可以先参加自考本科的考试，就是将来在申请本科时要先出示专科毕业证，所以就要先考一个专科毕业证并且在本科前毕业,这是自考的硬性规定。
-自考没有学制限制，自考专科一般有16门，本科有18门，只要你一门一门全部通过就能办理毕业，二年考完二年毕业，十年考完十年毕业。所以这也使很多想要早点毕业的考生，尤其是没时间复习或基础差的考生愿意去依靠培训班，帮助自己顺利通过考试，尽早考完尽早毕业。
-3.大自考和小自考的区别
-大自考就是自己去自考办报名，选择要报读的学校和专业，每期自行在自学考试网报名，每科都需要参加全国统考，对学员的学习能力要求高，难度大，通过率低一些，一年考试两次 4月和10月；
-小自考就是通过培训机构报名，选择要报读的学校和专业，需要参加统考的科目有4-8科，其余科目由学校安排（校考），其中英语统考可以用三科校考科目成绩代替，培训机构会提前提醒你复习、报考，为你准备复习资料，小自考相对难度较低，通过率较高，一年考试4次 4月和10月统考 7月和1月校考。
-4.在四川可以报读的自考院校
-四川可以报自考的学校：成都工业学院、四川师范大学、西南石油大学、西南财经大学、西华师范大学、绵阳师范学员、西南交通大学、电子科技大学、西南科技大学、四川工商学院等。（自考报名后大部分考试都会就近安排，所以不用担心学校的问题）
-5. 自考可选择的专业
-教育类：学前教育、小学教育、汉语言文学、美术教育、音乐教育、英语教育、科学教育等
-建筑类：建筑经济管理、工程造价、交通土建工程、建筑工程管理、建筑施工技术管理等
-其他热门专业：交通运营管理、会计、法律、护理、行政管理、工商管理、人力资源管理、市场营销、汉语言文学、法学、工商企业管理、人力资源管理、公共事业管理、等等
-6. 自考的学制以及考试时间
-自考学籍：2年（最快1.5年）
-自考流程：
-1、提交资料（2寸蓝底照片电子版标准电子版、身份证复印件正反面电子版）
-2、注册学籍：四川一年有两次注册机会
-3、每年（4、10）月参加统考科目，（7、1）月参加校考科目，统考科目基本两次可以考完。
-注：大部分专业只有6科统考科目，除开美术教育、艺术设计等专业。校考是学校组织的，像期末考试一样简单，所以报考的学生不用担心
-自考学费：
-学费低至2700元/年（按两年收取），学费包含教材资料，现在报名还可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-    </r>
-  </si>
-  <si>
-    <t>四川电大成人中专在哪里报名？学费多少？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校简介：
-中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
-中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
-一、招生专业
-建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
-以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿毕业证书！
-二、招生对象
-应往届初中毕业生、高中毕业生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！
-三、招生时间
-每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
-四、学习方式
-线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
-学历证书可在中央广播电视中等专业学校的官网上查询并验证，如有需要可以生成学历证书在线验证报告。
-学费：1480元（全包）
-报名地址：成都市成华区建设路银玺国际2810-2811号
-详情咨询李老师~
-电话：199 8120 3720 （微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川报小自考大概要准备多少钱？学费怎么缴纳？</t>
-  </si>
-  <si>
-    <t>四川小自考学费大概多少？报考学校有没有区别？
-四川小自考的学费大致在5000-8000元左右不等，不同学校的收费标准是不同的，学员可以根据自身情况来选择报考的院校及专业，现在可报考专业齐全，详情可加李老师咨询~
-川内现在可报考院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，早半年毕业！四川2019年报考自考的学员已经突破25万，同学们，想要获得自己想要的生活是需要通过自己努力的，趁年轻多提升自己，现在报考还可申请200-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
-小自考的学历形式比较特殊，没有明确的学制要求，同学们报考的专业所对应的考试科目，全部考过即可申请毕业，一般是3-6科统考，9-12科校考，统考是需要学员认真看书学习然后参加考试的，校考为过程性考试，学员只需把学习重心放在统考科目上即可，每年四次考试机会，6月跟12月是校考，4月跟10月是统考，较快可1年考完全部科目，1.5年毕业！自考也是所有学历形式里面能最快毕业的学历形式！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川成人自考学历有学位证书吗？四六级证书可免考学位英语</t>
-  </si>
-  <si>
-    <t>四川小自考毕业有学位证书吗？申请学士学位有哪些条件？
-四川小自考毕业后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
-一、基本要求：
-①本科毕业生均应在获得本科毕业生证书后两年内提出申请，未通过者不再补授学士学位；毕业两年内必须申请，超过两年就不能再申请了。
-②自考本科毕业生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、毕业论文或毕业设计以及其他毕业实践环节）；
-③通过省学位办组织的外国语考试并获得合格证书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
-满足以上三点要求，就可以申请学士学位证书！
-二、申报时须提供的材料
-1、《四川省普通高等学校成教本科毕业生学士学位申请表》；
-2、本科毕业证书原件、复印件及本科学历证书电子注册备案表。
-具体申报时需要提供的资料班主任会单独通知，学员只需配合班主任准备资料即可！
-四川小自考现在可报考的院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>大自考太难考不过怎么办？四川小自考报名 统考科目少</t>
-  </si>
-  <si>
-    <t>四川应用型自考跟社会性自考有什么区别？含金量一样吗？
-区别：
-（1）应用型自考就是小自考，是学校开放对外招收的，只需统考3-6科，其他的9-12科都是过程性校考，学员把学习的重心放在统考科目上就行了，校考科目不需要学员花时间看书学习，一年考四次，较快可1年考完全部科目，1年9个月毕业！社会型自考也就是大自考，是全部科目12-14科都参加全国统考，一年两次考试机会，全靠学员自学通过考试！考试通过才能申请毕业，通过率低，能毕业的学员基本都需要3-5年！
-（2）参加应用行自考的学生必须参加主考院校的助学才可以报考，学生在全面系统的教学辅导下循序渐进，通过率得到保证，通过系统学习又能真正掌握知识，因此以通过率高、毕业时间短、文凭含金量高等特点受到社会、用人单位和考生的广泛好评，保证了毕业生质量。全程有班主任代班，不会出现学员报考后没有老师管理的情况，社会性大自考学员可自行到官网注册考籍，然后自己报考即可！
-应用型小自考相较于社会性大自考减少了统考科目，降低了考试难度，增加了考试机会，缩短了毕业时间，可以让学员快速通过考试申请毕业，对于很多想要快点毕业的学员来说，小自考是最好的选择，且大小自考学历的含金量是一样的，毕业证并不会区分大小自考，学信网也不会区分，所以同学们可以放心报考！
-四川现在可报考学校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的过程性校考，可早一些毕业！学费低至2800元/年，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-毕业获颁由学校跟自考办联合颁发的国家认可学信网可查的正规毕业证书，自考学历含金量高，毕业时间灵活，报名即签订保障学员权益的协议，学员可放心报考~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     QQ：1916 3720 47</t>
-  </si>
-  <si>
-    <t>没有标题</t>
-  </si>
-  <si>
-    <t>四川成人学历有什么作用？成人学历是学校正规招收的学历吗？
-很多考生对于成人学历有误区，认为成人学历不是正规学历企业不会认可？成人学历到底是主要针对哪些学员开设的呢？
-首先成人学历是学校坚持继续教育以安全稳定为前提、规范办学为基础、服务学生为根本“三位一体”的发展思路，继续教育各类在籍学生总体规模稳步增长。50多年来为社会共输送成人高等学历教育毕业生数十万人，为社会各界输送自考毕业生近六万人。历经半个多世纪的不断发展、创新，在专业建设、培养模式、教学计划、教学管理、学生管理、办学条件、校外站点监管等方面均形成了自身的特色并取得了一定的成绩。主要是针对社会在职人员需要提升学历的情况，提高全民教育水平。
-所以成人学历是学校正规招收的学历，毕业学信网可查学籍，考生可以放心报考！  
-成人学历主要分为四种:自考、成教、网教、电大，含金量也是按这个顺序排列的，自考含金量最高，其次是成教，网教跟电大，这四种学历都是学校正规开展的学历形式，毕业学信网终身可查，学员报考时可仔细甄别，学信网不可查的学历千万不要报考！考生报考时可根据自身学习能力及工作情况来选择报考的学历形式。
-李老师简单为大家分析一下：
-自考是含金量最高的，只需统考3-6科，其他9-12科为过程性校考，统考科目是必须学员看书学习然后参加考试的，自考是要求全部科目考试通过才能申请毕业的学历形式，一年考四次，较快可1年考完全部科目，1.5年毕业，毕业时间灵活，含金量高，现在报考可参加12月底的过程性校考，早半年毕业！
-成教是成人高等教育，需要参加入学考试，入学考试即成人高考，成教报名一年只有一次，每年的八九月份报名，成教录取分数线低，还有相应的加分政策，学制2.5年毕业，成教只要录取后期末考试都很简单，对于工作比较繁忙还要提升学历的学员来说，成教是个不错的选择。
-网教、电大都是通过网络远程教育，学制2.5年毕业，考试简单，学员不需要花费太多精力！
-可报考院校：
-四川师范大学、成都理工大学、西南财经大学、西南石油大学、国家开放大学等，现在可报考专业齐全，相关详情可加李老师咨询~
-毕业获颁由学校颁发的国家认可学信网终身可查的正规学历，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路成功银玺国际2810
-电话：199 8120 3720（微信同号）          扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>川师小自考报名时间？报名地址？报考专业？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学自考学历是什么性质？跟统招学历有什么区别？
-四川师范大学开设的自考学历，主要针对学校需要专升本以及校外在职人员提升学历，学历分为统招全日制以及成人学历，自考学历成人学历里面含金量最高的，性质是业余，通过业余时间学习，自考是学历形式里面除了统招学历以外含金量最高的学历形式！现在可报考专业齐全，招收高起专，专升本学员！
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦~
-考试科目：
-统考：3-6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川哪个学校有小自考艺术类专业 学费是不是很贵？</t>
-  </si>
-  <si>
-    <t>四川小自考艺术类专业有哪些学校可以报考？考试难吗？
-成都理工大学现开放对外招收小自考艺术类专业，自考学历含金量高，且艺术类专业统考科目较少，只需统考4科，考试难度较低，很多想要快速毕业的学员可以考虑选择报考小自考艺术类专业！
+</t>
+  </si>
+  <si>
+    <t>四川小自考环境设计专业统考几科 要上课吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川小自考设计类专业是只有成都理工大学可以报考吗？学费？
 成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
+学校现在正在招收小自考环境设计，产品设计两个专业，设计类专业只需要统考4科，其他的科目都是过程性校考，设计类专业统考科目少，通过率高，想要报考的学员可加李老师详细咨询~
 专业介绍：
 艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
 考试科目：
-统考：4科          校考：9-14科（校考过程性考试）
-自考毕业时间灵活，较快1年考完全部科目，1.5年拿毕业证书！毕业获颁由自考办和成都理工大学联合颁发的毕业证书！
-学历国家认可学信网终身可查！现在报名可参加12月底校考，可早半年毕业！
-学费低至2700元/年（按两年收取）包含教材资料，现在报名可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川大自考可以转小自考吗？学费可以少些吗？</t>
-  </si>
-  <si>
-    <t>四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
-很多报名参加大自考的学员，考试没通过，但是又想拿毕业证怎么办？
-大自考是需要全部科目16-18科全部参加国家统考，考试难度高，并且一年只有两次考试机会，毕业时间较长，这时候想报小自考行不行呢？
-大自考考不过的学员是可以报小自考的，大自考考过的科目可转免kao，小自考只需统考6科，个别科目只需统考三科，其他均为校考（校考是学校自己组织，过程性考试）并且统考科目会有视频课件给学员日常学习，考前还会安排面授，也会有押题资料。小自考大大降低了考试难度，并且小自考与大自考的毕业证书含金量是完全一样的，毕业证也不区分大小自考。小自考考试时间比大自考增加了两次，一年有四次考试机会，较快1年考完全部科目，1.5年那毕业证书！大大缩短了学员毕业时间！想要快速毕业拿证的学员可选择报考自考！
-大自考转小自考，只需要学员提供身份证扫描件以及2寸蓝底证件照，其他相关的转免考手续后续会有班主任辅助学员完成，学员只需根据班主任通知配合处理即可！
-现在可报考学校：
-四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
-学费低至2700元/年（按两年收取），现可报考专业齐全，现在报名还可申请领取200元-600元的助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+统考：4科 校考：9-14科（校考过程性考试）
+自考畢業时间灵活，较快1年考完全部科目，1.5年拿畢業书！畢業获颁由自考办和成都理工大学联合颁发的畢業书！
+学历国家认可学信网终身可查！
+学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可申请助学补贴，补贴名额有限，想要报考的学员抓紧时间联系李老师~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考报考时选择哪个机构比较靠谱？有哪些学校可以报考？</t>
-  </si>
-  <si>
-    <t>很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
-首先，小自考报名是可以在学校报也可以选在在校外的机构报名，但是首先要甄别校外机构是否是学校签约授权的教学点，如果是学校授权招生的教学点，那么就可以放心报考。
-很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
-校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大，并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦~不相信的学员可自行对比~
-本处为四川师范大学，成都理工大学，西南石油大学，川北医学院等正规招生，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
-小自考时学校开设的自考组学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5年拿毕业证，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，考完即可申请毕业~
-报名地址：成都市成华区建设路银玺国际2810号
-更多咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~</t>
-  </si>
-  <si>
-    <t>四川小自考的学习形式是什么？考试难度怎么样？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考报考后该怎么学习？统考难不难？
-想要自考小学教育专业的学员看过来，李老师为你解答你的疑问，首先自考小学教育专业到底难不难？
-小学教育专业是文科类专业，主要靠记忆，考试科目难度都不高！统考6科，校考10科；
-统考考试科目为：
-计算机应用基础，教育学（二）、中小学教育管理、心理卫生和心理辅导、课程与教学论、教育心理学。
-校考全部是由学校自己组织的过程性考试，学员只需参加考试配合学校处理，学员的主要重心放在统考科目上，考试60分及格便可，学校还有录制的收费课件给到学员，统考科目考试前会安排面授，也有相应的押题资料，帮助学员能尽快通过考试，能顺利领取毕业证书！
-其次是自考小学教育专业多久能拿到毕业证书？
-自考是所有考试科目考完即可申请毕业，毕业时间灵活，每年有4次考试机会，两次校考，两次统考，校考一次较多报4-6科，统考2-4科，学员较快可1.5年考完全部考试科目，一年九个月领取毕业证书！
-毕业证书是由自考办和学校联合颁发的国家认可学信网可查的正规毕业证书！
-自考毕业证书也是成人学历里面含金量较高的！可以考教师资格证，也可以参加教师公招！
-怎么报名？
-现四川师范大学，西华师范大学正在招收自考专科、本科学员，本次注册为今年较后一次注册！现在报名，可申请助学补助400-600元,名额有限，想要报名的学员抓紧时间联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-咨询方式：李老师
-电话：199 8120 3720（微信同号）    扣：1916 3720 47~
-</t>
-  </si>
-  <si>
-    <t>四川一年制成人中专是正规学历吗？报考专业？</t>
-  </si>
-  <si>
-    <t>学校简介：
-中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。
-中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
-一、招生专业
-建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
-以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿毕业证书！
-二、招生对象
-应往届初中毕业生、高中毕业生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！
-三、招生时间
-每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
-四、学习方式
-线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
-学历证书可在中央广播电视中等专业学校的官网上查询并验证，如有需要可以生成学历证书在线验证报告。
-学费：1480元（全包）
-报名地址：成都市成华区建设路银玺国际2810-2811号
-详情咨询李老师~
-电话：199 8120 3720 （微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川要拿学士学位是不是要参加学位英语？学位英语考试难度如何？</t>
-  </si>
-  <si>
-    <t>四川自考的学位英语考试难不难？考过就可以拿学位证书？
-四川自考申请学位证书必须满足以下三个条件：
-四川小自考毕业后是可以申请学士学位的，只要是国家认可的正规学历，都是可以申请学士学位的，但是需要满足以下几点要求：
-一、基本要求：
-①本科毕业生均应在获得本科毕业生证书后两年内提出申请，未通过者不再补授学士学位；毕业两年内必须申请，超过两年就不能再申请了。
-②自考本科毕业生，其专业教学计划规定的考试课程总平均成绩不低于65分，包括统考+校考科目的平均分（计算总平均成绩的课程不含体育课、毕业论文或毕业设计以及其他毕业实践环节）；
-③通过省学位办组织的外国语考试并获得合格证书，参加学位英语考试，考试合格，才能申请，学位英语考试在每年3月份报考，必须有一科统考通过了才能申请参加考试！
-满足以上三个条件才能申请学士学位，缺一不可，其中最难的主要是学位英语考试，学位英语考试是全国统考，每年3月份报考，难度在英语3级不到4级的程度，需要同学们看书学习，才能通过！
-四川小自考现在可报考的院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报考可参加12月底的校考，可报考4-6科，学费低至2800元/年，学费按两年收取，现在报名还可申请200-600元助学补贴，名额有限，想要报名的同学们抓紧时间联系李老师咨询
+</t>
+  </si>
+  <si>
+    <t>四川小自考报名后多久可以查学籍 学信网可以查吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师      四川小自考在哪里可以查询学籍？学信网可查吗？
+自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请畢業，自考的是学费低、教考分离、畢業生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予畢業（60分既合格）颁发畢業，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
+所有自考学历都是只有在畢業后才可以在学信网查学籍，因为每个考生的畢業时间是不一样的，所以都是考试通过后申请畢業才能在学信网验證学籍，报考后都是在省考试院查询考籍，考籍包含学员报考学校跟专业，现在报考的同学们，在3月即可查询报考信息
+那么很多学员都会思考一个问题，学历提升有什么好处呢？我为什么要提升学历呢？
+1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考畢業时间灵活，一年考四次，较快可1年考完全部科目，1.5年畢業！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
+2、为自己就业时提供进门的机会。现在许多大型企业，尤其是教师、公务员、司法方面的考试都需要本科 学 历，自考是受国家承认的，无论你是要考公务员或者应聘公司岗位，都是认可的，同学们可趁年轻多努力为自己创造更好的未来！
+3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格證书，都是对学历有要求的！
+自考报考对象：
+1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
+2．专科招收应、往届高中畢業生(含职高、中专、技校生)及以上文化程度者；
+3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历畢業的考生(在校专、本科学生在办理本科畢業书时必须出具专、本科畢業书，无专、本科畢業书不能办理本科畢業书)。
+李老师总结一句话：只要年满17岁都可报考！不限前置学历，高中起点的学生可以套读本科哦，自考学历含金量高，想要报考的同学们可加李老师详细咨询~
+自考免试入学，宽进严出，全部科目考过即可申请畢業！畢業即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
+现在可报考院校：
+四川师范大学、成都理工大学、西南石油大学、西华师范大学、西南财经大学等省内重点大学！
+考试地点：
+（统考）学生可根据自己的居住地选择成都市各区县报名考试，统考3-6科，需要学员看书学习！
+（校考）由我处组织，都是在成都市区各大中小学考场，校考9-12科，学员只需到场配合处理！
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>川师自考报名时间？学费多少？在哪里报名？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学有小自考吗？小自考学历是不是只有四川才认可？
-四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-四川师范大学现可报名专业：
-专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
-本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
-考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
-考试时间：统考在每年的4月、10月，校考在每年的7月、12月
-学费最低低至3000+/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加12月校考！校考一次可考4-6科，可以早半年毕业！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！
-小自考学历是学校正规开设的学历，毕业获颁由学校和自考办联合颁发的正规学历，学信网终身可查，很多大自考机构宣传的小自考学历出省不认可这种情况是不真实的，只要是学信网可查的学历都是全国认可的！所以同学们可以放心报考！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>2019年四川小自考报名时间？报名后多久考试？</t>
-  </si>
-  <si>
-    <t>2019年四川小自考报名时间是多久？1.5年真的能毕业吗？
-四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在秋季招生，现在报名的学生可参加12月底的校考，校考可以参加4-6科的考试，想要报名的学员可以抓紧时间咨询相关信息~
-小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿毕业证书，是所有学历形式里面能最快毕业的学历，且自考含金量高，含金量仅次于统招全日制学历，毕业时间灵活，所有考试科目通过即可申请毕业！
-小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
-现在可报考院校：
-四川师范大学、成都理工大学、西南财经大学、西南石油大学等省内重点大学，学费低至2800元/年，学费按两年收取，现在报名可申请助学补贴，名额有限，想要报考的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）         扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>电大一年制中专较快多久可以毕业？学费多少？</t>
+</t>
+  </si>
+  <si>
+    <t>成人中专报哪个学校比较好 有哪些专业</t>
   </si>
   <si>
     <t>学校介绍：
-中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格证书教育和岗位培训提供教学服务。
-中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿毕业证书，对于很多想要考证的学员来说，一年制中专都是很好的选择！
+中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格證书教育和岗位培训提供教学服务。
+中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿畢業书，对于很多想要考證的学员来说，一年制中专都是很好的选择！
 现在可报考专业：
 建筑工程施工（报考二建必备的专业）
 会计（可报考初级会计师）
@@ -2104,393 +1986,145 @@
 电子商务
 市场营销
 老年服务与管理等专业，现在可报考专业齐全，想要报考的学员可加李老师咨询哦~
-学费：1480元（全包，学员不用参加考试，直接学制修够毕业就可以了）
+学费：1480元（全包，学员不用参加考试，直接学制修够畢業就可以了）
 报名地址：成都市成华区建设路成功银玺国际2810号
 咨询人：李老师  电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
   </si>
   <si>
-    <t>四川小自考需要到学校本部报名吗？学费大概多少？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川师范大学小自考有哪些专业？现在还可以报名考试吗？
-很多社会在职人从业人员以及还在专科学校就读的学员，想要报考四川师范大学小自考怎么办呢？学校其实是对外开放招生的哦，且报考专业齐全，只需统考3-6科，最快1年就可考完全部科目，1.5年毕业，自考毕业时间灵活，现在四川师范大学小自考正在秋季报名注册中，现在报考可参加12月的校考，想要报名的同学们可咨询李老师~
-四川师范大学（Sichuan Normal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-可报考专业：
-专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
-本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
-四川师范大学是省内重点文科本科院校，报考专业考试难度较低，对于很多在职人员是不错的学员，且大专业学校还会开设视频课程，帮助学员顺利通过考试，毕业可用于升职加薪，考公务员，考证，考事业单位哦，自考学历含金量高，相关专业考试科目可加李老师详细咨询~
-考试科目：
-统考：3-6科        校考：9-12科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
-学费：3400元/年（按两年收取）包含全套教材资料，视频课件，更有班主任全程一对一带班！平时学习以及每次报考都有班主任提前通知，避免学员报考后错过考试，延迟毕业！
-报名地址：成都市成华区建设路银玺国际28楼10号（川师自考教学点）
-详情咨询李老师~
-电话：199 8120 3720（微信同号）      QQ：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川大自考转小自考需要满足什么条件？考过的成绩有效吗？</t>
-  </si>
-  <si>
-    <t>大自考可以转小自考吗？小自考只有四川才有吗？
-2019年四川自考报考考生突破250000+，创历年新高，为什么这么多同学要报自考呢？自考这种学历形式到底难不难？多久能毕业呢？
-李老师为大家分析解答一下：
-高等教育自学考试（Self-taught higher education examinations），简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。是通过自学然后参加考试，考试通过即可申请毕业，对学员的自学能力以及自觉性有较高的要求！
-很多考生只清楚大自考，大自考学员可自行在网上注册，没有学费，但是考试难度大，需要统考十多科，一年只有两次考试机会，通过率非常低，对于很多已经工作的考生老说，想要全部参加统考并且考过试特别难的，很多考生考到一半会觉得太难，想要转成小自考，那么大自考可以转小自考吗？
-大自考是可以转小自考的，小自考也就是应用型自考，只需要统考3-6科，比大自考的统考科目少了8-10科，大大降低了考生的难度，其他的9-12科都是过程性校考，学员的学习以及考试难度主要集中在统考科目上，并且每年增加了两次校考机会，可以一年考四次，较快的话可以1年考完全部科目，1.5年毕业，小自考降低了考试难度，缩短了毕业时间，小自考报名跟大自考有区别，大自考是学员自己注册，小自考是需要交资料给老师，由学校教务老师电子端口统一注册，现在小自考正在秋季报名注册中，现在报考可参加12月底的校考，想要报考的学员可加李老师咨询~
-已经报考过大自考的学员是可以直接注册小自考的，只需要把资料交给相应的报名点，如果大自考有考过的科目，在小自考的统考范围内，是可以转免考的，只需要学员到之前报考大自考的自考办打印之前考过的成绩单即可！自考学历形势比较特殊，虽然学校收取学费都是按两年收取，但是他没有学制要求，只要你的考试科目全部通过就可以申请毕业，毕业时间灵活，且自考学历含金量高，所以每年报考的考生才会特别多！
-现在可报考学校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，现在报名还可申请助学补贴，名额有限，想要报考的学员可咨询李老师~
-报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考教育类专业有哪些院校可以报考？学费多少？</t>
-  </si>
-  <si>
-    <t>四川师范大学教育类小自考专本科招生中 报名参加12月校考
-四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-四川师范大学现可报名专业：
-专科可报名：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作管理、市场营销、会计
-本科可报名：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作管理、公共事业管理、市场营销、工程造价
-考试科目：3-6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
-考试时间：统考在每年的4月、10月，校考在每年的7月、12月
-学费最低低至3400/年，包含资料视频+教材+面授课程+重点复习资料，统考科目都会有学校本部老师录制的视频课程精讲，更有押题资料，帮助同学们顺利通过考试！现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名即可签订协议保障学员权益！现在报名可参加12月过程性校考！
-以上专业都是现在可报专业，自考的毕业证书含金量是成人学历里面最高的！单位认可度高，如果是想用毕业证来找工作的话建议考小自考，工作竞争优势偏大点！且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考！四川师范大学作为省内最好的师范类院校，每年报考该校的教育类专业的考生特别多，其中小学教育，学前教育，美术教育都是每年报考的热门专业，在四川的考生想要报考教育类专业首选四川师范大学！
-报名时间：正在报名注册中，现在报名可申请助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考1年毕业是真的吗？没有学制要求吗？</t>
-  </si>
-  <si>
-    <t>四川小自考较快多久毕业？现在报名参加几月份考试？
-小自考也就是应用型自考，是学校开设招生的学历形式，自考顾名思义就是通过自学，把所有考试科目通过，自考的学历形式比较特殊，他毕业时间比较灵活，什么时候考试科目通过什么时候就可以申请毕业，较快可以1年考完全部科目，1.5年毕业，那么自考到底难不难呢？要考多少科呢？
-小自考只需要统考3-6科，统考科目是需要看书学习的，其他的9-12科校考为学校组织的过程性考试，学院只需到场配合学校处理，学员把学习重心放在统考科目上即可，其他的只需根据班主任通知配合走流程，很多报考小自考的学员会有个迷思，觉得小自考是不是可以包过的，这里李老师回复大家，小自考不是包过的，统考科目都是需要学员看书硬考的，试问全国统考如果都可以包过的话，这种学历形式含金量会高吗？自考本身就是含金量仅次于统招全日制学历，所以其含金量高，必然会有一些考试科目需要统考！所以千万不要再问李老师自考是不是包过，但是报考的同学们也不用担心自考会太难，统考科目都是考的基础，学员但凡花了时间看书学习都是能通过的，现在报考可参加12月的校考，可报考专业齐全，更多专业详情可加李老师咨询~
-现在可报考院校：
-四川师范大学、成都理工大学、西南石油大学、西南财经大学等省内重点大学，学费低至2800元/年，学费按两年收取，学费包含教材资料，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>国家开放大学是不是电大？学历含金量高不高？</t>
+    <t>2020年国家开放大学多久报名 注册到多久截至</t>
   </si>
   <si>
     <t xml:space="preserve">学校简介：
 国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
-国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
-毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）     扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川小自考报哪个专业比较简单？通过率比较高？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>四川小自考不知道报考哪个专业？简单易过的专业有哪些？
-自</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.25"/>
-        <color rgb="FF3366CC"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">考是成人学历的其中一种形式，它的含金量也是非常高的，考验了学员的自学能力，很多学员就认为那自考应该是很难的，其实不然，自考既是成人学历的一种，考试难度也就自然不会太高，只需要参加6门统考（60分及格即可）其他9-12门全是校考，校考是由学校自己组织，只需要学员配合学校完成考试，考前会有资料，学员的重心可以都放在6门统考上，一年有四次考试机会，较快一年就可以考完全部科目！一年半就可以拿到毕业证书！
-2·选择自考的形式后，该选择哪些专业呢？
-自考热门专业可分为四大类：
-A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
-B，管理类：工商管理/行政管理/人力资源管理等
-C，金融类：会计学/金融学等
-D，建筑工程类：建筑工程/工程造价等
-这四类专业中通过率高使用范围广的专业有汉语言文学，法学，行政管理，人力资源管理和教育类专业，其中美术教育可以只参加三科统考，其他均是校考，通过率非常高！
-3，自考报名怎么报名？在哪儿报名？多久报名？
-报名时间：正在报名注册中，现在报名可参加12月底过程性校考！
-可报考院校：
-四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！
-报名地址：成都市成华区建设路银玺国际2810号
-现在报名科申请200元-600元助学补贴，名额有限，学费低，通过率高！想要报名的学员抓紧时间联系李老师咨询详情~
-电话：199 8120 3720（微信同号） 扣：1916 3720 47
-</t>
-    </r>
-  </si>
-  <si>
-    <t>川师是不是教育类专业最好？在哪里报名？</t>
-  </si>
-  <si>
-    <t>四川小自考教育类专业最好的是不是四川师范大学？怎么报考？
-四川师范大学简称"川师大，位于素有“天府之国”之称的四川省会成都市。是国家“中西部高校基础能力建设工程”重点建设高校，入选教育部“卓越教师培养计划四川省“双一流”建设计划”、四川省”2011计划、卓越工程师教育培养计划，新工科研究与实践项目”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的省属重点高水平大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
-四川师范大学是四川省内教育类专业最好的学校，想要报考的学员现在可以尽快交资料报名了哦，现在正在秋季报名注册中，现在报名可参加12月底的过程性校考！过程性校考考试简单，学员只需到场配合处理！
-考试科目：6门统考+9-11门校考，校考过程性考试，学员只需把重心放在6科统考上即可！
-考试时间：统考在每年的4月、10月            校考在每年的7月、12月
-学费3400元/年（按两年收取），包含资料视频+教材+视频课程+重点复习资料，现在报名还可申请200-600元助学补贴，名额有限，报名即跟学员签订保障学员权益的协议，学员可以放心报考，想要报名的学员速速联系李老师咨询~
-自考的毕业证书含金量是成人学历里面较高的！单位认可度高，对毕业证含金量有要求的可以选择报考小自考，且自考毕业时间灵活，考完就可申请毕业，最快一年考完，1.5年毕业，想要快速毕业的学员可以考虑选择报自考哦！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>成都理工大学小自考环境设计专业在哪里报名？学费多少？</t>
-  </si>
-  <si>
-    <t>四川小自考设计类专业是只有成都理工大学可以报考吗？学费？
-成都理工大学（Chengdu University of Technology）坐落于有“锦官城”之称的国家历史文化名城成都，由四川省人民政府和国土资源部、成都市人民政府共建，入选“双一流”世界一流学科建设高校，国家“中西部高校基础能力建设工程”、“卓越工程师教育培养计划”、“国家建设高水平大学公派研究生项目”，为中国地球科学高层次人才培养与科学研究基地之一，是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学。
-学校现在正在招收小自考环境设计，产品设计两个专业，设计类专业只需要统考4科，其他的科目都是过程性校考，设计类专业统考科目少，通过率高，想要报考的学员可加李老师详细咨询~
-专业介绍：
-艺术设计专业设有平面艺术设计、环境艺术设计两个专业方向，全面涵盖了视觉传达艺术设计的专业范围，强调各专业方向交叉互动，提倡灵活多样的运用方式。
-考试科目：
-统考：4科 校考：9-14科（校考过程性考试）
-自考毕业时间灵活，较快1年考完全部科目，1.5年拿毕业证书！毕业获颁由自考办和成都理工大学联合颁发的毕业证书！
-学历国家认可学信网终身可查！
-学费低至2700元/年（按两年收取）包含教材资料、视频课程，面授课程，现在报名可参加12月底的校考，且还可申请助学补贴，补贴名额有限，想要报考的学员抓紧时间联系李老师~
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考现在报名多久查学籍？自考学历多久上学信网？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考在哪里可以查询学籍？学信网可查吗？
-自考是什么？自学考试顾名思义就是学员通过自学然后参加考试，考试通过才能申请毕业，自考的是学费低、教考分离、毕业生质量高、宽进严出、课程的社会适应性强、单科结业、不限补考次数、学员可到考试通过为止，没有年限限制，全部成绩合格准予毕业（60分既合格）颁发毕业证，含金量仅次于全日制普通高等学校的一种提升学历的形式！是成人学历里面含金量较高的学历形式！
-所有自考学历都是只有在毕业后才可以在学信网查学籍，因为每个考生的毕业时间是不一样的，所以都是考试通过后申请毕业才能在学信网验证学籍，报考后都是在省考试院查询考籍，考籍包含学员报考学校跟专业，现在报考的同学们，十月中旬即可在省考书院官网查询报考信息了，然后参加12月底的校考！
-那么很多学员都会思考一个问题，学历提升有什么好处呢？我为什么要提升学历呢？
-1、提升自己学历。随着社会的发展，人们的受教育程度普遍提高，为了使自己不落伍，跟上时代的发展，自考是提升自己学 历 是一个不错的选择；自考毕业时间灵活，一年考四次，较快可1年考完全部科目，1.5年毕业！且自考含金量高！而且现在很多单位都至少要求专科或专科以上学历哦~
-2、为自己就业时提供进门的机会。现在许多大型企业，尤其是教师、公务员、司法方面的考试都需要本科 学 历，自考是受国家承认的，无论你是要考公务员或者应聘公司岗位，都是认可的，同学们可趁年轻多努力为自己创造更好的未来！
-3、如今各类职称评定几乎都与学 历挂钩，在评定高级职称时专科以下基本上没有机会，而许多的单位的主管领导几乎都是由高级职称的人担任的，没有高级职称会丧失许多当主管领导的机会，而没有本科，又会丧失评高级职称的机会，无论你是要考一级建造师，一级消防工程师或者是其他资格证书，都是对学历有要求的！
-自考报考对象：
-1．遵守中华人民共和国宪法和法律，身体健康，具有相应文化基础的中国公民均可报名，免试入学；
-2．专科招收应、往届高中毕业生(含职高、中专、技校生)及以上文化程度者；
-3．独立本科(专科升本科)招收具有国民教育系列专科及以上学历毕业证的考生(在校专、本科学生在办理本科毕业证书时必须出具专、本科毕业证书，无专、本科毕业证书不能办理本科毕业证书)。
-李老师总结一句话：只要年满17岁都可报考！不限前置学历，高中起点的学生可以套读本科哦，自考学历含金量高，想要报考的同学们可加李老师详细咨询~
-自考免试入学，宽进严出，全部科目考过即可申请毕业！毕业即获颁由学校和自考办联合颁发的国家认可学信网可查的正规学历！
-现在可报考院校：
-四川师范大学、成都理工大学、西南石油大学、西华师范大学、西南财经大学等省内重点大学！
-考试地点：
-（统考）学生可根据自己的居住地选择成都市各区县报名考试，统考3-6科，需要学员看书学习！
-（校考）由我处组织，都是在成都市区各大中小学考场，校考9-12科，学员只需到场配合处理！
-报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川成人中专报考限制户籍吗？外省可以报考吗？</t>
-  </si>
-  <si>
-    <t>学校介绍：
-中央电中其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中毕业生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育毕业证书的资格。中央电中始终坚持面向地方、面向农村、面向基层、面向边远和民族地区办学，坚持“以服务为宗旨、以就业为导向”的职业教育办学理念，紧密结合社会经济建设发展对应用性人才的需求，为广大青年和劳动者提供学习机会。同时，也为成人初、中等文化教育，实用技术培训，资格证书教育和岗位培训提供教学服务。
-中央电大现开设一年制成人中专学历，学历学校可查学籍，学员可以放心报考，7-10个月就可以拿毕业证书，对于很多想要考证的学员来说，一年制中专都是很好的选择！
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
 现在可报考专业：
-建筑工程施工（报考二建必备的专业）
-会计（可报考初级会计师）
-机电技术应用（可报考二建，初级工程师）
-电气技术应用（可报初级工程师）
-建筑设备安装（报考二建）
-电子商务
-市场营销
-老年服务与管理等专业，现在可报考专业齐全，想要报考的学员可加李老师咨询哦~
-学费：1480元（全包，学员不用参加考试，直接学制修够毕业就可以了）
-报名地址：成都市成华区建设路成功银玺国际2810号
-咨询人：李老师  电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>电大是不是最简单的学历？是哪个学校呢？四川报名入口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学校简介：
-国家开放大学（英文：The Open University of China）创立于2012年6月21日，中华人民共和国教育部直属，国家重点大学。国家开放大学以现代信息技术为支撑，学历教育与非学历教育并举，实施远程开放教育的新型高等学校。学校在中央广播电视大学基础上组建，面向全体社会成员，强调优质教育资源的集聚、整合和共享，强调以现代信息技术为支撑，探索现代信息技术与教育的深度融合。学校有权授予学士学位，由学校向北京市学位委员会申请并获批后，报国务院学位委员会备案。原中央广播电视大学名称暂时保留，过渡时期采取“老人老办法、新人新办法”，中央广播电视大学的在校学生仍按原有关规定管理，国家开放大学挂牌以后新进入学习的学生，按照新政策执行。
-国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年毕业，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可毕业！
-现在可报考专业：
-专科：药学、金融（证券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
+专科：药学、金融（證券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
 本科：
 金融学、法学、社会工作、小学教育、学前教育（学前教师教育方向）、学前教育（学前教育管理方向）、广告学、英语（教育方向）、汉语言文学、汉语言文学（师范方向）、计算机科学与技术、机械设计制造及其自动化（机电一体化系统方向）、土木工程（建筑工程方向）、土木工程（建筑管理方向）、土木工程（道路桥梁方向）、水利水电工程、工商管理、会计学、物流管理、市场营销、行政管理、护理学、公共事业管理(卫生事业管理)、公共事业管理（教育管理）、
 公共事业管理（教育管理）（学校管理方向）、公共事业管理（社会教育及其应用心理方向）
 广告学、水利水电工程
-毕业学历都是学信网可查的正规学历，国家认可，毕业后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
 报名地址：成都市成华区建设路银玺国际2810号
 详情咨询李老师~
 电话：199 8120 3720（微信同号）     扣：1916 3720 47
 </t>
   </si>
   <si>
-    <t>四川小自考工商管理专业考哪些科目？要考数学吗？</t>
-  </si>
-  <si>
-    <t xml:space="preserve">四川小自考工商管理专业报考哪个学校比较好？大概学费？
+    <t>四川小自考工商管理专业考试科目难度高吗 需要考数学吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 四川小自考工商管理专业报考哪个学校比较好？大概学费？
 想要报考小自考工商管理专业的学员，李老师给大家说一下报考工商管理专业的情况：
 首先我们先先介绍下工商管理专业：
 工商企业管理，是对企业的生产经营活动进行计划、组织、领导、人员配备、指挥、协调和控制等一系列职能的总称。工商企业管理专业是自学考试学科调整后产生的新专业。这一专业的设置是为了培养在社会主义市场经济条件下从事工商业及其他各类企业管理方面工作的专门人才。经过专业学习，成绩合格者应系统地掌握现代管理理论、有广泛的知识。熟悉各类管理的基本技能和科学方法，能够胜任企业管理工作。 工商管理是研究工商企业经济管理基本理论和一般方法的学科，主要包括企业的经营战略制定和内部行为管理两个方面。工商管理专业是每年自考报名的热门专业，也是比较简单好考的专业，通过率较高！
-那么工商管理专业毕业后可以找什么工作呢？就业前景如何？
-该专业毕业后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。
+那么工商管理专业畢業后可以找什么工作呢？就业前景如何？
+该专业畢業后可以在各大、中型企业、外资企业及跨国企业从事生产管理、营销管理和一般业务管理工作，也可从事人力资源管理、财务管理、营销策划、商品调研、市场预测和经济数量分析等工作。
 主要从事以下岗位：
 1. 一般传统管理类岗位
 2. 市场营销类岗位
 3. 人力资源管理类岗位
 4. 物流管理类岗位
-工商管理专业毕业后就业范围广，想要报考的学员可以加李老师咨询~
+工商管理专业畢業后就业范围广，想要报考的学员可以加李老师咨询~
 那么小自考工商管理专业一共要考几科呢？
 统考6科（需要同学们根据老师的课程以及整理好的押题资料进行学习，是全国统考）
 校考9-12科（过程性考试）
-学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿毕业证书，同学们普遍的毕业时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，毕业后学信网终身可查！是由学校跟自考办联合颁发的正规毕业证书！
-可报考院校：
-四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
+学员只需把学习重心放在统考6科上就行了，一年考四次，较快1年可考完全部科目，1年9个月拿畢業书，同学们普遍的畢業时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，畢業后学信网终身可查！是由学校跟自考办联合颁发的正规畢業书！
+可报考院校：四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
 学费低至2700元/年（按两年收取），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询！
-报名时间：正在报名注册中，现在报名可参加12月校考，可早半年毕业！
+报名时间：正在报名注册中，现在报名可参加4月统考，可早半年畢業！
 报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>川师大汉语言文学专业比较好吗？通过率高吗？</t>
-  </si>
-  <si>
-    <t>川师小自考汉语言文学专业就业前景如何？简单易过通过率高？
-四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+详情咨询李老师    
+</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>川师大小自考汉语言文学专业学费多少 通过率 报名方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 川师小自考汉语言文学专业就业前景如何？简单易过通过率高？四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
 汉语言文学专业有哪些考试科目？
 首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上。
 汉语言文学专业统考科目分别是：00537 中国现代文学史、00529 中国古代文学史（一）、00539 中国古代文学史（二）、00540 外国文学史、00541 语言学概论、00547 马列文论选读
-汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年毕业！
-该汉语言文学专业就业前景：
-汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格证成为教师。
+汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！学员较快可1年考完全部科目，1.5年畢業！
+该汉语言文学专业就业前景：汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。本专业是培养具有文艺理论素养和系统的汉语言文学知识，在新闻文艺出版部门、高校、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学高级专门人才。汉语言文学专业除了在新闻文艺出版部门、高校、科研机构和机关企事业单位外，还可以考取教师资格證成为教师。
 现四川师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
-学费低至3400元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，毕业获颁由学校和自考办联合颁发的毕业证书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
+学费低至3600元/年（按两年收取），现在报名可申请助学金200元-600元，名额有限，畢業获颁由学校和自考办联合颁发的畢業书，国家认可学信网终身可查，想要报名的学员速速咨询李老师~
 报名地址：成都市成华区建设路银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考学历毕业可以考各种资格证书吗？学费贵吗？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考学历可以考资格证书吗？在哪里报考呢？
-小自考学历是国家认可的学信网可查的正规学历，且自考已经是成人学历中含金量zui高的学历形式了，只要是国家认可学信网可查的正规学历要参加国家组织的资格证书考试都是完全没问题的，所以想要报考的学生完全不用担心，自考学历不论是考证书还是考公务员或者是教师公招都是没问题的！
+详情咨询李老师    </t>
+  </si>
+  <si>
+    <t>四川大自考与小自考有什么区别 大自考可以转小自考吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 四川小自考学历可以考资格證书吗？在哪里报考呢？
+小自考学历是国家认可的学信网可查的正规学历，且自考已经是成人学历中含金量zui高的学历形式了，只要是国家认可学信网可查的正规学历要参加国家组织的资格證书考试都是完全没问题的，所以想要报考的学生完全不用担心，自考学历不论是考證书还是考公务员或者是教师公招都是没问题的！
 自考的优势以及特点：
-1.自考是成人学历中含金量较高的，所以难度也是相对</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
+1.自考是成人学历中含金量较高的，所以难度也是相对‌‌较高的，同学们，只是相对于其它成人学历来说难度稍微大点哦~
 2.其次自考分为小自考与大自考，那么我们首先来区别一下大小自考：
-大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请毕业。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员毕业时间。
-3.小自考较快1年就可以考完全部科目，1.5年领取毕业证书！普遍学员的毕业时间是两年左右哦~并且自考毕业证书不区分大小自考，毕业证书都是完全一样的！含金量也是完全一样的！
-现在可报考院校：
-四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
+大自考需要学员自己学习并且全部科目16-18科参加全国统考，一年两次考试机会，考试通过才能申请畢業。小自考则是只需统考3-6科（统考科目有老师上课还有学校整理好的往年真题，帮助同学们通过考试），其他9-14科均为校考（校考由学校自己组织，过程性考试）一年四次考试机会，小自考比大自考降低了考试难度，增加了考试次数，大大缩短了学员畢業时间。
+3.小自考较快1年就可以考完全部科目，1.5年领取畢業书！普遍学员的畢業时间是两年左右哦~并且自考畢業书不区分大小自考，畢業书都是完全一样的！含金量也是完全一样的！
+现在可报考院校：四川师范大学，成都理工大学，西华师范大学，西南石油大学，西南财经大学等省内名牌大学等，现在可报考专业齐全，更多专业及学校可加号咨询~
 四川小自考现在正在注册报名中，现在报考可参加12月底的校考，学费低至2700元/年（学费按两年收取）学费包含教材资料视频课程以及面授课程，现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）    扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川大自考与小自考的区别？毕业证是一样的吗？</t>
-  </si>
-  <si>
-    <t>四川大小自考的区别？选择适合自己学历提升的方式？
+详情咨询李老师   </t>
+  </si>
+  <si>
+    <t>小自考报名大概需要多少钱 除了学费还需要交什么费用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 现在社会针对所有职场人员来说，高学历已经是一种趋势了，也成为了绝大多数行业的敲门砖，那么，对于学历低的人员来说，想要提升学历怎么办？去学校读书已经不再现实了，在职人员能选择提升学历的形式就是成人继续教育！
-自考（高等教育自学考试）：
-自考是对自学者进行的以学历考试为主的高等教育国家考试，是个人自学、社会助学和国家考试相结合的高等教育形式。简单的来说就是：自考是一种自己学习，然后参加自考统一考试的一种模式，有社会性及应用型之分，也就是大家常说的大自考，小自考。
+自考（高等教育自学考试）：自考是对自学者进行的以学历考试为主的高等教育国家考试，是个人自学、社会助学和国家考试相结合的高等教育形式。简单的来说就是：自考是一种自己学习，然后参加自考统一考试的一种模式，有社会性及应用型之分，也就是大家常说的大自考，小自考。
 那么大自考和小自考的区别是什么？考生报考时该如何选择？
 相同点：
-1、考试费都是35元一科，准考证、考试方式、考试地点都一样，毕业证书都在学信网查询。
-2、毕业证书一样，证书上面没有写“大自考”和“小自考”的字样。
-3、证书认可度、含金量都一样都可以出国、留学、考公务员、凭职称、考各种资格等级证。
+1、考试费都是35元一科，准考證、考试方式、考试地点都一样，畢業书都在学信网查询。
+2、畢業书一样，證书上面没有写“大自考”和“小自考”的字样。
+3、證书认可度、含金量都一样都可以出国、留学、考公务员、凭职称、考各种资格等级證。
 不同点：
 1、大自考在当地自考办报名，没有学费，学员自行到网站上注册即可，小自考在助学机构报名，学校统一端口注册！
-2、大自考考试科目14-18科全是统考，毕业周期长、小自考只需统考3-6科，其他为过程性校考，学制2年，一般1.5-2年均可毕业。
+2、大自考考试科目14-18科全是统考，畢業周期长、小自考只需统考3-6科，其他为过程性校考，学制2年，一般1.5-2年均可畢業。
 3、大自考考试全靠自己看书学习、无学校辅导、难度大、通过率低、小自考机构全程指导、发教材、资料、考点重点等，大专业有学校开设的视频课程，通过率高，帮助同学们顺利通过考试！
 了解完大小自考的区别，那么考生在报考时如何进行选择？
-很多同学都比较关心，就是大小自考学历的含金量到底有没有区别，其实大小自考的含金量是一样的，因为毕业证并不会区分自考的形式到底是应用型还是社会型，所以考生可以放心报考！
+很多同学都比较关心，就是大小自考学历的含金量到底有没有区别，其实大小自考的含金量是一样的，因为畢業并不会区分自考的形式到底是应用型还是社会型，所以考生可以放心报考！
 大自考和小自考的区别只是学习形式不一样，所以加以区分，结果都是一样的。我们建议较好是选择小自考（应用型），缩短时间、降低难度、提高通过率。
-报名时间：小自考一年四次注册时间，报名时间不一样，参考时间不一样，早报名，早考试，早毕业。目前正在秋季报名注册，现在报名可以参加12月底校考，详情可加号咨询，现在报名有优惠哦~
+报名时间：小自考一年四次注册时间，报名时间不一样，参考时间不一样，早报名，早考试，早畢業。目前正在秋季报名注册，现在报名可以参加12月底校考，详情可加号咨询，现在报名有优惠哦~
 考试科目：统考3-6科【发教材、资料、提供辅导】     校考9-12科【过程性考试，学员的学习重心放在统考科目上即可】
 报名地址：成都市成华区建设路成功银玺国际2810号
-详情咨询李老师~
-电话：199 8120 3720（微信同号）              扣：1916 3720 47</t>
-  </si>
-  <si>
-    <t>四川小自考在哪里报名学费比较便宜？靠谱机构哪里找？</t>
-  </si>
-  <si>
-    <t>四川小自考在哪里报名？专升本大概花费多少钱？
+详情咨询李老师     电话：199 8120 3720（微信同号）              扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>小自考报名流程 报考注意事项 成都小自考报名时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 想要报考四川小自考的同学，在选择学校跟专业的时候会有很多不太清楚的地方，下面李老师给大家解答下关于报考小自考的一些疑惑？
 首先报考前我们要明确什么是小自考，小自考是什么样的学历形式？
-高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可毕业！
-其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，毕业时间灵活，全部科目考试通过即可申请毕业，较快可1年时间考完全部科目，1年9个月毕业！对于很多觉得大自考比较难，毕业时间长的考生来说，小自考就是个很好的选择，而且自考毕业证书是不会区分大小自考的，所以证书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
+高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可畢業！
+其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，畢業时间灵活，全部科目考试通过即可申请畢業，较快可1年时间考完全部科目，1年9个月畢業！对于很多觉得大自考比较难，畢業时间长的考生来说，小自考就是个很好的选择，而且自考畢業书是不会区分大小自考的，所以證书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
 四川省内现在可报考的学较多，可报考专业也比较齐全，现在报考的同学们可以参加12月底的校考，同学们好集中精力备考明年4月的统考，费用在五六千左右，学校跟专业不同，收费也略微有些不同，很多考生也会问，除了学费外，还有些什么费用呢？
-报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科毕业证工本费150元，本科毕业证工本费+毕业答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生毕业为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
+报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科畢業工本费150元，本科畢業工本费+畢業答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生畢業为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
 本处可报考四川师范大学/成都理工大学/西南财经大学/西南石油大学等省内重点大学，专业及详情可加李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号 详情咨询李老师~ 电话：199 8120 3720（微信同号）　　　扣：１９１６　３７２０　４７</t>
   </si>
   <si>
-    <t>四川成人学历报名入口 报考形式多样 总有一款适合你</t>
+    <t>四川成人学历含金量高吗 学信网可查吗</t>
   </si>
   <si>
     <t>四川成人学历报名条件是什么？有没有什么要求？
 四川这边的成人分为四种：
 自考、成教、网教、电大，这四种类型的学历都是国家认可学信网终身可查的正规学历，学员们可以放心报考，那么这几种学历形式有什么区别呢？
-首先我们讲下自考：自考是成人高等自学考试，比较考验学员的学习能力，也是四种形式中难度较高的，但是相对来说含金量也是较高的，需要参加１６－１８门的考试，其中有３－６门是需要学员认真看书学习通过考试的，毕业时间较为灵活，较快１年考完全部科目，１年９个月毕业，学员的普遍毕业时间为２年左右！
+首先我们讲下自考：自考是成人高等自学考试，比较考验学员的学习能力，也是四种形式中难度较高的，但是相对来说含金量也是较高的，需要参加１６－１８门的考试，其中有３－６门是需要学员认真看书学习通过考试的，畢業时间较为灵活，较快１年考完全部科目，１年９个月畢業，学员的普遍畢業时间为２年左右！
 接下来就是含金量第二高的成教，成教是成人高等教育，需要参加入学考试，入学考试即成人高考，成人高考录取分数线低，还有相应的加分政策，李老师往年报考的学生只要不缺考考试都是通过的哦，成教学制２．５年，学制中还有四次过程性期末考试，成教只要入学考试通过，后面的期末考试都很简单。
-第三是网教，网教就是网络远程教育，是通过网上挂课时跟学习，学制２．５年修满即可毕业，跟成教一样，学制内有四次期末考试，网教对于很多工作比较繁忙但是想提升学历的学员来说是一个很好的选择！
+第三是网教，网教就是网络远程教育，是通过网上挂课时跟学习，学制２．５年修满即可畢業，跟成教一样，学制内有四次期末考试，网教对于很多工作比较繁忙但是想提升学历的学员来说是一个很好的选择！
 现在自考跟网教专本科都在秋季报名注册中，可报考专业齐全，相关学习以及专业详情可加李老师咨询～
 现在可报考院校：四川师范大学、成都理工大学、西南石油大学、西南财经大学、国家开放大学等，现在报名可申请２００－６００元助学补贴，名额有限，同学们抓紧时间报名哦～
-成人学历是面向成人开设的学历提升的方式，主要目的是国家为了提高全名教育水平，所以报名条件至少１７岁，只要你年龄够，就可以报考，拿正规名牌大学毕业证书！
-报名地址：成都市成华区建设路成功银玺国际２８１０号　　　　　　　　　　　　　　　　详情咨询李老师～　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　　电话：１９９　８１２０　３７２０（微信同号）　　　扣：１９１６　３７２０　４７</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>成都理工大学小自考每年多久报名？学费按几年交？</t>
+成人学历是面向成人开设的学历提升的方式，主要目的是国家为了提高全名教育水平，所以报名条件至少１７岁，只要你年龄够，就可以报考，拿正规名牌大学畢業书！
+报名地址：成都市成华区建设路成功银玺国际２８１０号　　　　　　　　　　　　　　　　                                                                                                 详情咨询李老师    电话：199 8120 3720（vx同号）    扣：1916 3720 47　　　　　　　　　　　　　　　　　　　　　　　　　　　　</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考报考专业有哪些 报名地址 报名方式</t>
   </si>
   <si>
     <t>成都理工大学小自考报名时间是多久？报名地址？
@@ -2507,39 +2141,11 @@
 详情咨询李老师   电话：199 8120 3720（微信同号）       扣：1916 3720 47</t>
   </si>
   <si>
-    <t>财经类专业最好的学校是西南财经大学吗？在哪里报名？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介：
-西南财经大学（SWUFE）位于天府之</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+    <t>西南财经大学小自考考试难度大吗 每年通过率有多高</t>
+  </si>
+  <si>
+    <t>学校简介：
+西南财经大学（SWUFE）位于天府之‌‌‌‌国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
 西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
 报名时间：10月统考的报名时间在9月6号截止！
 可报考专业：
@@ -2549,49 +2155,20 @@
 统考：6科        校考：9-12科（由学校组织，过程性考试）
 学费：7400元（全部学费），学费包含教材资料跟视课程
 统考每年的4、10月 校考每年的7、12月
-自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业证书(学信网可查）。自考含金量高，社会认可度高。
-报名资料：身份证扫描件和一张两寸蓝底照片（电子版）
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情可咨询李老师~
 电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川小自考会计专业要考多少科？一年考几次？多久毕业？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川小自考会计专业统考几科？一年考几次？多久毕业？
+  </si>
+  <si>
+    <t>小自考会计专业哪些科目比较难 四川报考院校有哪些</t>
+  </si>
+  <si>
+    <t>四川小自考会计专业统考几科？一年考几次？多久畢業？
 想要自考会计专业的学员，
 只需统考6科。
-专科</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>考试科目：
+专科‌‌考试科目：
 计算机应用基础、基础会计学、财政与金融、财务管理学、中级财务会计、管理会计（一）
 本科考试科目：
 市场营销学、国际贸易理论与实务、金融理论与实务、高级财务会计、审计学、财务报表分析（一）
@@ -2599,7 +2176,7 @@
 现四川师范大学自考会计专业专本科正在报名中，
 一年有四次考试机会，
 较快1年考完全部科目，
-1.5年毕业！
+1.5年畢業！
 学员只需把重心放在6科统考科目上，
 且学校统考科目有专业的老师录制视频资料，
 以及考前会有集中面授。
@@ -2609,128 +2186,46 @@
 现在报名可申请200元-600元助学补贴，
 名额有限，想要报名的学员抓紧时间联系李老师咨询~
 可报考学校：四川师范大学/成都理工大学/西南财经大学等省内重点大学，
-现在报名可参加12月底的过程性校考，早点考完毕业！
+现在报名可参加12月底的过程性校考，早点考完畢業！
 报名地址：成都市成华区建设路 成功银玺国际2810号
 详情咨询李老师~
 电话：199 8120 3720 （微信同号）      扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川师范大学自考在招生吗？报名地址？报名条件？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>学校简介：
-四川师范大学（Sichuan Nor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
+  </si>
+  <si>
+    <t>四川师范大学自考学费贵吗 怎么报名 对外招生吗</t>
+  </si>
+  <si>
+    <t>学校简介：
+四川师范大学（Sichuan Nor‌‌mal University），简称"川师大"（SICNU），位于素有“天府之国”之称的四川省会成都，是国家“中西部高校基础能力建设工程”重点建设高校，四川省“双**”建设计划高水平大学，入选教育部“卓越教师培养计划 ”、“四川省卓越法律人才教育培养计划”、四川省”2011计划、卓越工程师教育培养计划”，为国家免费师范生培养院校，全国深化创新创业教育改革示范高校，是四川省举办本科师范教育较早、师范类院校中办学历史较为悠久的重点大学，教育部人文社会科学重点研究基地，拥有研究生院和推荐免试研究生资格。
 四川师范大学自考专科，本科正在报名中！现可报考专业齐全，本次注册为今年较后一次注册时间，想要报名的学员抓紧时间联系李老师咨询详情~
 可报考专业：
 专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
 本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
 考试科目：
 统考：3-6科         校考：9-14科（由学校组织，过程性考试）
-自考是所有考试科目全部考过即可申请毕业（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿毕业证书！
-毕业证书是由四川师范大学和自考办联合颁发的国家认可的毕业证书，学信网终身可查！
+自考是所有考试科目全部考过即可申请畢業（100分满分，60分及格即可），一年四次考试机会，较快1.5年考完全部科目，1年9个月可拿畢業书！
+畢業书是由四川师范大学和自考办联合颁发的国家认可的畢業书，学信网终身可查！
 学费：3400元/年（按两年收取）学费包含教材资料跟成都课程，现在报名可申请200-600元的助学补贴，名额有限，详情速速咨询李老师~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情咨询李老师~
 电话： 199 8120 3720（微信同号）             扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川的小自考毕业证跟大自考毕业证一样吗？认可度不一样？</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>四川的小自考毕业证跟大自考毕业证一样吗？认可度不一样？
-很多学员都会疑惑，小自考减少了统考科目，降低了考试</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>难度，会不会小自考的毕业证书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
-自考简称自学考试，顾名思义就是主要通过自己学习并参</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>‌‌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>加考试，是成人学历中含金量较高的学历。
+  </si>
+  <si>
+    <t xml:space="preserve">四川的小自考畢業跟大自考畢業一样吗？认可度不一样？
+很多学员都会疑惑，小自考减少了统考科目，降低了考试‌‌难度，会不会小自考的畢業书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
+自考简称自学考试，顾名思义就是主要通过自己学习并参‌‌加考试，是成人学历中含金量较高的学历。
 1、自考因其含金量高，所以难度也是比较大，大自考与小自考较大区别就是考试难度以及通过率，大自考是国家统一安排考试（16-18科），需学员自学且全部考过，考试难度高。小自考一般只统考6科，个别科目如美术教育专业只需统考3科，考前有老师上课，还有资料，其他9-14科都是由学校组织，考试灵活度高，降低了难度，提高了通过率！
-2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的毕业时间，让学员能快速拿到毕业证！较快1年考完全部科目，1.5年拿到毕业证书！
-大自考与小自考的毕业证书是完全一样的！含金量也是一样的！
+2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的畢業时间，让学员能快速拿到畢業！较快1年考完全部科目，1.5年拿到畢業书！
+大自考与小自考的畢業书是完全一样的！含金量也是一样的！
 3、大自考费用低，小自考需要向学校交学费，这也是他能降低难度的原因。学信网是不会区分大小自考的，考生们可以放心报考！
 四川现在自考正在报名院校：四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学等。
 学费低至2800元/年（按两年收取），学费包含教材资料现视频课程，现在报名还可申请助学补助400-600元，名额有限，想要报名的学员抓紧时间联系李老师咨询相关详情~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情可联系李老师~
-电话：199 8120 3720（微信同号）                           扣：1916 3720 47</t>
-    </r>
-  </si>
-  <si>
-    <t>四川想提升学历 有哪些学历形式可以报考？怎么选择？</t>
+</t>
+  </si>
+  <si>
+    <t>四川提升学历好处多多 可考證升职加薪找好工作</t>
   </si>
   <si>
     <t xml:space="preserve">多学员都存在一些选择困难的问题，比如不清楚自己到底应该报自考、成教还是网教！
@@ -2739,34 +2234,1332 @@
 1、拿文凭找工作：这类情况，我推荐学员自考，因为你拿到的文凭是用来找工作的，必然是应该选择含金量高的文凭，那么自考的文凭是成人学历教育中含金量较高的！
 2、已经在职，准备拿文凭升职、涨工资：这类情况我推荐学员报成教或者网教，因为你需要的仅仅只是文凭，不必在意是什么类型！所以选择拿文凭更加简便的方法！
 3、服兵役的兵哥哥：这类学员是没时间自学的，所以我推荐学员报成教！含金量高也不耽误平时时间！
-4、需要学历报考各种资格证：这类学员我推荐读成教！
+4、需要学历报考各种资格證：这类学员我推荐读成教！
 5、不知道干啥的学员：报自考，提升自己的学习能力，让自己忙起来！！！
-有提升学历想法的同学注意了哦，现四川师范大学正在招收自考、成教、网教专科、本科学员！专业齐全，毕业由学校颁发学信网可查国家认可的正规毕业证书！
+有提升学历想法的同学注意了哦，现四川师范大学正在招收自考、成教、网教专科、本科学员！专业齐全，畢業由学校颁发学信网可查国家认可的正规畢業书！
 报名地址：成都市成华区建设路成功银玺国际2810号
 想要报名的学员要抓紧时间联系李老师报名哦~
-电话：199 8120 3720（微信手机同号） QQ：1916 3720 47
-</t>
-  </si>
-  <si>
-    <t>四川国家开放大学成人学历专本科报名注册中 轻松毕业</t>
+</t>
+  </si>
+  <si>
+    <t>四川学历提升有哪些形式 有简单一点的吗</t>
   </si>
   <si>
     <t xml:space="preserve">四川的小伙伴，平时工作忙想提升学历怎么办？
 找李老师报名，
-祝你轻松拿到大学毕业证书！
+祝你轻松拿到大学学位證书！
 免试入学，
 不耽误平时时间，
-2.5年即可拿毕业证书！
+2.5年即可拿證书！
 国家开放大学网教专本科正在报名中！
 现在可报考专业：
-专科：证券与期货、金融管理、投资与理财、保险、汽车运用与维修技术、汽车营销与服务、法律事务、小学教育、市场营销（行业营销方向、营销与策划方向、市场开发与营销方向）、计算机网络技术（网络管理方向）、计算机信息管理、工程造价、护理、会计、行政管理、电子商务、建筑工程技术、建设工程管理、药学、水利水电工程与管理、物流管理、旅游管理、酒店管理、汉语言文学、学前教育、城市轨道交通运营管理、人力资源管理、机电一体化技术、工商企业管理
+专科：證券与期货、金融管理、投资与理财、保险、汽车运用与维修技术、汽车营销与服务、法律事务、小学教育、市场营销（行业营销方向、营销与策划方向、市场开发与营销方向）、计算机网络技术（网络管理方向）、计算机信息管理、工程造价、护理、会计、行政管理、电子商务、建筑工程技术、建设工程管理、药学、水利水电工程与管理、物流管理、旅游管理、酒店管理、汉语言文学、学前教育、城市轨道交通运营管理、人力资源管理、机电一体化技术、工商企业管理
 本科：法学、小学教育、汉语言文学、计算机科学与技术、土木工程、工商管理、会计学、行政管理、护理学、药学、机械设计制造及自动化、市场营销、金融学、学前教育（学前教师教育方向、幼儿园管理方向、0-3岁婴幼儿教育方向
 学费：3400元/年（按两年收取）
 现在报名可申请200元-600元助学补助，名额有限，想要报名的学员抓紧时间联系李老师咨询~
 报名地址：成都市成华区建设路成功银玺国际2810号
 详情咨询李老师~
-电话：199 8120 3720（微信手机同号） QQ：1916 3720 47
-</t>
+</t>
+  </si>
+  <si>
+    <t>四川师范大学报名要交什么资料 报名条件是什么</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川师范大学小自考报名需要准备哪些资料？学费多少？ 
+四川师范大学（SICHUAN N‌‌ORMAL UNIVERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家中西部高校基础能力建设工程重点建设大学，入选“卓越教师培养计划”、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+其中教育类专业等文科专业都比较好考，也是四川师范大学的优势热门专业！
+四川师范大学现招收自考专本科学员，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试科目：统考：6科 校考：9-14科（由学校组织，过程性考试）
+学费：3600元/年（按两年收取）包含教材资料，网上课件，面授，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+畢業由自考办和四川师范大学联合颁发的国家认可的学位證书！
+现在报名还可申请200元-600元助学补贴，名额有限，详情联系李老师咨询~
+</t>
+  </si>
+  <si>
+    <t>四川报自考大概要多久畢業 小自考是不是畢業要快些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川自考大概需要考几年才能畢業?四川在哪里报考? 自考多久能畢業？
+多久畢業这个问题对于每个人的概‌‌念都是不一样的
+因为考试是学员本人在考，结果还是要看自己
+如果你从来不看书不复习不做题，想全部裸考畢業
+李老师告诉你：几乎是不可能的！
+除非你原本的基础就很好，且拥有非常深厚的专业知识
+李老师提醒：
+只要你认真看看书，多做做我们的发给你的真题
+哪怕是考前一个月临时抱佛脚，你都会看到收获哦！
+下面我就按照常规的普遍的情况为大家总结下大多数学生的畢業时间：
+如果你按照老师指导的学习方式学习后，2年左右可以畢業
+更努力或者基础好点的学生一年半就可以考完所有的科目申请畢業
+学习时间较少的学生，一般在2年至3年畢業
+现自考正在招生院校：
+四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等。
+学费低至2700元/年,招生名额有限,想要报名的学员抓紧时间联系李老师咨询~
+详情咨询李老师   </t>
+  </si>
+  <si>
+    <t>中央电大一年制中专学籍要多久查 报名时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川电大中专学历怎么查学籍？畢業真的可以考證吗？
+电大中专：
+入学后学籍查询网址：
+http://crtvsvs.ouchn.edu.cn/stu_query.jsp
+畢業书查询网址：
+http://crtvsvs.ouchn.edu.cn/graduate_query.jsp
+在线验證报告查询网址：
+http://zzx.ouchn.edu.cn/edu/index.php/index/login/index.html
+成都广播电视大学现特设一年制中专，8-10个月就可拿畢業，没有入学考试，没有平时作业！完全不耽误学员时间！
+中专通知：
+每个月都可以报，但是早报早畢業，后期会严格规范前置学历（高中）和畢業学制年限（至少一年），所以抓紧现有机会联系李老师！
+我们为什么低都要求中专呢？因为国家在进步学历要求在提高！公司需要学历、工作岗位需要学历、考證需要学历、生活需要学历.....
+可以考二建
+可以考九大员
+可以考执业药师、执业助理医师
+可以考幼师资格證、幼儿园园长證
+可以考各种资格證：银行从业资格證、基金从业證、證券从业资格證、期货从业资格證考试
+可以用于提干、加薪、评职称、作为报专科的前置学历 . . .
+我处中专为：“中央广播电视中等专业学校”---国家教育部直属中专，全国认可，可查，畢業带二维码辨别真伪！ 
+全国认可，轻松简单，适用范围广！学制一年（快半年拿證），畢業即颁发中央广播电视学校畢業书，全国承认学历（电子注册，网上可查）
+可读专业：
+建筑工程施工、消防工程、药剂、中药、会计、计算机应用、酒店服务与管理、农村经济综合管理、西餐烹饪、中餐烹饪、学前教育、园林技术、建筑设备安装、电气技术应用、机电技术应用、电子商务、市场营销
+报名时间：常年招生，每月滚动注册
+学费：1680元（全包，学员只管拿證）
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情可咨询李老师  
+</t>
+  </si>
+  <si>
+    <t>四川小自考学前教育专业畢業可以考幼师吗 学校认可吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考学前教育专业有哪些学校可以报考？考试科目 成都小自考学前教育哪些学校可以报考？
+答：四‌‌川师范大学、成都大学、西华师范大学
+我们为我处为 四川师范大学、成都大学、西华师范大学 正规教学站每年报考上千人 专业齐全 服务体系完善 全省报考全省考试 考试咨询 复习资料 畢業办理全省跟踪服务
+考试科目：中国近现代史纲要、马克思主义基本原理概论、学前卫生学、幼儿园课程、学前教育原理、学前教育心理学、学前教育研究方法、儿童发展理论、儿童发展理论、幼儿园组织与管理 、学前比较教育、学前教育史、低幼儿童文学名著导读、低学前儿童心理健康与辅导、学前儿童发展评估、家长工作与家园沟通、幼儿园班级管理、幼儿教师教研指导、畢業考核
+考试时间：统考每年4月、10月 校考每年7月、12月 
+统考6门 校考9-12门（过程性软过）
+学费情况：
+学费低至2900元/年（学费按两年收取），学费包含教材资料，视频课件，现在报名还可申请助学金200-600元，名额有限，想要报名的学员速速联系李老师咨询~
+1、两年学费（如两年内未考完，可继续考，不在收取额外学费）
+2、含教材“自 考”培 训资料
+3、含在线题库
+4、含考前重考点答题技巧面授
+5、多年自考经验的老师上课课件
+报名资料：
+身份證扫描件电子版，两寸标准蓝底照片电子版
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>西南石油大学小自考法学专业报名注册中 仅需统考6科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南石油大学小自考法学专业通过率高吗？畢業就业广  
+西南石油大学，简称“西油”，坐落于历史文化名城成都，是一所由四川省人民政府与中石油、中石化、中海油、成都市人民政府共建高校，入选首批国家世界学科建设高校、“中西部高校基础能力建设工程”、“海外高层次人才引进计划”、“国家建设高水平大学公派研究生项目”、 中国政府奖学金来华留学生接收院校、“111计划”，已发展成一所油气工业学科群（油气、能源及海洋机电装备、地科、化工、能源材料、石油计算技术、工程管理 ）为主，多学科协调发展的大学。
+法律专业就业范围广，考试相对简单，过关率较高！想要自考提升学历的赶紧报名，报名时间紧迫，现在正火热报名中！
+二、招生对象和报考条件：只要你年满18岁都可报考！
+统考科目：劳动法、知识产权法、税法、国际私法、公證律师制度、法律文书写作
+校考科目：中国近现代史纲要、马克思主义基本原理概论、公司法、环境与资源保护法学、合同法、国际经济法概论、外国法制史、中国法律思想史、婚姻家庭法、行政法与行政诉讼法、罪犯劳动改造学、专利法
+学习形式：6门统考+9-11门校考
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至2000+/年，包含资料视频+教材+面授课程+重点复习资料
+现在报名即可申请最高800助学金，名额有限，想要报名的学员速速联系李老师咨询~凡是在我处报名的学员签订协议保障学员权益，学员可放心报名！
+报名时间：正在报名注册中
+报名地址：成都市成华区建设路成功银玺国际
+咨询方式：李老师
+</t>
+  </si>
+  <si>
+    <t>四川小自考什么专业比较好考 管理类专业畢業好就业吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川自考管理类专业难不难？怎么报名？学费多少？
+自考中管理类专业是相对比较好考的专业，其中工商‌‌管理专业是每年报考的热门专业，该专业只需统考6科，其他9-12科都是校考，校考过程性考试，考前一周发资料，学员的重心只需放在统考科目上，统考科目有老师专门录制好的视频课件，以及考前的面授突击，以帮助学员能最快的时间通过考试，从而领取畢業书，自考一年4次考试机会，两次校考，两次统考，学员最快可1年考完全部科目，1.5年畢業！
+自考也是学员能最快拿到畢業书的一种学习方式。
+现在可报考院校：
+四川师范大学、成都理工大学、西华师范大学、西南石油大学等。
+自考是所有科目考完即可申请畢業，畢業获颁由学校和自考办联合颁发的畢業书，畢業书学信网终身可查，社会认可度高！
+学费低至2000+/年，按两年收取，学费包含教材资料/视频课件/面授课程，还有班主任全程带班，帮助学员顺利通过考试！
+名额有限，想要报名的学员速速联系李老师咨询~
+</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考在哪里报名 要到学校本部报名吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都理工大学是以地质、能源、资源科学、核技术、环境科学为优势，以化工、材料等学科专业为特色的重点大学！
+成都理工现可报专业：
+专科可报专业：会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理
+本科可报专业：现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价
+学习形式：6门统考+9-11门校考
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费最低低至2000+/年，包含资料视频+教材+面授课程+重点复习资料
+现在报名即可签订协议保障学员权益！
+报名时间：正在火热报名中
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询方式：李老师     </t>
+  </si>
+  <si>
+    <t>四川什么学历可以快点畢業 较快多久拿畢業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川成人学历中什么形式可以较快拿到畢業书？
+找李老‌‌师报名，李老师帮你轻松拿到想要的学历。首先成人学历中自考是能较快拿到畢業书的，自考只需要全部科目考试通过就可以申请畢業，一年有4次考试机会，较快1年考完全部科目，1.5年就可领取畢業书！且自畢業书含金量高，企业认可度高！
+考试科目：
+统考：3-6科 校考：9-12科（由学校组织，过程性考试）
+学费低至2700元/年（按两年收取）费用包含教材资料，收费课件，考前资料！
+报名时间：正在报名注册中（现在报名可申请200-600元助学补贴，名额有限，欲报从速）
+考试时间：统考每年的4、10月 校考每年的7、12月
+现在可报名学校：
+四川师范大学、西南石油大学、西华师范大学、成都理工大学、西南财经大学等名牌大学。
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的名校畢業书(学信网终身可查）。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师    </t>
+  </si>
+  <si>
+    <t>四川成人想提升学历层次怎么办 四川成人学历报名入口</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川成人学历提升报名怎么报？在哪儿报名？学费多少？‌‌
+成人学历分为自考，成教，网教，电大四大类型，
+现在李老师就跟大家主要讲解一下正在报名的自考，网教以及电大。
+自考是成人学历里面含金量较高的，所以难度也是相对高一些的，自考需要统考6科，个别科目如美式教育专业只需统考3科，其他考试科目均为校考，校考是由学校自己组织，只需学员配合学校处理（即参加考试）考前也不会有资料，
+报自考的学员重心只需放在统考科目上（100分满分，60分及格就通过）统考科目学校也会有相应的押题资料，收费在线课件给到学员，也会在考试前安排统一面授，提高学员考试通过率，自考只要全部考试科目考过即可申请畢業，较快1.5年考完全部科目，一年九个月领取畢業书！
+学费低至2700元/年，学费包含教材资料+视频课程+教即资料
+网络远程教育，每年3月跟9月报名，现在省内还可以注册国家开放大学，免试入学，轻松畢業，对于工作繁忙的学员来说是个很好的选择！学制2.5年，读满即可畢業！
+学费：3400元（按两年收取）
+电大（成都电大）现特设一年制中专，7-10个月即可领取畢業书，畢業可当兵，考取二建，幼师，执业药师等资格證书！还可作为报考大专的前置学历，面试入学，没有平时作业以及期末考试，
+轻松畢業！
+学费：14680元（全包）
+现在可报名学校:四川师范大学，西华师范大学，西南石油大学，西南财经大学，国家开放大学，成都理工大学，成都广播电视大学等。
+一经畢業获得由学校颁发的国家认可学信网终身可查的正规畢業书！现报名名额有限，想要报名的学员抓紧时间联系李老师咨询~
+报名地址：成都市成华区建设北路成功银玺国际2810号
+详情咨询李老师    </t>
+  </si>
+  <si>
+    <t>四川小自考信息管理与信息系统专业通过率高吗 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+专升本小自考信息管理与信息系统专业考哪几科？哪里报名？
+小自考信息管理与信息系统专业，专业代码Y071602，属于计算机相关专业，多余很多it行业从业人员需要专升本，可以选择报考该专业，该专业只需统考6科，其他9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可，校考只需学员配合处理！
+统考科目：信息资源建设、信息政策与法规、信息系统设计与分析、windos及应用、计算机信息检索、信息咨询，学员需要花时间学习的就是以上6科，以上6科会提供押题资料给学员，帮助考生顺利通过考试！自考一年考四次，较快一年考完全部科目，一年九个月畢業！
+可报考院校：成都理工大学、西南石油大学，学费低至2700元/年（学费按两年收取），学费包含教材+资料+考前押题，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：现在正在报名注册中，现在报名可参加4月统考，同学们可为统考做考试准备！
+报名地址：成都市成华区建设北路三段银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考学历出省有用吗 国家都认可自考学历吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小自考是只有四川才有吗？除了四川其他省认可吗？
+很多学员都会疑惑，小自考减少了统考科目，降低了考试‌‌难度，会不会小自考的畢業书含金量就要比大自考差些呢？今天我这边给大家总结一下大自考与小自考的区别。
+自考简称自学考试，顾名思义就是主要通过自己学习并参‌‌加考试，是成人学历中含金量较高的学历。
+1、自考因其含金量高，所以难度也是比较大，大自考与小自考较大区别就是考试难度以及通过率，大自考是国家统一安排考试（16-18科），需学员自学且全部考过，考试难度高。小自考一般只统考6科，个别科目如美术教育专业只需统考3科，考前有老师上课，还有资料，其他9-14科都是由学校组织，考试灵活度高，降低了难度，提高了通过率！
+2、考试时间小自考比大自考多了两次校考时间（6月、12月），可以减短学员的畢業时间，让学员能快速拿到畢業！较快1年考完全部科目，1.5年拿到畢業书！
+大自考与小自考的畢業书是完全一样的！含金量也是一样的！畢業学信网终身可查！全国认可！
+3、大自考费用低，小自考需要向学校交学费，这也是他能降低难度的原因。学信网是不会区分大小自考的，考生们可以放心报考！
+四川现在自考正在报名院校：四川师范大学、西南石油大学、西华师范大学、西南财经大学、成都理工大学等。
+学费低至2800元/年（按两年收取），学费包含教材资料现视频课程，现在报名还可申请助学补助400-600元，名额有限，想要报名的学员抓紧时间联系李老师咨询相关详情~
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情可联系李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考会计专业报什么学校比较好 报名需要交哪些资料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小自考会计学专业统考几科 考试科目 报名资料
+小自考为应用型自考，会计专业只需统考6科，其余科目均为过程性校考，学员需要看书学习的就是统考科目，校考学员只需配合到场参加，那么，小自考会计专业要统考哪几科呢？
+统考科目：市场营销学、国际贸易理论与实务、金融理论与实务、高级财务会计、审计学、财务报表分析（一）
+校考科目：中国近现代史纲要、管理系统中计算机应用、资产评估、会计制度设计、概率论与数理统计（经管类）、线性代数、税务会计、会计电算化基础、社会经济统计学原理、国家税收、社会保障概论
+报考的同学可以从考试科目看出，小自考把专业性较强，难度较高的科目都放到了校考科目中，增加各位考生通过率，统考科目中大部分为理论基础知识，所以相对来说降低了很多难度！
+现在可报考院校：四川师范大学、西南财经大学、西华师范大学、西南石油大学、成都理工大学等神内重点大学都可报考，现在报名可参加4月统考，各位同学可提前做考试准备！
+报名资料：只需年满17岁都可报考，需提供身份證正反面扫描件、二寸浅蓝底證件照
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+自考学历含金量高，较快可1年考完全部科目，1年9个月畢業，畢業颁发由学校和自考办联合颁发的学信网可查国家认可的正规畢業书！
+详情咨询李老师 
+</t>
+  </si>
+  <si>
+    <t>四川小自考报名后怎么学习 需要在校上课吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+首先报考前我们要明确什么是小自考，小自考是什么样的学历形式？
+高等教育自学考试，简称自学考试、自考，它有大自考(社会型考生)和小自考(应用型考生)两种类别。顾名思义就是考生通过自己学习看书然后通过考试，修满学分即可畢業！
+其中的应用型自考就是小自考，小自考比大自考统考科目少，考试机会多，所以通过率要高于大自考，是高校开设招生的学历形式，一共需要统考3-6科，校考9-12科，畢業时间灵活，全部科目考试通过即可申请畢業，较快可1年时间考完全部科目，1年9个月畢業！对于很多觉得大自考比较难，畢業时间长的考生来说，小自考就是个很好的选择，而且自考畢業书是不会区分大小自考的，所以證书含金量也是完全一样的，自考学历含金量高，社会认可度也高！
+四川省内现在可报考的学较多，可报考专业也比较齐全，现在报考的同学们可以参加12月底的校考，同学们好集中精力备考明年4月的统考，费用在五六千左右，学校跟专业不同，收费也略微有些不同，很多考生也会问，除了学费外，还有些什么费用呢？
+报考小自考只涉及三个费用：学费 考试费35元/科学员每次报考的时候自行交到省考试院官网 专科畢業工本费150元，本科畢業工本费+畢業答辩费480元，除此以外没有任何费用，小自考的考籍原则上是到考生畢業为止，所以不会在中途加收其他的学费，学员报考时也可跟招生老师确认清楚费用问题，最好是签订相关协议，写清楚所涉及的费用，不要被无良的机构坑！
+本处可报考四川师范大学/成都理工大学/西南财经大学/西南石油大学等省内重点大学，专业及详情可加李老师咨询~
+报名地址：成都市成华区建设路北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>国家开放大学网教春季报名注册中 考试简单 2.5年畢業</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川国家开放大学限制户籍吗？多久畢業？学费多少？
+国家开放大学就是原先的电大，现在统一更名为国家开放大学，现在开放对外招收专本科学员，报考专业齐全，免试入学，学制2.5年畢業，学制内一共有四次期末考试，但是期末考试都是过程性考试，如果害怕考试，也可以选择报考助学班，可以全部托管，学员注册后不用考试，学制修够即可畢業！
+专科：药学、金融（證券投资方向）、金融（金融与财务方向）、法学、小学教育、学前教育、英语（教育方向）、英语（商务方向）、汉语言文学、文秘、汽车运用与维修技术、汽车营销与服务、计算机网络技术（网络管理方向）、信息系统开发与维护、建筑施工与管理、工程造价管理、工商管理（工商企业管理方向）工商管理（市场营销方向)、会计学（财务会计方向）、物流管理、教育管理、行政管理、物业管理、社会工作、社会工作（老年社会工作方向）、机械制造与自动化（机电方向）、旅游（旅游管理方向）、旅游（酒店管理方向）、室内设计、城市轨道交通运营管理、药品经营与管理、人力资源管理、老年服务与管理、护理学、广告（营销传播方向）、广告（设计与制作方向）、电子商务、道路桥梁工程施工与管理、园艺（园林方向）、园艺（果蔬方向）、水利水电工程与管理
+本科：
+金融学、法学、社会工作、小学教育、学前教育（学前教师教育方向）、学前教育（学前教育管理方向）、广告学、英语（教育方向）、汉语言文学、汉语言文学（师范方向）、计算机科学与技术、机械设计制造及其自动化（机电一体化系统方向）、土木工程（建筑工程方向）、土木工程（建筑管理方向）、土木工程（道路桥梁方向）、水利水电工程、工商管理、会计学、物流管理、市场营销、行政管理、护理学、公共事业管理(卫生事业管理)、公共事业管理（教育管理）、
+公共事业管理（教育管理）（学校管理方向）、公共事业管理（社会教育及其应用心理方向）
+广告学、水利水电工程
+畢業学历都是学信网可查的正规学历，国家认可，畢業后找工作单位都是认可的，想要报名的学员速速联系李老师咨询~
+报名时间：2020年春季招生正在电子注册中，专科限制比率，想要报名的同学抓紧时间联系李老师报名哦~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 
+</t>
+  </si>
+  <si>
+    <t>四川小自考报名网站 报考流程 报考院校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考报名网站 成都小自考报名流程 四川自考本科有哪些专业
+官网可查 学费低 拿證快 自主组织考试 通过率高
+学费低至：2700/年 统考3-6科，其他均为过程性考试，考试简单，专业齐全 覆盖专业达百分之八十 考前辅导 在线题库保證过关率
+考试时间：每年 4 10月统考 每次最多报4科 7 12月校考
+最快一年半畢業 学信网可查 可报考公务员 事业单位
+关于小自考的介绍
+1、问：什么叫小自考专业？
+答：小自考专业是自学考试开考体制改革试点专业的俗称。
+2、问：参加小自考学习，畢業后待遇如何？
+答：小自考畢業生与大自考畢業生具有同等待遇。
+学员修完本专业规
+定的全部课程，考试全部合格者，可领取由省自考办验印及主考院校署印的大学专科或大学本科畢業书，并经由教育部统一电子注册。国发1988）
+15号文、国家教育部（2000）30号文中都明文规定：自学考试畢業书获得者在工资待遇、公务员考试录用、企事业单位聘用、户籍管理和专业技术职务评审等方面享有与普通高等院校同类畢業生（大专或本科）同等的待遇。
+3、问：在哪里报考小自考？
+答：小自考只能在各主考院校或经省自考办和主考院校认可的助学点 办理报名报考手续，各县（市、区）教育局自考办无办理小自考报名
+报考相关事务。
+本机构授权代办小自考相关专业的报名报考及助学工 作。具体报考手续可查阅本中心相关专业的招生简章。
+现在可报考院校：四川师范大学、成都理工大学、西华师范大学、西南财经大学、成都大学等省内重点大学，现在报名可参加4月统考，考生们可提前为考试做靠前准备！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>西南财经大学小自考现在报名还可以参加4月份统考吗 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学有小自考吗？需要去学校考试吗？
+四川自考报名已经开始！学生可利用业余时间在网上学习，学校开设了视频课程，学员报名后教务老师会注册学习账号，学员登录学习平台学习即可！可在家看视频资料做真题练习，轻松提升学历！??
+西南财经大学位于天府之国成都市，直属于中华人民共和国教育部，是国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学自考专业设置：会计学、工商管理、财务管理、市场营销、行政管理、人力资源管理
+考试时间：
+统考，每年的4月、10月，网上报名一般提前一个半月左右，在我校报考的学生我们会统一考点，学生尽量报考我校统一考点；
+校考（省考），每年的6/12月，校考由高校组织，周末举行。
+备注：内部资料，轻松考试，学费低，压力小。更多自考院校（西南石油大学 四川师范大学，西华师范大学、西南交通大学等）专业咨询请联系李老师
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>西华师范大学小自考报名时间 学费多少 考试难吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+想报西华师范大学小自考要花多少钱？学费必须一次交？
+西华师范大学（China West N??ormal University），简称“西华师大”，是四川省人民政府举办的全日制重点师范大学，学校座落在历史文化名城南充，是四川省第一所师范类高等学府和全国批学士、硕士学位授权单位。
+西华师范大学现招收自考专、本科学员。初中畢業的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
+应用型（小自考）考试形式：统考6科（闭卷）+校考9-12科左右（过程性考试）
+自考一共涉及三个费用
+一：学费（包括教材+辅导资料+教学课程）
+（2800元/年，按两年收取）
+二：考试费35/科 一般考18科
+三：本科生涉及论文答辩费 480元（结束再交） 专科生只交畢業工本费150左右 无答辩
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都
+可以结合教学课程和辅导资料在家自主复习
+考试时间：统考每年的4、10月 校考每年的7、12月
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名时间：正在报名注册中，名额有限吗，想要报名的学生速速联系李老师咨询
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>成都理工大学小自考报名要交学费吗 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+成都理工大学也开始对外招生自考本科专业的学生了，成都理工大学，在理工类的专业中，在川内也是比较有名的学校，如果想要报考一个成都理工大学的自考的同学就不要错过了，目前成都理工大学有多个专业对外招生，近期成都理工大学，学费下调，需要的同学要及时咨询报名了。
+以上为该本科专业学历提升的统考科目，其他均为校考，校考为过程性考试，详情咨询李老师~
+自考收费情况：
+学费低至2700元/年（按两年收取）学费包含视频教材资料/视频课程，现在报名可参加4月统考，同学们可提前为考试做准备了！
+今年畢業时间：1年考完，1年半畢業！！
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都
+报名时间：正在火热报名中，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考有哪些学校可以报 报什么学校比较好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小自考报名地点：成都市成华区建设北路三段成功银玺国际2810号
+可报考的学校有：
+四川师范大学、西南石油大学、成都理工大学、西华师范大学、成都大学、西南财经大学、四川大学、西南科技大学、电子科技大学、西南交通大学
+小自考可报考的专业有：
+会计 、工商企业管理 、市场营销、旅游管理、环境艺术设计、机电一体化工程、工程造价、建设工程管理、现代企业管理、会计学、市场营销、旅游管理、建筑经济管理、物流管理、英语、环境艺术设计、产品设计、机械制造及自动化、工程造价、汉语言文学、小学教育、学前教育、法律事务 汉语言文学、汉语言文学教育、法学、行政管理、英语教育、工商管理、工程造价、计算机信息管理、会计学、旅游管理、人力资源管理、林业及园林高新技术与管理、教育管理、学前教育、小学教育、音乐教育、美术教育、网络工程、新闻学、播音与主持、建筑经济管理等专业。现在可报考专业齐全。
+考试形式：6门统考+11门校考，校考为过程性考试，学员只需把重心放在统考科目上即可！
+学习形式：网络教学视频+复习资料
+自考收费情况：
+1，学费低至2800/年（按两年收取，现在报名可申请助学补贴200元-600元，名额有限，想要报名的学员速速联系李老师咨询~
+2，考试费35元/科
+3，专科畢業工本费150元，本科畢業论文答辩费+畢業工本费480元。
+除此以外绝无其他收费，详情咨询李老师~
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都 
+咨询方式：李老师 </t>
+  </si>
+  <si>
+    <t>2020年小自考注册时间延后了吗 到多久截止</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2020年小自考报名时间是多久？真的能一年多拿證？
+四川小自考一年有两次注册时间，分为春秋两次注册时间，现在正在春季招生，现在报名的学生可参加46月校考，考生们可提前为考试做准备！
+以抓紧时间咨询相关信息小自考一年可以参加四次考试，分别为4月跟10月的统考，6月跟12月的校考，较快是可以一年考完全部科目的，1.5年学信网查学籍，1年八九个月拿畢業书，是所有学历形式里面能最快畢業的学历，且自考含金量高，含金量仅次于统招全日制学历，畢業时间灵活，所有考试科目通过即可申请畢業！
+小自考一般统考3-6科，校考9-12科，统考科目是需要学员看书学习然后参加考试的，校考科目为过程性考试，由我们自己组织监考，学员只需把学习重心放在统考科目上即可！现在小自考开放对外招收高起专，专升本学员，报考专业齐全，同学们可以根据自身情况选择适合的学校及专业，很多对专业没有要求的学员可以选择报考简单易过的专业，列如汉语言文学，法学，行政管理，工商管理，小学教育，学前教育专业都是自考里面比较好考且通过率较高的！
+现在可报考院校：四川师范大学、成都理工大学、西南财经大学、西南石油大学等省内重点大学，学费低至2800元/年，学费按两年收取，现在报名可申请助学补贴，名额有限，想要报考的学员速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>西南财经大学小自考报名后多久交学费 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学小自考校外人员可以报考吗？要交多少学费？
+西南财经大学（SWUFE）位于天府之??国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可参加4月统考，考生们可提前为考试做准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：
+统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费）包含教材资料跟视频课程，以及班主任全程代班
+考试时间：
+统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>中央电大一年制中专什么时候报名 报考专业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+报名即签订保障学员权益的协议书，学员可放心报考！
+1、颁发院校：中央广播电视中等专业学校
+2、年龄要求：18岁，不限户籍
+3、注册时间：每月22号截止注册，滚动招生
+4、学制：一年（7-10个月出證）
+5、有学籍，网上可查，可出学历认證报告
+6、不用考试、不用网上学习
+中央广播电视中等专业学校是一所经原国家教委批准、现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+招生专业：
+建筑工程施工，消防工程师（前置学历必须真实），药剂，中药，会计，计算机应用，酒店服务与管理，农村经济综合管理，西，烹饪（西点方向），中餐烹饪，学前教育，园林技术，建筑设备安装，电气技术应用，机电技术应用，电子商务，市场营销等专业！
+学费低至1480元，vip班没有入学考试，没有平时作业，轻松拿到畢業书！
+地址：成都市成华区建设北路三段成功银玺国际2810号，
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川2020年各高校自考学费标准 怎么报名 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考每年多久报名？有几次？2020年要涨学费？
+很多想要报自考的学员，不知道准确的注册时间，自考一年有四次注册机会，现在正在报名注册中，需要报名的学员可联系李老师咨询~
+自考主要是通过学员自己学习，并且参加考试，考试通过就可申请畢業，很多在职的学员因为自考难度太高，而不敢报名，首先，要明确，自考面向成人的考试，考试难度是不会特别大的，并且自考分为大自考跟小自考，大自考是学员自己在网上注册，16-18科全部参加统考，全部自学，没有任何学费，小自考是在学校注册学籍，只需要统考6科，其他9-12科都是校考，校考过程性考试，考前发资料，所以如果怕大自考有难度的学员可以考虑报小自考！
+很多学员会担心，小自考学历会不会不如大自考的含金量高，其实不然，大自考跟小自考学历含金量都是一样高的，畢業不区分大小自考!学员可以放心报考，并且学校还有专门的班主任负责带班，也会有老师录制好的教学视频给大家学习，大专业也会开设面授课程，从而帮助学员尽快通过考试，早点拿到畢業书！
+现在可报考院校：四川师范大学/成都理工大学/西华师范大学/西南石油大学/西南财经大学等川内名牌大学！
+学费低至2700元/年（按两年收取）学费包含全套教材资料，视频课件，面授课程，想在报名还可申请助学补贴200-600元，名额有限，想要报名的学员速速联系李老师咨询~
+自考是只要全部科目考试通过就可申请畢業，学习能力较好的学员最快1年就可考完全部科目，1.5年畢業，畢業获颁由学校和自考办联合颁发的国家认可学信网终身可查的正规畢業书！报名即签订协议，保障学员权益！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川自考什么专业通过率高 考几科 考几次毕业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考什么专业简单易过？比较好考？学费？四川想要报考小自考汉语言文学专业的学员看过来，李老师为你们解答你的疑惑。
+首先汉语言文学专业有哪些考试科目？
+首先，小自考的考试科目是分为校考+统考，校考9-12科，校考为过程性考试，考前发资料，学员到场配合学校处理即可，统考6科，学员的重心就是放在统考6科上，汉语言文学专业统考科目分别是：
+00537 中国现代文学史
+00529 中国古代文学史（一）
+00539 中国古代文学史（二）
+00540 外国文学史
+00541 语言学概论
+00547 马列文论选读
+汉语言文学专业的考试科目都是文科类科目，考试难度不大，是自考里面通过率较高的专业！
+现四川师范大学/西华师范大学正在招收自考汉语言文学专业专科/本科学员，名校招生！
+学费低至2900年（按两年收取），现在报名可申请助学金200元-600元，名额有限，想要报名的学员速咨询李老师~
+考试时间：4月/10月统考 6月/12月校考
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询方式：李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考行政管理学费多少 报考学校有影响吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考行政管理就业如何？现在有哪些学校可以报？
+行政管理(administration manag??ement)是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展,行政管理的对象日益广泛,包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法,以减少人力、物力、财力和时间的支出和浪费,提高行政管理的效能和效率。
+专业统考科目:社会学概论丶当代中国政治制度丶西方政治制度丶公共政策丶领导科学丶公务员制度
+专业校考科目:中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理(选考课程不低于10学分。不考英语(二)的再另选三门课程,总学分不低于24学分)】畢業考核(或论文综合实践实验实习等)
+行政管理就业方向:
+1. 在县级以上政府的民政职能部门和事业单位就业;
+2. 从事乡镇民政办公室管理工作;
+3. 从事城镇街道民政所管理工作;
+4. 从事县(或市)以上民政部门以及民间组织中介机构管理工作;
+5. 从事婚姻服务中介机构、收养登记服务中介机构管理工作;
+6. 从事婚姻管理、收养登记管理、行政区划管理工作;
+7. 从事地名管理、社团管理工作等。
+8. 可从事事业单位的行政协理员,办公室主任、行政主管、协调层或决策层高级助理,中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职畢業生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作,学校、科研部门的教学或科研工作,大、中型企业和企业集团
+考试科目：统考6科(闭卷)+校考9-12科左右(过程性考试）
+学费低至2800元/年(按两年收取)学费包含教材资料、在线教学、面授,现在报名还可申请200元-600元助学补贴,名额有限,想要报名的学员速速联系李老师咨询~
+考试时间:
+统考每年的4、10月 校考每年的7、12月
+畢業申请时间每年的6月和12月
+报名资料:身份證扫描件和一张两寸蓝底照片(电子版)
+报名时间:正在报名注册中(名额有限,赶快抓紧时间报名哦)
+报名地址:成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 </t>
+  </si>
+  <si>
+    <t>2020年西财小自考市场营销专业还可以报名吗 统考哪些科目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考市场营销专业畢業从事什么工作？报名怎么报？
+市场营销专业畢業生可以从事市场调研、营销策划、广告策划、市场开发、营销管理、推销服务和教学科研等工作，也可在国内外高校及研究机构中继续深造。还可以在工商、外贸、金融、保险、證券、旅游、房地产等企事业单位从事企业营销管理、客户资源管理、网络营销管理、营销诊断、市场调查和咨询等工作。但是刚踏入社会选择私企的销售工作会比较好找些，一般国企外企虽然待遇和福利会好些，但是招人都只会招有经验的销售人员，对销售人员的聘用要求会很高，也会比较严格些，竞争也更激烈。
+市场营销专业考哪些科目呢？统考几科？考试难度大吗？
+统考：国际市场营销学、国际贸易理论与实务、金融理论与实务、消费经济学、商品流通概论、国际商务谈判
+校考：中国近现代史纲要、管理系统中计算机应用、企业会计学、市场营销策划、概率论与数理统计（经管类）、管理学原理、货币银行学、企业经营战略
+统考6科+校考9科，校考为过程性考试，由我们统一组织监考，学员只需把学习重心放在统考科目上即可！一年四次考试机会，两次校考，两次统考，较快一年考完全部科目，2年左右右！
+可报考院校：成都理工大学、西南财经大学都可以报考，现在报名可参加4月统考，考生们可提前为考试做准备！
+学费低至2700元/年（按两年收取）学费包含全新的教材资料+单独的视频学习平台账号+考前真题，帮助学员顺利通过考试，更多专业及详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号（报名即签订保障学员权益的协议书，学员可放心报考）
+咨询人：李老师
+</t>
+  </si>
+  <si>
+    <t>四川小自考有教育管理专业吗 可以报哪些学校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考专升本教育管理专业考什么？报哪个学校？
+该专业需要统考6科，校考9科，一年四次考试机会，较快一年即可考完全部科目，2年左右畢業！现在报名可参加4月的统考，可报考2-4科，现在报名的考生可领取教材注册学习账号准备考试！
+统考科目：计算机应用基础、教育学（二）、教育心理学、教育管理原理、教育经济学、教育科学研究方法（二）
+校考科目：中国近现代史纲要、马克思主义基本原理概论、教育评估和督导、教育统计与测量、教育法学、教育管理心理学、中外教育管理史、学前教育管理、中小学教育管理、教育行政学、学校管理学、教育预测与规划
+以上为该专业考试科目，需要看书学习的就是统考6科，其他科目均为过程性考试，学员只需把学习重心放在统考科目上即可！
+教育管理专业可以报考西华师范大学，西华师范大学（China West Normal University），简称“西华师大”，是四川省人民政府举办的全日制省属重点师范大学，学校座落在历史文化名城——南充，是四川省第一所师范类高等学府和全国首批学士、硕士学位。
+学费：2900元/年（学费按两年收取） 现在报名还可申请助学补贴，名额有限，想要报名的同学速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报名结束了吗 报名需要哪些资料</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川师范大学小自考报名截止了吗？每年多久报名？
+四川师范大学（SICHUAN NORMAL UNIVERSITY），简称川师，位于素有“天府之国”之称的国家历史文化名城成都市，国家中西部高校基础能力建设工程重点建设大学，入选“卓越教师培养计划”、四川省“2011计划”、“四川省卓越法律人才培养计划”、四川省“卓越工程师教育培养计划”，是四川省举办师范类本科专业、师范类院校中办学历史较为悠久的省属重点大学。
+专科：法律事务、应用化学、电子商务、计算机及应用、学前教育、工商企业管理、行政管理、环境艺术设计、会计、市场营销、汉语言文学、社会工作
+本科：物业管理、法学、工程造价、环境设计、应用化学、电子商务、学前教育、小学教育、教育管理、工商企业管理、行政管理、金融学、物流管理、公共事业管理、美术教育、音乐教育、会计学、市场营销、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术学、社会工作、体育教育
+其中教育类专业等文科专业都比较好考，也是四川师范大学的优势热门专业！更多专业及详情可加李老师详细咨询~
+考试科目：统考：6科 校考：9-12科（由学校组织，过程性考试）
+学费：3600元/年（按两年收取）包含教材资料，网上课件，现在报名还可申请200-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+畢業由自考办和四川师范大学联合颁发的国家认可的畢業书，学信网可查！
+详情咨询李老师 
+</t>
+  </si>
+  <si>
+    <t>2020年小自考统考在几月份 什么时候报名 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2020年四川小自考4月统考什么时候开始报名？大概学费？
+2020年春季四川小自考注册时间大概在2月底左右，但是大家要提前准备和复习，因为4月份就要开始考试，如果从2月份开始复习时间就比较紧张。所以建议大家现在开始领教材资料，注册学习账号开始准备考试！
+1、 四川小自考有哪些学校可以选择？
+四川师范大学、成都理工大学、西南石油大学、西华师范大学、成都大学、西南财经大学、西南医科大学等省内重点大学！现在报名专业齐全，详情咨询李老师~
+2、 考试时间：
+2020年4月11日 9:00-11:30，14:30-17:00
+2020年4月12日 9:00-11:30，14:30-17:00
+3、考试科目也已经公示，需要了解的可以联系李老师了解。
+4、学费：每个学校学费标准都不一样，一般5-7千左右，学费包含教材资料，单独的视频学习账号，帮助学员顺利通过考试！
+特别提醒：现在报名预交800就可以领取教材和复习资料，并开通学习APP（APP包含了历年真题、押题资料、视频课），800是可以抵扣学费的。具体可以联系我详细了解。
+报名地址：成都市成华区建设路成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考报名时间 哪些专业比较好考 通过率高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考注册时间是多久？小自考通过率高的专业？四川小自考注册时间是多久？小自考通过率高的专业作为一名自考生，你对自考的报名、复习、申请畢業等，这些你都知道吗？今天李老师带大家熟悉一下：
+一、怎么报名、报考？
+现在多数省市都是网上报名，报名网站一般都是本地的自考办网站，自考新生还需要现场报名，想轻松一些的可以选择自考助学机构报名，可以省去报名和报考步骤更省心。
+二、考试时间
+四川省有小自考，每年可以考试4次，分别在4月、6月、10月、12月；现在正在秋季报名注册中，现在报名的考生可参加4月统考，同学们可报名领取教材为4月统考做考试准备
+三、自考畢業需要几年？
+自考畢業需要几年这个问题因人因地而异。如果你选择好考的专业，学习能力又强，一年半全部考完申请畢業也是可行的，一般时间在2年左右，注意！这是指小自考！
+四、自考什么专业比较容易考过？
+一般来说理工科的专业困难一些，要考到数学之类的，文科类的专业相对容易，如行政管理、人力资源、学前教育等，可以根据自己的个人爱好和情况来。
+五、自考报哪个学校比较好？
+在四川省报小自考，选学校其实并没有太多不同，一般学校的名气越大学费就越贵。四川师范大学、成都理工大学、西华师范大学、西南财经大学、成都大学等省内重点大学，现在报考专业齐全，详情可咨询李老师~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>四川自考工程造价专业太难怎么办 有办法简单一些吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+小自考工程造价专业报成都理工大学好吗？考试难度大吗？
+成都理工大学创办于1956年，由国务院批准建立，原名成都地质勘探学院，以重庆大学地质系、西北大学和南京大学地质系的工科部分为基础，同时抽调北京地质学院、东北地质学院部分干部教师组建。
+工程造价专业是理科工程类优势专业，成都理工大学是理科类院校里面较好的，在四川都是排位比较高的学校，想要报考工程造价专业的学生可以选择报考成都理工大学！
+工程造价专业考哪些科目呢？
+统考：建筑工程定额预算、建筑工程工程量清单计价实务、建设工程合同（含fidic）条款、工程项目管理、工程造价确定与控制、房屋建筑工程概要
+以上6科为统考科目，需要同学们看书学习，考前刷题来通过考试，其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+报名时间：正在报名注册中，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>2020年西南财经大学小自考有哪些专业比较好 什么时候报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学小自考 名校招生 财会类优势专业报名注册中
+西南财经大学（SWUFE）位于天府之??国成都市，直属于中华人民共和国教育部，是国家首批世界学科建设高校，国家教育体制改革试点高校，位列“211工程”，入选“2011计划”、“985工程优势学科创新平台”，是以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可参加4月统考，考生们可提前为考试做准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：
+统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费）包含教材资料跟视频课程，以及班主任全程代班
+考试时间：
+统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师</t>
+  </si>
+  <si>
+    <t>西华师范大学学前教育怎么样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西华师范大学小自考有学前教育专业吗？考几科？
+李老师告诉你，学前教育是由家长及幼师利用各种方法、实物，有系统、有计划而且科学地对孩童的大脑进行各种刺激，使大脑各部位的功能逐渐完善而进行的教育。
+学前教育是学前教育学的重要内容之一，是构成学前教育学的科学体系的一部分。儿童是人生智力发展的基础阶段，又是发展*快的时期，适当、正确的学前教育对幼儿智力及其日后的发展有很大的作用。超常儿童的形成、发展，无一不与适当、正确的学前教育有关，尤其是智力方面的学前教育。学前智育是一个多方面的培养过程。对学前儿童的心理健康关注也不可小觑。这个年龄段的儿童心智发展极不成熟，需要家长及幼师积极的引导。现在的孩子很多都是独生子女，自我意识很强，缺乏对他人的关心，不懂得分享，因此，作为家长和幼师，应积极引导孩子学会关心他人、学会分享、乐于分享。
+学前教育有哪些考试科目？
+统考科目：学前卫生学、幼儿园课程、学前教育原理、学前教育心理学、学前教育研究方法、儿童发展理论
+统考6科，以上6科统考会开设课程，需要学员看书学习通过考试，其他科目均为过程性校考！
+校考科目：幼儿园组织与管理、学前教育史、学前比较教育、低幼儿童文学名著导读、学前儿童心里健康与辅导、学前儿童发展评估、家长工作与家园沟通、幼儿园班级管理、幼儿教师教研指导
+学习形式：6门统考+9-12门校考
+考试时间：统考在每年的4月、10月，校考在每年的7月、12月
+学费：2000+/年（学费包含教材资料+单独的视频学习平台账号+考前资料）帮助学员顺利通过考试，更有班主任全程一对一带班！现在报名即可签订协议保障学员权益，学员可放心报考！
+报名时间：正在报名注册中
+报名地址：成华区建设北路三段成功银玺国际2810号
+咨询方式：李老师 </t>
+  </si>
+  <si>
+    <t>西南财经小自考怎么样</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学位于四川省成都市，直属中华人民共和国教育部，以经济学管理学为主体、金融学为重点的全国重点大学，被誉为“中国金融人才库”。
+西南财经大学小自考现在可报考专业有哪些呢？
+专科：会计电算化、工商企业管理、市场营销
+本科：会计学、工商管理、金融、市场营销、人力资源管理、行政管理
+以上专业都可以报考，西南财经大学行政管理专业为学校新增专业，想要报考该专业的同学现在可以报考哦，行政管理专业考哪些呢？
+统考：社会学概论、当代中国政治制度、西方政治制度、公共政策、领导科学、公务员制度，以上6科为学员需要参加的统考科目，统考科目学校会开设视频课程，考前也会发重点资料给大家，帮助同学们顺利通过考试，其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+学费低至3700元/年（学费按两年收取，学费包含教材资料+单独的视频学习平台账号+考前资料）想要报名的同学可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 
+</t>
+  </si>
+  <si>
+    <t>四川小自考护理专业怎么样 可以选择什么名校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考护理专业难度高吗？报哪个学校通过率高？
+该专业学生主要学习相关的人文社会的科学知识和基础医学、预防保健的基本理论、基本知识和临床护理技能的培训，具有对服务对象实施整体护理系社区健康服务的基本能力。 畢業后可在护理领域内从事临床护理、预防保健、护理管理、护理教学和护理科研。
+学生就业主要分布在各级各类综合医院、专科医院、急救中心、康复中心、社区医疗服务中心，并且从事临床护理、护理管理工作。 如果国家发展到一定的程度，还可以为每一个家庭和小区配备一个护士，到那个时候护士可以进入家庭和社区，条件是国家有能力给这些人付工资。
+护理专业战队性强，对专业知识有要求，建议有相关工作经验或基础的考生报考，那么护理专业需要考几科呢？
+统考：卫生统计学、护理教育导论、急救护理学、精神障碍护理学、儿科护理学（二）、计算机应用基础，只需统考6科，学员只需把学习重心放在统考科目上即可，其余科目均为过程性校考，小自考一年考四次，较快可一年考完全部科目，2年左右时间畢業！
+成都大学护理专业正在招生报名注册中，学费低至3000元/年（学费按两年收取）现在报名的同学可申请助学补贴，可减免200-600元，想要报名的考生可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号，报名即签订保障学员权益学员的协议书，学员可放心报考！
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>四川小自考人力资源管理专业怎么样 可以选择哪些名校</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考人力资源管理专业报名 报考哪个学校比较简单
+人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才。
+考试科目有哪些呢？
+统考：管理学原理、公共关系学、管理思想史、劳动关系与劳动法、人员素质测评理论与方法、人力资源开发与管理
+校考：中国近现代史纲要、基础会计学、管理系统中计算机应用、经济学（二）、薪酬管理、工作分析、社会学概论、行政管理学
+该专业只需统考6科，其余科目均为过程性校考，统考科目会开设课程，所有科目均为理论知识，主要靠学员记忆，是比较简单好考的专业，很多学员想要快速畢業可以考虑报考该专业！
+可报考哪些学校呢？
+成都理工大学，西南财经大学都可以报考，考试科目完全相同，含金量也是一样的，考试难度也是一样的，学员可根据自身情况选择适合自己的学校报考！报名详情可加李老师详细咨询！
+报名地址：成都市成华区建设路成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>成都理工大学2020年小自考在哪里报名 学费标准</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+成都理工大学是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。成都理工大学是理科类专业，其中理科专业均为优势专业，在省内排位都是前几名哦，所以想要报考理科专业的同学可以选择报考成都理工大学！
+工商管理专业的应用性很强，它的目标是依据管理学、经济学的基本理论，通过运用现代管理的方法和手段来进行有效的企业管理和经营决策，保證企业的生存和发展。适应国家和地方各级经济管理部门、行业管理部门、大中型工商企业经营管理、涉外公司经营管理、金融、商贸企业等领域的工作。
+工商管理专业应用范围广，畢業好就业，也可用于考公务员都是完全没问题的，该专业只需统考6科，其他科目均为过程性校考，学员只需把学习重心放在统考科目上即可，小自考一年有四次考试机会，较快学员可一年考完全部科目，2年左右畢業，报名详情可加李老师详细咨询~
+学费低至2700元/年（学费按两年收取，学费包含教材资料+单独的视频学习平台账号+考前资料）早报早畢業，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 </t>
+  </si>
+  <si>
+    <t>2020年小自考4月统考考试时间出来了吗 多久报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2020年四川小自考4月统考考试安排已出，考试时间为：4月11-12号，同学们可根据考试安排选择科目进行备考了，上午9：00-11:30 下午14：30-17:00，每堂考试时间为两个半小时。
+2020年四川小自考4月统考考试安排已出 考试时间是多久？
+很多同学想要报考小自考，但是不知道怎么报名，怎么学习，考试安排，下面李老师跟大家详细解答一下关于小自考的一些疑问：
+小自考可以选择到报名点报名，只需提交资料注册即可，现在报名的考生都可参加4月统考，现在距离考试只有三个月的时间了，可报名领取教材资料提前为考试做考前准备，增加考生考试通过率！
+自学考试的学习形式，主要还是需要学员自己自学，但是学校为了增加同学们的通过率，也会开设视频课程，发放考前真题资料，从而帮助同学们顺利通过考试，并且报考小自考的同学，全程会有班主任带班，避免学生不知道考试科目，以及考试时间从而延误畢業的状况，尽量做到让学员尽快早畢業！
+报考院校：西南财经大学、西华师范大学、四川师范大学、西南石油大学、成都理工大学、成都大学等省内重点大学，现在可报考专业齐全，想咨询专业详情的可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>西华师范大学小自考有汉语言文学专业吗 考试科目多吗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西华师范大学自考汉语言文学专业统考哪几科？多久报名？
+汉语言文学专业主要培养掌握汉语和中国文学方面的基本知识，受到有关理论、发展历史、研究现状等方面的系统教育和业务能力的基本训练，可在科研机关、高等院校从事研究、教学工作、有的可从事对外汉语教学。可适宜在党政机关，包括报刊宣传、新闻出版、影视文化、互联网、对外交流其他企事业部门从事语言文字工作的专门人才。汉语言文学专业就业范围广，通过率高，西华师范大学2020年春季正在招收自考汉语言文学专业的考生，想要报名的考生可加李老师详细咨询~
+统考：中国现代文学史、中国古代文学史（一）、中国古代文学史（二）、外国文学史、语言学概论、马列文论选读，一共统考6科，均为文科科目，需学员看书记忆！其余科目均为学校组织的过程性考试，学员只需把学习重心放在统考科目上即可！
+报名条件：只需年满17岁都可报名，现在报名可参加4月统考，4月考试安排已出，同学们可根据考试安排选择科目进行考试准备！
+报名资料：身份證正反面照片、两寸蓝底證件照电子档
+报名方式：可直接交资料网上报名也可到本报名处现场报名，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810-2811号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>西南财经大学小自考怎么报名 报名需要满足什么条件</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经大学小自考报名条件？报名需要哪些资料？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可为4月统考做考试准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试时间：统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名地址：成都市成华区建设路北路成功银玺国际2810号
+详情可咨询 李老师</t>
+  </si>
+  <si>
+    <t>报西南财经大学自考金融学专业学费贵吗 什么时候报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+西南财经小自考金融学专业畢業好就业吗？学费多少？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。西南财经大学正在招收小自考金融学专业，报名即可参加考试，较快1年考完全部科目，2年左右时间畢業！
+统考：管理学原理、财务管理学、国际金融、银行会计学、国际市场营销学、金融风险控制与管理，一共6科统考，统考科目学校会开设视频课程，考前资料，帮助学员顺利通过考试，早点畢業！其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+西南财经大学金融学专业是学校优势专业，西财也是985,211的院校，金融学的主要就业方向：金融行业监管部门、各类银行、信用社、證券/信托/基金机构、保险公司、资产管理公司、上市公司證券部、高校或研究所等各类金融机构从事金融行业工作或教学科研等，就业范围广，想要报考的学员可加李老师详细咨询~
+学费：3700元/年（学费按两年收取）学费包含教材资料+单独的视频学习平台+真题资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 </t>
+  </si>
+  <si>
+    <t>成都理工大学小自考专升本有工程造价专业吗 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">成都理工大学小自考工程造价专业好吗？2020年多久报名？
+成都理工大学创办于1956年，由国务院批准建立，原名成都地质勘探学院，以重庆大学地质系、西北大学和南京大学地质系的工科部分为基础，同时抽调北京地质学院、东北地质学院部分干部教师组建。
+工程造价专业是理科工程类优势专业，成都理工大学是理科类院校里面较好的，在四川都是排位比较高的学校，想要报考工程造价专业的学生可以选择报考成都理工大学！
+工程造价专业考哪些科目呢？
+统考：建筑工程定额预算、建筑工程工程量清单计价实务、建设工程合同（含fidic）条款、工程项目管理、工程造价确定与控制、房屋建筑工程概要
+以上6科为统考科目，需要同学们看书学习，考前刷题来通过考试，其余科目均为过程性校考，学员只需把学习重心放在统考科目上即可！
+报名时间：正在报名注册中，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+考试时间为4月11-12号，4月统考考试安排已出，同学们可报名领取教材备考4月统考，可选择1-4科准备，距离考试只有不到3个月的时间了，想要报名的同学可详细咨询李老师~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>四川小自考小学教育专业好考吗 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+四川小自考专升本小学教育大概需要多少学费？报哪个学校？
+小学教育专业培养德、智、体全面发展的，具有较高教育理论素养和较强教育实际工作能力（语、数、英）小学教师及教育科研、各级教育行政管理人员和其他教育工作者。
+小学教育属于教育类专业，可以选择报考师范类院校，现在四川可报考的院校有四川师范大学跟西华师范大师，这两所学校全部学费在5000-7000不等，不同学校收费标准不同，专业及学费详情可加李老师详细咨询~
+考试科目：计算机应用基础、教育学（二）、中小学教育管理、心理卫生与心理辅导、课程与教学论、教育心理学，只需统考6科，其他科目均为过程性校考，以上统考科目学校会开设视频课程，考前也会发考前资料给大家，帮助同学们顺利通过考试！
+小自考学费只收两年，学费包含教材资料+单独的视频学习平台账号+考前资料，除此以外只有考试费35元/科，本科有畢業工本费+畢業答辩费480元，其他没有任何费用了，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：一年四次注册机会，现在正在火热报名中！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号                                                                                                                      详情咨询李老师    电话：199 8120 3720（vx同号）   扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>2020年西南财经大学小自考新增人力资源管理专业报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年西财自考有开设人力资源管理专业吗？需要统考几科？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+2020年西南财经大学春季新增人力资源管理专业可以报考，该专业只需统考6科，其他科目均为过程性校考，学员把学习重心放在统考科目上即可，一年四次考试机会，较快1年考完全部科目，2年左右畢業！
+考试科目：管理学原理、公共关系学、管理思想史、劳动关系与劳动法、人员素质测评理论与方法、人力资源开发与管理，统考科目学校会开设视频课程，学员可登陆app学习，考前也会发真题资料，帮助学员顺利通过考试！
+企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作，人力资源管理专业畢業好就业，想要报名的同学可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>四川自考会计专业难吗 小自考会不会简单些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小自考专升本会计专业难度 可以报什么学校？
+会计专业可报考院校：四川师范大学、西南财经大学、西华师范大学、成都理工大学、西南石油大学，以上几所学校会计专业都在招生报名中，会计专业对专业知识有一定要求，所以建议有相关学习经历或者工作经验的学员报考！
+考试科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报表分析（一） 统考6科，其他科目均为过程性校考，会计专业6科统考+11科校考，一年四次考试机会，学习情况较好的同学可一年考完全部科目，2年左右畢業！想要报考的同学可根据自身情况选择学校报考，更多专业及学校的详情可加李老师详细咨询~
+自考学历含金量高，社会认可度高，畢業可考證，考公务员都是没问题的，现在正在报名注册中，报名领取教材备考，学费低至2700元/年，学费按两年收取，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>西华师范大学小自考什么时候开始报名 报考专业有哪些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西华师范大学小自考有哪些专业 在哪里可以查专业表
+西华师范大学（China West N??ormal University），简称“西华师大”，是四川省人民政府举办的全日制重点师范大学，学校座落在历史文化名城南充，是四川省第一所师范类高等学府和全国批学士、硕士学位授权单位。
+西华师范大学现招收自考专、本科学员。初中畢業的学员也可以报考，现在报名，不限学历，不限年龄！秋季注册可申请400-600元助学补贴，名额有限，需要报名的学员抓紧联系李老师咨询~
+应用型（小自考）考试形式：统考6科（闭卷）+校考9-12科左右（过程性考试） 
+专科：会计、学前教育、小学教育、法律事务、人力资源管理、汉语言文学 本科：法学、学前教育、小学教育、汉语言文学、工商管理、市场营销、会计学、人力资源管理、行政管理、教育管理、旅游管理、美术教育
+自考一共涉及三个费用：
+第一：学费（包括教材+辅导资料+教学课程）
+（2800元/年，按两年收取）
+第二：考试费35/科 一般考18科
+第三：本科生涉及论文答辩费 480元（结束再交） 专科生只交畢業工本费150左右 无答辩
+考试地点： 统考四川任意市县均有考点 校考统一安排在成都
+可以结合教学课程和辅导资料在家自主复习
+考试时间：统考每年的4、10月 校考每年的7、12月
+畢業申请时间每年的6月和12月
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版）
+报名时间：正在报名注册中，名额有限吗，想要报名的学生速速联系李老师咨询
+报名地址：成都市成华区建设北路三段成功银玺国际2810号 
+</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考报名网站在哪里 报考专业有哪些</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考可以在网上报名吗？学费怎么交？
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+西南财经大学现招收自考专、本科学员！名额有限，需要报名的学员赶快联系李老师咨询~
+报名时间：正在报名注册中，现在报名可为4月统考做考试准备！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销
+考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试时间：统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版），报名相关详情咨询李老师~
+报名地址：成都市成华区建设路北路成功银玺国际2810号
+详情可咨询 电话：199 8120 3720（vx同号） QQ：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考环境涉专业只需统考4科 毕业快</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小自考环境设计专业好考吗？成都有哪些学校可以报?
+成都理工大学是以理工为主，以地质、能源、资源科学、核技术、环境科学为优势的多科性省属重点大学，是中国地球科学高层次人才培养与科学研究基地之一，CDIO工程教育联盟成员单位。成都理工大学是理科类专业，其中理科专业均为优势专业，在省内排位都是前几名哦，所以想要报考理科专业的同学可以选择报考成都理工大学！
+环境艺术设计是指对于建筑室内外的空间环境，通过艺术设计的方式进行整合设计的一门实用艺术。环境艺术所涉及的学科很广泛，包括建筑学、城市规划学、人类工程学、环境心理学、设计美学、社会学、文学、史学、考古学、宗教学、环境生态学、环境行为学等学科。
+成都理工大学现在招收自考环境设计专业的学生，该专业只需要统考4科，其他均为过程性校考，一年四次考试机会，较快可一年考完全部科目，2年左右畢業！
+考试科目：04026设计美学、04489室内装饰材料、05424现代设计史、08918工程图学基础，以上四科为统考科目，需要学员看书学习，考前会发给大家考前资料，同学们可大量刷题增加通过率，环境设计专业统考科目较少，很多想要快速考完拿證的同学可以选择报考该专业，该专业畢業后可以从事室内外装饰装修设计，就业范围广！
+报名时间：现在正在报名注册中，现在报名学费低至2700元一年（按两年收取），报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>2020年川师大小自考学费贵吗 什么时候报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考报名怎么报？需要到现场报名吗？
+四川省属重点大学、国家首批“中西部高校基础能力建设工程”实施高校，是四川省举办本科师范教育、师范类院校中办学历史较为悠久的大学。学校位于四川省省会成都市，现有狮子山校区、成龙校区、东校区、广汉科教园区四个校区。
+四川师范大学正在招收小自考专本科学员，专业齐全，考试简单，学员较快可1年考完全部科目，2年左右拿畢業书！
+四川师范大学小自考报名怎么报？需要到现场报名吗？
+川师自考畢業样板
+专科：法律事务、学前教育、工商企业管理、行政管理、汉语言文学、社会工作、市场营销
+本科：法学、学前教育、小学教育、教育管理、工商管理、行政管理、金融、物流管理、美术教育、会计学、汉语言文学、数字媒体艺术、数字媒体技术、新闻学、播音与主持艺术、教育技术、社会工作、公共事业管理等专业，更多专业及详情可加李老师咨询~
+报名方式：小自考一般是在校外报名点报名，学员可根据自身情况选择，可现场咨询报名也可以直接交资料网上报名，由教务老师同意注册考籍，参加考试，后续考试及报考有班主任全程一对一带班，避免同学们因为不知道什么时候报考和不知道报考科目错过考试，延误畢業时间，帮助学员顺利通过考试！
+学费3500元/年（学费按两年收取）学费包含教材资料+单独的视频学习账号+考前资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>成都理工大学有自考工商管理专业吗 考试科目有哪些</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考工商管理专业 学费多少 怎么报名
+成都理工大学现在正在招收小自考专科、本科工商管理专业，工商管理专业商管理涉猎知识面很广， 囊括了经济学（微观经济学、宏观经济学、会计学、统计学、金融学、證券投资学、财务管理、管理学、人力资源管理、运筹学、市场营销等等 ）因此它的就业范围也是很广，可以从事会计、金融（银行和證券公司）、公司管理人员、市场营销人员。畢業好找工作，想要报考的考生可加李老师详细咨询
+专科专业名称为：工商企业管理 本科专业名称为：工商管理
+统考考试科目： 专科：计算机应用基础、基础会计学、企业会计学、市场营销学、中国税制、大学语文
+本科：管理学原理、国际贸易理论与实务、金融理论与实务、企业经营战略、组织行为学、质量管理（一）
+专本科都只需要统考6科，其他的科目均为过程性校考，学员只需把学习重心放在6科统考上即可，一年四次考试机会，两次校考，两次统考，学员报名后只需按班主任通知报考参加考试，会有班主任帮助同学们筛选科目规划考试进度，尽量让同学们可以快点考完畢業，专本科较快都可以1年考完全部科目，专科1.5年畢業，本科有畢業答辩跟畢業论文，2年左右畢業！
+学费标准：2700元/年（按两年收取）学费包含教材资料+视频学习平台账号+考前资料，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考会计专业通过率高吗 校考难不难</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西南财经大学小自考会计专业 畢業快 考试简单
+学校始于1925年在上海创立的光华大学。1938年因抗战西迁建立光华大学成都分部。1946年更名为成华大学。1952至1953年，以成华大学为基础，先后并入西南地区16所院校的财经系科，组建四川财经学院。1960年分设四川财经学院和四川科学技术学院，1961年合并更名为成都大学。1978年恢复为四川财经学院。1979年由四川省划归中国人民银行主管。1985年更名为西南财经大学。2000年划转教育部管理。
+西南财经大学现在正在招收小自考会计专业的学生，专科本科都可以报名，会计专业也是西南财经大学的优势专业，每年报考的考生特别多，西财作为985,211的院校，现在开放对社会再收自考专科、本科的学生，名校招生，想要报名的学员速速联系李老师咨询~
+很多想要报考小自考会计专业的学生都不知道会计专业到底考多少科？报名后多久能畢業？考试难度如何等，接来下李老师为大家详细解答一下这几个问题：
+首先小自考会计专业只需要统考6科，其余11科均为过程性校考，统考科目：00058市场营销学、00149国际贸易理论与实务、00150金融理论与实务、00159高级财务会计、00160审计学、00161财务报名分析（一）以上6科为统考科目，这6科是需要同学们跟着老师学习然后刷题才能通过的，小自考一年有四次考试机会，学习情况较好的同学是可以一年考完全部科目，2年左右畢業的！至于剩下的11科校考只需同学们到场配合参加即可！
+自考学历含金量高，社会认可度高，畢業由西南财经大学和自考办联合颁发畢業书，学信网可查！西财学费低至3700元/年（学费按两年收取）学费包含教材资料+视频课程+考前资料，帮助学员顺利通过考试！更有班主任全程一对一带班，避免学生因不知道报考时间以及报考科目等原因错过考试，延误畢業时间！
+报名时间：现在正在报名注册中，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学专业考试科目多吗 学费多少</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川小自考汉语言文学专业专升本考试科目 可以报哪些学校
+汉语言文学专业培养具有汉语言文学基本理论、基础知识和基本技能 ，能在新闻文艺出版部门、科研机构和机关企事业单位从事文学评论、汉语言文学教学与研究工作，以及文化、宣传方面的实际工作的汉语言文学专门人才。与汉语言文学相对应的专科专业为语文教育，其培养对象是在高等和中等学校进行汉语言文学教学和教学研究的教师、教学研究人员及其他教育工作等。
+小自考汉语言文学专业现在可报考院校： 四川师范大学、西华师范大学这两所学校都可以报考，汉语言专业是每年报考的热门专业，通过率高，考试简单，只需要统考6科，其余科目均为过程性校考，报考小自考的同学只有统考科目需要看书学习，统考科目学校也会开设视频课程，帮助学员顺利通过考试！
+统考科目：中国现代文学史、中国古代文学史（一）、中国古代文学史（二）、外国文学史、语言学概论、马列文论选读
+校考科目：中国近现代史纲要、马克思主义基本原理概论、美学、中国古代文论选读、新闻采访与写作、影视艺术概论、报告文学研究、散文创作与研究、市场营销学、广告学（一）、广告策划、传播学概论，校考科目为过程性考试，报考的同学只需按班主任通知到场参加考试即可！
+自考学历含金量高，社会认可度高，畢業由学校跟自考办联合颁发正规的学信网可查的畢業书，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：正在报名注册中，学费在5000多到7000多不等，学校不同学费标准也不同，学费及专业详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+</t>
+  </si>
+  <si>
+    <t>2020年四川自考4月份统考延迟到多久了 报考时间 报名方式</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020年四川小自考4月统考会延期吗 多久报名 报名网站
+2020年四川小自考4月统考会延期吗 多久报名 报名网站
+2020年初因为一场病毒疫情，大家都在家过了一个足不出户的年，这是往年从来没有的感受，也因为这场疫情，推迟返工，推迟开校，导致大家到现在都没办法正常的工作跟学习，一下打乱了大家所有的计划，很多想报考自考的同学不知道该怎么报名，怎么规划学习，多久考试，下面李老师给大家详细解答一下：
+四月统考原计划于4月11-12号考试，因疫情原因，考试院决定延期报考以及考试，预计会在疫情控制后的4月底或者五月底考试，同学们可以根据考试安排开始备考了，大家正好趁这段时间有闲暇，备考提升自己！
+很多同学想知道小自考在哪里报名 ？哪里注册？小自考是报名后由学校或教学点开端口网上电子注册，同学们是不能自己注册的，只有大自考才可以登录自考网站自己注册，小自考都是经由教务老师注册，学员只需提供资料报名，教务老师注册，现在报名，三月初就可在省考试院查询考籍，考籍包含报考院校跟专业。
+现在可报考院校：西南财经大学/西华师范大学/四川师范大学/成都理工大学/西南石油大学/成都大学等省内重点大学，现在可报考专业齐全，更多专业详情可加李老师详细咨询~
+报名资料：两寸浅蓝底證件照电子档+身份證正反面照片（报名表）
+报名地址：成都市成华区建设北路三段成功印玺国际2810号
+详情咨询李老师 电话：199 8120 3720 （微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>2020年西南财经大学小自考的学费标准是多少 报名交多少钱</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考报名要交多少钱？哪里报名便宜？
+西南财经大学始于1925年在上海创建的光华大学。1925年6月3日，在“五卅”反帝爱国怒潮中，圣约翰大学及附中572名爱国师生脱离该校，拥戴张寿镛先生筹办光华大学；9月，光华大学举办首次开学典礼。校名取自“日月光华，旦复旦兮”（《卿云歌》），象征着复兴中华，反抗帝国主义割宰和奴役的革命精神。光华大学是一所设有文学院、理学院、商学院的私立综合性大学，其中商学院分设经济学、会计学、银行学和工商管理学四个系。
+西南财经大学2020年春季报名注册中，现在报名的考生可参加4月份统考，距离统考时间还有不到100天，同学们可以根据考试安排备考啦，现在可报考专业如下：
+专科：会计电算化、工商企业管理、市场营销
+本科：会计学、工商管理、金融学、市场营销、人力资源管理、行政管理等专业，以上专业都只需要统考6科，其他9-12科均为过程性校考，统考科目需要同学们看书学习备考，同学们只需把学习重心放在统考科目上即可，更多专业相关考试科目详情可加李老师详细咨询~
+西南财经大学学费标准：3700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，报名跟学员签订保障学员权益的协议书，学员可放心报考！
+考试时间：4月、10月（统考） 6月、12月（校考）一年四次考试机会，学员较快可一年考完全部科目，2年左右畢業！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>成都理工大学小自考难不难 校考简单吗 学费多少</t>
+  </si>
+  <si>
+    <t>成都理工大学2020年小自考学费标准是多少 报考专业
+2001年，由教育部批准组建成都理工大学（合并四川商业高等专科学校和有色金属地质职工大学）。学校由地质部、地质矿产部、国土资源部直属，划转为中央与地方共建、以四川省人民政府管理为主的省属重点大学。9月21日，成都理工大学正式挂牌成立。
+成都理工大学小自考2020年春季注册可报考专业如下：
+专科：工商企业管理、市场营销、会计、建筑工程管理、物流管理、工程造价
+本科：电子科学与技术、工商管理、会计学、现代企业管理、旅游管理、建筑经济管理、英语、公共事业管理、环境设计、机械制造及自动化、建筑工程、工程造价、信息管理与信息系统、财务管理、人力资源管理、艺术设计等专业，以上专业仅需统考4-6科，其余9-12科均为过程性校考，统考科目学校会开设响应的课程以及考前资料，帮助学员顺利通过考试！
+学费标准：2700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，避免学员因为没有人通知报考以及考试我错过考试，延误畢業的情况！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+报名即签订保障学员权益的协议书，学员可放心报考，本报名点为正规招生，更多专业及报名详情可咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年西华师范大学小自考在哪里报名靠谱 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">西华师范大学小自考专业在哪里查？学费标准？
+学校创建于1946年，其诞生与东北大学有直接历史渊源。1937年，抗日战争全面爆发，东北大学内迁四川省三台县办学；1945年，东北大学迁回沈阳。1946年5月，在川北三十六县十盐场及各界有识之士支持下，部分东北大学的川籍师生在三台原校址创建私立川北农工学院。后历经私立川北大学、公立川北大学、川北大学、四川师范学院、南充师范专科学校、南充师范学院、四川师范学院等阶段，2003年，经教育部批准更名为西华师范大学。
+西华师范大学小自考2020年春季招生专业表如下：
+专科：学前教育、小学教育、会计、法律事务、人力资源管理、汉语言文学
+本科：法学、学前教育、小学教育、汉语言文学、工商管理、市场营销、会计学、人力资源管理、行政管理、教育管理、旅游管理、美术教育
+以上专业为西华师范大学2020年春季小自考注册专业表，这些专业都是可以报名注册的，只需统考3-6科，其余的9-12科均为过程性校考，统考科目会开设视频课程，学员只需把学习重心放在统考科目上即可，考前会整理对复习针对性较强的资料发给大家考前集中刷题，帮助同学们顺利通过考试！
+考试时间：4月、10月（统考） 6月、12月（校考）一年四次考试机会，学员较快可一年考完全部科目，2年左右畢業！小自考是现在能较快时间畢業的学历形式，且含金量高，社会认可度高，对于很多用于考證，考公务员，升职加薪换工作的学生来说是一个很好的选择，畢業由学校和自考办联合颁发畢業书，学信网可查国家认可的正规学历！更多专业及报名详情可加李老师详细咨询~
+学费标准：2900元/年（ 按两年收取）学费包含教材+题库资料+单独的视频学习平台账号+考前资料，更有班主任全程一对一带班，避免同学们因为不知道报考以及考试时间而错过考试机会，延误畢業的情况，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川师范大学小自考报考专业有哪些 专升本要多少学费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">四川师范大学小自考还可以报名吗 机构报名交学费靠谱吗
+四川师范大学2020年春季小自考正在报名注册中，现在还可以报名，现在报名的考生只需提供报名资料即可报名，同学们可根据考试安排抓紧时间备考！
+很多报名考生纠结在学校报名跟在机构报名哪个靠谱？下面李老师跟大家分析一下：
+小自考是不能由学生自行到网站注册考籍的，都需要通过学校的端口才能注册，正规的招生机构是跟学校合作招生的，其实注册端口也是学校开放给机构的，正规报名机构负责学生后期的校考的组织以及监考，以及申请畢業等流程，那么既然都是一样的，很多学生想那我去学校报名不是更放心吗？其实不然，机构报名跟学校报名的最大不同是： 1、机构报名有专门的班主任负责带学生，避免学生因为不知道报考时间考试时间以及考试地址等信息而错过考试机会，从而延误畢業，到学校本部报名的学生，是没有老师会专门带你们的，报名后发教材资料备考，机构会为了报名学员的通过率不断督促大家早点考完畢業！在机构报名的话相对于多了一个配套服务！
+2、很多同学怕在机构报名学费比学校收的贵，其实学费都是学校规定的，机构往往会比学校略微便宜些，学生可自行登录学校官网或者打电话到学校继教院咨询学费标准，想要报名的学生在不确定学校学费标准的情况下可以确认清楚了再跟机构做对比，选择靠谱的机构报名！
+本处为四川师范大学小自考报名点，正规招生，学费低至3600元/年（学费按两年收取）学费还包含教材资料+单独的视频学习平台账号+考前资料，李老师提醒大家哦，学校报名教材资料以及学习账号都是要单独收费的，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+现在可报名专业齐全，只需统考3-6科，其余9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可，更多专业以及考试详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>2020年西南财经大学小自考学费贵吗 报名有优惠吗</t>
+  </si>
+  <si>
+    <t>西南财经大学小自考二月的报名正在如火如荼的进行着，2020年时特别的1年，希望大家珍惜在家的时间，一方面跟病毒做斗争，一方面提升自己！
+可报考专业：
+专科：会计、工商企业管理、市场营销、人力资源管理
+本科：会计学、工商企业管理、财务管理、现代企业管理、金融学、市场营销、行政管理、人力资源管理等专业。
+在财经类大学里面，西财是最有名气的，就业前景好，适合现在或者以后准备从事金融行业工作的同学，例如：信托、保险、證券、贷款、会计等从业人员！西南财经大学是财经类院校，但是2020年新开设了人力资源管理以及行政管理专业，从事相关工作的同学，可以选择报考西南财经大学，可以提升自己的专业知识，也可用于升职加薪换更好的工作岗位！
+考试科目：统考：6科 校考：12-14科（由学校组织，过程性考试）
+学费：7400元（全部学费），学费包含教材资料+视频学习账号+考前资料，名额有限，想要报名的学员抓紧时间联系李老师咨询~
+考试时间：统考每年的4、10月 校考每年的7、12月
+自考是只要全部科目考试通过即可申请畢業，由自考办和学校联合颁发正规的畢業书(学信网可查）。自考含金量高，社会认可度高。
+报名资料：身份證扫描件和一张两寸蓝底照片（电子版），报名相关详情咨询李老师~
+报名地址：成都市成华区建设路北路成功银玺国际2810号
+详情可咨询 电话：199 8120 3720（vx同号） QQ：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考报名条件 哪些人适合报自考 怎么报</t>
+  </si>
+  <si>
+    <t>四川小自考适合哪些人报考 报名条件 在哪里报名
+可加李老师199 8120 3720（vx同号）了解更多关于自考的信息。
+网络上关于自考的消息铺天盖地，那么到底自考适合哪些同学参加，在哪里报名，报名条件又是什么呢？
+1、自考适合专科在读生，想在专科学制内升本科学历的在校学生同学，这样可以在完成专科学业的同时参加自学考试，可以更快时间的拿到本科畢業书，俗称专本连读，有机会在专科畢業后就申请本科畢業书！
+2、适合已经大专畢業正在工作想要提升学历层次到本科的学生，没办法全日制在学校在读，只需要抽平时的闲暇时间进行学习跟考试，在工作的同时完成了学历的提升！
+3、初高中畢業早早进入社会的年轻求学人员，为了工作或以后职业规划需要学历的学员可以选择专本科套读，本科可选择自考，较快可3年左右直接申请本科学历！
+4、本身具有一定的学历，因为考證或职业规划的原因需要获得第二学历的在职人员！
+以上类型的考生都可报考自考，由于自考的特殊形式，畢業时间灵活，规定专业的考试科目全部考试通过即可申请畢業，较快可一年考完全部科目，两年左右畢業！自考学历含金量高，很多考生畢業后可用于加薪、考编制、评职称、留学、考研等都是没问题的！
+那么小自考报名条件是什么呢？
+自考不受性别、年龄、民族、种族、学历、身体健康状况、居住地等限制，均可报名参加考试，想要报考的考生都可报考，现在四川小自考2020年春季报名注册中，报考专业齐全，小自考只需要统考3-6科，其余科目均为过程性校考，学员可把学习重心放在统考科目上即可！
+报考院校：西南财经大学/四川师范大学/成都理工大学/西华师范大学/西南石油大学/成都大学等省内重点大学，学费低至2700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，想要报名的考生可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号，本初为正规招生，报名即跟学员签订保障学员权益的协议书，学员可放心报考，现在报考的考生可根据4月统考考试安排，为考试做准备啦！报名后领取教材资料以及注册学习账号进行学习哦~
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考工商管理专业要考数学吗 怎么报名 报考学校有哪些</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（微信同号）
+四川小自考工商管理专业报名 西南财经大学在招生吗？
+西南财经大学是工商管理专业的主考院校，该专业为学校的优势专业，是经管类专业里的大热门！每年报考该专业的考生都特别多，且该专业为文科专业，是比较好考的专业，考试通过率高！
+想要报考小自考工商管理专业的学员，李老师给大家说一下报考工商管理专业的情况：
+专业介绍：工商管理专业主要学习管理学、经济学和企业管理的基本理论和基础只是，进行企业管理方法与技巧方面的基本训练，使学员具有分析和解决企业管理问题是的基本能力，随着知识经济时代的来临，企业对专业工商管理人才越发显示出很大的需求，会计师、营销师、人力资源师、项目经理等职位将成为未来企业人才竞争的焦点！
+从事的岗位如下：
+1. 一般传统管理类岗位
+2. 市场营销类岗位
+3. 人力资源管理类岗位
+4. 物流管理类岗位
+工商管理专业畢業后就业范围广，是每年报考的热门专业！
+那么小自考工商管理专业一共要考几科呢？
+统考6科（需要同学们根据老师的课程以及整理好的押题资料进行学习，是全国统考）校考9-12科（过程性考试）学员只需把学习重心放在统考6科上就行了，考试科目详情可咨询李老师~
+一年考四次，较快1年可考完全部科目，1年9个月拿畢業證書，同学们普遍的畢業时间是两年左右，可以让学员最快时间拿到本科学历！且自考学历含金量高，是含金量仅次于统招全日制学历的成人学历形式，畢業后学信网终身可查！是由学校跟自考办联合颁发的正规畢業證書！
+四川小自考工商管理专业报名 西南财经大学在招生吗？
+可报考院校：
+四川师范大学、西南石油大学、成都理工大学、西华师范大学、西南财经大学等省内重点大学。
+学费低至2700元/年（按两年收取），现在报名可申请200元-600元助学补贴，名额有限，想要报名的学员速速联系李老师咨询
+报名时间：正在报名注册中，现在报名可参加4统考，可早半年畢業！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川小自考行政管理专业考试科目 要考几科 学费贵吗</t>
+  </si>
+  <si>
+    <t>专业介绍：行政管理是运用国家权力对社会事务的一种管理活动。也可以泛指一切企业、事业单位的行政事务管理工作。行政管理系统是一类组织系统。它是社会系统的一个重要分系统。随着社会的发展,行政管理的对象日益广泛,包括经济建设、文化教育、市政建设、社会秩序、公共卫生、环境保护等各个方面。现代行政管理多应用系统工程思想和方法,以减少人力、物力、财力和时间的支出和浪费,提高行政管理的效能和效率。
+何为小自考：小自考是自考的一种，自考分为应用型自考跟社会型自考，小自考即为应用型自考，主要是由学校为办学主体，部分考试（9-12科）由学校组织考生参加考试，学校提供教材/资料/学习资料，帮助学员顺利通过考试，减轻考生的压力与负担，小自考大大减短了同学们的畢業时间，降低了考试的难度，更符合报名自考的同学们的期望。
+专业统考科目:社会学概论丶当代中国政治制度丶西方政治制度丶公共政策丶领导科学丶公务员制度，，以上6科为统考科目，同学们把学习重心放在统考科目上即可！
+专业校考科目:中国近现代史纲要、马克思主义基本原理概论、行政法学、行政组织理论、【普通逻辑、法学概论、财务管理学、中国文化概论、中国行政史、西方行政学说史、公文写作与处理(选考课程不低于10学分。不考英语(二)的再另选三门课程,总学分不低于24学分)】畢業考核(或论文综合实践实验实习等)以上科目为学校组织的过程性校考！
+行政管理就业方向:
+在县级以上政府的民政职能部门和事业单位就业;
+从事乡镇民政办公室管理工作；
+从事城镇街道民政所管理工作;
+从事县(或市)以上民政部门以及民间组织中介机构管理工作;
+从事婚姻服务中介机构、收养登记服务中介机构管理工作;
+从事婚姻管理、收养登记管理、行政区划管理工作;
+从事地名管理、社团管理工作等；
+可从事事业单位的行政协理员,办公室主任、行政主管、协调层或决策层高级助理,中外大中型企业前台秘书、行政主管、行政总监、总经理助理等职畢業生适宜在工商行政管理部门、涉外经济管理部门、经济监督检查等管理部门从事政策和法规研究及实际工作,学校、科研部门的教学或科研工作,大、中型企业和企业集团
+考试科目：统考6科(闭卷)+校考9-12科左右(过程性考试）
+学费低至2900元/年(按两年收取)学费包含教材资料、在线教学、面授,现在报名还可申请200元-600元助学补贴,名额有限,想要报名的学员速速联系李老师咨询~
+小自考行政管理专业报名 报名网址 考试科目 学校有哪些？
+考试时间:统考每年的4、10月 校考每年的7、12月
+报名资料:身份证扫描件和一张两寸蓝底照片(电子版)
+报名时间:正在报名注册中(名额有限,赶快抓紧时间报名哦)
+报名地址:成都市成华区建设北路三段成功银玺国际2810号
+详情可咨询李老师 电话:199 8120 3720（微信同号） QQ:1916 3720 47</t>
+  </si>
+  <si>
+    <t>小自考小学教育专业统考6科 名校招生 毕业快</t>
+  </si>
+  <si>
+    <t>四川小自考小学教育专业考试科目多吗？报哪个学校好？
+小学教育专业培养德、智、体全面发展的，具有较高教育理论素养和较强教育实际工作能力（语、数、英）小学教师及教育科研、各级教育行政管理人员和其他教育工作者。
+小学教育属于教育类专业，可以选择报考师范类院校，现在四川可报考的院校有四川师范大学跟西华师范大师，这两所学校全部学费在5000-7000不等，不同学校收费标准不同，专业及学费详情可加李老师详细咨询~
+考试科目：计算机应用基础、教育学（二）、中小学教育管理、心理卫生与心理辅导、课程与教学论、教育心理学，只需统考6科，其他科目均为过程性校考，以上统考科目学校会开设视频课程，考前也会发考前资料给大家，帮助同学们顺利通过考试！
+小自考学费只收两年，学费包含教材资料+单独的视频学习平台账号+考前资料，除此以外只有考试费35元/科，本科有畢業证工本费+畢業答辩费480元，其他没有任何费用了，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名时间：一年四次注册机会，现在正在火热报名中，现在报名的考生可参加4月统考！
+同学们可提前为4月考试做考前准备了，考试时间为4月11-12号，可报考1-4科，距离考试只剩不到3个月的时间，想要报名的同学可联系李老师报名，领取教材资料备考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川师范大学今年小自考考试严格吗 在哪里报名通过率高</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（vx同号）
+四川师范大学2020年春季小自考招生注意事项：
+四川师范大学2020年春季小自考正在报名注册中，现在还可以报名，现在报名的考生只需提供报名资料即可报名，报名后可参加4月份统考，2020年四月统考考试安排已出，距离统考还剩不到100天的时间，同学们可根据考试安排抓紧时间备考！
+四川师范大学是四川省属重点大学，国家首批“中西部高校基础能力建设工程”实施高校及全国神话创新创业教育改革示范校，是四川省举办本科师范教育最早、师范类院校中办学历史最为悠久的大学！四川师范大学是川内自考报考最热门的院校，客观上将川师开设的专业齐全且实用性高，所以适合很多上班族报考，另外，川师开设的专业多为文科专业通过率高，所以拿证也比较轻松。
+那么川师有哪些专业可以报考呢？
+专科：汉语言文学、法律事务、工商企业管理、会计、行政管理、学前教育、社会工作
+本科：汉语言文学、小学教育、工商管理、学前教育、行政管理、法学、工程造价、美术教育、会计学等专业，四川师范大学办学历史悠久，开设专业齐全，想要报考的考生可详细咨询李老师~
+很多报名考生纠结在学校报名跟在机构报名哪个靠谱？下面李老师跟大家分析一下：
+小自考是不能由学生自行到网站注册考籍的，都需要通过学校的端口才能注册，正规的招生机构是跟学校合作招生的，其实注册端口也是学校开放给机构的，正规报名机构负责学生后期的校考的组织以及监考，以及申请毕业等流程，那么既然都是一样的，很多学生想那我去学校报名不是更放心吗？其实不然，机构报名跟学校报名的最大不同是：
+1、机构报名有专门的班主任负责带学生，避免学生因为不知道报考时间考试时间以及考试地址等信息而错过考试机会，从而延误毕业，到学校本部报名的学生，是没有老师会专门带你们的，报名后发教材资料备考，机构会为了报名学员的通过率不断督促大家早点考完毕业！在机构报名的话相对于多了一个配套服务！
+2、很多同学怕在机构报名学费比学校收的贵，其实学费都是学校规定的，机构往往会比学校略微便宜些，学生可自行登录学校官网或者打电话到学校继教院咨询学费标准，想要报名的学生在不确定学校学费标准的情况下可以确认清楚了再跟机构做对比，选择靠谱的机构报名！
+本处为四川师范大学小自考报名点，正规招生，学费低至3600元/年（学费按两年收取）学费还包含教材资料+单独的视频学习平台账号+考前资料，李老师提醒大家哦，学校报名教材资料以及学习账号都是要单独收费的，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+现在可报名专业齐全，只需统考3-6科，其余9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>2020年成都理工大学小自考报名时间 报名需要交多少钱</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话：199 8120 370（vx同号）
+2020年成都理工大学报名时间 专业 费用
+2020年春季成都理工大学小自考报名注意事项：
+想要报自考同学，如果说在四川哪所学校性价比高，那么肯定是成都理工大学！
+成都理工大学，建校当年即开始招收本科生。学校先后由地质部、地质矿产部、国土资源部直属，2000年划转为地方，成为中央与地方共建、以四川省人民政府管理为主的省属重点大学。2020年11月3日，国土资源部与四川省人民政府签署共建成都理工大学协议，2017年9月，学校进入国家一流学科建设高校行列。
+成都理工大学是一所工科类高校，想要报考工科类或者理科类专业的同学，成都理工大学肯定是最适合的，学费便宜，社会认可度高，是目前省内招收小自考院校里面性价比最高的！
+那么，哪些人适合报考成都理工大学呢？
+成都理工大学适合从事工科类工作的同学，如：计算机、工程、建筑、机械、信息管理等领域的同学，且学校还开设了财经类的会计、财务管理，管理类的工商管理、人力资源管理等专业，从事这方面工作的同学也可以考虑报考！
+2020年成都理工大学报名时间 专业 费用
+成都理工大学小自考2020年春季注册可报考专业如下：
+专科：工商企业管理、市场营销、会计、建筑工程管理、物流管理、工程造价
+本科：电子科学与技术、工商管理、会计学、现代企业管理、旅游管理、建筑经济管理、英语、公共事业管理、环境设计、机械制造及自动化、建筑工程、工程造价、信息管理与信息系统、财务管理、人力资源管理、艺术设计等专业，以上专业仅需统考4-6科，其余9-12科均为过程性校考，统考科目学校会开设响应的课程以及考前资料，帮助学员顺利通过考试！
+2020年成都理工大学报名时间 专业 费用
+学费标准：2700元/年（按两年收取）学费包含教材资料+视频学习账号+考前资料，更有班主任全程一对一带班，避免学员因为没有人通知报考以及考试我错过考试，延误毕业的情况！
+报名即签订保障学员权益的协议书，学员可放心报考，本报名点为正规招生，更多专业及报名详情可咨询李老师
+电话：199 8120 3720（vx同号） 扣：1916 3720 47
+2020年成都理工大学报名时间 专业 费用</t>
+  </si>
+  <si>
+    <t>四川小自考人力资源管理专业学费贵吗 报什么学校比较好</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（vx同号）
+专业介绍：人力资源管理专业培养具备管理、经济、法律及人力资源管理等方面的知识和能力，能在事业单位及政府部门从事人力资源管理以及教学、科研方面工作的工商管理学科专门人才
+人力资源管理这个专业对比其他管理类专业来说，专业性更强，主要从事人事、人力资源总监的方向，现在社会人才竞争非常激烈，人力资源这个岗位就越发的重要了，也是每个公司必须要有的岗位！
+就业前景：企事业单位及其咨询机构人力资源管理相关岗位，从事招聘、人力资源开发、考核、薪酬管理、员工培训、办公室文秘等工作。根据麦可思（MyCOS）研究院的2011年度较新权威数据显示，人力资源管理专业的本科毕业生从事的主要职业有：人力资源助理，招聘专职，所有其他种类的人力资源、培训和劳资关系专职，行政秘书和行政助理，文职人员等。
+报考指南
+（一）报名时间：正在报名注册中，早报名早毕业！早点毕业同学们也好早点投入使用！
+（二）报名条件：没有年龄、地域限制都可报考！
+（三）报名资料：身份证正反面照片、两寸浅蓝底证件照电子档
+统考科目：00054管理学原理、00182公共关系学、06088管理思想史、06089劳动关系与劳动法、06090人员素质测评理论与方法、06093人力资源开发与管理，
+以上6科为该专业需要统考的科目，统考是全国统一性考试，需要同学们认真看书学习，同学们把学习重心放在统考科目上即可，其余的9-12科均为过程性校考！
+那么人力资源管理专业有哪些学校可以报考呢？
+西南财经大学/成都理工大学/西华师范大学正在招收小自考人力资源管理专业！名额有限，预报从速哦
+学费低至2700元/年（按两年收取）学费包含教材资料+单独的视频学习平台账号+考前资料，更有班主任全程带班，帮助学员顺利通过考试！
+考试时间：统考每年的4、10月 校考每年的7、12月，较快1年考完全部科目，1.5年毕业！
+自考是只要全部科目考试通过即可申请毕业，由自考办和学校联合颁发正规的毕业證書(学信网可查）。自考含金量高，社会认可度高。
+报名详情咨询李老师
+电话：199 8120 3720（vx同号） QQ：1916372047
+</t>
+  </si>
+  <si>
+    <t>四川小自考法学专业报哪个学校比较好 考试科目有哪些</t>
+  </si>
+  <si>
+    <t>咨询人：李老师 电话:199 8120 3720(微信同号）
+该专业学生主要学习法学的基本理论和基本知识，受到法学思维和法律实务的基本训练，具有运用法学理论和方法分析问题和运用法律管理事务与解决问题的基本能力。能在国家机关、企业是单位和社会团体，特别时能在国家立法机关、审判机关、检察机关、司法行政机关、仲裁机关、法律夫机构和涉外活动从事法律工作的应用型、复合型高级的专门人才，同时特能培养能够在各高等、中等学校从事法学教学的教师。
+考试时间：6月 、12月（校考） 4月、10月（统考）一年四次考试机会，较快可1年考完全部科目，1.5年-2年左右毕业！
+法学统考考哪些科目？
+劳动法、知识产权法、税法、国际私法、公证律师制度、法律文书写作、英语（二），以上6科为统考科目，其余9-12科均为过程性校考，学员只需把学习重心放在统考科目上即可！
+注：英语（二）可用3门校考成绩代替
+那么自考法学专业怎么学习呢？有考前辅导课程吗？
+法学专业的统考科目学校开设了视频课程，讲解详细，同学们可根据老师的视频课程把所有的课程学习一遍，每节课程都有针对性的课后小题，考前一个月左右我们会发考前资料给大家重点刷题记忆，刷题很关键哦，同学们只要按照制定好的学习计划一步一步的学习，考试通过是没问题的哦~
+自考法学专业可以报考哪些学校？
+四川师范大学、西南石油大学、西华师范大学这三所学校都在招收法学专业的考生，毕业由学校和自考办联合颁发国家认可含金量高的自考毕业證書！名校招生，欲报从速哦~
+学费低至2800元/年（学费按两年收取）学费包含教材资料+单独的视频学习平台账号+考前资料，更有班主任全程一堆一带班，每次报考以及考试班主任都会单独通知，避免同学们因为错过报考或考试而延长毕业时间，帮助同学们顺利通过考试！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号（报名即跟学员签订保障学员权益的协议书，学员可放心报考）
+咨询人：李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考哪些专业通过率高 比较好考 怎么报名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">咨询人：李老师 电话：199 8120 3720（vx同号）
+四川报小自考不知道选什么专业？哪些专业简单易过 通过率高
+自考专业怎么选择？
+很多咨询报自考的同学经常问，哪些专业比较好考通过率高？或者说哪些专业报的学生比较多？其实报自考选专业是第一步，也是非常重要的一步，如果专业没有选对，之后的考试也是受影响，因为自考学历形式的特殊性，必须是专业课程内的全部科目考试通过才能申请毕业，所以如果专业选的不适合自己，有些同学会坚持不下去就半途放弃了自考，所以在李老师这里报名的考生李老师都会推荐相对简单一点的大专业，也是为了更好的确保大家的通过率不浪费大家的学费！
+自考是成人学历的其中一种形式，它的含金量也是非常高的，考验了学员的自学能力，很多学员听到这里就认为那自考应该是很难的，其实不然，自考既是成人学历的一种，考试难度也就自然不会太高，只需要参加3-6门统考（60分及格即可）其他9-12门全是校考，校考是由学校自己组织，只需要学员配合学校完成考试，考前会有资料，学员的学习重心可以都放在统考科目上即可！
+自考选择专业时有什么标准或者原则吗？
+1、首先要结合自身的学习能力、学习自觉性、学习基础、职业规划来选择；
+2、避开冷门专业，自考中的冷门专业是不会开设课程的，资料也是非常少的，建议避开冷门的难度较大的专业；
+选择自考的形式后，该选择哪些专业呢？
+自考热门专业可分为四大类：
+A，教育类：汉语言文学/学前教育/小学教育/体育教育/音乐教育/美术教育/教育管理等专业
+B，管理类：工商管理/行政管理/人力资源管理/现代企业管理/旅游管理等专业
+C，财经类：会计学/金融学/市场营销等专业
+D，建筑工程类：建筑工程/工程造价/建筑经济管理等专业
+这四类专业中通过率高使用范围广的专业有汉语言文学，法学，行政管理，工商管理，人力资源管理和小学教育，学前教育等教育类专业，其中美术教育可以只参加三科统考，其他均是校考，通过率高毕业时间快！
+下面李老师跟大家讲一下通过率这个事：
+关于自考的通过率，首先大家真的没必要纠结于统计数据上，通过率只是在一定程度上反映了当时的一个概率，但对于每一个准备报考的考生来说，它仅作为参考。自考的难度不在于说考试的难度有多大，之前我们也讲到过，自考的考试都是考的基础，而主要在于同学们有没有充分的准备考试，只要你跟着老师的课程学习考前刷题，是很容易通过的，但是很多同学遇到学习上的困难就容易放弃，不能很好的坚持下去，这才是很多人说自考难度高的根本原因。
+按照李老师的经验来看，只要是具备一定的学习能力，愿意在考前花时间去复习准备考试的学生，通过率都是非常高的。再配合考前我们整理的考前资料刷题，一步一个脚印的按学习安排来学习，争取尽快考完所有考试，毕业时没没问题的。自考一年有四次考试机会，同学们最快可以1年考完全部科目，较快1年半-2年毕业！
+四川报小自考不知道选什么专业？哪些专业简单易过 通过率高
+最后，李老师想告诉大家，人生是一场没有捷径的旅程，学习也是一样，挑战总是随处可见，要改变人生核心动力其实就是你自己哦~
+报名时间：正在报名注册中，早报名早毕业！
+可报考院校：四川师范大学/西华师范大学/西南石油大学/成都理工大学/西南财经大学/成都大学等院校！报考指南以及招收专业可详细李老师~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+招生办李老师 电话：199 8120 3720（微信同步） 扣：1916 3720 47
+</t>
+  </si>
+  <si>
+    <t>四川有一年制中专吗 多久毕业 大概需要多少费用</t>
+  </si>
+  <si>
+    <t>更多成人学历相关信息咨询李老师 电话：199 8120 3720（vx同号）
+中央广播电视中等专业学校是一所经原国家教委批准，现由教育部职业教育与成人教育司领导并依托国家开放大学（原中央广播电视大学）设置的中等专业学校，其主要职责是负责全国电大系统中等职业教育的教学和教学管理方面的统筹协调、指导服务和评估监督，并面向社会直接招收初高中畢業生和在职青年举办中等职业教育。学校具有颁发国民教育系列中等学历教育畢業书的资格。
+中央广播电视中等专业学校是运用现代化教学手段和多媒体教学开展中等专业学历教育的开放性学校。中央广播电视中等专业学校依托分校及合作办学单位为广大求学者提供60多个专业及数百门课程资源服务。
+一、招生专业
+建筑工程施工、消防工程、计算机应用、航空服务、老年人服务与管理、戏剧表演、化学工艺、农村经济综合管理、电气技术应用、植物保护、中餐烹饪、园林技术、学前教育、西餐烹饪、汽车运用与维修、电子商务、酒店服务与管理、会计、机电技术应用、矿井通风与安全、采矿技术、计算机动漫与游戏制作、工艺美术、舞蹈表演、电子与信息技术、法律事务、旅游服务与管理、金融事务、家政服务与管理、市场营销、物业服务与管理、物流服务与管理、供用电技术、戏曲表演、音乐、数字媒体技术应用、建筑设备安装、美发与形象设计、客户信息服务、数控技术应用、计算机网络技术、计算机平面设计、美术绘画等60多个专业。
+以上专业有个别专业可以报考全托班，学员可以不用考试跟学习，学员报考后只需等7-10个月学制修够就可以拿畢業书！
+二、招生对象
+应往届初中畢業生、高中畢業生及具有初中及以上学历的在职从业人员、复转军人及返乡农民工等，只要你年满18岁就可报考！不限学历以及户籍都可报考！三、招生时间
+每月滚动注册，注册后1-2个月就可以在学校官网查询学籍。
+四、学习方式
+线上和线下相结合的方式学习。学习者主要利用文字教材、录音、录像教材等多种媒体教材和远程教学平台（中职在线学习平台）自主学习。学生通过登录平台随时点播和查看网上教学资源，同时到学习中心（教学点）参加集中面授和实训学习。
+学历證书可在中央广播电视中等专业学校的官网上查询并验證，如有需要可以生成学历證书在线验證报告。
+学费：1680元（全包）
+报名地址：成都市成华区建设路银玺国际2810-2811号
+详情咨询李老师 电话：199 8120 3720 （微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考报名怎么选择机构 机构报名放心吗 报名时间是多久</t>
+  </si>
+  <si>
+    <t>更多自考相关信息咨询李老师 电话：199 8120 3720（vx同号）
+很多想要报考小自考的学员在报考时会遇到的问题，小自考是在学校报还是机构报？机构报名靠谱吗？机构报名跟学校到底有没有关系？那么，李老师就为大家解答一下关于报考小自考的一些疑惑~
+很多学员就会疑惑，既然学校有本部报名的自考点，为什么我还要选择到校外报名呢？校本部报名不是更可靠吗？
+校本部报名跟校外教学点报名的区别其实就是服务感受不同，校本部报名学校是没有专门的班主任或者老师来负责管理自考学生的，学员交学费学校发教材资料注册考试，学员自行参加考试，更考验学生的自觉性。在校外教学点报名，机构会有相应的班主任负责学生的考试以及学习安排，督促学员早日考完，校考每次考试前班主任也会发相应的校考资料给各位学员，所以相对来说在学校报跟校外教学点报的区别就是服务体检会差距比较大！
+并且李老师说句实话，学校本部的学费价格往往比校外要高一些哦，不相信的学员可自行对比~
+现在可报考院校有四川师范大学、西南财经大学、成都理工大学、西南石油大学、成都大学、西华师范大学等省内重点大学，报名即跟学员签订保障学员权益的协议书！学员可放心报考！
+小自考时学校开设的自考助学班，相较于大自考来说降低了很多难度，学员自需统考3-6科，其他9-12科都是我们自己组织的过程性校考，学员只需把重心放在统考6科上即可，一年有四次考试机会，最快一年即可考完全部科目，1.5-2年左右毕业，自考是成人学历里面含金量较高的一种学历形式，毕业时间灵活，专科课程的所有科目考完即可申请毕业，毕业由学校和学校联合颁发正规的毕业证书！
+报名地址：成都市成华区建设路银玺国际2810号
+更多咨询方式：李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川大自考太难可以转小自考吗 小自考比大自考简单在哪里</t>
+  </si>
+  <si>
+    <t>更多自考相关信息咨询李老师 电话：199 8120 3720（vx同号）
+四川报了大自考还可以换小自考吗？需要什么资料呢？四川大自考转小自考需要什么资料？考过的成绩可以免考吗？
+很多报名参加大自考的学员，考试没通过，但是又想拿毕业证怎么办？
+大自考是需要全部科目16-18科全部参加国家统考，考试难度高，并且一年只有两次考试机会，畢業时间较长，这时候想报小自考行不行呢？
+大自考考不过的学员是可以报小自考的，大自考考过的科目可转免kao，小自考只需统考6科，个别科目只需统考三科，其他均为校考（校考是学校自己组织，过程性考试）并且统考科目会有视频课件给学员日常学习，考前还会安排面授，也会有押题资料。小自考大大降低了考试难度，并且小自考与大自考的畢業书含金量是完全一样的，毕业也不区分大小自考。小自考考试时间比大自考增加了两次，一年有四次考试机会，较快1年考完全部科目，1.5年那毕业证书！大大缩短了学员畢業时间！想要快速毕业的学员可选择报考自考！
+大自考转小自考，只需要学员提供身份證扫描件以及2寸蓝底證件照电子档报名即可，其他相关的转免考手续后续会有班主任辅助学员完成，学员只需根据班主任通知配合处理即可！
+现在可报考学校：
+四川师范大学，成都理工大学，西南石油大学，西华师范大学，西南财经大学等省内重点大学。
+学费低至2700元/年（按两年收取），学费包含教材资料+单独的视频学习平台账号+考前资料，现可报考专业齐全，更多专业及报名详情可加李老师咨询~
+报名地址：成都市成华区建设路银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>2020年四川成人高考什么时候开始报名 怎么报名 报考院校</t>
+  </si>
+  <si>
+    <t>更多学历相关信息咨询李老师 电话：199 8120 3720（vx同号）
+成人高等学校招生全国统一考试（Adult university entrance exam）简称成人高考，是我国成人高等学校选拔合格的畢業生以进入更高层次学历教育的入学考试，属于国民教育系列教育，已经列入国家招生计划。成人高考同普通高考一样，是选拔人才的国家考试，只是由于本身的学习特征需要，才在学习形式等环节上有所差别，进行了一定区分。考生需参加教育部组织的全国统一考试，由各省市自治区、直辖市统一组织录取。设立之初，是为解决在岗人员的学历教育和继续教育问题，参加者多为成年人，是国家高等教育重要组成部分。
+2020年四川成人高考火热报名中，很多选择报考成人高考的同学，都是为了在学习专业知识的同时提升自己的学历层次，成教作为一种成人继续教育，需要参加成人高考，考试通过才能录取，那么参加成人高考难不难呢？成人高考的分数线以及考试难度呢？
+成人高考考哪些科目呢？
+专科：语文、数学、英语（总分450分，分数线在120分左右）
+本科：英语、政治、专业课（总分450分，分数线在105-150之间）
+本科是根据同学们选择的专业来确定专业科的，具体考哪些专业课程，以及对应专业的分数线可详细咨询李老师
+答题技巧：李老师按照往年报考的同学的考试情况，跟大家简单分享一些考试的通关经验，报考成教的同学都会担心成人高考考试的难度，其实成人高考真不难，成人高考是面向成人的考试，考试难度是不大的，且分数线非常低，还有很多的加分政策，如考生年龄满25岁都可加分20分，少数名族区域也可加分20分等相应的加分政策，所以同学们可根据自身情况，把重点放在自己擅长的科目上，在配合我们提供的资料以及教学。
+考试时把卷子答满，字迹一定要工整，不要潦草，减少涂改，尤其是语文，主观题和作文是没有标准答案的，所以做到以上几点，也是拿分的关键哦~
+ps：李老师往年报考的学员考试通过率为98%，只要学员不缺考基本上都能通过哦~
+2020年四川成人高考分数线 报名时间 答题须知
+成教每年多久报名？报名后多久考试？
+四川成人高考正在报名中，一年只有一次报名机会，报名只需交100元，12月录取后再交学费，现在报名可以开始看视频课程学习了，准备10月份考试！成教只要成人高考通过，后面的考试都是过程性考试，学制2.5年修满毕业！
+现在可报考院校：四川师范大学、成都理工大学、西南石油大学、四川文理学院、成都医学院等省内大学!
+学费低至2100元/年（按两年收取）毕业由学校颁发正规的毕业证书！学信网可查！
+报名方式：提供身份证正反面照片+两寸蓝底证件照电子档即可报名，报名后领取教材资料备考！
+详情咨询李老师电话：199 8120 3720（微信同号） 扣：1916 3720 47
+2020年四川成人高考分数线 报名时间 答题须知</t>
+  </si>
+  <si>
+    <t>四川小自考汉语言文学专业报名 大概需要多少学费 报名时间</t>
+  </si>
+  <si>
+    <t>更多关于自考的相关信息咨询李老师 电话：199 8120 3720（vx同号）
+学校创建于1946年，其诞生与东北大学有直接历史渊源。1937年，抗日战争全面爆发，东北大学内迁四川省三台县办学；1945年，东北大学迁回沈阳。1946年5月，在川北三十六县十盐场及各界有识之士支持下，部分东北大学的川籍师生在三台原校址创建私立川北农工学院。后历经私立川北大学、公立川北大学、川北大学、四川师范学院、南充师范专科学校、南充师范学院、四川师范学院等阶段，2003年，经教育部批准更名为西华师范大学。
+西华师范大学小自考2020年春季招生专业表如下：
+专科：学前教育、小学教育、会计、法律事务、人力资源管理、汉语言文学
+本科：法学、学前教育、小学教育、汉语言文学、工商管理、市场营销、会计学、人力资源管理、行政管理、教育管理、旅游管理、美术教育
+以上专业为西华师范大学2020年春季小自考注册专业表，这些专业都是可以报名注册的，只需统考3-6科，其余的9-12科均为过程性校考，统考科目会开设视频课程，学员只需把学习重心放在统考科目上即可，考前会整理对复习针对性较强的资料发给大家考前集中刷题，帮助同学们顺利通过考试！
+考试时间：4月、10月（统考） 6月、12月（校考）一年四次考试机会，学员较快可一年考完全部科目，2年左右毕业！小自考是现在能较快时间毕业的学历形式，且含金量高，社会认可度高，对于很多用于考证，考公务员，升职加薪换工作的学生来说是一个很好的选择，毕业由学校和自考办联合颁发毕业证书，学信网可查国家认可的正规学历！更多专业及报名详情可加李老师详细咨询~
+学费标准：2900元/年（ 按两年收取）学费包含教材+题库资料+单独的视频学习平台账号+考前资料，更有班主任全程一对一带班，避免同学们因为不知道报考以及考试时间而错过考试机会，延误毕业的情况，报名即跟学员签订保障学员权益的协议书，学员可放心报考！
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（微信同号） 扣：1916 3720 47</t>
+  </si>
+  <si>
+    <t>四川小自考每年多久报名 今年考试会取消吗 多久毕业</t>
+  </si>
+  <si>
+    <t>更多关于自考相关信息咨询李老师 电话：199 8120 3720(vx同号）
+四川小自考春季报名注册中，很多想要报考的同学不知道哪些专业好考？下面李老师给大家推荐几个通过率高好考的专业：
+汉语言文学专业、行政管理专业、工商管理专业、人力资源管理、法学、小学教育、学前教育、美术教育等几个专业都是每年报考的热门专业，都是文科专业，考试难度不大，都考基础理论知识，通过率高，所以想要报自考快点考完毕业拿证书的同学可以选择报考以上专业！
+以上专业只需要统考3-6科，其余9-12科均为过程性校考，同学们需要看书学习的就是统考科目，校考是不需要大家看书学习的，只需根据班主任通知配合参加即可，小自考一年有四次考试机会，两次校考，两次统考，较快可一年考完全部科目，2年左右拿毕业证书！
+考试时间：4月 10月（统考） 6月 12月（校考） 每年考试安排都是可以让考生一年内把所有科目考完的，所以想要报名的同学报名后一定不要缺考，争取早点考完毕业！
+川内有哪些学校可以报考呢？四川师范大学、西南财经大学、西华师范大学、成都理工大学、西南石油大学、成都大学等省内重点大学，学费低至2700元/年（学费按两年收取）学费包含教材资料+单独的视频学习平台账号+考前资料，帮助学员顺利通过考试，更多专业及报名详情可加李老师详细咨询~
+报名地址：成都市成华区建设北路三段成功银玺国际2810号
+详情咨询李老师 电话：199 8120 3720（vx同号） 扣：1916 3720 47</t>
   </si>
 </sst>
 </file>
@@ -2775,11 +3568,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2815,6 +3608,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12.75"/>
       <color rgb="FFFF5500"/>
@@ -2828,15 +3628,37 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2850,25 +3672,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2882,17 +3718,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2911,30 +3777,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2942,31 +3786,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2983,12 +3803,6 @@
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11.25"/>
-      <color rgb="FF3366CC"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -2999,13 +3813,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.399822992645039"/>
+        <fgColor theme="3" tint="0.399761955626087"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3017,163 +3879,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3189,6 +3901,108 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -3201,29 +4015,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3239,6 +4033,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3282,6 +4087,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -3304,10 +4118,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3316,137 +4130,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3495,16 +4309,28 @@
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3855,18 +4681,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D103"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="59.1" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="33.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="33.8796296296296" style="2" customWidth="1"/>
     <col min="2" max="2" width="48" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1296296296296" style="2" customWidth="1"/>
+    <col min="4" max="4" width="7.87962962962963" style="2" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3958,7 +4784,7 @@
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -4012,10 +4838,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>6</v>
@@ -4026,10 +4852,10 @@
     </row>
     <row r="12" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>6</v>
@@ -4040,10 +4866,10 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>6</v>
@@ -4054,10 +4880,10 @@
     </row>
     <row r="14" customHeight="1" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>6</v>
@@ -4068,11 +4894,11 @@
     </row>
     <row r="15" customHeight="1" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B15" s="16" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
@@ -4081,12 +4907,12 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="B16" s="16" t="s">
+        <v>27</v>
+      </c>
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
@@ -4095,12 +4921,12 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="9" t="s">
+      <c r="A17" s="17" t="s">
         <v>28</v>
       </c>
+      <c r="B17" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="C17" s="10" t="s">
         <v>6</v>
       </c>
@@ -4109,11 +4935,11 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="12" t="s">
-        <v>29</v>
+      <c r="A18" s="17" t="s">
+        <v>30</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>6</v>
@@ -4123,11 +4949,11 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="12" t="s">
-        <v>31</v>
+      <c r="A19" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>6</v>
@@ -4138,10 +4964,10 @@
     </row>
     <row r="20" customHeight="1" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>6</v>
@@ -4152,10 +4978,10 @@
     </row>
     <row r="21" customHeight="1" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>6</v>
@@ -4164,10 +4990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>37</v>
-      </c>
+    <row r="22" customHeight="1" spans="2:4">
       <c r="B22" s="9" t="s">
         <v>38</v>
       </c>
@@ -4196,7 +5019,7 @@
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -4210,7 +5033,7 @@
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -4224,7 +5047,7 @@
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -4238,7 +5061,7 @@
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -4280,7 +5103,7 @@
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C30" s="10" t="s">
@@ -4322,7 +5145,7 @@
       <c r="A33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C33" s="10" t="s">
@@ -4333,10 +5156,10 @@
       </c>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="13" t="s">
         <v>62</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -4347,7 +5170,7 @@
       </c>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="19" t="s">
         <v>63</v>
       </c>
       <c r="B35" s="13" t="s">
@@ -4361,7 +5184,7 @@
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B36" s="13" t="s">
@@ -4392,7 +5215,7 @@
       <c r="A38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="10" t="s">
@@ -4406,7 +5229,7 @@
       <c r="A39" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C39" s="10" t="s">
@@ -4434,7 +5257,7 @@
       <c r="A41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="13" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -4448,7 +5271,7 @@
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="20" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="10" t="s">
@@ -4459,10 +5282,10 @@
       </c>
     </row>
     <row r="43" customHeight="1" spans="1:4">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="21" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -4473,10 +5296,10 @@
       </c>
     </row>
     <row r="44" customHeight="1" spans="1:4">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="10" t="s">
@@ -4490,7 +5313,7 @@
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="10" t="s">
@@ -4504,7 +5327,7 @@
       <c r="A46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="14" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="10" t="s">
@@ -4518,7 +5341,7 @@
       <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="10" t="s">
@@ -4532,7 +5355,7 @@
       <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="21" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -4546,7 +5369,7 @@
       <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="10" t="s">
@@ -4560,7 +5383,7 @@
       <c r="A50" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C50" s="10" t="s">
@@ -4571,10 +5394,10 @@
       </c>
     </row>
     <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -4585,10 +5408,10 @@
       </c>
     </row>
     <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="3" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="10" t="s">
@@ -4602,7 +5425,7 @@
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="14" t="s">
         <v>100</v>
       </c>
       <c r="C53" s="10" t="s">
@@ -4616,7 +5439,7 @@
       <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C54" s="10" t="s">
@@ -4630,7 +5453,7 @@
       <c r="A55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="14" t="s">
         <v>104</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -4669,10 +5492,10 @@
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
@@ -4686,7 +5509,7 @@
       <c r="A59" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C59" s="10" t="s">
@@ -4697,10 +5520,10 @@
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:4">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -4711,10 +5534,10 @@
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="14" t="s">
         <v>116</v>
       </c>
       <c r="C61" s="10" t="s">
@@ -4725,11 +5548,11 @@
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="14" t="s">
-        <v>108</v>
+      <c r="B62" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>6</v>
@@ -4739,12 +5562,12 @@
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="9" t="s">
+      <c r="A63" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="B63" s="21" t="s">
+        <v>120</v>
+      </c>
       <c r="C63" s="10" t="s">
         <v>6</v>
       </c>
@@ -4753,12 +5576,12 @@
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B64" s="19" t="s">
+      <c r="A64" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="B64" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="C64" s="10" t="s">
         <v>6</v>
       </c>
@@ -4767,12 +5590,12 @@
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="B65" s="14" t="s">
+        <v>124</v>
+      </c>
       <c r="C65" s="10" t="s">
         <v>6</v>
       </c>
@@ -4781,12 +5604,12 @@
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="14" t="s">
+      <c r="A66" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="B66" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="C66" s="10" t="s">
         <v>6</v>
       </c>
@@ -4795,12 +5618,12 @@
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="9" t="s">
+      <c r="A67" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="B67" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="C67" s="10" t="s">
         <v>6</v>
       </c>
@@ -4809,12 +5632,12 @@
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:4">
-      <c r="A68" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B68" s="14" t="s">
+      <c r="A68" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="B68" s="3" t="s">
+        <v>130</v>
+      </c>
       <c r="C68" s="10" t="s">
         <v>6</v>
       </c>
@@ -4823,12 +5646,12 @@
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:4">
-      <c r="A69" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="A69" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="B69" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="C69" s="10" t="s">
         <v>6</v>
       </c>
@@ -4837,12 +5660,12 @@
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:4">
-      <c r="A70" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="14" t="s">
+      <c r="A70" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="B70" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="C70" s="10" t="s">
         <v>6</v>
       </c>
@@ -4851,12 +5674,12 @@
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="9" t="s">
+      <c r="A71" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="B71" s="14" t="s">
+        <v>136</v>
+      </c>
       <c r="C71" s="10" t="s">
         <v>6</v>
       </c>
@@ -4865,11 +5688,11 @@
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:4">
-      <c r="A72" s="12" t="s">
-        <v>136</v>
+      <c r="A72" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>6</v>
@@ -4879,11 +5702,11 @@
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:4">
-      <c r="A73" s="12" t="s">
-        <v>138</v>
+      <c r="A73" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C73" s="10" t="s">
         <v>6</v>
@@ -4893,11 +5716,11 @@
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="12" t="s">
-        <v>140</v>
+      <c r="A74" s="2" t="s">
+        <v>141</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>6</v>
@@ -4907,11 +5730,11 @@
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="12" t="s">
-        <v>142</v>
+      <c r="A75" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>6</v>
@@ -4921,12 +5744,12 @@
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B76" s="14" t="s">
+      <c r="A76" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="B76" s="3" t="s">
+        <v>146</v>
+      </c>
       <c r="C76" s="10" t="s">
         <v>6</v>
       </c>
@@ -4935,12 +5758,12 @@
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:4">
-      <c r="A77" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="B77" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="C77" s="10" t="s">
         <v>6</v>
       </c>
@@ -4949,12 +5772,12 @@
       </c>
     </row>
     <row r="78" customHeight="1" spans="1:4">
-      <c r="A78" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B78" s="14" t="s">
+      <c r="A78" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="B78" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="C78" s="10" t="s">
         <v>6</v>
       </c>
@@ -4963,12 +5786,12 @@
       </c>
     </row>
     <row r="79" customHeight="1" spans="1:4">
-      <c r="A79" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B79" s="9" t="s">
+      <c r="A79" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="B79" s="14" t="s">
+        <v>152</v>
+      </c>
       <c r="C79" s="10" t="s">
         <v>6</v>
       </c>
@@ -4977,12 +5800,12 @@
       </c>
     </row>
     <row r="80" customHeight="1" spans="1:4">
-      <c r="A80" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B80" s="14" t="s">
+      <c r="A80" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="B80" s="3" t="s">
+        <v>154</v>
+      </c>
       <c r="C80" s="10" t="s">
         <v>6</v>
       </c>
@@ -4991,12 +5814,12 @@
       </c>
     </row>
     <row r="81" customHeight="1" spans="1:4">
-      <c r="A81" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="A81" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="B81" s="14" t="s">
+        <v>156</v>
+      </c>
       <c r="C81" s="10" t="s">
         <v>6</v>
       </c>
@@ -5005,12 +5828,12 @@
       </c>
     </row>
     <row r="82" customHeight="1" spans="1:4">
-      <c r="A82" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="B82" s="14" t="s">
+      <c r="A82" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="B82" s="3" t="s">
+        <v>158</v>
+      </c>
       <c r="C82" s="10" t="s">
         <v>6</v>
       </c>
@@ -5019,12 +5842,12 @@
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:4">
-      <c r="A83" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="B83" s="9" t="s">
+      <c r="A83" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="B83" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="C83" s="10" t="s">
         <v>6</v>
       </c>
@@ -5033,12 +5856,12 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:4">
-      <c r="A84" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="B84" s="14" t="s">
+      <c r="A84" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="B84" s="21" t="s">
+        <v>162</v>
+      </c>
       <c r="C84" s="10" t="s">
         <v>6</v>
       </c>
@@ -5047,12 +5870,12 @@
       </c>
     </row>
     <row r="85" customHeight="1" spans="1:4">
-      <c r="A85" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B85" s="14" t="s">
+      <c r="A85" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="B85" s="3" t="s">
+        <v>164</v>
+      </c>
       <c r="C85" s="10" t="s">
         <v>6</v>
       </c>
@@ -5061,12 +5884,12 @@
       </c>
     </row>
     <row r="86" customHeight="1" spans="1:4">
-      <c r="A86" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B86" s="9" t="s">
+      <c r="A86" s="2" t="s">
         <v>165</v>
       </c>
+      <c r="B86" s="14" t="s">
+        <v>166</v>
+      </c>
       <c r="C86" s="10" t="s">
         <v>6</v>
       </c>
@@ -5075,11 +5898,11 @@
       </c>
     </row>
     <row r="87" customHeight="1" spans="1:4">
-      <c r="A87" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" s="14" t="s">
+      <c r="A87" s="2" t="s">
         <v>167</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>6</v>
@@ -5090,10 +5913,10 @@
     </row>
     <row r="88" customHeight="1" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="B88" s="9" t="s">
         <v>169</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>170</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>6</v>
@@ -5104,10 +5927,10 @@
     </row>
     <row r="89" customHeight="1" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>6</v>
@@ -5117,149 +5940,147 @@
       </c>
     </row>
     <row r="90" customHeight="1" spans="1:4">
-      <c r="A90" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B90" s="14" t="s">
+      <c r="A90" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="B90" s="9" t="s">
+        <v>174</v>
+      </c>
       <c r="C90" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B91" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" s="11" t="s">
         <v>175</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="92" customHeight="1" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" customHeight="1" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="94" customHeight="1" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C94" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C95" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>7</v>
+        <v>175</v>
       </c>
     </row>
     <row r="96" customHeight="1" spans="1:4">
       <c r="A96" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B96" s="9" t="s">
-        <v>185</v>
+        <v>186</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C96" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97" customHeight="1" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B97" s="3" t="s">
         <v>188</v>
       </c>
+      <c r="B97" s="9" t="s">
+        <v>189</v>
+      </c>
       <c r="C97" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="98" customHeight="1" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C98" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C99" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:4">
-      <c r="A100" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="A100" s="12"/>
       <c r="B100" s="9" t="s">
         <v>194</v>
       </c>
@@ -5267,7 +6088,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>186</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" customHeight="1" spans="1:4">
@@ -5309,6 +6130,1014 @@
         <v>6</v>
       </c>
       <c r="D103" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:4">
+      <c r="A104" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:4">
+      <c r="A105" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D105" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:4">
+      <c r="A106" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:4">
+      <c r="A107" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:4">
+      <c r="A108" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:4">
+      <c r="A109" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:4">
+      <c r="A110" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:4">
+      <c r="A111" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:4">
+      <c r="A112" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:4">
+      <c r="A113" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:4">
+      <c r="A114" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:4">
+      <c r="A115" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:4">
+      <c r="A116" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:4">
+      <c r="A117" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:4">
+      <c r="A118" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:4">
+      <c r="A119" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:4">
+      <c r="A120" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:4">
+      <c r="A121" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:4">
+      <c r="A122" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:4">
+      <c r="A123" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:4">
+      <c r="A124" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:4">
+      <c r="A125" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:4">
+      <c r="A126" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:4">
+      <c r="A127" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:4">
+      <c r="A128" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:4">
+      <c r="A129" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:4">
+      <c r="A130" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" customHeight="1" spans="1:4">
+      <c r="A131" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:4">
+      <c r="A132" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" customHeight="1" spans="1:4">
+      <c r="A133" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D133" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:4">
+      <c r="A134" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:4">
+      <c r="A135" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:4">
+      <c r="A136" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D136" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:4">
+      <c r="A137" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:4">
+      <c r="A138" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D138" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:4">
+      <c r="A139" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:4">
+      <c r="A140" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:4">
+      <c r="A141" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:4">
+      <c r="A142" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:4">
+      <c r="A143" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:4">
+      <c r="A144" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:4">
+      <c r="A145" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:4">
+      <c r="A146" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" ht="234.95" customHeight="1" spans="1:4">
+      <c r="A147" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:4">
+      <c r="A148" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:4">
+      <c r="A149" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:4">
+      <c r="A150" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:4">
+      <c r="A151" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:4">
+      <c r="A152" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:4">
+      <c r="A153" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:4">
+      <c r="A154" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:4">
+      <c r="A155" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:4">
+      <c r="A156" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:4">
+      <c r="A157" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:4">
+      <c r="A158" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:4">
+      <c r="A159" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:4">
+      <c r="A160" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:4">
+      <c r="A161" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:4">
+      <c r="A162" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" customHeight="1" spans="1:4">
+      <c r="A163" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" customHeight="1" spans="1:4">
+      <c r="A164" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" customHeight="1" spans="1:4">
+      <c r="A165" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" customHeight="1" spans="1:4">
+      <c r="A166" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" customHeight="1" spans="1:4">
+      <c r="A167" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:4">
+      <c r="A168" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:4">
+      <c r="A169" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:4">
+      <c r="A170" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:4">
+      <c r="A171" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:4">
+      <c r="A172" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:4">
+      <c r="A173" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" customHeight="1" spans="1:4">
+      <c r="A174" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:4">
+      <c r="A175" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D175" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5328,7 +7157,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5345,7 +7174,7 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5362,7 +7191,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5378,7 +7207,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5394,7 +7223,7 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.62962962962963" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
